--- a/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
+++ b/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
@@ -199,7 +199,7 @@
     <author>Leonardo Valadez Ortiz</author>
   </authors>
   <commentList>
-    <comment ref="A170" authorId="0" shapeId="0">
+    <comment ref="A169" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="610">
   <si>
     <t>Overview</t>
   </si>
@@ -2499,9 +2499,6 @@
     <t xml:space="preserve">Linearized theoretical data </t>
   </si>
   <si>
-    <t>Aerodynamic theoretical forces per fin</t>
-  </si>
-  <si>
     <t>y+ sonic MAX Re TE</t>
   </si>
   <si>
@@ -2573,6 +2570,21 @@
   </si>
   <si>
     <t>Cl due q rate rad/s</t>
+  </si>
+  <si>
+    <t>TOTAL Lift</t>
+  </si>
+  <si>
+    <t>Pitch moment due Q rate</t>
+  </si>
+  <si>
+    <t>Aerodynamic theoretical STATIC forces per fin</t>
+  </si>
+  <si>
+    <t>Cm,q (damping)</t>
+  </si>
+  <si>
+    <t>Mean aerodynamic chord (MAC)</t>
   </si>
 </sst>
 </file>
@@ -4356,6 +4368,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4374,18 +4406,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4395,25 +4415,58 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4429,15 +4482,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4464,22 +4508,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4557,26 +4589,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5140,11 +5152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338387632"/>
-        <c:axId val="-1338394160"/>
+        <c:axId val="-796301792"/>
+        <c:axId val="-796305600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338387632"/>
+        <c:axId val="-796301792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5272,14 +5284,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338394160"/>
+        <c:crossAx val="-796305600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.30000000000000004"/>
         <c:minorUnit val="0.30000000000000004"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338394160"/>
+        <c:axId val="-796305600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5453,7 +5465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338387632"/>
+        <c:crossAx val="-796301792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -5643,11 +5655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1379655344"/>
-        <c:axId val="-1250099520"/>
+        <c:axId val="-673777424"/>
+        <c:axId val="-673785584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1379655344"/>
+        <c:axId val="-673777424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,12 +5730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250099520"/>
+        <c:crossAx val="-673785584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250099520"/>
+        <c:axId val="-673785584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5794,7 +5806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1379655344"/>
+        <c:crossAx val="-673777424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6957,11 +6969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1250092992"/>
-        <c:axId val="-1250098432"/>
+        <c:axId val="-673783952"/>
+        <c:axId val="-673781232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1250092992"/>
+        <c:axId val="-673783952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7087,12 +7099,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250098432"/>
+        <c:crossAx val="-673781232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250098432"/>
+        <c:axId val="-673781232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7218,7 +7230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250092992"/>
+        <c:crossAx val="-673783952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8318,11 +8330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1250089184"/>
-        <c:axId val="-1250091904"/>
+        <c:axId val="-673779600"/>
+        <c:axId val="-673783408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1250089184"/>
+        <c:axId val="-673779600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8448,12 +8460,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250091904"/>
+        <c:crossAx val="-673783408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250091904"/>
+        <c:axId val="-673783408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8579,7 +8591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250089184"/>
+        <c:crossAx val="-673779600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9497,11 +9509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1250094624"/>
-        <c:axId val="-1250085376"/>
+        <c:axId val="-673782864"/>
+        <c:axId val="-673772528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1250094624"/>
+        <c:axId val="-673782864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9558,12 +9570,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250085376"/>
+        <c:crossAx val="-673772528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250085376"/>
+        <c:axId val="-673772528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -9621,7 +9633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250094624"/>
+        <c:crossAx val="-673782864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10063,11 +10075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1250098976"/>
-        <c:axId val="-1250100608"/>
+        <c:axId val="-673777968"/>
+        <c:axId val="-673774160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1250098976"/>
+        <c:axId val="-673777968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10124,12 +10136,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250100608"/>
+        <c:crossAx val="-673774160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250100608"/>
+        <c:axId val="-673774160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10186,7 +10198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250098976"/>
+        <c:crossAx val="-673777968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10396,8 +10408,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1250089728"/>
-        <c:axId val="-1250085920"/>
+        <c:axId val="-673778512"/>
+        <c:axId val="-673787760"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10505,11 +10517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1250088640"/>
-        <c:axId val="-1250096256"/>
+        <c:axId val="-673780688"/>
+        <c:axId val="-673782320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1250089728"/>
+        <c:axId val="-673778512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10566,7 +10578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250085920"/>
+        <c:crossAx val="-673787760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10574,7 +10586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1250085920"/>
+        <c:axId val="-673787760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10631,12 +10643,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250089728"/>
+        <c:crossAx val="-673778512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250096256"/>
+        <c:axId val="-673782320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10679,12 +10691,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250088640"/>
+        <c:crossAx val="-673780688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1250088640"/>
+        <c:axId val="-673780688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10694,7 +10706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1250096256"/>
+        <c:crossAx val="-673782320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10981,11 +10993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1250097888"/>
-        <c:axId val="-1250091360"/>
+        <c:axId val="-673780144"/>
+        <c:axId val="-673776880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1250097888"/>
+        <c:axId val="-673780144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11043,12 +11055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250091360"/>
+        <c:crossAx val="-673776880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250091360"/>
+        <c:axId val="-673776880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11105,7 +11117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250097888"/>
+        <c:crossAx val="-673780144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11399,11 +11411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1250096800"/>
-        <c:axId val="-1250088096"/>
+        <c:axId val="-673775248"/>
+        <c:axId val="-673774704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1250096800"/>
+        <c:axId val="-673775248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -11475,12 +11487,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250088096"/>
+        <c:crossAx val="-673774704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1250088096"/>
+        <c:axId val="-673774704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -11552,7 +11564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250096800"/>
+        <c:crossAx val="-673775248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12839,11 +12851,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1250087008"/>
-        <c:axId val="-1250097344"/>
+        <c:axId val="-673787216"/>
+        <c:axId val="-673786672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1250087008"/>
+        <c:axId val="-673787216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12886,7 +12898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250097344"/>
+        <c:crossAx val="-673786672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12894,7 +12906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1250097344"/>
+        <c:axId val="-673786672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12945,7 +12957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250087008"/>
+        <c:crossAx val="-673787216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13477,11 +13489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338401776"/>
-        <c:axId val="-1338390352"/>
+        <c:axId val="-796297984"/>
+        <c:axId val="-796305056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338401776"/>
+        <c:axId val="-796297984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13549,12 +13561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338390352"/>
+        <c:crossAx val="-796305056"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338390352"/>
+        <c:axId val="-796305056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13625,7 +13637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338401776"/>
+        <c:crossAx val="-796297984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14021,11 +14033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338387088"/>
-        <c:axId val="-1338401232"/>
+        <c:axId val="-796302880"/>
+        <c:axId val="-796300160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338387088"/>
+        <c:axId val="-796302880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14096,12 +14108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338401232"/>
+        <c:crossAx val="-796300160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338401232"/>
+        <c:axId val="-796300160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14172,7 +14184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338387088"/>
+        <c:crossAx val="-796302880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14482,11 +14494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338393616"/>
-        <c:axId val="-1338402320"/>
+        <c:axId val="-796304512"/>
+        <c:axId val="-796297440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338393616"/>
+        <c:axId val="-796304512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14556,12 +14568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338402320"/>
+        <c:crossAx val="-796297440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338402320"/>
+        <c:axId val="-796297440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14632,7 +14644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338393616"/>
+        <c:crossAx val="-796304512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14818,11 +14830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338400688"/>
-        <c:axId val="-1338389808"/>
+        <c:axId val="-1010410416"/>
+        <c:axId val="-1010405520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338400688"/>
+        <c:axId val="-1010410416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14893,12 +14905,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338389808"/>
+        <c:crossAx val="-1010405520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338389808"/>
+        <c:axId val="-1010405520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -14970,7 +14982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338400688"/>
+        <c:crossAx val="-1010410416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15890,11 +15902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338393072"/>
-        <c:axId val="-1338395248"/>
+        <c:axId val="-1010404432"/>
+        <c:axId val="-673785040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338393072"/>
+        <c:axId val="-1010404432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15965,12 +15977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338395248"/>
+        <c:crossAx val="-673785040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338395248"/>
+        <c:axId val="-673785040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16041,7 +16053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338393072"/>
+        <c:crossAx val="-1010404432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16230,8 +16242,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338399056"/>
-        <c:axId val="-1338398512"/>
+        <c:axId val="-673781776"/>
+        <c:axId val="-673773616"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -16357,7 +16369,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338399056"/>
+        <c:axId val="-673781776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -16429,12 +16441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338398512"/>
+        <c:crossAx val="-673773616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338398512"/>
+        <c:axId val="-673773616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16505,7 +16517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338399056"/>
+        <c:crossAx val="-673781776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16691,11 +16703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338397968"/>
-        <c:axId val="-1338396880"/>
+        <c:axId val="-673779056"/>
+        <c:axId val="-673775792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338397968"/>
+        <c:axId val="-673779056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16766,12 +16778,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338396880"/>
+        <c:crossAx val="-673775792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338396880"/>
+        <c:axId val="-673775792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -16843,7 +16855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338397968"/>
+        <c:crossAx val="-673779056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17032,11 +17044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338396336"/>
-        <c:axId val="-1338392528"/>
+        <c:axId val="-673784496"/>
+        <c:axId val="-673773072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338396336"/>
+        <c:axId val="-673784496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17107,12 +17119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338392528"/>
+        <c:crossAx val="-673773072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338392528"/>
+        <c:axId val="-673773072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17183,7 +17195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1338396336"/>
+        <c:crossAx val="-673784496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26909,7 +26921,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26966,7 +26978,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27307,10 +27319,10 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27343,7 +27355,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27575,7 +27587,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27809,7 +27821,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28094,7 +28106,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28168,7 +28180,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28239,7 +28251,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28624,7 +28636,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29119,10 +29131,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29158,10 +29170,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29202,7 +29214,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29238,10 +29250,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29279,10 +29291,10 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29320,10 +29332,10 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29361,10 +29373,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29402,10 +29414,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29443,10 +29455,10 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29479,7 +29491,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29536,7 +29548,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29809,7 +29821,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30158,7 +30170,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30196,10 +30208,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30237,10 +30249,10 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
             </a:ext>
             <a:ext uri="{6ECC49D1-AA05-4338-93AA-15A1B29DFB0A}">
-              <asl:scriptLink xmlns="" xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
+              <asl:scriptLink xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" xmlns="" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30321,7 +30333,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30451,7 +30463,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30484,7 +30496,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30722,7 +30734,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30755,7 +30767,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31147,7 +31159,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31532,7 +31544,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31893,7 +31905,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31929,7 +31941,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31962,7 +31974,7 @@
             <xdr:cNvPr id="17" name="TextBox 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32309,7 +32321,7 @@
             <xdr:cNvPr id="18" name="TextBox 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32705,7 +32717,7 @@
             <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32969,7 +32981,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C343757-179A-4FFC-8D7F-26180DFF714C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C343757-179A-4FFC-8D7F-26180DFF714C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33007,7 +33019,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33051,10 +33063,10 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F426E6A-640A-0D37-FCC2-62FBA9CA9E0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F426E6A-640A-0D37-FCC2-62FBA9CA9E0F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33090,7 +33102,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68635FAE-4023-1053-4B81-A4D124667C33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68635FAE-4023-1053-4B81-A4D124667C33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33134,7 +33146,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFBA90B-9268-1D87-BC5B-4DDC08B5D032}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FFBA90B-9268-1D87-BC5B-4DDC08B5D032}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33178,7 +33190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D3D899-8633-6C1D-777A-DAFDB72A8C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2D3D899-8633-6C1D-777A-DAFDB72A8C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33222,7 +33234,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D83C04-1C18-9F90-817A-842D6DEE5D0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83D83C04-1C18-9F90-817A-842D6DEE5D0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33271,7 +33283,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33315,7 +33327,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33359,7 +33371,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35465,7 +35477,7 @@
       <c r="L107" s="153"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="322" t="s">
+      <c r="A108" s="336" t="s">
         <v>56</v>
       </c>
       <c r="B108" s="156" t="s">
@@ -35483,7 +35495,7 @@
       <c r="L108" s="157"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="322"/>
+      <c r="A109" s="336"/>
       <c r="B109" s="158"/>
       <c r="C109" s="143"/>
       <c r="D109" s="143"/>
@@ -35497,7 +35509,7 @@
       <c r="L109" s="159"/>
     </row>
     <row r="110" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A110" s="322"/>
+      <c r="A110" s="336"/>
       <c r="B110" s="160"/>
       <c r="C110" s="147"/>
       <c r="D110" s="147"/>
@@ -36257,7 +36269,7 @@
       <c r="L159" s="153"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="322" t="s">
+      <c r="A160" s="336" t="s">
         <v>56</v>
       </c>
       <c r="B160" s="156" t="s">
@@ -36275,7 +36287,7 @@
       <c r="L160" s="157"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="322"/>
+      <c r="A161" s="336"/>
       <c r="B161" s="158"/>
       <c r="C161" s="143"/>
       <c r="D161" s="143"/>
@@ -36289,7 +36301,7 @@
       <c r="L161" s="159"/>
     </row>
     <row r="162" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A162" s="322"/>
+      <c r="A162" s="336"/>
       <c r="B162" s="160"/>
       <c r="C162" s="147"/>
       <c r="D162" s="147"/>
@@ -37366,7 +37378,7 @@
       <c r="L211" s="153"/>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="322" t="s">
+      <c r="A212" s="336" t="s">
         <v>56</v>
       </c>
       <c r="B212" s="156" t="s">
@@ -37384,7 +37396,7 @@
       <c r="L212" s="157"/>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="322"/>
+      <c r="A213" s="336"/>
       <c r="B213" s="158"/>
       <c r="C213" s="143"/>
       <c r="D213" s="143"/>
@@ -37398,7 +37410,7 @@
       <c r="L213" s="159"/>
     </row>
     <row r="214" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A214" s="322"/>
+      <c r="A214" s="336"/>
       <c r="B214" s="160"/>
       <c r="C214" s="147"/>
       <c r="D214" s="147"/>
@@ -37636,13 +37648,13 @@
     </row>
     <row r="242" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="243" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C243" s="323" t="s">
+      <c r="C243" s="337" t="s">
         <v>113</v>
       </c>
-      <c r="D243" s="324"/>
-      <c r="E243" s="324"/>
-      <c r="F243" s="324"/>
-      <c r="G243" s="325"/>
+      <c r="D243" s="338"/>
+      <c r="E243" s="338"/>
+      <c r="F243" s="338"/>
+      <c r="G243" s="339"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="144" t="s">
@@ -37701,13 +37713,13 @@
       <c r="A247" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="C247" s="323" t="s">
+      <c r="C247" s="337" t="s">
         <v>123</v>
       </c>
-      <c r="D247" s="324"/>
-      <c r="E247" s="324"/>
-      <c r="F247" s="324"/>
-      <c r="G247" s="325"/>
+      <c r="D247" s="338"/>
+      <c r="E247" s="338"/>
+      <c r="F247" s="338"/>
+      <c r="G247" s="339"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="144" t="s">
@@ -37784,7 +37796,7 @@
         <f>80/330</f>
         <v>0.24242424242424243</v>
       </c>
-      <c r="F256" s="326" t="s">
+      <c r="F256" s="340" t="s">
         <v>78</v>
       </c>
     </row>
@@ -37799,7 +37811,7 @@
         <f>300/330</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="F257" s="327"/>
+      <c r="F257" s="341"/>
     </row>
     <row r="259" spans="1:12" ht="13.5" thickBot="1"/>
     <row r="260" spans="1:12" ht="13.5" thickBot="1">
@@ -37873,7 +37885,7 @@
       <c r="L262" s="153"/>
     </row>
     <row r="263" spans="1:12" ht="14.25">
-      <c r="A263" s="322" t="s">
+      <c r="A263" s="336" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="190" t="s">
@@ -37891,14 +37903,14 @@
       <c r="L263" s="191"/>
     </row>
     <row r="264" spans="1:12" ht="14.25">
-      <c r="A264" s="322"/>
+      <c r="A264" s="336"/>
       <c r="B264" s="190" t="s">
         <v>136</v>
       </c>
       <c r="L264" s="181"/>
     </row>
     <row r="265" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A265" s="322"/>
+      <c r="A265" s="336"/>
       <c r="B265" s="192"/>
       <c r="C265" s="193"/>
       <c r="D265" s="193"/>
@@ -39827,10 +39839,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1"/>
     <row r="2" spans="2:22" ht="37.15" customHeight="1">
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="360" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="329"/>
+      <c r="C2" s="362"/>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="3" t="s">
@@ -39901,13 +39913,13 @@
       <c r="B12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="332" t="s">
+      <c r="C12" s="342" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="333"/>
-      <c r="E12" s="333"/>
-      <c r="F12" s="333"/>
-      <c r="G12" s="334"/>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="344"/>
       <c r="H12" s="1" t="s">
         <v>193</v>
       </c>
@@ -39922,13 +39934,13 @@
       <c r="N12" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="332" t="s">
+      <c r="O12" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="P12" s="333"/>
-      <c r="Q12" s="333"/>
-      <c r="R12" s="333"/>
-      <c r="S12" s="334"/>
+      <c r="P12" s="343"/>
+      <c r="Q12" s="343"/>
+      <c r="R12" s="343"/>
+      <c r="S12" s="344"/>
       <c r="T12" s="1" t="s">
         <v>193</v>
       </c>
@@ -39940,7 +39952,7 @@
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="330" t="s">
+      <c r="B13" s="357" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="79"/>
@@ -39960,7 +39972,7 @@
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
-      <c r="N13" s="330" t="s">
+      <c r="N13" s="357" t="s">
         <v>197</v>
       </c>
       <c r="O13" s="79"/>
@@ -39980,7 +39992,7 @@
       </c>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="331"/>
+      <c r="B14" s="358"/>
       <c r="C14" s="82"/>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
@@ -40000,7 +40012,7 @@
       </c>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
-      <c r="N14" s="331"/>
+      <c r="N14" s="358"/>
       <c r="O14" s="82"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
@@ -40020,7 +40032,7 @@
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="331"/>
+      <c r="B15" s="358"/>
       <c r="C15" s="82"/>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
@@ -40040,7 +40052,7 @@
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="72"/>
-      <c r="N15" s="331"/>
+      <c r="N15" s="358"/>
       <c r="O15" s="82"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
@@ -40060,7 +40072,7 @@
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="331"/>
+      <c r="B16" s="358"/>
       <c r="C16" s="82"/>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -40080,7 +40092,7 @@
       </c>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
-      <c r="N16" s="331"/>
+      <c r="N16" s="358"/>
       <c r="O16" s="82"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="72"/>
@@ -40100,7 +40112,7 @@
       </c>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="331"/>
+      <c r="B17" s="358"/>
       <c r="C17" s="82"/>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
@@ -40120,7 +40132,7 @@
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="72"/>
-      <c r="N17" s="331"/>
+      <c r="N17" s="358"/>
       <c r="O17" s="82"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="72"/>
@@ -40140,7 +40152,7 @@
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="331"/>
+      <c r="B18" s="358"/>
       <c r="C18" s="82"/>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
@@ -40160,7 +40172,7 @@
       </c>
       <c r="L18" s="72"/>
       <c r="M18" s="72"/>
-      <c r="N18" s="331"/>
+      <c r="N18" s="358"/>
       <c r="O18" s="82"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="72"/>
@@ -40180,7 +40192,7 @@
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="331"/>
+      <c r="B19" s="358"/>
       <c r="C19" s="82"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -40200,7 +40212,7 @@
       </c>
       <c r="L19" s="72"/>
       <c r="M19" s="72"/>
-      <c r="N19" s="331"/>
+      <c r="N19" s="358"/>
       <c r="O19" s="82"/>
       <c r="P19" s="72"/>
       <c r="Q19" s="72"/>
@@ -40220,7 +40232,7 @@
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="331"/>
+      <c r="B20" s="358"/>
       <c r="C20" s="82"/>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -40240,7 +40252,7 @@
       </c>
       <c r="L20" s="72"/>
       <c r="M20" s="72"/>
-      <c r="N20" s="331"/>
+      <c r="N20" s="358"/>
       <c r="O20" s="82"/>
       <c r="P20" s="72"/>
       <c r="Q20" s="72"/>
@@ -40260,7 +40272,7 @@
       </c>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="331"/>
+      <c r="B21" s="358"/>
       <c r="C21" s="82"/>
       <c r="D21" s="72"/>
       <c r="E21" s="72"/>
@@ -40280,7 +40292,7 @@
       </c>
       <c r="L21" s="72"/>
       <c r="M21" s="72"/>
-      <c r="N21" s="331"/>
+      <c r="N21" s="358"/>
       <c r="O21" s="82"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="72"/>
@@ -40300,7 +40312,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" thickBot="1">
-      <c r="B22" s="331"/>
+      <c r="B22" s="358"/>
       <c r="C22" s="82"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -40320,7 +40332,7 @@
       </c>
       <c r="L22" s="72"/>
       <c r="M22" s="72"/>
-      <c r="N22" s="335"/>
+      <c r="N22" s="359"/>
       <c r="O22" s="82"/>
       <c r="P22" s="72"/>
       <c r="Q22" s="72"/>
@@ -40340,7 +40352,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B23" s="339" t="s">
+      <c r="B23" s="377" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="74"/>
@@ -40350,8 +40362,8 @@
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
-      <c r="K23" s="337"/>
-      <c r="N23" s="338" t="s">
+      <c r="K23" s="355"/>
+      <c r="N23" s="376" t="s">
         <v>198</v>
       </c>
       <c r="O23" s="74" t="s">
@@ -40366,7 +40378,7 @@
       <c r="S23" s="73"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="339"/>
+      <c r="B24" s="377"/>
       <c r="C24" s="75" t="s">
         <v>200</v>
       </c>
@@ -40374,8 +40386,8 @@
         <f>(F25/2)/(F26)</f>
         <v>0.21166666666666667</v>
       </c>
-      <c r="K24" s="337"/>
-      <c r="N24" s="339"/>
+      <c r="K24" s="355"/>
+      <c r="N24" s="377"/>
       <c r="O24" s="75" t="s">
         <v>200</v>
       </c>
@@ -40384,7 +40396,7 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="339"/>
+      <c r="B25" s="377"/>
       <c r="C25" s="75" t="s">
         <v>202</v>
       </c>
@@ -40402,8 +40414,8 @@
       <c r="G25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K25" s="337"/>
-      <c r="N25" s="339"/>
+      <c r="K25" s="355"/>
+      <c r="N25" s="377"/>
       <c r="O25" s="75" t="s">
         <v>202</v>
       </c>
@@ -40423,7 +40435,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B26" s="339"/>
+      <c r="B26" s="377"/>
       <c r="C26" s="76" t="s">
         <v>205</v>
       </c>
@@ -40440,8 +40452,8 @@
       <c r="G26" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="337"/>
-      <c r="N26" s="339"/>
+      <c r="K26" s="355"/>
+      <c r="N26" s="377"/>
       <c r="O26" s="76" t="s">
         <v>205</v>
       </c>
@@ -40463,25 +40475,25 @@
       <c r="B27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="340" t="s">
+      <c r="C27" s="345" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="340"/>
-      <c r="E27" s="340"/>
-      <c r="F27" s="340"/>
-      <c r="G27" s="340"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="345"/>
+      <c r="F27" s="345"/>
+      <c r="G27" s="345"/>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
       <c r="N27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O27" s="340" t="s">
+      <c r="O27" s="345" t="s">
         <v>207</v>
       </c>
-      <c r="P27" s="340"/>
-      <c r="Q27" s="340"/>
-      <c r="R27" s="340"/>
-      <c r="S27" s="340"/>
+      <c r="P27" s="345"/>
+      <c r="Q27" s="345"/>
+      <c r="R27" s="345"/>
+      <c r="S27" s="345"/>
     </row>
     <row r="28" spans="2:22" ht="57">
       <c r="B28" s="2" t="s">
@@ -40523,14 +40535,14 @@
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="330" t="s">
+      <c r="B31" s="357" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="328"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="341"/>
-      <c r="F31" s="341"/>
-      <c r="G31" s="329"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="361"/>
+      <c r="E31" s="361"/>
+      <c r="F31" s="361"/>
+      <c r="G31" s="362"/>
       <c r="H31" s="1">
         <f>H22</f>
         <v>30</v>
@@ -40545,12 +40557,12 @@
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="331"/>
-      <c r="C32" s="342"/>
-      <c r="D32" s="336"/>
-      <c r="E32" s="336"/>
-      <c r="F32" s="336"/>
-      <c r="G32" s="343"/>
+      <c r="B32" s="358"/>
+      <c r="C32" s="363"/>
+      <c r="D32" s="352"/>
+      <c r="E32" s="352"/>
+      <c r="F32" s="352"/>
+      <c r="G32" s="364"/>
       <c r="H32" s="12">
         <f>(D43/8/2)+H31</f>
         <v>36.25</v>
@@ -40565,12 +40577,12 @@
       </c>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="331"/>
-      <c r="C33" s="342"/>
-      <c r="D33" s="336"/>
-      <c r="E33" s="336"/>
-      <c r="F33" s="336"/>
-      <c r="G33" s="343"/>
+      <c r="B33" s="358"/>
+      <c r="C33" s="363"/>
+      <c r="D33" s="352"/>
+      <c r="E33" s="352"/>
+      <c r="F33" s="352"/>
+      <c r="G33" s="364"/>
       <c r="H33" s="12">
         <f>($D$43/8/2)*2+(H32)</f>
         <v>48.75</v>
@@ -40585,12 +40597,12 @@
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="331"/>
-      <c r="C34" s="342"/>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
-      <c r="G34" s="343"/>
+      <c r="B34" s="358"/>
+      <c r="C34" s="363"/>
+      <c r="D34" s="352"/>
+      <c r="E34" s="352"/>
+      <c r="F34" s="352"/>
+      <c r="G34" s="364"/>
       <c r="H34" s="12">
         <f t="shared" ref="H34:H39" si="8">($D$43/8/2)*2+(H33)</f>
         <v>61.25</v>
@@ -40605,12 +40617,12 @@
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="331"/>
-      <c r="C35" s="342"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
-      <c r="G35" s="343"/>
+      <c r="B35" s="358"/>
+      <c r="C35" s="363"/>
+      <c r="D35" s="352"/>
+      <c r="E35" s="352"/>
+      <c r="F35" s="352"/>
+      <c r="G35" s="364"/>
       <c r="H35" s="12">
         <f t="shared" si="8"/>
         <v>73.75</v>
@@ -40625,12 +40637,12 @@
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="331"/>
-      <c r="C36" s="342"/>
-      <c r="D36" s="336"/>
-      <c r="E36" s="336"/>
-      <c r="F36" s="336"/>
-      <c r="G36" s="343"/>
+      <c r="B36" s="358"/>
+      <c r="C36" s="363"/>
+      <c r="D36" s="352"/>
+      <c r="E36" s="352"/>
+      <c r="F36" s="352"/>
+      <c r="G36" s="364"/>
       <c r="H36" s="12">
         <f t="shared" si="8"/>
         <v>86.25</v>
@@ -40645,12 +40657,12 @@
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="331"/>
-      <c r="C37" s="342"/>
-      <c r="D37" s="336"/>
-      <c r="E37" s="336"/>
-      <c r="F37" s="336"/>
-      <c r="G37" s="343"/>
+      <c r="B37" s="358"/>
+      <c r="C37" s="363"/>
+      <c r="D37" s="352"/>
+      <c r="E37" s="352"/>
+      <c r="F37" s="352"/>
+      <c r="G37" s="364"/>
       <c r="H37" s="12">
         <f t="shared" si="8"/>
         <v>98.75</v>
@@ -40665,12 +40677,12 @@
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="331"/>
-      <c r="C38" s="342"/>
-      <c r="D38" s="336"/>
-      <c r="E38" s="336"/>
-      <c r="F38" s="336"/>
-      <c r="G38" s="343"/>
+      <c r="B38" s="358"/>
+      <c r="C38" s="363"/>
+      <c r="D38" s="352"/>
+      <c r="E38" s="352"/>
+      <c r="F38" s="352"/>
+      <c r="G38" s="364"/>
       <c r="H38" s="12">
         <f t="shared" si="8"/>
         <v>111.25</v>
@@ -40685,12 +40697,12 @@
       </c>
     </row>
     <row r="39" spans="2:24" ht="14.45" customHeight="1">
-      <c r="B39" s="331"/>
-      <c r="C39" s="342"/>
-      <c r="D39" s="336"/>
-      <c r="E39" s="336"/>
-      <c r="F39" s="336"/>
-      <c r="G39" s="343"/>
+      <c r="B39" s="358"/>
+      <c r="C39" s="363"/>
+      <c r="D39" s="352"/>
+      <c r="E39" s="352"/>
+      <c r="F39" s="352"/>
+      <c r="G39" s="364"/>
       <c r="H39" s="12">
         <f t="shared" si="8"/>
         <v>123.75</v>
@@ -40705,12 +40717,12 @@
       </c>
     </row>
     <row r="40" spans="2:24" ht="15" thickBot="1">
-      <c r="B40" s="335"/>
-      <c r="C40" s="344"/>
-      <c r="D40" s="345"/>
-      <c r="E40" s="345"/>
-      <c r="F40" s="345"/>
-      <c r="G40" s="346"/>
+      <c r="B40" s="359"/>
+      <c r="C40" s="365"/>
+      <c r="D40" s="366"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="366"/>
+      <c r="G40" s="367"/>
       <c r="H40" s="12">
         <f>D43+H22</f>
         <v>130</v>
@@ -40725,7 +40737,7 @@
       </c>
     </row>
     <row r="41" spans="2:24" ht="28.5">
-      <c r="B41" s="340" t="s">
+      <c r="B41" s="345" t="s">
         <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -40734,7 +40746,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="336"/>
+      <c r="B42" s="352"/>
       <c r="C42" s="1" t="s">
         <v>202</v>
       </c>
@@ -40755,7 +40767,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:24" ht="28.9" customHeight="1">
-      <c r="B43" s="336"/>
+      <c r="B43" s="352"/>
       <c r="C43" s="1" t="s">
         <v>212</v>
       </c>
@@ -40777,46 +40789,46 @@
       <c r="B44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="336" t="s">
+      <c r="C44" s="352" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="336"/>
-      <c r="E44" s="336"/>
-      <c r="F44" s="336"/>
-      <c r="G44" s="336"/>
+      <c r="D44" s="352"/>
+      <c r="E44" s="352"/>
+      <c r="F44" s="352"/>
+      <c r="G44" s="352"/>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="336" t="s">
+      <c r="B45" s="352" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="336"/>
+      <c r="B46" s="352"/>
     </row>
     <row r="47" spans="2:24" ht="15" thickBot="1">
-      <c r="B47" s="336"/>
+      <c r="B47" s="352"/>
     </row>
     <row r="48" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="K48" s="347" t="s">
+      <c r="K48" s="353" t="s">
         <v>214</v>
       </c>
-      <c r="L48" s="349"/>
-      <c r="W48" s="337" t="s">
+      <c r="L48" s="354"/>
+      <c r="W48" s="355" t="s">
         <v>214</v>
       </c>
-      <c r="X48" s="337"/>
+      <c r="X48" s="355"/>
     </row>
     <row r="49" spans="2:24" ht="15" thickBot="1">
       <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="347" t="s">
+      <c r="C49" s="353" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="348"/>
-      <c r="E49" s="348"/>
-      <c r="F49" s="348"/>
-      <c r="G49" s="349"/>
+      <c r="D49" s="356"/>
+      <c r="E49" s="356"/>
+      <c r="F49" s="356"/>
+      <c r="G49" s="354"/>
       <c r="H49" s="51" t="s">
         <v>193</v>
       </c>
@@ -40835,13 +40847,13 @@
       <c r="N49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="O49" s="347" t="s">
+      <c r="O49" s="353" t="s">
         <v>219</v>
       </c>
-      <c r="P49" s="348"/>
-      <c r="Q49" s="348"/>
-      <c r="R49" s="348"/>
-      <c r="S49" s="349"/>
+      <c r="P49" s="356"/>
+      <c r="Q49" s="356"/>
+      <c r="R49" s="356"/>
+      <c r="S49" s="354"/>
       <c r="T49" s="1" t="s">
         <v>193</v>
       </c>
@@ -40859,14 +40871,14 @@
       </c>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="330" t="s">
+      <c r="B50" s="357" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="328"/>
-      <c r="D50" s="341"/>
-      <c r="E50" s="341"/>
-      <c r="F50" s="341"/>
-      <c r="G50" s="329"/>
+      <c r="C50" s="360"/>
+      <c r="D50" s="361"/>
+      <c r="E50" s="361"/>
+      <c r="F50" s="361"/>
+      <c r="G50" s="362"/>
       <c r="H50" s="94">
         <f>($H$40-D68-D65)</f>
         <v>110</v>
@@ -40887,14 +40899,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N50" s="330" t="s">
+      <c r="N50" s="357" t="s">
         <v>221</v>
       </c>
-      <c r="O50" s="328"/>
-      <c r="P50" s="341"/>
-      <c r="Q50" s="341"/>
-      <c r="R50" s="341"/>
-      <c r="S50" s="329"/>
+      <c r="O50" s="360"/>
+      <c r="P50" s="361"/>
+      <c r="Q50" s="361"/>
+      <c r="R50" s="361"/>
+      <c r="S50" s="362"/>
       <c r="T50" s="12">
         <f>($H$40-P68-P65)</f>
         <v>110</v>
@@ -40913,12 +40925,12 @@
       </c>
     </row>
     <row r="51" spans="2:24">
-      <c r="B51" s="331"/>
-      <c r="C51" s="342"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="343"/>
+      <c r="B51" s="358"/>
+      <c r="C51" s="363"/>
+      <c r="D51" s="352"/>
+      <c r="E51" s="352"/>
+      <c r="F51" s="352"/>
+      <c r="G51" s="364"/>
       <c r="H51" s="94">
         <f>(H58-H50)/8/2+H50</f>
         <v>110.9375</v>
@@ -40938,12 +40950,12 @@
       <c r="L51" s="101">
         <v>3</v>
       </c>
-      <c r="N51" s="331"/>
-      <c r="O51" s="342"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="343"/>
+      <c r="N51" s="358"/>
+      <c r="O51" s="363"/>
+      <c r="P51" s="352"/>
+      <c r="Q51" s="352"/>
+      <c r="R51" s="352"/>
+      <c r="S51" s="364"/>
       <c r="T51" s="1">
         <f>(T58-T50)/8/2+T50</f>
         <v>110.9375</v>
@@ -40964,12 +40976,12 @@
       </c>
     </row>
     <row r="52" spans="2:24">
-      <c r="B52" s="331"/>
-      <c r="C52" s="342"/>
-      <c r="D52" s="336"/>
-      <c r="E52" s="336"/>
-      <c r="F52" s="336"/>
-      <c r="G52" s="343"/>
+      <c r="B52" s="358"/>
+      <c r="C52" s="363"/>
+      <c r="D52" s="352"/>
+      <c r="E52" s="352"/>
+      <c r="F52" s="352"/>
+      <c r="G52" s="364"/>
       <c r="H52" s="94">
         <f t="shared" ref="H52:H57" si="13">($H$58-$H$50)/8+H51</f>
         <v>112.8125</v>
@@ -40990,12 +41002,12 @@
         <f>I51</f>
         <v>10.1</v>
       </c>
-      <c r="N52" s="331"/>
-      <c r="O52" s="342"/>
-      <c r="P52" s="336"/>
-      <c r="Q52" s="336"/>
-      <c r="R52" s="336"/>
-      <c r="S52" s="343"/>
+      <c r="N52" s="358"/>
+      <c r="O52" s="363"/>
+      <c r="P52" s="352"/>
+      <c r="Q52" s="352"/>
+      <c r="R52" s="352"/>
+      <c r="S52" s="364"/>
       <c r="T52" s="1">
         <f t="shared" ref="T52:T57" si="14">($H$58-$H$50)/8+T51</f>
         <v>112.8125</v>
@@ -41016,12 +41028,12 @@
       </c>
     </row>
     <row r="53" spans="2:24">
-      <c r="B53" s="331"/>
-      <c r="C53" s="342"/>
-      <c r="D53" s="336"/>
-      <c r="E53" s="336"/>
-      <c r="F53" s="336"/>
-      <c r="G53" s="343"/>
+      <c r="B53" s="358"/>
+      <c r="C53" s="363"/>
+      <c r="D53" s="352"/>
+      <c r="E53" s="352"/>
+      <c r="F53" s="352"/>
+      <c r="G53" s="364"/>
       <c r="H53" s="94">
         <f t="shared" si="13"/>
         <v>114.6875</v>
@@ -41042,12 +41054,12 @@
         <f t="shared" ref="L53:L57" si="16">I52</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="N53" s="331"/>
-      <c r="O53" s="342"/>
-      <c r="P53" s="336"/>
-      <c r="Q53" s="336"/>
-      <c r="R53" s="336"/>
-      <c r="S53" s="343"/>
+      <c r="N53" s="358"/>
+      <c r="O53" s="363"/>
+      <c r="P53" s="352"/>
+      <c r="Q53" s="352"/>
+      <c r="R53" s="352"/>
+      <c r="S53" s="364"/>
       <c r="T53" s="1">
         <f t="shared" si="14"/>
         <v>114.6875</v>
@@ -41068,12 +41080,12 @@
       </c>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="331"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="336"/>
-      <c r="E54" s="336"/>
-      <c r="F54" s="336"/>
-      <c r="G54" s="343"/>
+      <c r="B54" s="358"/>
+      <c r="C54" s="363"/>
+      <c r="D54" s="352"/>
+      <c r="E54" s="352"/>
+      <c r="F54" s="352"/>
+      <c r="G54" s="364"/>
       <c r="H54" s="94">
         <f t="shared" si="13"/>
         <v>116.5625</v>
@@ -41094,12 +41106,12 @@
         <f t="shared" si="16"/>
         <v>25.1</v>
       </c>
-      <c r="N54" s="331"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="336"/>
-      <c r="Q54" s="336"/>
-      <c r="R54" s="336"/>
-      <c r="S54" s="343"/>
+      <c r="N54" s="358"/>
+      <c r="O54" s="363"/>
+      <c r="P54" s="352"/>
+      <c r="Q54" s="352"/>
+      <c r="R54" s="352"/>
+      <c r="S54" s="364"/>
       <c r="T54" s="1">
         <f t="shared" si="14"/>
         <v>116.5625</v>
@@ -41120,12 +41132,12 @@
       </c>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="331"/>
-      <c r="C55" s="342"/>
-      <c r="D55" s="336"/>
-      <c r="E55" s="336"/>
-      <c r="F55" s="336"/>
-      <c r="G55" s="343"/>
+      <c r="B55" s="358"/>
+      <c r="C55" s="363"/>
+      <c r="D55" s="352"/>
+      <c r="E55" s="352"/>
+      <c r="F55" s="352"/>
+      <c r="G55" s="364"/>
       <c r="H55" s="94">
         <f t="shared" si="13"/>
         <v>118.4375</v>
@@ -41146,12 +41158,12 @@
         <f t="shared" si="16"/>
         <v>26.35</v>
       </c>
-      <c r="N55" s="331"/>
-      <c r="O55" s="342"/>
-      <c r="P55" s="336"/>
-      <c r="Q55" s="336"/>
-      <c r="R55" s="336"/>
-      <c r="S55" s="343"/>
+      <c r="N55" s="358"/>
+      <c r="O55" s="363"/>
+      <c r="P55" s="352"/>
+      <c r="Q55" s="352"/>
+      <c r="R55" s="352"/>
+      <c r="S55" s="364"/>
       <c r="T55" s="1">
         <f t="shared" si="14"/>
         <v>118.4375</v>
@@ -41172,12 +41184,12 @@
       </c>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="331"/>
-      <c r="C56" s="342"/>
-      <c r="D56" s="336"/>
-      <c r="E56" s="336"/>
-      <c r="F56" s="336"/>
-      <c r="G56" s="343"/>
+      <c r="B56" s="358"/>
+      <c r="C56" s="363"/>
+      <c r="D56" s="352"/>
+      <c r="E56" s="352"/>
+      <c r="F56" s="352"/>
+      <c r="G56" s="364"/>
       <c r="H56" s="94">
         <f t="shared" si="13"/>
         <v>120.3125</v>
@@ -41198,12 +41210,12 @@
         <f t="shared" si="16"/>
         <v>26.35</v>
       </c>
-      <c r="N56" s="331"/>
-      <c r="O56" s="342"/>
-      <c r="P56" s="336"/>
-      <c r="Q56" s="336"/>
-      <c r="R56" s="336"/>
-      <c r="S56" s="343"/>
+      <c r="N56" s="358"/>
+      <c r="O56" s="363"/>
+      <c r="P56" s="352"/>
+      <c r="Q56" s="352"/>
+      <c r="R56" s="352"/>
+      <c r="S56" s="364"/>
       <c r="T56" s="1">
         <f t="shared" si="14"/>
         <v>120.3125</v>
@@ -41224,12 +41236,12 @@
       </c>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="331"/>
-      <c r="C57" s="342"/>
-      <c r="D57" s="336"/>
-      <c r="E57" s="336"/>
-      <c r="F57" s="336"/>
-      <c r="G57" s="343"/>
+      <c r="B57" s="358"/>
+      <c r="C57" s="363"/>
+      <c r="D57" s="352"/>
+      <c r="E57" s="352"/>
+      <c r="F57" s="352"/>
+      <c r="G57" s="364"/>
       <c r="H57" s="94">
         <f t="shared" si="13"/>
         <v>122.1875</v>
@@ -41250,12 +41262,12 @@
         <f t="shared" si="16"/>
         <v>26.35</v>
       </c>
-      <c r="N57" s="331"/>
-      <c r="O57" s="342"/>
-      <c r="P57" s="336"/>
-      <c r="Q57" s="336"/>
-      <c r="R57" s="336"/>
-      <c r="S57" s="343"/>
+      <c r="N57" s="358"/>
+      <c r="O57" s="363"/>
+      <c r="P57" s="352"/>
+      <c r="Q57" s="352"/>
+      <c r="R57" s="352"/>
+      <c r="S57" s="364"/>
       <c r="T57" s="1">
         <f t="shared" si="14"/>
         <v>122.1875</v>
@@ -41276,12 +41288,12 @@
       </c>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="331"/>
-      <c r="C58" s="342"/>
-      <c r="D58" s="336"/>
-      <c r="E58" s="336"/>
-      <c r="F58" s="336"/>
-      <c r="G58" s="343"/>
+      <c r="B58" s="358"/>
+      <c r="C58" s="363"/>
+      <c r="D58" s="352"/>
+      <c r="E58" s="352"/>
+      <c r="F58" s="352"/>
+      <c r="G58" s="364"/>
       <c r="H58" s="94">
         <f>$H$50+D65</f>
         <v>125</v>
@@ -41302,12 +41314,12 @@
         <f>IF(((($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)&gt;($D$67+$I$40),($D$67+$I$40),(($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)</f>
         <v>26.35</v>
       </c>
-      <c r="N58" s="331"/>
-      <c r="O58" s="342"/>
-      <c r="P58" s="336"/>
-      <c r="Q58" s="336"/>
-      <c r="R58" s="336"/>
-      <c r="S58" s="343"/>
+      <c r="N58" s="358"/>
+      <c r="O58" s="363"/>
+      <c r="P58" s="352"/>
+      <c r="Q58" s="352"/>
+      <c r="R58" s="352"/>
+      <c r="S58" s="364"/>
       <c r="T58" s="12">
         <f>$H$50+P65</f>
         <v>125</v>
@@ -41328,12 +41340,12 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="B59" s="335"/>
-      <c r="C59" s="350"/>
-      <c r="D59" s="351"/>
-      <c r="E59" s="351"/>
-      <c r="F59" s="351"/>
-      <c r="G59" s="352"/>
+      <c r="B59" s="359"/>
+      <c r="C59" s="368"/>
+      <c r="D59" s="369"/>
+      <c r="E59" s="369"/>
+      <c r="F59" s="369"/>
+      <c r="G59" s="370"/>
       <c r="H59" s="97">
         <f>H58</f>
         <v>125</v>
@@ -41354,12 +41366,12 @@
         <f>L50</f>
         <v>0</v>
       </c>
-      <c r="N59" s="335"/>
-      <c r="O59" s="344"/>
-      <c r="P59" s="345"/>
-      <c r="Q59" s="345"/>
-      <c r="R59" s="345"/>
-      <c r="S59" s="346"/>
+      <c r="N59" s="359"/>
+      <c r="O59" s="365"/>
+      <c r="P59" s="366"/>
+      <c r="Q59" s="366"/>
+      <c r="R59" s="366"/>
+      <c r="S59" s="367"/>
       <c r="T59" s="12">
         <f>T58</f>
         <v>125</v>
@@ -41374,7 +41386,7 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B60" s="353" t="s">
+      <c r="B60" s="371" t="s">
         <v>198</v>
       </c>
       <c r="C60" s="90" t="s">
@@ -41394,11 +41406,11 @@
       <c r="G60" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="H60" s="358" t="s">
+      <c r="H60" s="346" t="s">
         <v>225</v>
       </c>
-      <c r="I60" s="359"/>
-      <c r="J60" s="360"/>
+      <c r="I60" s="347"/>
+      <c r="J60" s="348"/>
       <c r="K60" s="90" t="s">
         <v>226</v>
       </c>
@@ -41406,7 +41418,7 @@
         <f>K67^2/K68</f>
         <v>1.0456349206349203</v>
       </c>
-      <c r="N60" s="340" t="s">
+      <c r="N60" s="345" t="s">
         <v>198</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -41414,7 +41426,7 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B61" s="354"/>
+      <c r="B61" s="372"/>
       <c r="C61" s="89" t="s">
         <v>228</v>
       </c>
@@ -41425,15 +41437,15 @@
       <c r="E61" s="86"/>
       <c r="F61" s="61"/>
       <c r="G61" s="62"/>
-      <c r="H61" s="361"/>
-      <c r="I61" s="362"/>
-      <c r="J61" s="363"/>
+      <c r="H61" s="349"/>
+      <c r="I61" s="350"/>
+      <c r="J61" s="351"/>
       <c r="K61" s="89"/>
       <c r="L61" s="62"/>
-      <c r="N61" s="340"/>
+      <c r="N61" s="345"/>
     </row>
     <row r="62" spans="2:24" ht="27.6" customHeight="1">
-      <c r="B62" s="354"/>
+      <c r="B62" s="372"/>
       <c r="C62" s="88" t="s">
         <v>229</v>
       </c>
@@ -41451,10 +41463,10 @@
         <v>232</v>
       </c>
       <c r="L62" s="59"/>
-      <c r="N62" s="340"/>
+      <c r="N62" s="345"/>
     </row>
     <row r="63" spans="2:24" ht="27.6" customHeight="1">
-      <c r="B63" s="354"/>
+      <c r="B63" s="372"/>
       <c r="C63" s="88" t="s">
         <v>233</v>
       </c>
@@ -41471,10 +41483,10 @@
         <v>15</v>
       </c>
       <c r="L63" s="59"/>
-      <c r="N63" s="340"/>
+      <c r="N63" s="345"/>
     </row>
     <row r="64" spans="2:24">
-      <c r="B64" s="355"/>
+      <c r="B64" s="373"/>
       <c r="C64" s="85" t="s">
         <v>236</v>
       </c>
@@ -41509,7 +41521,7 @@
       <c r="L64" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="N64" s="340"/>
+      <c r="N64" s="345"/>
       <c r="O64" s="1" t="s">
         <v>236</v>
       </c>
@@ -41529,7 +41541,7 @@
       </c>
     </row>
     <row r="65" spans="2:19">
-      <c r="B65" s="356"/>
+      <c r="B65" s="374"/>
       <c r="C65" s="85" t="s">
         <v>237</v>
       </c>
@@ -41564,7 +41576,7 @@
       <c r="L65" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="N65" s="336"/>
+      <c r="N65" s="352"/>
       <c r="O65" s="1" t="s">
         <v>237</v>
       </c>
@@ -41584,7 +41596,7 @@
       </c>
     </row>
     <row r="66" spans="2:19">
-      <c r="B66" s="356"/>
+      <c r="B66" s="374"/>
       <c r="C66" s="85" t="s">
         <v>238</v>
       </c>
@@ -41610,10 +41622,10 @@
         <v>0.24752475247524741</v>
       </c>
       <c r="L66" s="59"/>
-      <c r="N66" s="336"/>
+      <c r="N66" s="352"/>
     </row>
     <row r="67" spans="2:19">
-      <c r="B67" s="356"/>
+      <c r="B67" s="374"/>
       <c r="C67" s="85" t="s">
         <v>239</v>
       </c>
@@ -41648,7 +41660,7 @@
       <c r="L67" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="N67" s="336"/>
+      <c r="N67" s="352"/>
       <c r="O67" s="1" t="s">
         <v>239</v>
       </c>
@@ -41668,7 +41680,7 @@
       </c>
     </row>
     <row r="68" spans="2:19" ht="29.25" thickBot="1">
-      <c r="B68" s="357"/>
+      <c r="B68" s="375"/>
       <c r="C68" s="86" t="s">
         <v>241</v>
       </c>
@@ -41702,7 +41714,7 @@
       <c r="L68" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="N68" s="336"/>
+      <c r="N68" s="352"/>
       <c r="O68" s="1" t="s">
         <v>241</v>
       </c>
@@ -41724,26 +41736,26 @@
       <c r="B69" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="340" t="s">
+      <c r="C69" s="345" t="s">
         <v>244</v>
       </c>
-      <c r="D69" s="340"/>
-      <c r="E69" s="340"/>
-      <c r="F69" s="340"/>
-      <c r="G69" s="340"/>
+      <c r="D69" s="345"/>
+      <c r="E69" s="345"/>
+      <c r="F69" s="345"/>
+      <c r="G69" s="345"/>
       <c r="N69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O69" s="336" t="s">
+      <c r="O69" s="352" t="s">
         <v>245</v>
       </c>
-      <c r="P69" s="336"/>
-      <c r="Q69" s="336"/>
-      <c r="R69" s="336"/>
-      <c r="S69" s="336"/>
+      <c r="P69" s="352"/>
+      <c r="Q69" s="352"/>
+      <c r="R69" s="352"/>
+      <c r="S69" s="352"/>
     </row>
     <row r="70" spans="2:19">
-      <c r="B70" s="336" t="s">
+      <c r="B70" s="352" t="s">
         <v>208</v>
       </c>
       <c r="C70" s="74"/>
@@ -41751,24 +41763,24 @@
       <c r="E70" s="73"/>
       <c r="F70" s="73"/>
       <c r="G70" s="102"/>
-      <c r="N70" s="336" t="s">
+      <c r="N70" s="352" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71" spans="2:19">
-      <c r="B71" s="336"/>
+      <c r="B71" s="352"/>
       <c r="C71" s="75"/>
       <c r="G71" s="103"/>
-      <c r="N71" s="336"/>
+      <c r="N71" s="352"/>
     </row>
     <row r="72" spans="2:19">
-      <c r="B72" s="336"/>
+      <c r="B72" s="352"/>
       <c r="C72" s="76"/>
       <c r="D72" s="77"/>
       <c r="E72" s="77"/>
       <c r="F72" s="77"/>
       <c r="G72" s="104"/>
-      <c r="N72" s="336"/>
+      <c r="N72" s="352"/>
     </row>
     <row r="73" spans="2:19" ht="15" thickBot="1"/>
     <row r="74" spans="2:19" ht="15" thickBot="1">
@@ -41892,14 +41904,14 @@
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="330" t="s">
+      <c r="B88" s="357" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="328"/>
-      <c r="D88" s="341"/>
-      <c r="E88" s="341"/>
-      <c r="F88" s="341"/>
-      <c r="G88" s="329"/>
+      <c r="C88" s="360"/>
+      <c r="D88" s="361"/>
+      <c r="E88" s="361"/>
+      <c r="F88" s="361"/>
+      <c r="G88" s="362"/>
       <c r="H88" s="11">
         <f>H40</f>
         <v>130</v>
@@ -41914,12 +41926,12 @@
       </c>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="331"/>
-      <c r="C89" s="342"/>
-      <c r="D89" s="336"/>
-      <c r="E89" s="336"/>
-      <c r="F89" s="336"/>
-      <c r="G89" s="343"/>
+      <c r="B89" s="358"/>
+      <c r="C89" s="363"/>
+      <c r="D89" s="352"/>
+      <c r="E89" s="352"/>
+      <c r="F89" s="352"/>
+      <c r="G89" s="364"/>
       <c r="H89" s="11">
         <f>($D$100/8/2)+H88</f>
         <v>130.5</v>
@@ -41934,12 +41946,12 @@
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="331"/>
-      <c r="C90" s="342"/>
-      <c r="D90" s="336"/>
-      <c r="E90" s="336"/>
-      <c r="F90" s="336"/>
-      <c r="G90" s="343"/>
+      <c r="B90" s="358"/>
+      <c r="C90" s="363"/>
+      <c r="D90" s="352"/>
+      <c r="E90" s="352"/>
+      <c r="F90" s="352"/>
+      <c r="G90" s="364"/>
       <c r="H90" s="11">
         <f>($D$100/8)+H89</f>
         <v>131.5</v>
@@ -41954,12 +41966,12 @@
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="331"/>
-      <c r="C91" s="342"/>
-      <c r="D91" s="336"/>
-      <c r="E91" s="336"/>
-      <c r="F91" s="336"/>
-      <c r="G91" s="343"/>
+      <c r="B91" s="358"/>
+      <c r="C91" s="363"/>
+      <c r="D91" s="352"/>
+      <c r="E91" s="352"/>
+      <c r="F91" s="352"/>
+      <c r="G91" s="364"/>
       <c r="H91" s="11">
         <f t="shared" ref="H91:H96" si="22">($D$100/8)+H90</f>
         <v>132.5</v>
@@ -41974,12 +41986,12 @@
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="331"/>
-      <c r="C92" s="342"/>
-      <c r="D92" s="336"/>
-      <c r="E92" s="336"/>
-      <c r="F92" s="336"/>
-      <c r="G92" s="343"/>
+      <c r="B92" s="358"/>
+      <c r="C92" s="363"/>
+      <c r="D92" s="352"/>
+      <c r="E92" s="352"/>
+      <c r="F92" s="352"/>
+      <c r="G92" s="364"/>
       <c r="H92" s="11">
         <f t="shared" si="22"/>
         <v>133.5</v>
@@ -41994,12 +42006,12 @@
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="331"/>
-      <c r="C93" s="342"/>
-      <c r="D93" s="336"/>
-      <c r="E93" s="336"/>
-      <c r="F93" s="336"/>
-      <c r="G93" s="343"/>
+      <c r="B93" s="358"/>
+      <c r="C93" s="363"/>
+      <c r="D93" s="352"/>
+      <c r="E93" s="352"/>
+      <c r="F93" s="352"/>
+      <c r="G93" s="364"/>
       <c r="H93" s="11">
         <f t="shared" si="22"/>
         <v>134.5</v>
@@ -42014,12 +42026,12 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="331"/>
-      <c r="C94" s="342"/>
-      <c r="D94" s="336"/>
-      <c r="E94" s="336"/>
-      <c r="F94" s="336"/>
-      <c r="G94" s="343"/>
+      <c r="B94" s="358"/>
+      <c r="C94" s="363"/>
+      <c r="D94" s="352"/>
+      <c r="E94" s="352"/>
+      <c r="F94" s="352"/>
+      <c r="G94" s="364"/>
       <c r="H94" s="11">
         <f t="shared" si="22"/>
         <v>135.5</v>
@@ -42034,12 +42046,12 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="331"/>
-      <c r="C95" s="342"/>
-      <c r="D95" s="336"/>
-      <c r="E95" s="336"/>
-      <c r="F95" s="336"/>
-      <c r="G95" s="343"/>
+      <c r="B95" s="358"/>
+      <c r="C95" s="363"/>
+      <c r="D95" s="352"/>
+      <c r="E95" s="352"/>
+      <c r="F95" s="352"/>
+      <c r="G95" s="364"/>
       <c r="H95" s="11">
         <f t="shared" si="22"/>
         <v>136.5</v>
@@ -42054,12 +42066,12 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="331"/>
-      <c r="C96" s="342"/>
-      <c r="D96" s="336"/>
-      <c r="E96" s="336"/>
-      <c r="F96" s="336"/>
-      <c r="G96" s="343"/>
+      <c r="B96" s="358"/>
+      <c r="C96" s="363"/>
+      <c r="D96" s="352"/>
+      <c r="E96" s="352"/>
+      <c r="F96" s="352"/>
+      <c r="G96" s="364"/>
       <c r="H96" s="11">
         <f t="shared" si="22"/>
         <v>137.5</v>
@@ -42074,12 +42086,12 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" thickBot="1">
-      <c r="B97" s="335"/>
-      <c r="C97" s="344"/>
-      <c r="D97" s="345"/>
-      <c r="E97" s="345"/>
-      <c r="F97" s="345"/>
-      <c r="G97" s="346"/>
+      <c r="B97" s="359"/>
+      <c r="C97" s="365"/>
+      <c r="D97" s="366"/>
+      <c r="E97" s="366"/>
+      <c r="F97" s="366"/>
+      <c r="G97" s="367"/>
       <c r="H97" s="11">
         <f>D100+H88</f>
         <v>138</v>
@@ -42094,7 +42106,7 @@
       </c>
     </row>
     <row r="98" spans="2:10" ht="28.5">
-      <c r="B98" s="340" t="s">
+      <c r="B98" s="345" t="s">
         <v>198</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -42117,7 +42129,7 @@
       </c>
     </row>
     <row r="99" spans="2:10" ht="28.5">
-      <c r="B99" s="336"/>
+      <c r="B99" s="352"/>
       <c r="C99" s="1" t="s">
         <v>255</v>
       </c>
@@ -42137,7 +42149,7 @@
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="336"/>
+      <c r="B100" s="352"/>
       <c r="C100" s="1" t="s">
         <v>212</v>
       </c>
@@ -42159,49 +42171,27 @@
       <c r="B101" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="336" t="s">
+      <c r="C101" s="352" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="336"/>
-      <c r="E101" s="336"/>
-      <c r="F101" s="336"/>
-      <c r="G101" s="336"/>
+      <c r="D101" s="352"/>
+      <c r="E101" s="352"/>
+      <c r="F101" s="352"/>
+      <c r="G101" s="352"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="336" t="s">
+      <c r="B102" s="352" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="336"/>
+      <c r="B103" s="352"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="336"/>
+      <c r="B104" s="352"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="H60:J61"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="O49:S49"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="O50:S59"/>
-    <mergeCell ref="N60:N68"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="C50:G59"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C88:G97"/>
-    <mergeCell ref="B98:B100"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:B22"/>
     <mergeCell ref="C12:G12"/>
@@ -42215,6 +42205,28 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:G40"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="C50:G59"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C88:G97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="O50:S59"/>
+    <mergeCell ref="N60:N68"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="H60:J61"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" display="https://www.youtube.com/watch?v=-05AlwGI7Jo"/>
@@ -42284,11 +42296,11 @@
       <c r="M15" s="203"/>
       <c r="N15" s="203"/>
       <c r="O15" s="204"/>
-      <c r="T15" s="367" t="s">
+      <c r="T15" s="381" t="s">
         <v>259</v>
       </c>
-      <c r="U15" s="368"/>
-      <c r="V15" s="369"/>
+      <c r="U15" s="382"/>
+      <c r="V15" s="383"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1">
       <c r="B16" s="291" t="s">
@@ -42789,11 +42801,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T23" s="370" t="s">
+      <c r="T23" s="384" t="s">
         <v>259</v>
       </c>
-      <c r="U23" s="371"/>
-      <c r="V23" s="372"/>
+      <c r="U23" s="385"/>
+      <c r="V23" s="386"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="22" t="s">
@@ -43182,17 +43194,17 @@
       <c r="I33" s="201" t="s">
         <v>266</v>
       </c>
-      <c r="K33" s="373" t="s">
+      <c r="K33" s="387" t="s">
         <v>293</v>
       </c>
-      <c r="L33" s="374"/>
-      <c r="M33" s="374"/>
-      <c r="N33" s="374"/>
-      <c r="O33" s="374"/>
-      <c r="P33" s="374"/>
-      <c r="Q33" s="374"/>
-      <c r="R33" s="374"/>
-      <c r="S33" s="375"/>
+      <c r="L33" s="388"/>
+      <c r="M33" s="388"/>
+      <c r="N33" s="388"/>
+      <c r="O33" s="388"/>
+      <c r="P33" s="388"/>
+      <c r="Q33" s="388"/>
+      <c r="R33" s="388"/>
+      <c r="S33" s="389"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="206" t="s">
@@ -43438,26 +43450,26 @@
     </row>
     <row r="42" spans="2:19" ht="15" thickBot="1"/>
     <row r="43" spans="2:19" ht="15" thickBot="1">
-      <c r="K43" s="373" t="s">
+      <c r="K43" s="387" t="s">
         <v>319</v>
       </c>
-      <c r="L43" s="374"/>
-      <c r="M43" s="374"/>
-      <c r="N43" s="374"/>
-      <c r="O43" s="374"/>
-      <c r="P43" s="374"/>
-      <c r="Q43" s="374"/>
-      <c r="R43" s="374"/>
-      <c r="S43" s="375"/>
+      <c r="L43" s="388"/>
+      <c r="M43" s="388"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
+      <c r="S43" s="389"/>
     </row>
     <row r="44" spans="2:19" ht="15" thickBot="1">
-      <c r="B44" s="364" t="s">
+      <c r="B44" s="378" t="s">
         <v>320</v>
       </c>
-      <c r="C44" s="365"/>
-      <c r="D44" s="365"/>
-      <c r="E44" s="365"/>
-      <c r="F44" s="366"/>
+      <c r="C44" s="379"/>
+      <c r="D44" s="379"/>
+      <c r="E44" s="379"/>
+      <c r="F44" s="380"/>
       <c r="K44" s="22" t="s">
         <v>295</v>
       </c>
@@ -44161,24 +44173,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <pane ySplit="10" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
     <col min="2" max="5" width="12.75" style="222" customWidth="1"/>
-    <col min="6" max="7" width="12.75" style="389" customWidth="1"/>
+    <col min="6" max="7" width="12.75" style="322" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A1" s="303" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1" s="222">
         <v>1</v>
@@ -44192,10 +44204,10 @@
       <c r="E1" s="222">
         <v>1</v>
       </c>
-      <c r="F1" s="389">
+      <c r="F1" s="322">
         <v>1</v>
       </c>
-      <c r="G1" s="389">
+      <c r="G1" s="322">
         <v>1</v>
       </c>
       <c r="H1" s="222">
@@ -44222,11 +44234,11 @@
         <f t="shared" si="0"/>
         <v>170.14313239152497</v>
       </c>
-      <c r="F2" s="389">
+      <c r="F2" s="322">
         <f t="shared" si="0"/>
         <v>170.14313239152497</v>
       </c>
-      <c r="G2" s="389">
+      <c r="G2" s="322">
         <f t="shared" si="0"/>
         <v>170.14313239152497</v>
       </c>
@@ -44255,11 +44267,11 @@
         <f t="shared" si="1"/>
         <v>164.3456457426941</v>
       </c>
-      <c r="F3" s="389">
+      <c r="F3" s="322">
         <f t="shared" si="1"/>
         <v>159.88224598571588</v>
       </c>
-      <c r="G3" s="389">
+      <c r="G3" s="322">
         <f t="shared" si="1"/>
         <v>154.20204579724674</v>
       </c>
@@ -44288,11 +44300,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F4" s="389">
+      <c r="F4" s="322">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G4" s="389">
+      <c r="G4" s="322">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -44321,11 +44333,11 @@
         <f t="shared" si="3"/>
         <v>44.036283056326262</v>
       </c>
-      <c r="F5" s="389">
+      <c r="F5" s="322">
         <f t="shared" si="3"/>
         <v>58.192378526427596</v>
       </c>
-      <c r="G5" s="389">
+      <c r="G5" s="322">
         <f t="shared" si="3"/>
         <v>71.905594858423981</v>
       </c>
@@ -44334,29 +44346,29 @@
         <v>85.071566195762472</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="399" customFormat="1">
-      <c r="A6" s="399" t="s">
+    <row r="6" spans="1:8" s="332" customFormat="1">
+      <c r="A6" s="332" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="400">
+      <c r="B6" s="333">
         <v>0.5</v>
       </c>
-      <c r="C6" s="400">
+      <c r="C6" s="333">
         <v>0.5</v>
       </c>
-      <c r="D6" s="400">
+      <c r="D6" s="333">
         <v>0.5</v>
       </c>
-      <c r="E6" s="400">
+      <c r="E6" s="333">
         <v>0.5</v>
       </c>
-      <c r="F6" s="400">
+      <c r="F6" s="333">
         <v>0.5</v>
       </c>
-      <c r="G6" s="400">
+      <c r="G6" s="333">
         <v>0.5</v>
       </c>
-      <c r="H6" s="400">
+      <c r="H6" s="333">
         <v>0.5</v>
       </c>
     </row>
@@ -44380,11 +44392,11 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="F7" s="390">
+      <c r="F7" s="323">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="G7" s="390">
+      <c r="G7" s="323">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -44413,11 +44425,11 @@
         <f t="shared" si="5"/>
         <v>340.28626478304994</v>
       </c>
-      <c r="F8" s="389">
+      <c r="F8" s="322">
         <f t="shared" si="5"/>
         <v>340.28626478304994</v>
       </c>
-      <c r="G8" s="389">
+      <c r="G8" s="322">
         <f t="shared" si="5"/>
         <v>340.28626478304994</v>
       </c>
@@ -44426,29 +44438,29 @@
         <v>340.28626478304994</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="399" customFormat="1">
-      <c r="A9" s="399" t="s">
+    <row r="9" spans="1:8" s="332" customFormat="1">
+      <c r="A9" s="332" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="401">
+      <c r="B9" s="334">
         <v>0</v>
       </c>
-      <c r="C9" s="401">
+      <c r="C9" s="334">
         <v>5</v>
       </c>
-      <c r="D9" s="401">
+      <c r="D9" s="334">
         <v>10</v>
       </c>
-      <c r="E9" s="401">
+      <c r="E9" s="334">
         <v>15</v>
       </c>
-      <c r="F9" s="401">
+      <c r="F9" s="334">
         <v>20</v>
       </c>
-      <c r="G9" s="401">
+      <c r="G9" s="334">
         <v>25</v>
       </c>
-      <c r="H9" s="401">
+      <c r="H9" s="334">
         <v>30</v>
       </c>
     </row>
@@ -44468,10 +44480,10 @@
       <c r="E10" s="222">
         <v>0</v>
       </c>
-      <c r="F10" s="389">
+      <c r="F10" s="322">
         <v>0</v>
       </c>
-      <c r="G10" s="389">
+      <c r="G10" s="322">
         <v>0</v>
       </c>
       <c r="H10" s="222">
@@ -44498,11 +44510,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="389">
+      <c r="F11" s="322">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G11" s="389">
+      <c r="G11" s="322">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -44531,11 +44543,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F12" s="389">
+      <c r="F12" s="322">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G12" s="389">
+      <c r="G12" s="322">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -44560,10 +44572,10 @@
       <c r="E13" s="222">
         <v>0</v>
       </c>
-      <c r="F13" s="389">
+      <c r="F13" s="322">
         <v>0</v>
       </c>
-      <c r="G13" s="389">
+      <c r="G13" s="322">
         <v>0</v>
       </c>
       <c r="H13" s="222">
@@ -44575,7 +44587,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -44595,11 +44607,11 @@
         <f t="shared" si="8"/>
         <v>101528.51875418922</v>
       </c>
-      <c r="F15" s="389">
+      <c r="F15" s="322">
         <f t="shared" si="8"/>
         <v>101528.51875418922</v>
       </c>
-      <c r="G15" s="389">
+      <c r="G15" s="322">
         <f t="shared" si="8"/>
         <v>101528.51875418922</v>
       </c>
@@ -44608,7 +44620,7 @@
         <v>101528.51875418922</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A16" t="s">
         <v>346</v>
       </c>
@@ -44628,11 +44640,11 @@
         <f t="shared" si="9"/>
         <v>1.2275162395185863</v>
       </c>
-      <c r="F16" s="389">
+      <c r="F16" s="322">
         <f t="shared" si="9"/>
         <v>1.2275162395185863</v>
       </c>
-      <c r="G16" s="389">
+      <c r="G16" s="322">
         <f t="shared" si="9"/>
         <v>1.2275162395185863</v>
       </c>
@@ -44641,7 +44653,7 @@
         <v>1.2275162395185863</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A17" t="s">
         <v>347</v>
       </c>
@@ -44661,11 +44673,11 @@
         <f t="shared" si="10"/>
         <v>288.19</v>
       </c>
-      <c r="F17" s="389">
+      <c r="F17" s="322">
         <f t="shared" si="10"/>
         <v>288.19</v>
       </c>
-      <c r="G17" s="389">
+      <c r="G17" s="322">
         <f t="shared" si="10"/>
         <v>288.19</v>
       </c>
@@ -44674,7 +44686,7 @@
         <v>288.19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A18" t="s">
         <v>568</v>
       </c>
@@ -44694,11 +44706,11 @@
         <f t="shared" si="11"/>
         <v>15.189999999999998</v>
       </c>
-      <c r="F18" s="389">
+      <c r="F18" s="322">
         <f t="shared" si="11"/>
         <v>15.189999999999998</v>
       </c>
-      <c r="G18" s="389">
+      <c r="G18" s="322">
         <f t="shared" si="11"/>
         <v>15.189999999999998</v>
       </c>
@@ -44707,7 +44719,7 @@
         <v>15.189999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A19" t="s">
         <v>348</v>
       </c>
@@ -44727,11 +44739,11 @@
         <f t="shared" si="12"/>
         <v>1.8360964149388051E-5</v>
       </c>
-      <c r="F19" s="391">
+      <c r="F19" s="324">
         <f t="shared" si="12"/>
         <v>1.8360964149388051E-5</v>
       </c>
-      <c r="G19" s="391">
+      <c r="G19" s="324">
         <f t="shared" si="12"/>
         <v>1.8360964149388051E-5</v>
       </c>
@@ -44740,7 +44752,7 @@
         <v>1.8360964149388051E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A20" t="s">
         <v>349</v>
       </c>
@@ -44760,11 +44772,11 @@
         <f t="shared" si="13"/>
         <v>1.4957817712121631E-5</v>
       </c>
-      <c r="F20" s="391">
+      <c r="F20" s="324">
         <f t="shared" si="13"/>
         <v>1.4957817712121631E-5</v>
       </c>
-      <c r="G20" s="391">
+      <c r="G20" s="324">
         <f t="shared" si="13"/>
         <v>1.4957817712121631E-5</v>
       </c>
@@ -44773,7 +44785,7 @@
         <v>1.4957817712121631E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A21" t="s">
         <v>350</v>
       </c>
@@ -44789,32 +44801,32 @@
       <c r="E21" s="222">
         <v>9</v>
       </c>
-      <c r="F21" s="389">
+      <c r="F21" s="322">
         <v>9</v>
       </c>
-      <c r="G21" s="389">
+      <c r="G21" s="322">
         <v>9</v>
       </c>
       <c r="H21" s="222">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A22" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A23" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A24" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A25" t="s">
         <v>351</v>
       </c>
@@ -44834,11 +44846,11 @@
         <f t="shared" si="14"/>
         <v>17.885503925911191</v>
       </c>
-      <c r="F25" s="389">
+      <c r="F25" s="322">
         <f t="shared" si="14"/>
         <v>22.795148645238854</v>
       </c>
-      <c r="G25" s="389">
+      <c r="G25" s="322">
         <f t="shared" si="14"/>
         <v>27.684767290411717</v>
       </c>
@@ -44847,7 +44859,7 @@
         <v>32.555383986394062</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A26" t="s">
         <v>352</v>
       </c>
@@ -44867,11 +44879,11 @@
         <f t="shared" si="15"/>
         <v>3.1345367139941622</v>
       </c>
-      <c r="F26" s="389">
+      <c r="F26" s="322">
         <f t="shared" si="15"/>
         <v>3.2218610762328219</v>
       </c>
-      <c r="G26" s="389">
+      <c r="G26" s="322">
         <f t="shared" si="15"/>
         <v>3.3402778640191908</v>
       </c>
@@ -44880,7 +44892,7 @@
         <v>3.495271190852197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A27" t="s">
         <v>353</v>
       </c>
@@ -44900,11 +44912,11 @@
         <f t="shared" si="16"/>
         <v>0.31216093188552224</v>
       </c>
-      <c r="F27" s="389">
+      <c r="F27" s="322">
         <f t="shared" si="16"/>
         <v>0.39785039734094285</v>
       </c>
-      <c r="G27" s="389">
+      <c r="G27" s="322">
         <f t="shared" si="16"/>
         <v>0.48319034186611365</v>
       </c>
@@ -44913,7 +44925,7 @@
         <v>0.56819863981361318</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A28" t="s">
         <v>354</v>
       </c>
@@ -44933,11 +44945,11 @@
         <f t="shared" si="17"/>
         <v>5.4707986183841949E-2</v>
       </c>
-      <c r="F28" s="389">
+      <c r="F28" s="322">
         <f t="shared" si="17"/>
         <v>5.6232083822110764E-2</v>
       </c>
-      <c r="G28" s="389">
+      <c r="G28" s="322">
         <f t="shared" si="17"/>
         <v>5.8298846658618314E-2</v>
       </c>
@@ -44946,7 +44958,7 @@
         <v>6.1003990530473944E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A29" t="s">
         <v>355</v>
       </c>
@@ -44966,11 +44978,11 @@
         <f t="shared" si="18"/>
         <v>17767.49078198311</v>
       </c>
-      <c r="F29" s="389">
+      <c r="F29" s="322">
         <f t="shared" si="18"/>
         <v>17767.49078198311</v>
       </c>
-      <c r="G29" s="389">
+      <c r="G29" s="322">
         <f t="shared" si="18"/>
         <v>17767.49078198311</v>
       </c>
@@ -44979,7 +44991,7 @@
         <v>17767.49078198311</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A30" t="s">
         <v>356</v>
       </c>
@@ -44999,11 +45011,11 @@
         <f t="shared" si="19"/>
         <v>1.3867686977437444E-2</v>
       </c>
-      <c r="F30" s="389">
+      <c r="F30" s="322">
         <f t="shared" si="19"/>
         <v>1.3867686977437444E-2</v>
       </c>
-      <c r="G30" s="389">
+      <c r="G30" s="322">
         <f t="shared" si="19"/>
         <v>1.3867686977437444E-2</v>
       </c>
@@ -45012,13 +45024,13 @@
         <v>1.3867686977437444E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" collapsed="1" thickBot="1"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1"/>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="302" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A33" t="s">
         <v>363</v>
       </c>
@@ -45038,11 +45050,11 @@
         <f t="shared" si="20"/>
         <v>12.7</v>
       </c>
-      <c r="F33" s="389">
+      <c r="F33" s="322">
         <f t="shared" si="20"/>
         <v>12.7</v>
       </c>
-      <c r="G33" s="389">
+      <c r="G33" s="322">
         <f t="shared" si="20"/>
         <v>12.7</v>
       </c>
@@ -45051,7 +45063,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="34" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -45071,11 +45083,11 @@
         <f t="shared" si="21"/>
         <v>0.127</v>
       </c>
-      <c r="F34" s="389">
+      <c r="F34" s="322">
         <f t="shared" si="21"/>
         <v>0.127</v>
       </c>
-      <c r="G34" s="389">
+      <c r="G34" s="322">
         <f t="shared" si="21"/>
         <v>0.127</v>
       </c>
@@ -45084,7 +45096,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="35" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A35" t="s">
         <v>365</v>
       </c>
@@ -45104,11 +45116,11 @@
         <f t="shared" si="22"/>
         <v>17.116666666666667</v>
       </c>
-      <c r="F35" s="392">
+      <c r="F35" s="325">
         <f t="shared" si="22"/>
         <v>17.116666666666667</v>
       </c>
-      <c r="G35" s="392">
+      <c r="G35" s="325">
         <f t="shared" si="22"/>
         <v>17.116666666666667</v>
       </c>
@@ -45117,7 +45129,7 @@
         <v>17.116666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A36" t="s">
         <v>366</v>
       </c>
@@ -45137,11 +45149,11 @@
         <f t="shared" si="23"/>
         <v>0.17116666666666666</v>
       </c>
-      <c r="F36" s="389">
+      <c r="F36" s="322">
         <f t="shared" si="23"/>
         <v>0.17116666666666666</v>
       </c>
-      <c r="G36" s="389">
+      <c r="G36" s="322">
         <f t="shared" si="23"/>
         <v>0.17116666666666666</v>
       </c>
@@ -45150,7 +45162,7 @@
         <v>0.17116666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="37" spans="1:8" outlineLevel="1">
       <c r="A37" s="304" t="s">
         <v>367</v>
       </c>
@@ -45166,17 +45178,17 @@
       <c r="E37" s="222">
         <v>15</v>
       </c>
-      <c r="F37" s="389">
+      <c r="F37" s="322">
         <v>15</v>
       </c>
-      <c r="G37" s="389">
+      <c r="G37" s="322">
         <v>15</v>
       </c>
       <c r="H37" s="222">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A38" t="s">
         <v>364</v>
       </c>
@@ -45196,11 +45208,11 @@
         <f t="shared" si="24"/>
         <v>0.15</v>
       </c>
-      <c r="F38" s="389">
+      <c r="F38" s="322">
         <f t="shared" si="24"/>
         <v>0.15</v>
       </c>
-      <c r="G38" s="389">
+      <c r="G38" s="322">
         <f t="shared" si="24"/>
         <v>0.15</v>
       </c>
@@ -45209,7 +45221,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:8" outlineLevel="1">
       <c r="A39" s="304" t="s">
         <v>368</v>
       </c>
@@ -45225,17 +45237,17 @@
       <c r="E39" s="222">
         <v>10</v>
       </c>
-      <c r="F39" s="389">
+      <c r="F39" s="322">
         <v>10</v>
       </c>
-      <c r="G39" s="389">
+      <c r="G39" s="322">
         <v>10</v>
       </c>
       <c r="H39" s="222">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A40" t="s">
         <v>364</v>
       </c>
@@ -45255,11 +45267,11 @@
         <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
-      <c r="F40" s="389">
+      <c r="F40" s="322">
         <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
-      <c r="G40" s="389">
+      <c r="G40" s="322">
         <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
@@ -45268,7 +45280,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:8" outlineLevel="1">
       <c r="A41" s="304" t="s">
         <v>369</v>
       </c>
@@ -45284,17 +45296,17 @@
       <c r="E41" s="222">
         <v>2</v>
       </c>
-      <c r="F41" s="389">
+      <c r="F41" s="322">
         <v>2</v>
       </c>
-      <c r="G41" s="389">
+      <c r="G41" s="322">
         <v>2</v>
       </c>
       <c r="H41" s="222">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A42" t="s">
         <v>364</v>
       </c>
@@ -45314,11 +45326,11 @@
         <f t="shared" si="26"/>
         <v>0.02</v>
       </c>
-      <c r="F42" s="389">
+      <c r="F42" s="322">
         <f t="shared" si="26"/>
         <v>0.02</v>
       </c>
-      <c r="G42" s="389">
+      <c r="G42" s="322">
         <f t="shared" si="26"/>
         <v>0.02</v>
       </c>
@@ -45327,7 +45339,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:8" outlineLevel="1">
       <c r="A43" s="304" t="s">
         <v>370</v>
       </c>
@@ -45343,17 +45355,17 @@
       <c r="E43" s="222">
         <v>45</v>
       </c>
-      <c r="F43" s="389">
+      <c r="F43" s="322">
         <v>45</v>
       </c>
-      <c r="G43" s="389">
+      <c r="G43" s="322">
         <v>45</v>
       </c>
       <c r="H43" s="222">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A44" t="s">
         <v>371</v>
       </c>
@@ -45373,11 +45385,11 @@
         <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F44" s="389">
+      <c r="F44" s="322">
         <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G44" s="389">
+      <c r="G44" s="322">
         <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
@@ -45386,7 +45398,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -45406,11 +45418,11 @@
         <f t="shared" si="28"/>
         <v>21.35</v>
       </c>
-      <c r="F45" s="389">
+      <c r="F45" s="322">
         <f t="shared" si="28"/>
         <v>21.35</v>
       </c>
-      <c r="G45" s="389">
+      <c r="G45" s="322">
         <f t="shared" si="28"/>
         <v>21.35</v>
       </c>
@@ -45419,7 +45431,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A46" t="s">
         <v>364</v>
       </c>
@@ -45439,11 +45451,11 @@
         <f t="shared" si="29"/>
         <v>0.21350000000000002</v>
       </c>
-      <c r="F46" s="389">
+      <c r="F46" s="322">
         <f t="shared" si="29"/>
         <v>0.21350000000000002</v>
       </c>
-      <c r="G46" s="389">
+      <c r="G46" s="322">
         <f t="shared" si="29"/>
         <v>0.21350000000000002</v>
       </c>
@@ -45452,7 +45464,7 @@
         <v>0.21350000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="47" spans="1:8" outlineLevel="1">
       <c r="A47" s="304" t="s">
         <v>373</v>
       </c>
@@ -45468,17 +45480,17 @@
       <c r="E47" s="222">
         <v>15</v>
       </c>
-      <c r="F47" s="389">
+      <c r="F47" s="322">
         <v>15</v>
       </c>
-      <c r="G47" s="389">
+      <c r="G47" s="322">
         <v>15</v>
       </c>
       <c r="H47" s="222">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A48" t="s">
         <v>366</v>
       </c>
@@ -45498,11 +45510,11 @@
         <f t="shared" si="30"/>
         <v>0.15</v>
       </c>
-      <c r="F48" s="389">
+      <c r="F48" s="322">
         <f t="shared" si="30"/>
         <v>0.15</v>
       </c>
-      <c r="G48" s="389">
+      <c r="G48" s="322">
         <f t="shared" si="30"/>
         <v>0.15</v>
       </c>
@@ -45511,7 +45523,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="49" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A49" t="s">
         <v>374</v>
       </c>
@@ -45531,11 +45543,11 @@
         <f t="shared" si="31"/>
         <v>2.894704166666667E-2</v>
       </c>
-      <c r="F49" s="389">
+      <c r="F49" s="322">
         <f t="shared" si="31"/>
         <v>2.894704166666667E-2</v>
       </c>
-      <c r="G49" s="389">
+      <c r="G49" s="322">
         <f t="shared" si="31"/>
         <v>2.894704166666667E-2</v>
       </c>
@@ -45544,7 +45556,7 @@
         <v>2.894704166666667E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -45564,11 +45576,11 @@
         <f t="shared" si="32"/>
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="F50" s="389">
+      <c r="F50" s="322">
         <f t="shared" si="32"/>
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="G50" s="389">
+      <c r="G50" s="322">
         <f t="shared" si="32"/>
         <v>1.8749999999999999E-2</v>
       </c>
@@ -45577,7 +45589,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:8" ht="14.25" outlineLevel="1">
       <c r="A51" t="s">
         <v>376</v>
       </c>
@@ -45597,11 +45609,11 @@
         <f t="shared" si="33"/>
         <v>3.1493546404425325</v>
       </c>
-      <c r="F51" s="392">
+      <c r="F51" s="325">
         <f t="shared" si="33"/>
         <v>3.1493546404425325</v>
       </c>
-      <c r="G51" s="392">
+      <c r="G51" s="325">
         <f t="shared" si="33"/>
         <v>3.1493546404425325</v>
       </c>
@@ -45610,13 +45622,13 @@
         <v>3.1493546404425325</v>
       </c>
     </row>
-    <row r="52" spans="1:8" collapsed="1" thickBot="1">
+    <row r="52" spans="1:8" thickBot="1">
       <c r="B52" s="294"/>
       <c r="C52" s="294"/>
       <c r="D52" s="294"/>
       <c r="E52" s="294"/>
-      <c r="F52" s="392"/>
-      <c r="G52" s="392"/>
+      <c r="F52" s="325"/>
+      <c r="G52" s="325"/>
       <c r="H52" s="294"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
@@ -45627,8 +45639,8 @@
       <c r="C53" s="294"/>
       <c r="D53" s="294"/>
       <c r="E53" s="294"/>
-      <c r="F53" s="392"/>
-      <c r="G53" s="392"/>
+      <c r="F53" s="325"/>
+      <c r="G53" s="325"/>
       <c r="H53" s="294"/>
     </row>
     <row r="54" spans="1:8" ht="14.25">
@@ -45651,11 +45663,11 @@
         <f t="shared" si="34"/>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="F54" s="392">
+      <c r="F54" s="325">
         <f t="shared" si="34"/>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="G54" s="392">
+      <c r="G54" s="325">
         <f t="shared" si="34"/>
         <v>1.3636363636363636E-2</v>
       </c>
@@ -45684,11 +45696,11 @@
         <f t="shared" si="35"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="F55" s="392">
+      <c r="F55" s="325">
         <f t="shared" si="35"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="G55" s="392">
+      <c r="G55" s="325">
         <f t="shared" si="35"/>
         <v>-0.33333333333333331</v>
       </c>
@@ -45705,8 +45717,8 @@
       <c r="C56" s="294"/>
       <c r="D56" s="294"/>
       <c r="E56" s="294"/>
-      <c r="F56" s="392"/>
-      <c r="G56" s="392"/>
+      <c r="F56" s="325"/>
+      <c r="G56" s="325"/>
       <c r="H56" s="294"/>
     </row>
     <row r="57" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
@@ -45729,11 +45741,11 @@
         <f t="shared" si="36"/>
         <v>6.8181818181818179E-3</v>
       </c>
-      <c r="F57" s="392">
+      <c r="F57" s="325">
         <f t="shared" si="36"/>
         <v>6.8181818181818179E-3</v>
       </c>
-      <c r="G57" s="392">
+      <c r="G57" s="325">
         <f t="shared" si="36"/>
         <v>6.8181818181818179E-3</v>
       </c>
@@ -45762,11 +45774,11 @@
         <f t="shared" si="37"/>
         <v>2.0454545454545454E-2</v>
       </c>
-      <c r="F58" s="392">
+      <c r="F58" s="325">
         <f t="shared" si="37"/>
         <v>2.0454545454545454E-2</v>
       </c>
-      <c r="G58" s="392">
+      <c r="G58" s="325">
         <f t="shared" si="37"/>
         <v>2.0454545454545454E-2</v>
       </c>
@@ -45795,11 +45807,11 @@
         <f t="shared" si="38"/>
         <v>3.4090909090909088E-2</v>
       </c>
-      <c r="F59" s="392">
+      <c r="F59" s="325">
         <f t="shared" si="38"/>
         <v>3.4090909090909088E-2</v>
       </c>
-      <c r="G59" s="392">
+      <c r="G59" s="325">
         <f t="shared" si="38"/>
         <v>3.4090909090909088E-2</v>
       </c>
@@ -45828,11 +45840,11 @@
         <f t="shared" si="39"/>
         <v>4.7727272727272722E-2</v>
       </c>
-      <c r="F60" s="392">
+      <c r="F60" s="325">
         <f t="shared" si="39"/>
         <v>4.7727272727272722E-2</v>
       </c>
-      <c r="G60" s="392">
+      <c r="G60" s="325">
         <f t="shared" si="39"/>
         <v>4.7727272727272722E-2</v>
       </c>
@@ -45861,11 +45873,11 @@
         <f t="shared" si="39"/>
         <v>6.1363636363636356E-2</v>
       </c>
-      <c r="F61" s="392">
+      <c r="F61" s="325">
         <f t="shared" si="39"/>
         <v>6.1363636363636356E-2</v>
       </c>
-      <c r="G61" s="392">
+      <c r="G61" s="325">
         <f t="shared" si="39"/>
         <v>6.1363636363636356E-2</v>
       </c>
@@ -45894,11 +45906,11 @@
         <f t="shared" si="39"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F62" s="392">
+      <c r="F62" s="325">
         <f t="shared" si="39"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G62" s="392">
+      <c r="G62" s="325">
         <f t="shared" si="39"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -45927,11 +45939,11 @@
         <f t="shared" si="39"/>
         <v>8.8636363636363638E-2</v>
       </c>
-      <c r="F63" s="392">
+      <c r="F63" s="325">
         <f t="shared" si="39"/>
         <v>8.8636363636363638E-2</v>
       </c>
-      <c r="G63" s="392">
+      <c r="G63" s="325">
         <f t="shared" si="39"/>
         <v>8.8636363636363638E-2</v>
       </c>
@@ -45960,11 +45972,11 @@
         <f t="shared" si="39"/>
         <v>0.10227272727272728</v>
       </c>
-      <c r="F64" s="392">
+      <c r="F64" s="325">
         <f t="shared" si="39"/>
         <v>0.10227272727272728</v>
       </c>
-      <c r="G64" s="392">
+      <c r="G64" s="325">
         <f t="shared" si="39"/>
         <v>0.10227272727272728</v>
       </c>
@@ -45993,11 +46005,11 @@
         <f t="shared" si="39"/>
         <v>0.11590909090909092</v>
       </c>
-      <c r="F65" s="392">
+      <c r="F65" s="325">
         <f t="shared" si="39"/>
         <v>0.11590909090909092</v>
       </c>
-      <c r="G65" s="392">
+      <c r="G65" s="325">
         <f t="shared" si="39"/>
         <v>0.11590909090909092</v>
       </c>
@@ -46026,11 +46038,11 @@
         <f t="shared" si="39"/>
         <v>0.12954545454545455</v>
       </c>
-      <c r="F66" s="392">
+      <c r="F66" s="325">
         <f t="shared" si="39"/>
         <v>0.12954545454545455</v>
       </c>
-      <c r="G66" s="392">
+      <c r="G66" s="325">
         <f t="shared" si="39"/>
         <v>0.12954545454545455</v>
       </c>
@@ -46059,11 +46071,11 @@
         <f t="shared" si="39"/>
         <v>0.14318181818181819</v>
       </c>
-      <c r="F67" s="392">
+      <c r="F67" s="325">
         <f t="shared" si="39"/>
         <v>0.14318181818181819</v>
       </c>
-      <c r="G67" s="392">
+      <c r="G67" s="325">
         <f t="shared" si="39"/>
         <v>0.14318181818181819</v>
       </c>
@@ -46080,8 +46092,8 @@
       <c r="C68" s="294"/>
       <c r="D68" s="294"/>
       <c r="E68" s="294"/>
-      <c r="F68" s="392"/>
-      <c r="G68" s="392"/>
+      <c r="F68" s="325"/>
+      <c r="G68" s="325"/>
       <c r="H68" s="294"/>
     </row>
     <row r="69" spans="1:8" ht="14.25" outlineLevel="1">
@@ -46104,11 +46116,11 @@
         <f t="shared" si="40"/>
         <v>0.14772727272727273</v>
       </c>
-      <c r="F69" s="392">
+      <c r="F69" s="325">
         <f t="shared" si="40"/>
         <v>0.14772727272727273</v>
       </c>
-      <c r="G69" s="392">
+      <c r="G69" s="325">
         <f t="shared" si="40"/>
         <v>0.14772727272727273</v>
       </c>
@@ -46137,11 +46149,11 @@
         <f t="shared" si="41"/>
         <v>0.14318181818181819</v>
       </c>
-      <c r="F70" s="392">
+      <c r="F70" s="325">
         <f t="shared" si="41"/>
         <v>0.14318181818181819</v>
       </c>
-      <c r="G70" s="392">
+      <c r="G70" s="325">
         <f t="shared" si="41"/>
         <v>0.14318181818181819</v>
       </c>
@@ -46170,11 +46182,11 @@
         <f t="shared" si="42"/>
         <v>0.13863636363636364</v>
       </c>
-      <c r="F71" s="392">
+      <c r="F71" s="325">
         <f t="shared" si="42"/>
         <v>0.13863636363636364</v>
       </c>
-      <c r="G71" s="392">
+      <c r="G71" s="325">
         <f t="shared" si="42"/>
         <v>0.13863636363636364</v>
       </c>
@@ -46203,11 +46215,11 @@
         <f t="shared" si="43"/>
         <v>0.13409090909090909</v>
       </c>
-      <c r="F72" s="392">
+      <c r="F72" s="325">
         <f t="shared" si="43"/>
         <v>0.13409090909090909</v>
       </c>
-      <c r="G72" s="392">
+      <c r="G72" s="325">
         <f t="shared" si="43"/>
         <v>0.13409090909090909</v>
       </c>
@@ -46236,11 +46248,11 @@
         <f t="shared" si="44"/>
         <v>0.12954545454545455</v>
       </c>
-      <c r="F73" s="392">
+      <c r="F73" s="325">
         <f t="shared" si="44"/>
         <v>0.12954545454545455</v>
       </c>
-      <c r="G73" s="392">
+      <c r="G73" s="325">
         <f t="shared" si="44"/>
         <v>0.12954545454545455</v>
       </c>
@@ -46269,11 +46281,11 @@
         <f t="shared" si="45"/>
         <v>0.125</v>
       </c>
-      <c r="F74" s="392">
+      <c r="F74" s="325">
         <f t="shared" si="45"/>
         <v>0.125</v>
       </c>
-      <c r="G74" s="392">
+      <c r="G74" s="325">
         <f t="shared" si="45"/>
         <v>0.125</v>
       </c>
@@ -46302,11 +46314,11 @@
         <f t="shared" si="46"/>
         <v>0.12045454545454545</v>
       </c>
-      <c r="F75" s="392">
+      <c r="F75" s="325">
         <f t="shared" si="46"/>
         <v>0.12045454545454545</v>
       </c>
-      <c r="G75" s="392">
+      <c r="G75" s="325">
         <f t="shared" si="46"/>
         <v>0.12045454545454545</v>
       </c>
@@ -46335,11 +46347,11 @@
         <f t="shared" si="47"/>
         <v>0.11590909090909091</v>
       </c>
-      <c r="F76" s="392">
+      <c r="F76" s="325">
         <f t="shared" si="47"/>
         <v>0.11590909090909091</v>
       </c>
-      <c r="G76" s="392">
+      <c r="G76" s="325">
         <f t="shared" si="47"/>
         <v>0.11590909090909091</v>
       </c>
@@ -46368,11 +46380,11 @@
         <f t="shared" si="48"/>
         <v>0.11136363636363636</v>
       </c>
-      <c r="F77" s="392">
+      <c r="F77" s="325">
         <f t="shared" si="48"/>
         <v>0.11136363636363636</v>
       </c>
-      <c r="G77" s="392">
+      <c r="G77" s="325">
         <f t="shared" si="48"/>
         <v>0.11136363636363636</v>
       </c>
@@ -46401,11 +46413,11 @@
         <f t="shared" si="49"/>
         <v>0.10681818181818181</v>
       </c>
-      <c r="F78" s="392">
+      <c r="F78" s="325">
         <f t="shared" si="49"/>
         <v>0.10681818181818181</v>
       </c>
-      <c r="G78" s="392">
+      <c r="G78" s="325">
         <f t="shared" si="49"/>
         <v>0.10681818181818181</v>
       </c>
@@ -46434,11 +46446,11 @@
         <f t="shared" si="50"/>
         <v>0.10227272727272727</v>
       </c>
-      <c r="F79" s="392">
+      <c r="F79" s="325">
         <f t="shared" si="50"/>
         <v>0.10227272727272727</v>
       </c>
-      <c r="G79" s="392">
+      <c r="G79" s="325">
         <f t="shared" si="50"/>
         <v>0.10227272727272727</v>
       </c>
@@ -46455,8 +46467,8 @@
       <c r="C80" s="294"/>
       <c r="D80" s="294"/>
       <c r="E80" s="294"/>
-      <c r="F80" s="392"/>
-      <c r="G80" s="392"/>
+      <c r="F80" s="325"/>
+      <c r="G80" s="325"/>
       <c r="H80" s="294"/>
     </row>
     <row r="81" spans="1:8" ht="14.25" outlineLevel="1">
@@ -46479,11 +46491,11 @@
         <f t="shared" si="51"/>
         <v>1.9834710743801649E-3</v>
       </c>
-      <c r="F81" s="393">
+      <c r="F81" s="326">
         <f t="shared" si="51"/>
         <v>1.9834710743801649E-3</v>
       </c>
-      <c r="G81" s="393">
+      <c r="G81" s="326">
         <f t="shared" si="51"/>
         <v>1.9834710743801649E-3</v>
       </c>
@@ -46512,11 +46524,11 @@
         <f t="shared" si="52"/>
         <v>1.9214876033057853E-3</v>
       </c>
-      <c r="F82" s="393">
+      <c r="F82" s="326">
         <f t="shared" si="52"/>
         <v>1.9214876033057853E-3</v>
       </c>
-      <c r="G82" s="393">
+      <c r="G82" s="326">
         <f t="shared" si="52"/>
         <v>1.9214876033057853E-3</v>
       </c>
@@ -46545,11 +46557,11 @@
         <f t="shared" si="52"/>
         <v>1.8595041322314048E-3</v>
       </c>
-      <c r="F83" s="393">
+      <c r="F83" s="326">
         <f t="shared" si="52"/>
         <v>1.8595041322314048E-3</v>
       </c>
-      <c r="G83" s="393">
+      <c r="G83" s="326">
         <f t="shared" si="52"/>
         <v>1.8595041322314048E-3</v>
       </c>
@@ -46578,11 +46590,11 @@
         <f t="shared" si="52"/>
         <v>1.7975206611570249E-3</v>
       </c>
-      <c r="F84" s="393">
+      <c r="F84" s="326">
         <f t="shared" si="52"/>
         <v>1.7975206611570249E-3</v>
       </c>
-      <c r="G84" s="393">
+      <c r="G84" s="326">
         <f t="shared" si="52"/>
         <v>1.7975206611570249E-3</v>
       </c>
@@ -46611,11 +46623,11 @@
         <f t="shared" si="52"/>
         <v>1.7355371900826444E-3</v>
       </c>
-      <c r="F85" s="393">
+      <c r="F85" s="326">
         <f t="shared" si="52"/>
         <v>1.7355371900826444E-3</v>
       </c>
-      <c r="G85" s="393">
+      <c r="G85" s="326">
         <f t="shared" si="52"/>
         <v>1.7355371900826444E-3</v>
       </c>
@@ -46644,11 +46656,11 @@
         <f t="shared" si="52"/>
         <v>1.6735537190082643E-3</v>
       </c>
-      <c r="F86" s="393">
+      <c r="F86" s="326">
         <f t="shared" si="52"/>
         <v>1.6735537190082643E-3</v>
       </c>
-      <c r="G86" s="393">
+      <c r="G86" s="326">
         <f t="shared" si="52"/>
         <v>1.6735537190082643E-3</v>
       </c>
@@ -46677,11 +46689,11 @@
         <f t="shared" si="52"/>
         <v>1.6115702479338842E-3</v>
       </c>
-      <c r="F87" s="393">
+      <c r="F87" s="326">
         <f t="shared" si="52"/>
         <v>1.6115702479338842E-3</v>
       </c>
-      <c r="G87" s="393">
+      <c r="G87" s="326">
         <f t="shared" si="52"/>
         <v>1.6115702479338842E-3</v>
       </c>
@@ -46710,11 +46722,11 @@
         <f t="shared" si="52"/>
         <v>1.549586776859504E-3</v>
       </c>
-      <c r="F88" s="393">
+      <c r="F88" s="326">
         <f t="shared" si="52"/>
         <v>1.549586776859504E-3</v>
       </c>
-      <c r="G88" s="393">
+      <c r="G88" s="326">
         <f t="shared" si="52"/>
         <v>1.549586776859504E-3</v>
       </c>
@@ -46743,11 +46755,11 @@
         <f t="shared" si="52"/>
         <v>1.4876033057851239E-3</v>
       </c>
-      <c r="F89" s="393">
+      <c r="F89" s="326">
         <f t="shared" si="52"/>
         <v>1.4876033057851239E-3</v>
       </c>
-      <c r="G89" s="393">
+      <c r="G89" s="326">
         <f t="shared" si="52"/>
         <v>1.4876033057851239E-3</v>
       </c>
@@ -46776,11 +46788,11 @@
         <f t="shared" si="53"/>
         <v>1.4256198347107436E-3</v>
       </c>
-      <c r="F90" s="393">
+      <c r="F90" s="326">
         <f t="shared" si="53"/>
         <v>1.4256198347107436E-3</v>
       </c>
-      <c r="G90" s="393">
+      <c r="G90" s="326">
         <f t="shared" si="53"/>
         <v>1.4256198347107436E-3</v>
       </c>
@@ -46809,11 +46821,11 @@
         <f t="shared" si="54"/>
         <v>1.7045454545454544E-2</v>
       </c>
-      <c r="F91" s="392">
+      <c r="F91" s="325">
         <f t="shared" si="54"/>
         <v>1.7045454545454544E-2</v>
       </c>
-      <c r="G91" s="392">
+      <c r="G91" s="325">
         <f t="shared" si="54"/>
         <v>1.7045454545454544E-2</v>
       </c>
@@ -46847,7 +46859,7 @@
         <f t="shared" si="55"/>
         <v>2.0530322770652725</v>
       </c>
-      <c r="F93" s="398">
+      <c r="F93" s="331">
         <f t="shared" si="55"/>
         <v>2.0530322770652725</v>
       </c>
@@ -46862,7 +46874,7 @@
     </row>
     <row r="94" spans="1:8" s="198" customFormat="1" ht="14.25">
       <c r="A94" s="198" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B94" s="295">
         <f>IF(B6&lt;1,B93,IF(B6&gt;1,(4)/SQRT(B6^2-1),(4)/SQRT((1.01)^2-1)))</f>
@@ -46880,7 +46892,7 @@
         <f t="shared" ref="E94:H94" si="56">IF(E6&lt;1,E93,IF(E6&gt;1,(4)/SQRT(E6^2-1),(4)/SQRT((1.01)^2-1)))</f>
         <v>2.0530322770652725</v>
       </c>
-      <c r="F94" s="398">
+      <c r="F94" s="331">
         <f t="shared" si="56"/>
         <v>2.0530322770652725</v>
       </c>
@@ -46913,11 +46925,11 @@
         <f t="shared" si="57"/>
         <v>2.2214414690791831</v>
       </c>
-      <c r="F95" s="389">
+      <c r="F95" s="322">
         <f t="shared" si="57"/>
         <v>2.2214414690791831</v>
       </c>
-      <c r="G95" s="389">
+      <c r="G95" s="322">
         <f t="shared" si="57"/>
         <v>2.2214414690791831</v>
       </c>
@@ -46946,11 +46958,11 @@
         <f t="shared" si="58"/>
         <v>1.0248956925229649</v>
       </c>
-      <c r="F96" s="389">
+      <c r="F96" s="322">
         <f t="shared" si="58"/>
         <v>1.0248956925229649</v>
       </c>
-      <c r="G96" s="389">
+      <c r="G96" s="322">
         <f t="shared" si="58"/>
         <v>1.0248956925229649</v>
       </c>
@@ -46979,11 +46991,11 @@
         <f t="shared" si="59"/>
         <v>0.22452434289432335</v>
       </c>
-      <c r="F97" s="389">
+      <c r="F97" s="322">
         <f t="shared" si="59"/>
         <v>0.22452434289432335</v>
       </c>
-      <c r="G97" s="389">
+      <c r="G97" s="322">
         <f t="shared" si="59"/>
         <v>0.22452434289432335</v>
       </c>
@@ -47013,11 +47025,11 @@
         <f t="shared" si="60"/>
         <v>1648091.1410911607</v>
       </c>
-      <c r="F99" s="391">
+      <c r="F99" s="324">
         <f t="shared" si="60"/>
         <v>1603331.2719423228</v>
       </c>
-      <c r="G99" s="391">
+      <c r="G99" s="324">
         <f t="shared" si="60"/>
         <v>1546369.0836961125</v>
       </c>
@@ -47046,11 +47058,11 @@
         <f t="shared" si="61"/>
         <v>109872742.73941073</v>
       </c>
-      <c r="F100" s="391">
+      <c r="F100" s="324">
         <f t="shared" si="61"/>
         <v>106888751.46282153</v>
       </c>
-      <c r="G100" s="391">
+      <c r="G100" s="324">
         <f t="shared" si="61"/>
         <v>103091272.24640751</v>
       </c>
@@ -47075,10 +47087,10 @@
       <c r="E101" s="313">
         <v>2.2364691192085732E-3</v>
       </c>
-      <c r="F101" s="394">
+      <c r="F101" s="327">
         <v>1.5430452013868042E-3</v>
       </c>
-      <c r="G101" s="394">
+      <c r="G101" s="327">
         <v>1.1727681502455444E-2</v>
       </c>
       <c r="H101" s="313">
@@ -47105,11 +47117,11 @@
         <f t="shared" si="62"/>
         <v>2.2364691192085734E-6</v>
       </c>
-      <c r="F102" s="391">
+      <c r="F102" s="324">
         <f t="shared" si="62"/>
         <v>1.5430452013868042E-6</v>
       </c>
-      <c r="G102" s="391">
+      <c r="G102" s="324">
         <f t="shared" si="62"/>
         <v>1.1727681502455444E-5</v>
       </c>
@@ -47138,11 +47150,11 @@
         <f t="shared" si="63"/>
         <v>20.018227724287421</v>
       </c>
-      <c r="F103" s="389">
+      <c r="F103" s="322">
         <f t="shared" si="63"/>
         <v>13.436414909803412</v>
       </c>
-      <c r="G103" s="389">
+      <c r="G103" s="322">
         <f t="shared" si="63"/>
         <v>98.493328859172721</v>
       </c>
@@ -47153,7 +47165,7 @@
     </row>
     <row r="104" spans="1:8" s="218" customFormat="1">
       <c r="A104" s="307" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B104" s="314">
         <f>B116</f>
@@ -47171,7 +47183,7 @@
         <f t="shared" si="64"/>
         <v>0.80894337869917499</v>
       </c>
-      <c r="F104" s="389">
+      <c r="F104" s="322">
         <f t="shared" si="64"/>
         <v>0.54297008828373949</v>
       </c>
@@ -47204,11 +47216,11 @@
         <f t="shared" si="65"/>
         <v>0.03</v>
       </c>
-      <c r="F105" s="389">
+      <c r="F105" s="322">
         <f t="shared" si="65"/>
         <v>0.03</v>
       </c>
-      <c r="G105" s="389">
+      <c r="G105" s="322">
         <f t="shared" si="65"/>
         <v>0.03</v>
       </c>
@@ -47237,11 +47249,11 @@
         <f t="shared" si="66"/>
         <v>329618.22821823211</v>
       </c>
-      <c r="F106" s="391">
+      <c r="F106" s="324">
         <f t="shared" si="66"/>
         <v>320666.25438846461</v>
       </c>
-      <c r="G106" s="391">
+      <c r="G106" s="324">
         <f t="shared" si="66"/>
         <v>309273.8167392225</v>
       </c>
@@ -47270,11 +47282,11 @@
         <f t="shared" si="67"/>
         <v>659236.45643646421</v>
       </c>
-      <c r="F107" s="391">
+      <c r="F107" s="324">
         <f t="shared" si="67"/>
         <v>641332.50877692923</v>
       </c>
-      <c r="G107" s="391">
+      <c r="G107" s="324">
         <f t="shared" si="67"/>
         <v>618547.633478445</v>
       </c>
@@ -47303,11 +47315,11 @@
         <f t="shared" si="67"/>
         <v>988854.68465469638</v>
       </c>
-      <c r="F108" s="391">
+      <c r="F108" s="324">
         <f t="shared" si="67"/>
         <v>961998.76316539373</v>
       </c>
-      <c r="G108" s="391">
+      <c r="G108" s="324">
         <f t="shared" si="67"/>
         <v>927821.4502176675</v>
       </c>
@@ -47336,11 +47348,11 @@
         <f t="shared" si="67"/>
         <v>1318472.9128729284</v>
       </c>
-      <c r="F109" s="391">
+      <c r="F109" s="324">
         <f t="shared" si="67"/>
         <v>1282665.0175538585</v>
       </c>
-      <c r="G109" s="391">
+      <c r="G109" s="324">
         <f t="shared" si="67"/>
         <v>1237095.26695689</v>
       </c>
@@ -47369,11 +47381,11 @@
         <f t="shared" si="67"/>
         <v>1648091.1410911607</v>
       </c>
-      <c r="F110" s="391">
+      <c r="F110" s="324">
         <f t="shared" si="67"/>
         <v>1603331.2719423228</v>
       </c>
-      <c r="G110" s="391">
+      <c r="G110" s="324">
         <f t="shared" si="67"/>
         <v>1546369.0836961125</v>
       </c>
@@ -47390,8 +47402,8 @@
       <c r="C111" s="217"/>
       <c r="D111" s="217"/>
       <c r="E111" s="217"/>
-      <c r="F111" s="391"/>
-      <c r="G111" s="391"/>
+      <c r="F111" s="324"/>
+      <c r="G111" s="324"/>
       <c r="H111" s="217"/>
     </row>
     <row r="112" spans="1:8" ht="14.25" hidden="1" outlineLevel="1">
@@ -47414,11 +47426,11 @@
         <f t="shared" si="68"/>
         <v>0.95020021650567599</v>
       </c>
-      <c r="F112" s="391">
+      <c r="F112" s="324">
         <f t="shared" si="68"/>
         <v>0.63778295122825446</v>
       </c>
-      <c r="G112" s="391">
+      <c r="G112" s="324">
         <f t="shared" si="68"/>
         <v>4.6751582455425424</v>
       </c>
@@ -47447,11 +47459,11 @@
         <f t="shared" si="69"/>
         <v>0.88656815056521299</v>
       </c>
-      <c r="F113" s="391">
+      <c r="F113" s="324">
         <f t="shared" si="69"/>
         <v>0.59507253493567203</v>
       </c>
-      <c r="G113" s="391">
+      <c r="G113" s="324">
         <f t="shared" si="69"/>
         <v>4.3620768837465311</v>
       </c>
@@ -47480,11 +47492,11 @@
         <f t="shared" si="69"/>
         <v>0.85133992252078428</v>
       </c>
-      <c r="F114" s="391">
+      <c r="F114" s="324">
         <f t="shared" si="69"/>
         <v>0.57142703069516287</v>
       </c>
-      <c r="G114" s="391">
+      <c r="G114" s="324">
         <f t="shared" si="69"/>
         <v>4.1887475811881369</v>
       </c>
@@ -47513,11 +47525,11 @@
         <f t="shared" si="69"/>
         <v>0.82719733372311555</v>
       </c>
-      <c r="F115" s="391">
+      <c r="F115" s="324">
         <f t="shared" si="69"/>
         <v>0.55522230745242152</v>
       </c>
-      <c r="G115" s="391">
+      <c r="G115" s="324">
         <f t="shared" si="69"/>
         <v>4.0699616441555806</v>
       </c>
@@ -47546,11 +47558,11 @@
         <f t="shared" si="69"/>
         <v>0.80894337869917499</v>
       </c>
-      <c r="F116" s="391">
+      <c r="F116" s="324">
         <f t="shared" si="69"/>
         <v>0.54297008828373949</v>
       </c>
-      <c r="G116" s="391">
+      <c r="G116" s="324">
         <f t="shared" si="69"/>
         <v>3.9801488585325955</v>
       </c>
@@ -47561,7 +47573,7 @@
     </row>
     <row r="117" spans="1:8" s="218" customFormat="1" collapsed="1">
       <c r="A117" s="307" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B117" s="314">
         <f>B123</f>
@@ -47579,7 +47591,7 @@
         <f t="shared" si="70"/>
         <v>0.79977978580300635</v>
       </c>
-      <c r="F117" s="389">
+      <c r="F117" s="322">
         <f t="shared" si="70"/>
         <v>0.53681940212344248</v>
       </c>
@@ -47617,11 +47629,11 @@
         <f t="shared" si="71"/>
         <v>0.93943648670308955</v>
       </c>
-      <c r="F119" s="391">
+      <c r="F119" s="324">
         <f t="shared" si="71"/>
         <v>0.63055823875138028</v>
       </c>
-      <c r="G119" s="391">
+      <c r="G119" s="324">
         <f t="shared" si="71"/>
         <v>4.6221987331521834</v>
       </c>
@@ -47650,11 +47662,11 @@
         <f t="shared" si="72"/>
         <v>0.87652523554741191</v>
       </c>
-      <c r="F120" s="391">
+      <c r="F120" s="324">
         <f t="shared" si="72"/>
         <v>0.58833163984038084</v>
       </c>
-      <c r="G120" s="391">
+      <c r="G120" s="324">
         <f t="shared" si="72"/>
         <v>4.312663911470624</v>
       </c>
@@ -47683,11 +47695,11 @@
         <f t="shared" si="72"/>
         <v>0.84169606774471684</v>
       </c>
-      <c r="F121" s="391">
+      <c r="F121" s="324">
         <f t="shared" si="72"/>
         <v>0.56495398843159039</v>
       </c>
-      <c r="G121" s="391">
+      <c r="G121" s="324">
         <f t="shared" si="72"/>
         <v>4.1412980580329535</v>
       </c>
@@ -47716,11 +47728,11 @@
         <f t="shared" si="72"/>
         <v>0.81782696268030664</v>
       </c>
-      <c r="F122" s="391">
+      <c r="F122" s="324">
         <f t="shared" si="72"/>
         <v>0.54893282993602621</v>
       </c>
-      <c r="G122" s="391">
+      <c r="G122" s="324">
         <f t="shared" si="72"/>
         <v>4.0238577108122655</v>
       </c>
@@ -47749,11 +47761,11 @@
         <f t="shared" si="73"/>
         <v>0.79977978580300635</v>
       </c>
-      <c r="F123" s="391">
+      <c r="F123" s="324">
         <f t="shared" si="73"/>
         <v>0.53681940212344248</v>
       </c>
-      <c r="G123" s="391">
+      <c r="G123" s="324">
         <f t="shared" si="73"/>
         <v>3.935062311357449</v>
       </c>
@@ -47765,7 +47777,7 @@
     <row r="124" spans="1:8" ht="14.25" collapsed="1"/>
     <row r="125" spans="1:8" ht="15" customHeight="1">
       <c r="A125" s="299" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="300" customFormat="1" ht="15" customHeight="1">
@@ -47788,7 +47800,7 @@
         <f t="shared" si="74"/>
         <v>0.53748259326758197</v>
       </c>
-      <c r="F126" s="397">
+      <c r="F126" s="330">
         <f t="shared" si="74"/>
         <v>0.7166434576901094</v>
       </c>
@@ -47815,7 +47827,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="222">
-        <f t="shared" ref="B128:H128" si="75">C$29*(C81)*C$126</f>
+        <f t="shared" ref="C128:H128" si="75">C$29*(C81)*C$126</f>
         <v>6.3138624934599266</v>
       </c>
       <c r="D128" s="222">
@@ -47826,11 +47838,11 @@
         <f t="shared" si="75"/>
         <v>18.941587480379777</v>
       </c>
-      <c r="F128" s="389">
+      <c r="F128" s="322">
         <f t="shared" si="75"/>
         <v>25.255449973839706</v>
       </c>
-      <c r="G128" s="389">
+      <c r="G128" s="322">
         <f t="shared" si="75"/>
         <v>31.569312467299639</v>
       </c>
@@ -47859,11 +47871,11 @@
         <f t="shared" si="76"/>
         <v>18.349662871617912</v>
       </c>
-      <c r="F129" s="389">
+      <c r="F129" s="322">
         <f t="shared" si="76"/>
         <v>24.466217162157221</v>
       </c>
-      <c r="G129" s="389">
+      <c r="G129" s="322">
         <f t="shared" si="76"/>
         <v>30.58277145269653</v>
       </c>
@@ -47892,11 +47904,11 @@
         <f t="shared" si="77"/>
         <v>17.757738262856044</v>
       </c>
-      <c r="F130" s="389">
+      <c r="F130" s="322">
         <f t="shared" si="77"/>
         <v>23.676984350474729</v>
       </c>
-      <c r="G130" s="389">
+      <c r="G130" s="322">
         <f t="shared" si="77"/>
         <v>29.596230438093414</v>
       </c>
@@ -47925,11 +47937,11 @@
         <f t="shared" si="78"/>
         <v>17.165813654094176</v>
       </c>
-      <c r="F131" s="389">
+      <c r="F131" s="322">
         <f t="shared" si="78"/>
         <v>22.887751538792241</v>
       </c>
-      <c r="G131" s="389">
+      <c r="G131" s="322">
         <f t="shared" si="78"/>
         <v>28.609689423490302</v>
       </c>
@@ -47958,11 +47970,11 @@
         <f t="shared" si="79"/>
         <v>16.573889045332304</v>
       </c>
-      <c r="F132" s="389">
+      <c r="F132" s="322">
         <f t="shared" si="79"/>
         <v>22.098518727109745</v>
       </c>
-      <c r="G132" s="389">
+      <c r="G132" s="322">
         <f t="shared" si="79"/>
         <v>27.623148408887182</v>
       </c>
@@ -47991,11 +48003,11 @@
         <f t="shared" si="80"/>
         <v>15.981964436570438</v>
       </c>
-      <c r="F133" s="389">
+      <c r="F133" s="322">
         <f t="shared" si="80"/>
         <v>21.309285915427253</v>
       </c>
-      <c r="G133" s="389">
+      <c r="G133" s="322">
         <f t="shared" si="80"/>
         <v>26.63660739428407</v>
       </c>
@@ -48024,11 +48036,11 @@
         <f t="shared" si="81"/>
         <v>15.390039827808572</v>
       </c>
-      <c r="F134" s="389">
+      <c r="F134" s="322">
         <f t="shared" si="81"/>
         <v>20.520053103744765</v>
       </c>
-      <c r="G134" s="389">
+      <c r="G134" s="322">
         <f t="shared" si="81"/>
         <v>25.650066379680958</v>
       </c>
@@ -48057,11 +48069,11 @@
         <f t="shared" si="82"/>
         <v>14.798115219046704</v>
       </c>
-      <c r="F135" s="389">
+      <c r="F135" s="322">
         <f t="shared" si="82"/>
         <v>19.730820292062273</v>
       </c>
-      <c r="G135" s="389">
+      <c r="G135" s="322">
         <f t="shared" si="82"/>
         <v>24.663525365077845</v>
       </c>
@@ -48090,11 +48102,11 @@
         <f t="shared" si="83"/>
         <v>14.206190610284834</v>
       </c>
-      <c r="F136" s="389">
+      <c r="F136" s="322">
         <f t="shared" si="83"/>
         <v>18.941587480379781</v>
       </c>
-      <c r="G136" s="389">
+      <c r="G136" s="322">
         <f t="shared" si="83"/>
         <v>23.676984350474729</v>
       </c>
@@ -48123,11 +48135,11 @@
         <f t="shared" si="84"/>
         <v>13.614266001522966</v>
       </c>
-      <c r="F137" s="389">
+      <c r="F137" s="322">
         <f t="shared" si="84"/>
         <v>18.152354668697292</v>
       </c>
-      <c r="G137" s="389">
+      <c r="G137" s="322">
         <f t="shared" si="84"/>
         <v>22.690443335871617</v>
       </c>
@@ -48138,7 +48150,7 @@
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1">
       <c r="A138" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
@@ -48161,11 +48173,11 @@
         <f t="shared" si="85"/>
         <v>0.25829437473245148</v>
       </c>
-      <c r="F139" s="389">
+      <c r="F139" s="322">
         <f t="shared" si="85"/>
         <v>0.34439249964326868</v>
       </c>
-      <c r="G139" s="389">
+      <c r="G139" s="322">
         <f t="shared" si="85"/>
         <v>0.43049062455408599</v>
       </c>
@@ -48194,11 +48206,11 @@
         <f t="shared" si="86"/>
         <v>0.50044535104412491</v>
       </c>
-      <c r="F140" s="389">
+      <c r="F140" s="322">
         <f t="shared" si="86"/>
         <v>0.66726046805883332</v>
       </c>
-      <c r="G140" s="389">
+      <c r="G140" s="322">
         <f t="shared" si="86"/>
         <v>0.83407558507354174</v>
       </c>
@@ -48227,11 +48239,11 @@
         <f t="shared" si="86"/>
         <v>0.72645292893502</v>
       </c>
-      <c r="F141" s="389">
+      <c r="F141" s="322">
         <f t="shared" si="86"/>
         <v>0.96860390524669349</v>
       </c>
-      <c r="G141" s="389">
+      <c r="G141" s="322">
         <f t="shared" si="86"/>
         <v>1.2107548815583669</v>
       </c>
@@ -48260,11 +48272,11 @@
         <f t="shared" si="86"/>
         <v>0.93631710840513682</v>
       </c>
-      <c r="F142" s="389">
+      <c r="F142" s="322">
         <f t="shared" si="86"/>
         <v>1.2484228112068494</v>
       </c>
-      <c r="G142" s="389">
+      <c r="G142" s="322">
         <f t="shared" si="86"/>
         <v>1.5605285140085619</v>
       </c>
@@ -48293,11 +48305,11 @@
         <f t="shared" si="86"/>
         <v>1.1300378894544754</v>
       </c>
-      <c r="F143" s="389">
+      <c r="F143" s="322">
         <f t="shared" si="86"/>
         <v>1.5067171859393007</v>
       </c>
-      <c r="G143" s="389">
+      <c r="G143" s="322">
         <f t="shared" si="86"/>
         <v>1.8833964824241258</v>
       </c>
@@ -48326,11 +48338,11 @@
         <f t="shared" si="86"/>
         <v>1.3076152720830359</v>
       </c>
-      <c r="F144" s="389">
+      <c r="F144" s="322">
         <f t="shared" si="86"/>
         <v>1.7434870294440479</v>
       </c>
-      <c r="G144" s="389">
+      <c r="G144" s="322">
         <f t="shared" si="86"/>
         <v>2.1793587868050603</v>
       </c>
@@ -48359,11 +48371,11 @@
         <f t="shared" si="86"/>
         <v>1.469049256290818</v>
       </c>
-      <c r="F145" s="389">
+      <c r="F145" s="322">
         <f t="shared" si="86"/>
         <v>1.9587323417210909</v>
       </c>
-      <c r="G145" s="389">
+      <c r="G145" s="322">
         <f t="shared" si="86"/>
         <v>2.4484154271513638</v>
       </c>
@@ -48392,11 +48404,11 @@
         <f t="shared" si="86"/>
         <v>1.6143398420778221</v>
       </c>
-      <c r="F146" s="389">
+      <c r="F146" s="322">
         <f t="shared" si="86"/>
         <v>2.1524531227704298</v>
       </c>
-      <c r="G146" s="389">
+      <c r="G146" s="322">
         <f t="shared" si="86"/>
         <v>2.6905664034630377</v>
       </c>
@@ -48425,11 +48437,11 @@
         <f t="shared" si="86"/>
         <v>1.7434870294440477</v>
       </c>
-      <c r="F147" s="389">
+      <c r="F147" s="322">
         <f t="shared" si="86"/>
         <v>2.3246493725920638</v>
       </c>
-      <c r="G147" s="389">
+      <c r="G147" s="322">
         <f t="shared" si="86"/>
         <v>2.90581171574008</v>
       </c>
@@ -48458,11 +48470,11 @@
         <f t="shared" si="86"/>
         <v>1.8564908183894953</v>
       </c>
-      <c r="F148" s="389">
+      <c r="F148" s="322">
         <f t="shared" si="86"/>
         <v>2.475321091185994</v>
       </c>
-      <c r="G148" s="389">
+      <c r="G148" s="322">
         <f t="shared" si="86"/>
         <v>3.0941513639824931</v>
       </c>
@@ -48473,7 +48485,7 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" collapsed="1">
       <c r="A149" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B149" s="222">
         <f>SUM(B128:B137)</f>
@@ -48491,11 +48503,11 @@
         <f t="shared" si="87"/>
         <v>162.77926740951372</v>
       </c>
-      <c r="F149" s="389">
+      <c r="F149" s="322">
         <f t="shared" si="87"/>
         <v>217.03902321268501</v>
       </c>
-      <c r="G149" s="389">
+      <c r="G149" s="322">
         <f t="shared" si="87"/>
         <v>271.29877901585627</v>
       </c>
@@ -48507,7 +48519,7 @@
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B150" s="222">
         <f>SUM(B139:B148)</f>
@@ -48525,11 +48537,11 @@
         <f t="shared" si="88"/>
         <v>11.542529870856427</v>
       </c>
-      <c r="F150" s="389">
+      <c r="F150" s="322">
         <f t="shared" si="88"/>
         <v>15.390039827808572</v>
       </c>
-      <c r="G150" s="389">
+      <c r="G150" s="322">
         <f t="shared" si="88"/>
         <v>19.237549784760716</v>
       </c>
@@ -48558,11 +48570,11 @@
         <f t="shared" si="89"/>
         <v>1.0749651865351637</v>
       </c>
-      <c r="F151" s="389">
+      <c r="F151" s="322">
         <f t="shared" si="89"/>
         <v>1.4332869153802188</v>
       </c>
-      <c r="G151" s="389">
+      <c r="G151" s="322">
         <f t="shared" si="89"/>
         <v>1.7916086442252734</v>
       </c>
@@ -48573,7 +48585,7 @@
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="311" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B152" s="222" t="e">
         <f>(B150/B149)*100</f>
@@ -48591,11 +48603,11 @@
         <f>(E150/E149)*100</f>
         <v>7.0909090909090908</v>
       </c>
-      <c r="F152" s="389">
+      <c r="F152" s="322">
         <f t="shared" si="90"/>
         <v>7.0909090909090908</v>
       </c>
-      <c r="G152" s="389">
+      <c r="G152" s="322">
         <f t="shared" si="90"/>
         <v>7.0909090909090908</v>
       </c>
@@ -48625,10 +48637,10 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="F154" s="395">
+      <c r="F154" s="328">
         <v>0</v>
       </c>
-      <c r="G154" s="395">
+      <c r="G154" s="328">
         <v>0</v>
       </c>
       <c r="H154">
@@ -48651,10 +48663,10 @@
       <c r="E155">
         <v>0.35595654307107139</v>
       </c>
-      <c r="F155" s="395">
+      <c r="F155" s="328">
         <v>0.35595654307107139</v>
       </c>
-      <c r="G155" s="395">
+      <c r="G155" s="328">
         <v>0.35595654307107139</v>
       </c>
       <c r="H155">
@@ -48677,10 +48689,10 @@
       <c r="E156">
         <v>0.71191308614214277</v>
       </c>
-      <c r="F156" s="395">
+      <c r="F156" s="328">
         <v>0.71191308614214277</v>
       </c>
-      <c r="G156" s="395">
+      <c r="G156" s="328">
         <v>0.71191308614214277</v>
       </c>
       <c r="H156">
@@ -48703,10 +48715,10 @@
       <c r="E157">
         <v>1.0678696292132142</v>
       </c>
-      <c r="F157" s="395">
+      <c r="F157" s="328">
         <v>1.0678696292132142</v>
       </c>
-      <c r="G157" s="395">
+      <c r="G157" s="328">
         <v>1.0678696292132142</v>
       </c>
       <c r="H157">
@@ -48729,10 +48741,10 @@
       <c r="E158">
         <v>1.4238261722842855</v>
       </c>
-      <c r="F158" s="395">
+      <c r="F158" s="328">
         <v>1.4238261722842855</v>
       </c>
-      <c r="G158" s="395">
+      <c r="G158" s="328">
         <v>1.4238261722842855</v>
       </c>
       <c r="H158">
@@ -48755,10 +48767,10 @@
       <c r="E159">
         <v>1.7797827153553569</v>
       </c>
-      <c r="F159" s="395">
+      <c r="F159" s="328">
         <v>1.7797827153553569</v>
       </c>
-      <c r="G159" s="395">
+      <c r="G159" s="328">
         <v>1.7797827153553569</v>
       </c>
       <c r="H159">
@@ -48781,10 +48793,10 @@
       <c r="E160">
         <v>2.1357392584264283</v>
       </c>
-      <c r="F160" s="395">
+      <c r="F160" s="328">
         <v>2.1357392584264283</v>
       </c>
-      <c r="G160" s="395">
+      <c r="G160" s="328">
         <v>2.1357392584264283</v>
       </c>
       <c r="H160">
@@ -48811,11 +48823,11 @@
         <f t="shared" si="91"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="F161" s="396">
+      <c r="F161" s="329">
         <f t="shared" si="91"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="G161" s="396">
+      <c r="G161" s="329">
         <f t="shared" si="91"/>
         <v>7.1191308614214271E-2</v>
       </c>
@@ -48829,31 +48841,31 @@
         <v>0</v>
       </c>
       <c r="B162" s="297">
-        <f>(B155-B154)/($A155-$A154)</f>
+        <f t="shared" ref="B162:H166" si="92">(B155-B154)/($A155-$A154)</f>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="C162" s="297">
-        <f>(C155-C154)/($A155-$A154)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="D162" s="297">
-        <f>(D155-D154)/($A155-$A154)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="E162" s="297">
-        <f>(E155-E154)/($A155-$A154)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="F162" s="396">
-        <f>(F155-F154)/($A155-$A154)</f>
+      <c r="F162" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="G162" s="396">
-        <f>(G155-G154)/($A155-$A154)</f>
+      <c r="G162" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="H162" s="297">
-        <f>(H155-H154)/($A155-$A154)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
@@ -48862,31 +48874,31 @@
         <v>5</v>
       </c>
       <c r="B163" s="297">
-        <f>(B156-B155)/($A156-$A155)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="C163" s="297">
-        <f>(C156-C155)/($A156-$A155)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="D163" s="297">
-        <f>(D156-D155)/($A156-$A155)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="E163" s="297">
-        <f>(E156-E155)/($A156-$A155)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="F163" s="396">
-        <f>(F156-F155)/($A156-$A155)</f>
+      <c r="F163" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="G163" s="396">
-        <f>(G156-G155)/($A156-$A155)</f>
+      <c r="G163" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="H163" s="297">
-        <f>(H156-H155)/($A156-$A155)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
@@ -48895,31 +48907,31 @@
         <v>10</v>
       </c>
       <c r="B164" s="297">
-        <f>(B157-B156)/($A157-$A156)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="C164" s="297">
-        <f>(C157-C156)/($A157-$A156)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="D164" s="297">
-        <f>(D157-D156)/($A157-$A156)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="E164" s="297">
-        <f>(E157-E156)/($A157-$A156)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="F164" s="396">
-        <f>(F157-F156)/($A157-$A156)</f>
+      <c r="F164" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="G164" s="396">
-        <f>(G157-G156)/($A157-$A156)</f>
+      <c r="G164" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="H164" s="297">
-        <f>(H157-H156)/($A157-$A156)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
@@ -48928,31 +48940,31 @@
         <v>15</v>
       </c>
       <c r="B165" s="297">
-        <f>(B158-B157)/($A158-$A157)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="C165" s="297">
-        <f>(C158-C157)/($A158-$A157)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="D165" s="297">
-        <f>(D158-D157)/($A158-$A157)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="E165" s="297">
-        <f>(E158-E157)/($A158-$A157)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="F165" s="396">
-        <f>(F158-F157)/($A158-$A157)</f>
+      <c r="F165" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="G165" s="396">
-        <f>(G158-G157)/($A158-$A157)</f>
+      <c r="G165" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="H165" s="297">
-        <f>(H158-H157)/($A158-$A157)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
@@ -48961,1148 +48973,1481 @@
         <v>20</v>
       </c>
       <c r="B166" s="297">
-        <f>(B159-B158)/($A159-$A158)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="C166" s="297">
-        <f>(C159-C158)/($A159-$A158)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="D166" s="297">
-        <f>(D159-D158)/($A159-$A158)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="E166" s="297">
-        <f>(E159-E158)/($A159-$A158)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="F166" s="396">
-        <f>(F159-F158)/($A159-$A158)</f>
+      <c r="F166" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
-      <c r="G166" s="396">
-        <f>(G159-G158)/($A159-$A158)</f>
+      <c r="G166" s="329">
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="H166" s="297">
-        <f>(H159-H158)/($A159-$A158)</f>
+        <f t="shared" si="92"/>
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15" customHeight="1" collapsed="1">
       <c r="A167" s="222"/>
     </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1">
+      <c r="A168" s="308" t="s">
+        <v>580</v>
+      </c>
+    </row>
     <row r="169" spans="1:8" ht="15" customHeight="1">
-      <c r="A169" s="308" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1">
-      <c r="A170" t="s">
+      <c r="A169" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1">
+    <row r="170" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A170">
+        <v>0.06</v>
+      </c>
+      <c r="B170" s="297">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C170" s="297">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D170" s="297">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E170" s="297">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F170" s="329">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G170" s="329">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H170" s="297">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A171">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="B171" s="297">
-        <v>3.1E-2</v>
+        <v>3.1187903317670136E-2</v>
       </c>
       <c r="C171" s="297">
-        <v>3.1E-2</v>
+        <v>3.1187903317670136E-2</v>
       </c>
       <c r="D171" s="297">
-        <v>3.1E-2</v>
+        <v>3.1187903317670136E-2</v>
       </c>
       <c r="E171" s="297">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F171" s="396">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G171" s="396">
-        <v>3.1E-2</v>
+        <v>3.1187903317670136E-2</v>
+      </c>
+      <c r="F171" s="329">
+        <v>3.1187903317670136E-2</v>
+      </c>
+      <c r="G171" s="329">
+        <v>3.1187903317670136E-2</v>
       </c>
       <c r="H171" s="297">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1">
+        <v>3.1187903317670136E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A172">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B172" s="297">
-        <v>3.1187903317670136E-2</v>
+        <v>3.2529926377576811E-2</v>
       </c>
       <c r="C172" s="297">
-        <v>3.1187903317670136E-2</v>
+        <v>3.2529926377576811E-2</v>
       </c>
       <c r="D172" s="297">
-        <v>3.1187903317670136E-2</v>
+        <v>3.2529926377576811E-2</v>
       </c>
       <c r="E172" s="297">
-        <v>3.1187903317670136E-2</v>
-      </c>
-      <c r="F172" s="396">
-        <v>3.1187903317670136E-2</v>
-      </c>
-      <c r="G172" s="396">
-        <v>3.1187903317670136E-2</v>
+        <v>3.2529926377576811E-2</v>
+      </c>
+      <c r="F172" s="329">
+        <v>3.2529926377576811E-2</v>
+      </c>
+      <c r="G172" s="329">
+        <v>3.2529926377576811E-2</v>
       </c>
       <c r="H172" s="297">
-        <v>3.1187903317670136E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1">
+        <v>3.2529926377576811E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A173">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="B173" s="297">
-        <v>3.2529926377576811E-2</v>
+        <v>3.5832172884505478E-2</v>
       </c>
       <c r="C173" s="297">
-        <v>3.2529926377576811E-2</v>
+        <v>3.5832172884505478E-2</v>
       </c>
       <c r="D173" s="297">
-        <v>3.2529926377576811E-2</v>
+        <v>3.5832172884505478E-2</v>
       </c>
       <c r="E173" s="297">
-        <v>3.2529926377576811E-2</v>
-      </c>
-      <c r="F173" s="396">
-        <v>3.2529926377576811E-2</v>
-      </c>
-      <c r="G173" s="396">
-        <v>3.2529926377576811E-2</v>
+        <v>3.5832172884505478E-2</v>
+      </c>
+      <c r="F173" s="329">
+        <v>3.5832172884505478E-2</v>
+      </c>
+      <c r="G173" s="329">
+        <v>3.5832172884505478E-2</v>
       </c>
       <c r="H173" s="297">
-        <v>3.2529926377576811E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1">
+        <v>3.5832172884505478E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A174">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="B174" s="297">
-        <v>3.5832172884505478E-2</v>
+        <v>4.3452892234767379E-2</v>
       </c>
       <c r="C174" s="297">
-        <v>3.5832172884505478E-2</v>
+        <v>4.3452892234767379E-2</v>
       </c>
       <c r="D174" s="297">
-        <v>3.5832172884505478E-2</v>
+        <v>4.3452892234767379E-2</v>
       </c>
       <c r="E174" s="297">
-        <v>3.5832172884505478E-2</v>
-      </c>
-      <c r="F174" s="396">
-        <v>3.5832172884505478E-2</v>
-      </c>
-      <c r="G174" s="396">
-        <v>3.5832172884505478E-2</v>
+        <v>4.3452892234767379E-2</v>
+      </c>
+      <c r="F174" s="329">
+        <v>4.3452892234767379E-2</v>
+      </c>
+      <c r="G174" s="329">
+        <v>4.3452892234767379E-2</v>
       </c>
       <c r="H174" s="297">
-        <v>3.5832172884505478E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1">
+        <v>4.3452892234767379E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A175">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="B175" s="297">
-        <v>4.3452892234767379E-2</v>
+        <v>7.1191308614214271E-2</v>
       </c>
       <c r="C175" s="297">
-        <v>4.3452892234767379E-2</v>
+        <v>7.1191308614214271E-2</v>
       </c>
       <c r="D175" s="297">
-        <v>4.3452892234767379E-2</v>
+        <v>7.1191308614214271E-2</v>
       </c>
       <c r="E175" s="297">
-        <v>4.3452892234767379E-2</v>
-      </c>
-      <c r="F175" s="396">
-        <v>4.3452892234767379E-2</v>
-      </c>
-      <c r="G175" s="396">
-        <v>4.3452892234767379E-2</v>
+        <v>7.1191308614214271E-2</v>
+      </c>
+      <c r="F175" s="329">
+        <v>7.1191308614214271E-2</v>
+      </c>
+      <c r="G175" s="329">
+        <v>7.1191308614214271E-2</v>
       </c>
       <c r="H175" s="297">
-        <v>4.3452892234767379E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1">
+        <v>7.1191308614214271E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176" s="297">
-        <v>7.1191308614214271E-2</v>
-      </c>
-      <c r="C176" s="297">
-        <v>7.1191308614214271E-2</v>
-      </c>
-      <c r="D176" s="297">
-        <v>7.1191308614214271E-2</v>
-      </c>
-      <c r="E176" s="297">
-        <v>7.1191308614214271E-2</v>
-      </c>
-      <c r="F176" s="396">
-        <v>7.1191308614214271E-2</v>
-      </c>
-      <c r="G176" s="396">
-        <v>7.1191308614214271E-2</v>
-      </c>
-      <c r="H176" s="297">
-        <v>7.1191308614214271E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="15" customHeight="1">
+        <v>1.5</v>
+      </c>
+      <c r="B176" s="297"/>
+      <c r="C176" s="297"/>
+      <c r="D176" s="297"/>
+      <c r="E176" s="297"/>
+      <c r="F176" s="329"/>
+      <c r="G176" s="329"/>
+      <c r="H176" s="297"/>
+    </row>
+    <row r="177" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A177">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B177" s="297"/>
       <c r="C177" s="297"/>
       <c r="D177" s="297"/>
       <c r="E177" s="297"/>
-      <c r="F177" s="396"/>
-      <c r="G177" s="396"/>
+      <c r="F177" s="329"/>
+      <c r="G177" s="329"/>
       <c r="H177" s="297"/>
     </row>
-    <row r="178" spans="1:8" ht="15" customHeight="1">
+    <row r="178" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B178" s="297"/>
       <c r="C178" s="297"/>
       <c r="D178" s="297"/>
       <c r="E178" s="297"/>
-      <c r="F178" s="396"/>
-      <c r="G178" s="396"/>
+      <c r="F178" s="329"/>
+      <c r="G178" s="329"/>
       <c r="H178" s="297"/>
     </row>
-    <row r="179" spans="1:8" ht="15" customHeight="1">
+    <row r="179" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B179" s="297"/>
       <c r="C179" s="297"/>
       <c r="D179" s="297"/>
       <c r="E179" s="297"/>
-      <c r="F179" s="396"/>
-      <c r="G179" s="396"/>
+      <c r="F179" s="329"/>
+      <c r="G179" s="329"/>
       <c r="H179" s="297"/>
     </row>
-    <row r="180" spans="1:8" ht="15" customHeight="1">
-      <c r="A180">
-        <v>5</v>
-      </c>
-      <c r="B180" s="297"/>
-      <c r="C180" s="297"/>
-      <c r="D180" s="297"/>
-      <c r="E180" s="297"/>
-      <c r="F180" s="396"/>
-      <c r="G180" s="396"/>
-      <c r="H180" s="297"/>
+    <row r="180" spans="1:8" ht="15" customHeight="1" collapsed="1"/>
+    <row r="181" spans="1:8" ht="15" customHeight="1">
+      <c r="A181" s="321" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" customHeight="1">
+      <c r="A182" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="15" customHeight="1">
-      <c r="A183" s="321" t="s">
-        <v>596</v>
+      <c r="A183" t="s">
+        <v>601</v>
+      </c>
+      <c r="B183" s="222">
+        <f>IF(B6&lt;1,B93,B94)</f>
+        <v>2.0530322770652725</v>
+      </c>
+      <c r="C183" s="222">
+        <f>IF(C6&lt;1,C93,C94)</f>
+        <v>2.0530322770652725</v>
+      </c>
+      <c r="D183" s="222">
+        <f>IF(D6&lt;1,D93,D94)</f>
+        <v>2.0530322770652725</v>
+      </c>
+      <c r="E183" s="222">
+        <f>IF(E6&lt;1,E93,E94)</f>
+        <v>2.0530322770652725</v>
+      </c>
+      <c r="F183" s="222">
+        <f>IF(F6&lt;1,F93,F94)</f>
+        <v>2.0530322770652725</v>
+      </c>
+      <c r="G183" s="222">
+        <f>IF(G6&lt;1,G93,G94)</f>
+        <v>2.0530322770652725</v>
+      </c>
+      <c r="H183" s="222">
+        <f>IF(H6&lt;1,H93,H94)</f>
+        <v>2.0530322770652725</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" customHeight="1">
       <c r="A184" t="s">
         <v>597</v>
       </c>
+      <c r="B184" s="222">
+        <v>1.5</v>
+      </c>
+      <c r="C184" s="222">
+        <v>1.5</v>
+      </c>
+      <c r="D184" s="222">
+        <v>1.5</v>
+      </c>
+      <c r="E184" s="222">
+        <v>1.5</v>
+      </c>
+      <c r="F184" s="222">
+        <v>1.5</v>
+      </c>
+      <c r="G184" s="222">
+        <v>1.5</v>
+      </c>
+      <c r="H184" s="222">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="15" customHeight="1">
       <c r="A185" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B185" s="222">
-        <f>IF(B6&lt;1,B93,B94)</f>
-        <v>2.0530322770652725</v>
+        <f>B34*B184</f>
+        <v>0.1905</v>
       </c>
       <c r="C185" s="222">
-        <f>IF(C6&lt;1,C93,C94)</f>
-        <v>2.0530322770652725</v>
+        <f>C34*C184</f>
+        <v>0.1905</v>
       </c>
       <c r="D185" s="222">
-        <f>IF(D6&lt;1,D93,D94)</f>
-        <v>2.0530322770652725</v>
+        <f>D34*D184</f>
+        <v>0.1905</v>
       </c>
       <c r="E185" s="222">
-        <f>IF(E6&lt;1,E93,E94)</f>
-        <v>2.0530322770652725</v>
+        <f>E34*E184</f>
+        <v>0.1905</v>
       </c>
       <c r="F185" s="222">
-        <f>IF(F6&lt;1,F93,F94)</f>
-        <v>2.0530322770652725</v>
+        <f>F34*F184</f>
+        <v>0.1905</v>
       </c>
       <c r="G185" s="222">
-        <f>IF(G6&lt;1,G93,G94)</f>
-        <v>2.0530322770652725</v>
+        <f>G34*G184</f>
+        <v>0.1905</v>
       </c>
       <c r="H185" s="222">
-        <f>IF(H6&lt;1,H93,H94)</f>
-        <v>2.0530322770652725</v>
+        <f>H34*H184</f>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1">
       <c r="A186" t="s">
-        <v>598</v>
-      </c>
-      <c r="B186" s="222">
-        <v>1.5</v>
-      </c>
-      <c r="C186" s="222">
-        <v>1.5</v>
-      </c>
-      <c r="D186" s="222">
-        <v>1.5</v>
-      </c>
-      <c r="E186" s="222">
-        <v>1.5</v>
-      </c>
-      <c r="F186" s="222">
-        <v>1.5</v>
-      </c>
-      <c r="G186" s="222">
-        <v>1.5</v>
-      </c>
-      <c r="H186" s="222">
-        <v>1.5</v>
+        <v>602</v>
+      </c>
+      <c r="B186" s="335">
+        <v>2</v>
+      </c>
+      <c r="C186" s="335">
+        <v>3</v>
+      </c>
+      <c r="D186" s="335">
+        <v>4</v>
+      </c>
+      <c r="E186" s="335">
+        <v>5</v>
+      </c>
+      <c r="F186" s="335">
+        <v>6</v>
+      </c>
+      <c r="G186" s="335">
+        <v>7</v>
+      </c>
+      <c r="H186" s="335">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15" customHeight="1">
-      <c r="A187" t="s">
-        <v>599</v>
+      <c r="A187">
+        <v>0.1</v>
       </c>
       <c r="B187" s="222">
-        <f>B34*B186</f>
-        <v>0.1905</v>
+        <f>ATAN((B$5-B$185*$A187)/B$3)</f>
+        <v>-1.1196455391781017E-4</v>
       </c>
       <c r="C187" s="222">
-        <f>C34*C186</f>
-        <v>0.1905</v>
+        <f>ATAN((C$5-C$185*$A187)/C$3)</f>
+        <v>8.7154923016283081E-2</v>
       </c>
       <c r="D187" s="222">
-        <f>D34*D186</f>
-        <v>0.1905</v>
+        <f>ATAN((D$5-D$185*$A187)/D$3)</f>
+        <v>0.17442265949482383</v>
       </c>
       <c r="E187" s="222">
-        <f>E34*E186</f>
-        <v>0.1905</v>
+        <f>ATAN((E$5-E$185*$A187)/E$3)</f>
+        <v>0.26169123521075488</v>
       </c>
       <c r="F187" s="222">
-        <f>F34*F186</f>
-        <v>0.1905</v>
+        <f>ATAN((F$5-F$185*$A187)/F$3)</f>
+        <v>0.34896063410454159</v>
       </c>
       <c r="G187" s="222">
-        <f>G34*G186</f>
-        <v>0.1905</v>
+        <f>ATAN((G$5-G$185*$A187)/G$3)</f>
+        <v>0.43623083384960165</v>
       </c>
       <c r="H187" s="222">
-        <f>H34*H186</f>
-        <v>0.1905</v>
+        <f>ATAN((H$5-H$185*$A187)/H$3)</f>
+        <v>0.52350180602160357</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15" customHeight="1">
-      <c r="A188" t="s">
-        <v>603</v>
-      </c>
-      <c r="B188" s="402">
-        <v>2</v>
-      </c>
-      <c r="C188" s="402">
-        <v>3</v>
-      </c>
-      <c r="D188" s="402">
-        <v>4</v>
-      </c>
-      <c r="E188" s="402">
-        <v>5</v>
-      </c>
-      <c r="F188" s="402">
-        <v>6</v>
-      </c>
-      <c r="G188" s="402">
-        <v>7</v>
-      </c>
-      <c r="H188" s="402">
-        <v>8</v>
+      <c r="A188">
+        <v>0.5</v>
+      </c>
+      <c r="B188" s="222">
+        <f>ATAN((B$5-B$185*$A188)/B$3)</f>
+        <v>-5.5982271344528047E-4</v>
+      </c>
+      <c r="C188" s="222">
+        <f>ATAN((C$5-C$185*$A188)/C$3)</f>
+        <v>8.6708742968146332E-2</v>
+      </c>
+      <c r="D188" s="222">
+        <f>ATAN((D$5-D$185*$A188)/D$3)</f>
+        <v>0.17398155384916961</v>
+      </c>
+      <c r="E188" s="222">
+        <f>ATAN((E$5-E$185*$A188)/E$3)</f>
+        <v>0.26125856221659016</v>
+      </c>
+      <c r="F188" s="222">
+        <f>ATAN((F$5-F$185*$A188)/F$3)</f>
+        <v>0.34853968837509053</v>
+      </c>
+      <c r="G188" s="222">
+        <f>ATAN((G$5-G$185*$A188)/G$3)</f>
+        <v>0.43582482123643157</v>
+      </c>
+      <c r="H188" s="222">
+        <f>ATAN((H$5-H$185*$A188)/H$3)</f>
+        <v>0.52311381914936717</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15" customHeight="1">
       <c r="A189">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="B189" s="222">
-        <f>ATAN((B$5-B$187*$A189)/B$3)</f>
-        <v>-1.1196455391781017E-4</v>
+        <f>ATAN((B$5-B$185*$A189)/B$3)</f>
+        <v>-8.9571619553871517E-4</v>
       </c>
       <c r="C189" s="222">
-        <f>ATAN((C$5-C$187*$A189)/C$3)</f>
-        <v>8.7154923016283081E-2</v>
+        <f>ATAN((C$5-C$185*$A189)/C$3)</f>
+        <v>8.6374085207874957E-2</v>
       </c>
       <c r="D189" s="222">
-        <f>ATAN((D$5-D$187*$A189)/D$3)</f>
-        <v>0.17442265949482383</v>
+        <f>ATAN((D$5-D$185*$A189)/D$3)</f>
+        <v>0.17365067971448042</v>
       </c>
       <c r="E189" s="222">
-        <f>ATAN((E$5-E$187*$A189)/E$3)</f>
-        <v>0.26169123521075488</v>
+        <f>ATAN((E$5-E$185*$A189)/E$3)</f>
+        <v>0.26093399175401039</v>
       </c>
       <c r="F189" s="222">
-        <f>ATAN((F$5-F$187*$A189)/F$3)</f>
-        <v>0.34896063410454159</v>
+        <f>ATAN((F$5-F$185*$A189)/F$3)</f>
+        <v>0.34822389453763242</v>
       </c>
       <c r="G189" s="222">
-        <f>ATAN((G$5-G$187*$A189)/G$3)</f>
-        <v>0.43623083384960165</v>
+        <f>ATAN((G$5-G$185*$A189)/G$3)</f>
+        <v>0.43552021097887916</v>
       </c>
       <c r="H189" s="222">
-        <f>ATAN((H$5-H$187*$A189)/H$3)</f>
-        <v>0.52350180602160357</v>
+        <f>ATAN((H$5-H$185*$A189)/H$3)</f>
+        <v>0.52282271500154154</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15" customHeight="1">
       <c r="A190">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B190" s="222">
-        <f>ATAN((B$5-B$187*$A190)/B$3)</f>
-        <v>-5.5982271344528047E-4</v>
+        <f>ATAN((B$5-B$185*$A190)/B$3)</f>
+        <v>-1.1196450759922577E-3</v>
       </c>
       <c r="C190" s="222">
-        <f>ATAN((C$5-C$187*$A190)/C$3)</f>
-        <v>8.6708742968146332E-2</v>
+        <f>ATAN((C$5-C$185*$A190)/C$3)</f>
+        <v>8.6150969254029916E-2</v>
       </c>
       <c r="D190" s="222">
-        <f>ATAN((D$5-D$187*$A190)/D$3)</f>
-        <v>0.17398155384916961</v>
+        <f>ATAN((D$5-D$185*$A190)/D$3)</f>
+        <v>0.17343007561337589</v>
       </c>
       <c r="E190" s="222">
-        <f>ATAN((E$5-E$187*$A190)/E$3)</f>
-        <v>0.26125856221659016</v>
+        <f>ATAN((E$5-E$185*$A190)/E$3)</f>
+        <v>0.26071758018168334</v>
       </c>
       <c r="F190" s="222">
-        <f>ATAN((F$5-F$187*$A190)/F$3)</f>
-        <v>0.34853968837509053</v>
+        <f>ATAN((F$5-F$185*$A190)/F$3)</f>
+        <v>0.34801332507647892</v>
       </c>
       <c r="G190" s="222">
-        <f>ATAN((G$5-G$187*$A190)/G$3)</f>
-        <v>0.43582482123643157</v>
+        <f>ATAN((G$5-G$185*$A190)/G$3)</f>
+        <v>0.43531708948593345</v>
       </c>
       <c r="H190" s="222">
-        <f>ATAN((H$5-H$187*$A190)/H$3)</f>
-        <v>0.52311381914936717</v>
+        <f>ATAN((H$5-H$185*$A190)/H$3)</f>
+        <v>0.52262859128704175</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15" customHeight="1">
       <c r="A191">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="B191" s="222">
-        <f>ATAN((B$5-B$187*$A191)/B$3)</f>
-        <v>-8.9571619553871517E-4</v>
+        <f>ATAN((B$5-B$185*$A191)/B$3)</f>
+        <v>-5.598169237277917E-3</v>
       </c>
       <c r="C191" s="222">
-        <f>ATAN((C$5-C$187*$A191)/C$3)</f>
-        <v>8.6374085207874957E-2</v>
+        <f>ATAN((C$5-C$185*$A191)/C$3)</f>
+        <v>8.1686873320102077E-2</v>
       </c>
       <c r="D191" s="222">
-        <f>ATAN((D$5-D$187*$A191)/D$3)</f>
-        <v>0.17365067971448042</v>
+        <f>ATAN((D$5-D$185*$A191)/D$3)</f>
+        <v>0.169014438461423</v>
       </c>
       <c r="E191" s="222">
-        <f>ATAN((E$5-E$187*$A191)/E$3)</f>
-        <v>0.26093399175401039</v>
+        <f>ATAN((E$5-E$185*$A191)/E$3)</f>
+        <v>0.25638412159141105</v>
       </c>
       <c r="F191" s="222">
-        <f>ATAN((F$5-F$187*$A191)/F$3)</f>
-        <v>0.34822389453763242</v>
+        <f>ATAN((F$5-F$185*$A191)/F$3)</f>
+        <v>0.343795194073927</v>
       </c>
       <c r="G191" s="222">
-        <f>ATAN((G$5-G$187*$A191)/G$3)</f>
-        <v>0.43552021097887916</v>
+        <f>ATAN((G$5-G$185*$A191)/G$3)</f>
+        <v>0.43124660702672701</v>
       </c>
       <c r="H191" s="222">
-        <f>ATAN((H$5-H$187*$A191)/H$3)</f>
-        <v>0.52282271500154154</v>
+        <f>ATAN((H$5-H$185*$A191)/H$3)</f>
+        <v>0.51873699770624804</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1">
       <c r="A192">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B192" s="222">
-        <f>ATAN((B$5-B$187*$A192)/B$3)</f>
-        <v>-1.1196450759922577E-3</v>
+        <f>ATAN((B$5-B$185*$A192)/B$3)</f>
+        <v>-1.1195987608911197E-2</v>
       </c>
       <c r="C192" s="222">
-        <f>ATAN((C$5-C$187*$A192)/C$3)</f>
-        <v>8.6150969254029916E-2</v>
+        <f>ATAN((C$5-C$185*$A192)/C$3)</f>
+        <v>7.6102181967691834E-2</v>
       </c>
       <c r="D192" s="222">
-        <f>ATAN((D$5-D$187*$A192)/D$3)</f>
-        <v>0.17343007561337589</v>
+        <f>ATAN((D$5-D$185*$A192)/D$3)</f>
+        <v>0.1634855388349602</v>
       </c>
       <c r="E192" s="222">
-        <f>ATAN((E$5-E$187*$A192)/E$3)</f>
-        <v>0.26071758018168334</v>
+        <f>ATAN((E$5-E$185*$A192)/E$3)</f>
+        <v>0.25095343639797091</v>
       </c>
       <c r="F192" s="222">
-        <f>ATAN((F$5-F$187*$A192)/F$3)</f>
-        <v>0.34801332507647892</v>
+        <f>ATAN((F$5-F$185*$A192)/F$3)</f>
+        <v>0.33850457152682967</v>
       </c>
       <c r="G192" s="222">
-        <f>ATAN((G$5-G$187*$A192)/G$3)</f>
-        <v>0.43531708948593345</v>
+        <f>ATAN((G$5-G$185*$A192)/G$3)</f>
+        <v>0.42613698732786398</v>
       </c>
       <c r="H192" s="222">
-        <f>ATAN((H$5-H$187*$A192)/H$3)</f>
-        <v>0.52262859128704175</v>
+        <f>ATAN((H$5-H$185*$A192)/H$3)</f>
+        <v>0.51384808145074423</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15" customHeight="1">
       <c r="A193">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B193" s="222">
-        <f>ATAN((B$5-B$187*$A193)/B$3)</f>
-        <v>-5.598169237277917E-3</v>
+        <f>ATAN((B$5-B$185*$A193)/B$3)</f>
+        <v>-2.2389169084092855E-2</v>
       </c>
       <c r="C193" s="222">
-        <f>ATAN((C$5-C$187*$A193)/C$3)</f>
-        <v>8.1686873320102077E-2</v>
+        <f>ATAN((C$5-C$185*$A193)/C$3)</f>
+        <v>6.4918862075480185E-2</v>
       </c>
       <c r="D193" s="222">
-        <f>ATAN((D$5-D$187*$A193)/D$3)</f>
-        <v>0.169014438461423</v>
+        <f>ATAN((D$5-D$185*$A193)/D$3)</f>
+        <v>0.1523977423716962</v>
       </c>
       <c r="E193" s="222">
-        <f>ATAN((E$5-E$187*$A193)/E$3)</f>
-        <v>0.25638412159141105</v>
+        <f>ATAN((E$5-E$185*$A193)/E$3)</f>
+        <v>0.24004683701274768</v>
       </c>
       <c r="F193" s="222">
-        <f>ATAN((F$5-F$187*$A193)/F$3)</f>
-        <v>0.343795194073927</v>
+        <f>ATAN((F$5-F$185*$A193)/F$3)</f>
+        <v>0.32786417033291576</v>
       </c>
       <c r="G193" s="222">
-        <f>ATAN((G$5-G$187*$A193)/G$3)</f>
-        <v>0.43124660702672701</v>
+        <f>ATAN((G$5-G$185*$A193)/G$3)</f>
+        <v>0.41584641117193377</v>
       </c>
       <c r="H193" s="222">
-        <f>ATAN((H$5-H$187*$A193)/H$3)</f>
-        <v>0.51873699770624804</v>
+        <f>ATAN((H$5-H$185*$A193)/H$3)</f>
+        <v>0.50398887037485862</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15" customHeight="1">
       <c r="A194">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B194" s="222">
-        <f>ATAN((B$5-B$187*$A194)/B$3)</f>
-        <v>-1.1195987608911197E-2</v>
+        <f>ATAN((B$5-B$185*$A194)/B$3)</f>
+        <v>-5.5923903813893873E-2</v>
       </c>
       <c r="C194" s="222">
-        <f>ATAN((C$5-C$187*$A194)/C$3)</f>
-        <v>7.6102181967691834E-2</v>
+        <f>ATAN((C$5-C$185*$A194)/C$3)</f>
+        <v>3.1282334997204737E-2</v>
       </c>
       <c r="D194" s="222">
-        <f>ATAN((D$5-D$187*$A194)/D$3)</f>
-        <v>0.1634855388349602</v>
+        <f>ATAN((D$5-D$185*$A194)/D$3)</f>
+        <v>0.11891734759008243</v>
       </c>
       <c r="E194" s="222">
-        <f>ATAN((E$5-E$187*$A194)/E$3)</f>
-        <v>0.25095343639797091</v>
+        <f>ATAN((E$5-E$185*$A194)/E$3)</f>
+        <v>0.20698460329522497</v>
       </c>
       <c r="F194" s="222">
-        <f>ATAN((F$5-F$187*$A194)/F$3)</f>
-        <v>0.33850457152682967</v>
+        <f>ATAN((F$5-F$185*$A194)/F$3)</f>
+        <v>0.29548413873569729</v>
       </c>
       <c r="G194" s="222">
-        <f>ATAN((G$5-G$187*$A194)/G$3)</f>
-        <v>0.42613698732786398</v>
+        <f>ATAN((G$5-G$185*$A194)/G$3)</f>
+        <v>0.38441235673035712</v>
       </c>
       <c r="H194" s="222">
-        <f>ATAN((H$5-H$187*$A194)/H$3)</f>
-        <v>0.51384808145074423</v>
+        <f>ATAN((H$5-H$185*$A194)/H$3)</f>
+        <v>0.4737618544807003</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15" customHeight="1">
       <c r="A195">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B195" s="222">
-        <f>ATAN((B$5-B$187*$A195)/B$3)</f>
-        <v>-2.2389169084092855E-2</v>
+        <f>ATAN((B$5-B$185*$A195)/B$3)</f>
+        <v>-0.11150017744374538</v>
       </c>
       <c r="C195" s="222">
-        <f>ATAN((C$5-C$187*$A195)/C$3)</f>
-        <v>6.4918862075480185E-2</v>
+        <f>ATAN((C$5-C$185*$A195)/C$3)</f>
+        <v>-2.4898430881757947E-2</v>
       </c>
       <c r="D195" s="222">
-        <f>ATAN((D$5-D$187*$A195)/D$3)</f>
-        <v>0.1523977423716962</v>
+        <f>ATAN((D$5-D$185*$A195)/D$3)</f>
+        <v>6.2553475417797308E-2</v>
       </c>
       <c r="E195" s="222">
-        <f>ATAN((E$5-E$187*$A195)/E$3)</f>
-        <v>0.24004683701274768</v>
+        <f>ATAN((E$5-E$185*$A195)/E$3)</f>
+        <v>0.15087952827833837</v>
       </c>
       <c r="F195" s="222">
-        <f>ATAN((F$5-F$187*$A195)/F$3)</f>
-        <v>0.32786417033291576</v>
+        <f>ATAN((F$5-F$185*$A195)/F$3)</f>
+        <v>0.24009750008726383</v>
       </c>
       <c r="G195" s="222">
-        <f>ATAN((G$5-G$187*$A195)/G$3)</f>
-        <v>0.41584641117193377</v>
+        <f>ATAN((G$5-G$185*$A195)/G$3)</f>
+        <v>0.33021798115424428</v>
       </c>
       <c r="H195" s="222">
-        <f>ATAN((H$5-H$187*$A195)/H$3)</f>
-        <v>0.50398887037485862</v>
+        <f>ATAN((H$5-H$185*$A195)/H$3)</f>
+        <v>0.42124339563396801</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15" customHeight="1">
-      <c r="A196">
-        <v>50</v>
-      </c>
-      <c r="B196" s="222">
-        <f>ATAN((B$5-B$187*$A196)/B$3)</f>
-        <v>-5.5923903813893873E-2</v>
-      </c>
-      <c r="C196" s="222">
-        <f>ATAN((C$5-C$187*$A196)/C$3)</f>
-        <v>3.1282334997204737E-2</v>
-      </c>
-      <c r="D196" s="222">
-        <f>ATAN((D$5-D$187*$A196)/D$3)</f>
-        <v>0.11891734759008243</v>
-      </c>
-      <c r="E196" s="222">
-        <f>ATAN((E$5-E$187*$A196)/E$3)</f>
-        <v>0.20698460329522497</v>
-      </c>
-      <c r="F196" s="222">
-        <f>ATAN((F$5-F$187*$A196)/F$3)</f>
-        <v>0.29548413873569729</v>
-      </c>
-      <c r="G196" s="222">
-        <f>ATAN((G$5-G$187*$A196)/G$3)</f>
-        <v>0.38441235673035712</v>
-      </c>
-      <c r="H196" s="222">
-        <f>ATAN((H$5-H$187*$A196)/H$3)</f>
-        <v>0.4737618544807003</v>
+      <c r="A196" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15" customHeight="1">
       <c r="A197">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="B197" s="222">
-        <f>ATAN((B$5-B$187*$A197)/B$3)</f>
-        <v>-0.11150017744374538</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A197)/B$3))</f>
+        <v>-6.4150963945554685E-3</v>
       </c>
       <c r="C197" s="222">
-        <f>ATAN((C$5-C$187*$A197)/C$3)</f>
-        <v>-2.4898430881757947E-2</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A197)/C$3))</f>
+        <v>4.9936092526206188</v>
       </c>
       <c r="D197" s="222">
-        <f>ATAN((D$5-D$187*$A197)/D$3)</f>
-        <v>6.2553475417797308E-2</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A197)/D$3))</f>
+        <v>9.9936822405008616</v>
       </c>
       <c r="E197" s="222">
-        <f>ATAN((E$5-E$187*$A197)/E$3)</f>
-        <v>0.15087952827833837</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A197)/E$3))</f>
+        <v>14.993803313141576</v>
       </c>
       <c r="F197" s="222">
-        <f>ATAN((F$5-F$187*$A197)/F$3)</f>
-        <v>0.24009750008726383</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A197)/F$3))</f>
+        <v>19.993971550399209</v>
       </c>
       <c r="G197" s="222">
-        <f>ATAN((G$5-G$187*$A197)/G$3)</f>
-        <v>0.33021798115424428</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A197)/G$3))</f>
+        <v>24.994185673054826</v>
       </c>
       <c r="H197" s="222">
-        <f>ATAN((H$5-H$187*$A197)/H$3)</f>
-        <v>0.42124339563396801</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A197)/H$3))</f>
+        <v>29.99444405251419</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15" customHeight="1">
-      <c r="A198" t="s">
-        <v>604</v>
+      <c r="A198">
+        <v>0.5</v>
+      </c>
+      <c r="B198" s="222">
+        <f>DEGREES(ATAN((B$5-B$185*$A198)/B$3))</f>
+        <v>-3.2075478755976258E-2</v>
+      </c>
+      <c r="C198" s="222">
+        <f>DEGREES(ATAN((C$5-C$185*$A198)/C$3))</f>
+        <v>4.9680450189594394</v>
+      </c>
+      <c r="D198" s="222">
+        <f>DEGREES(ATAN((D$5-D$185*$A198)/D$3))</f>
+        <v>9.9684087486854818</v>
+      </c>
+      <c r="E198" s="222">
+        <f>DEGREES(ATAN((E$5-E$185*$A198)/E$3))</f>
+        <v>14.969012976666651</v>
+      </c>
+      <c r="F198" s="222">
+        <f>DEGREES(ATAN((F$5-F$185*$A198)/F$3))</f>
+        <v>19.969853136697608</v>
+      </c>
+      <c r="G198" s="222">
+        <f>DEGREES(ATAN((G$5-G$185*$A198)/G$3))</f>
+        <v>24.970922863891101</v>
+      </c>
+      <c r="H198" s="222">
+        <f>DEGREES(ATAN((H$5-H$185*$A198)/H$3))</f>
+        <v>29.972214042228561</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15" customHeight="1">
       <c r="A199">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="B199" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A199)/B$3))</f>
-        <v>-6.4150963945554685E-3</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A199)/B$3))</f>
+        <v>-5.1320757645883154E-2</v>
       </c>
       <c r="C199" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A199)/C$3))</f>
-        <v>4.9936092526206188</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A199)/C$3))</f>
+        <v>4.9488705417145891</v>
       </c>
       <c r="D199" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A199)/D$3))</f>
-        <v>9.9936822405008616</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A199)/D$3))</f>
+        <v>9.9494510572177468</v>
       </c>
       <c r="E199" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A199)/E$3))</f>
-        <v>14.993803313141576</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A199)/E$3))</f>
+        <v>14.95041645900622</v>
       </c>
       <c r="F199" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A199)/F$3))</f>
-        <v>19.993971550399209</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A199)/F$3))</f>
+        <v>19.951759482615017</v>
       </c>
       <c r="G199" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A199)/G$3))</f>
-        <v>24.994185673054826</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A199)/G$3))</f>
+        <v>24.953469981736955</v>
       </c>
       <c r="H199" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A199)/H$3))</f>
-        <v>29.99444405251419</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A199)/H$3))</f>
+        <v>29.955535003159401</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15" customHeight="1">
       <c r="A200">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B200" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A200)/B$3))</f>
-        <v>-3.2075478755976258E-2</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A200)/B$3))</f>
+        <v>-6.4150937406960692E-2</v>
       </c>
       <c r="C200" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A200)/C$3))</f>
-        <v>4.9680450189594394</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A200)/C$3))</f>
+        <v>4.9360869392172324</v>
       </c>
       <c r="D200" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A200)/D$3))</f>
-        <v>9.9684087486854818</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A200)/D$3))</f>
+        <v>9.9368113732811807</v>
       </c>
       <c r="E200" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A200)/E$3))</f>
-        <v>14.969012976666651</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A200)/E$3))</f>
+        <v>14.938016989274089</v>
       </c>
       <c r="F200" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A200)/F$3))</f>
-        <v>19.969853136697608</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A200)/F$3))</f>
+        <v>19.939694741196579</v>
       </c>
       <c r="G200" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A200)/G$3))</f>
-        <v>24.970922863891101</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A200)/G$3))</f>
+        <v>24.941831977462769</v>
       </c>
       <c r="H200" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A200)/H$3))</f>
-        <v>29.972214042228561</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A200)/H$3))</f>
+        <v>29.944412533615161</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15" customHeight="1">
       <c r="A201">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="B201" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A201)/B$3))</f>
-        <v>-5.1320757645883154E-2</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A201)/B$3))</f>
+        <v>-0.32075147029599577</v>
       </c>
       <c r="C201" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A201)/C$3))</f>
-        <v>4.9488705417145891</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A201)/C$3))</f>
+        <v>4.6803130828616553</v>
       </c>
       <c r="D201" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A201)/D$3))</f>
-        <v>9.9494510572177468</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A201)/D$3))</f>
+        <v>9.683814000613113</v>
       </c>
       <c r="E201" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A201)/E$3))</f>
-        <v>14.95041645900622</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A201)/E$3))</f>
+        <v>14.689728101356776</v>
       </c>
       <c r="F201" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A201)/F$3))</f>
-        <v>19.951759482615017</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A201)/F$3))</f>
+        <v>19.698013637317068</v>
       </c>
       <c r="G201" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A201)/G$3))</f>
-        <v>24.953469981736955</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A201)/G$3))</f>
+        <v>24.70861051196821</v>
       </c>
       <c r="H201" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A201)/H$3))</f>
-        <v>29.955535003159401</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A201)/H$3))</f>
+        <v>29.721440645855477</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15" customHeight="1">
       <c r="A202">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B202" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A202)/B$3))</f>
-        <v>-6.4150937406960692E-2</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A202)/B$3))</f>
+        <v>-0.64148283747137769</v>
       </c>
       <c r="C202" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A202)/C$3))</f>
-        <v>4.9360869392172324</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A202)/C$3))</f>
+        <v>4.3603338384853405</v>
       </c>
       <c r="D202" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A202)/D$3))</f>
-        <v>9.9368113732811807</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A202)/D$3))</f>
+        <v>9.367031386665337</v>
       </c>
       <c r="E202" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A202)/E$3))</f>
-        <v>14.938016989274089</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A202)/E$3))</f>
+        <v>14.378572759908469</v>
       </c>
       <c r="F202" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A202)/F$3))</f>
-        <v>19.939694741196579</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A202)/F$3))</f>
+        <v>19.394883294371638</v>
       </c>
       <c r="G202" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A202)/G$3))</f>
-        <v>24.941831977462769</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A202)/G$3))</f>
+        <v>24.41585086830645</v>
       </c>
       <c r="H202" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A202)/H$3))</f>
-        <v>29.944412533615161</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A202)/H$3))</f>
+        <v>29.441326378022207</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15" customHeight="1">
       <c r="A203">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B203" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A203)/B$3))</f>
-        <v>-0.32075147029599577</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A203)/B$3))</f>
+        <v>-1.2828048953233036</v>
       </c>
       <c r="C203" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A203)/C$3))</f>
-        <v>4.6803130828616553</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A203)/C$3))</f>
+        <v>3.7195768077169147</v>
       </c>
       <c r="D203" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A203)/D$3))</f>
-        <v>9.683814000613113</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A203)/D$3))</f>
+        <v>8.7317474452202291</v>
       </c>
       <c r="E203" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A203)/E$3))</f>
-        <v>14.689728101356776</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A203)/E$3))</f>
+        <v>13.7536706462952</v>
       </c>
       <c r="F203" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A203)/F$3))</f>
-        <v>19.698013637317068</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A203)/F$3))</f>
+        <v>18.78523321363441</v>
       </c>
       <c r="G203" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A203)/G$3))</f>
-        <v>24.70861051196821</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A203)/G$3))</f>
+        <v>23.82624428581369</v>
       </c>
       <c r="H203" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A203)/H$3))</f>
-        <v>29.721440645855477</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A203)/H$3))</f>
+        <v>28.876435194045328</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15" customHeight="1">
       <c r="A204">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B204" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A204)/B$3))</f>
-        <v>-0.64148283747137769</v>
+        <f>DEGREES(ATAN((B$5-B$185*$A204)/B$3))</f>
+        <v>-3.204203662431687</v>
       </c>
       <c r="C204" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A204)/C$3))</f>
-        <v>4.3603338384853405</v>
+        <f>DEGREES(ATAN((C$5-C$185*$A204)/C$3))</f>
+        <v>1.7923457686542215</v>
       </c>
       <c r="D204" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A204)/D$3))</f>
-        <v>9.367031386665337</v>
+        <f>DEGREES(ATAN((D$5-D$185*$A204)/D$3))</f>
+        <v>6.8134621278019347</v>
       </c>
       <c r="E204" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A204)/E$3))</f>
-        <v>14.378572759908469</v>
+        <f>DEGREES(ATAN((E$5-E$185*$A204)/E$3))</f>
+        <v>11.859344193006024</v>
       </c>
       <c r="F204" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A204)/F$3))</f>
-        <v>19.394883294371638</v>
+        <f>DEGREES(ATAN((F$5-F$185*$A204)/F$3))</f>
+        <v>16.929994062613538</v>
       </c>
       <c r="G204" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A204)/G$3))</f>
-        <v>24.41585086830645</v>
+        <f>DEGREES(ATAN((G$5-G$185*$A204)/G$3))</f>
+        <v>22.025205633326888</v>
       </c>
       <c r="H204" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A204)/H$3))</f>
-        <v>29.441326378022207</v>
+        <f>DEGREES(ATAN((H$5-H$185*$A204)/H$3))</f>
+        <v>27.144554756035198</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15" customHeight="1">
       <c r="A205">
+        <v>100</v>
+      </c>
+      <c r="B205" s="222">
+        <f>DEGREES(ATAN((B$5-B$185*$A205)/B$3))</f>
+        <v>-6.3884895824863905</v>
+      </c>
+      <c r="C205" s="222">
+        <f>DEGREES(ATAN((C$5-C$185*$A205)/C$3))</f>
+        <v>-1.4265750060229232</v>
+      </c>
+      <c r="D205" s="222">
+        <f>DEGREES(ATAN((D$5-D$185*$A205)/D$3))</f>
+        <v>3.5840501353151297</v>
+      </c>
+      <c r="E205" s="222">
+        <f>DEGREES(ATAN((E$5-E$185*$A205)/E$3))</f>
+        <v>8.6447601852735438</v>
+      </c>
+      <c r="F205" s="222">
+        <f>DEGREES(ATAN((F$5-F$185*$A205)/F$3))</f>
+        <v>13.756573426642133</v>
+      </c>
+      <c r="G205" s="222">
+        <f>DEGREES(ATAN((G$5-G$185*$A205)/G$3))</f>
+        <v>18.920096639468753</v>
+      </c>
+      <c r="H205" s="222">
+        <f>DEGREES(ATAN((H$5-H$185*$A205)/H$3))</f>
+        <v>24.135468717585937</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15" customHeight="1">
+      <c r="A207" t="s">
+        <v>600</v>
+      </c>
+      <c r="B207" s="222">
         <v>20</v>
       </c>
-      <c r="B205" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A205)/B$3))</f>
-        <v>-1.2828048953233036</v>
-      </c>
-      <c r="C205" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A205)/C$3))</f>
-        <v>3.7195768077169147</v>
-      </c>
-      <c r="D205" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A205)/D$3))</f>
-        <v>8.7317474452202291</v>
-      </c>
-      <c r="E205" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A205)/E$3))</f>
-        <v>13.7536706462952</v>
-      </c>
-      <c r="F205" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A205)/F$3))</f>
-        <v>18.78523321363441</v>
-      </c>
-      <c r="G205" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A205)/G$3))</f>
-        <v>23.82624428581369</v>
-      </c>
-      <c r="H205" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A205)/H$3))</f>
-        <v>28.876435194045328</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="15" customHeight="1">
-      <c r="A206">
-        <v>50</v>
-      </c>
-      <c r="B206" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A206)/B$3))</f>
-        <v>-3.204203662431687</v>
-      </c>
-      <c r="C206" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A206)/C$3))</f>
-        <v>1.7923457686542215</v>
-      </c>
-      <c r="D206" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A206)/D$3))</f>
-        <v>6.8134621278019347</v>
-      </c>
-      <c r="E206" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A206)/E$3))</f>
-        <v>11.859344193006024</v>
-      </c>
-      <c r="F206" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A206)/F$3))</f>
-        <v>16.929994062613538</v>
-      </c>
-      <c r="G206" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A206)/G$3))</f>
-        <v>22.025205633326888</v>
-      </c>
-      <c r="H206" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A206)/H$3))</f>
-        <v>27.144554756035198</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="15" customHeight="1">
-      <c r="A207">
-        <v>100</v>
-      </c>
-      <c r="B207" s="222">
-        <f>DEGREES(ATAN((B$5-B$187*$A207)/B$3))</f>
-        <v>-6.3884895824863905</v>
-      </c>
       <c r="C207" s="222">
-        <f>DEGREES(ATAN((C$5-C$187*$A207)/C$3))</f>
-        <v>-1.4265750060229232</v>
+        <v>20</v>
       </c>
       <c r="D207" s="222">
-        <f>DEGREES(ATAN((D$5-D$187*$A207)/D$3))</f>
-        <v>3.5840501353151297</v>
+        <v>20</v>
       </c>
       <c r="E207" s="222">
-        <f>DEGREES(ATAN((E$5-E$187*$A207)/E$3))</f>
-        <v>8.6447601852735438</v>
+        <v>20</v>
       </c>
       <c r="F207" s="222">
-        <f>DEGREES(ATAN((F$5-F$187*$A207)/F$3))</f>
-        <v>13.756573426642133</v>
+        <v>20</v>
       </c>
       <c r="G207" s="222">
-        <f>DEGREES(ATAN((G$5-G$187*$A207)/G$3))</f>
-        <v>18.920096639468753</v>
+        <v>20</v>
       </c>
       <c r="H207" s="222">
-        <f>DEGREES(ATAN((H$5-H$187*$A207)/H$3))</f>
-        <v>24.135468717585937</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15" customHeight="1">
+      <c r="A208" t="s">
+        <v>604</v>
+      </c>
+      <c r="B208" s="222">
+        <f>B$183*VLOOKUP(B$207,$A$187:B$195,B$186,FALSE)</f>
+        <v>-4.5965686786314554E-2</v>
+      </c>
+      <c r="C208" s="222">
+        <f>C$183*VLOOKUP(C$207,$A$187:C$195,C$186,FALSE)</f>
+        <v>0.13328051923130946</v>
+      </c>
+      <c r="D208" s="222">
+        <f>D$183*VLOOKUP(D$207,$A$187:D$195,D$186,FALSE)</f>
+        <v>0.31287748404097021</v>
+      </c>
+      <c r="E208" s="222">
+        <f>E$183*VLOOKUP(E$207,$A$187:E$195,E$186,FALSE)</f>
+        <v>0.49282390439459767</v>
+      </c>
+      <c r="F208" s="222">
+        <f>F$183*VLOOKUP(F$207,$A$187:F$195,F$186,FALSE)</f>
+        <v>0.6731157241867024</v>
+      </c>
+      <c r="G208" s="222">
+        <f>G$183*VLOOKUP(G$207,$A$187:G$195,G$186,FALSE)</f>
+        <v>0.8537461044377368</v>
+      </c>
+      <c r="H208" s="222">
+        <f>H$183*VLOOKUP(H$207,$A$187:H$195,H$186,FALSE)</f>
+        <v>1.0347054181612505</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15" customHeight="1">
       <c r="A209" t="s">
-        <v>601</v>
-      </c>
-      <c r="B209" s="222">
-        <v>20</v>
-      </c>
-      <c r="C209" s="222">
-        <v>20</v>
-      </c>
-      <c r="D209" s="222">
-        <v>20</v>
-      </c>
-      <c r="E209" s="222">
-        <v>20</v>
-      </c>
-      <c r="F209" s="222">
-        <v>20</v>
-      </c>
-      <c r="G209" s="222">
-        <v>20</v>
-      </c>
-      <c r="H209" s="222">
-        <v>20</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="F209" s="222"/>
+      <c r="G209" s="222"/>
     </row>
     <row r="210" spans="1:8" ht="15" customHeight="1">
-      <c r="A210" t="s">
-        <v>605</v>
+      <c r="A210">
+        <v>1</v>
       </c>
       <c r="B210" s="222">
-        <f>B$185*VLOOKUP(B$209,$A$189:B$197,B$188,FALSE)</f>
-        <v>-4.5965686786314554E-2</v>
+        <f>B$29*(B81)*B$208</f>
+        <v>-1.6198907430017186</v>
       </c>
       <c r="C210" s="222">
-        <f>C$185*VLOOKUP(C$209,$A$189:C$197,C$188,FALSE)</f>
-        <v>0.13328051923130946</v>
+        <f>C$29*(C81)*C$208</f>
+        <v>4.6969792995574471</v>
       </c>
       <c r="D210" s="222">
-        <f>D$185*VLOOKUP(D$209,$A$189:D$197,D$188,FALSE)</f>
-        <v>0.31287748404097021</v>
+        <f>D$29*(D81)*D$208</f>
+        <v>11.026210539348108</v>
       </c>
       <c r="E210" s="222">
-        <f>E$185*VLOOKUP(E$209,$A$189:E$197,E$188,FALSE)</f>
-        <v>0.49282390439459767</v>
+        <f>E$29*(E81)*E$208</f>
+        <v>17.367757048208802</v>
       </c>
       <c r="F210" s="222">
-        <f>F$185*VLOOKUP(F$209,$A$189:F$197,F$188,FALSE)</f>
-        <v>0.6731157241867024</v>
+        <f>F$29*(F81)*F$208</f>
+        <v>23.721475883692797</v>
       </c>
       <c r="G210" s="222">
-        <f>G$185*VLOOKUP(G$209,$A$189:G$197,G$188,FALSE)</f>
-        <v>0.8537461044377368</v>
+        <f>G$29*(G81)*G$208</f>
+        <v>30.087126031242597</v>
       </c>
       <c r="H210" s="222">
-        <f>H$185*VLOOKUP(H$209,$A$189:H$197,H$188,FALSE)</f>
-        <v>1.0347054181612505</v>
+        <f>H$29*(H81)*H$208</f>
+        <v>36.464368223301804</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15" customHeight="1">
-      <c r="A211" t="s">
-        <v>391</v>
-      </c>
-      <c r="F211" s="222"/>
-      <c r="G211" s="222"/>
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" s="222">
+        <f>B$29*(B82)*B$208</f>
+        <v>-1.5692691572829154</v>
+      </c>
+      <c r="C211" s="222">
+        <f>C$29*(C82)*C$208</f>
+        <v>4.5501986964462775</v>
+      </c>
+      <c r="D211" s="222">
+        <f>D$29*(D82)*D$208</f>
+        <v>10.681641459993482</v>
+      </c>
+      <c r="E211" s="222">
+        <f>E$29*(E82)*E$208</f>
+        <v>16.825014640452281</v>
+      </c>
+      <c r="F211" s="222">
+        <f>F$29*(F82)*F$208</f>
+        <v>22.980179762327399</v>
+      </c>
+      <c r="G211" s="222">
+        <f>G$29*(G82)*G$208</f>
+        <v>29.146903342766269</v>
+      </c>
+      <c r="H211" s="222">
+        <f>H$29*(H82)*H$208</f>
+        <v>35.32485671632363</v>
+      </c>
     </row>
     <row r="212" spans="1:8" ht="15" customHeight="1">
       <c r="A212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B212" s="222">
-        <f>B$29*(B165)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F212" s="222"/>
-      <c r="G212" s="222"/>
+        <f>B$29*(B83)*B$208</f>
+        <v>-1.5186475715641115</v>
+      </c>
+      <c r="C212" s="222">
+        <f>C$29*(C83)*C$208</f>
+        <v>4.403418093335107</v>
+      </c>
+      <c r="D212" s="222">
+        <f>D$29*(D83)*D$208</f>
+        <v>10.337072380638853</v>
+      </c>
+      <c r="E212" s="222">
+        <f>E$29*(E83)*E$208</f>
+        <v>16.282272232695753</v>
+      </c>
+      <c r="F212" s="222">
+        <f>F$29*(F83)*F$208</f>
+        <v>22.238883640962001</v>
+      </c>
+      <c r="G212" s="222">
+        <f>G$29*(G83)*G$208</f>
+        <v>28.206680654289936</v>
+      </c>
+      <c r="H212" s="222">
+        <f>H$29*(H83)*H$208</f>
+        <v>34.185345209345449</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="15" customHeight="1">
       <c r="A213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B213" s="222">
-        <f t="shared" ref="B213" si="92">B$29*(B166)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F213" s="222"/>
-      <c r="G213" s="222"/>
+        <f>B$29*(B84)*B$208</f>
+        <v>-1.468025985845308</v>
+      </c>
+      <c r="C213" s="222">
+        <f>C$29*(C84)*C$208</f>
+        <v>4.2566374902239374</v>
+      </c>
+      <c r="D213" s="222">
+        <f>D$29*(D84)*D$208</f>
+        <v>9.9925033012842253</v>
+      </c>
+      <c r="E213" s="222">
+        <f>E$29*(E84)*E$208</f>
+        <v>15.739529824939231</v>
+      </c>
+      <c r="F213" s="222">
+        <f>F$29*(F84)*F$208</f>
+        <v>21.497587519596603</v>
+      </c>
+      <c r="G213" s="222">
+        <f>G$29*(G84)*G$208</f>
+        <v>27.266457965813608</v>
+      </c>
+      <c r="H213" s="222">
+        <f>H$29*(H84)*H$208</f>
+        <v>33.045833702367268</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="15" customHeight="1">
       <c r="A214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B214" s="222">
-        <f t="shared" ref="B214" si="93">B$29*(B167)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F214" s="222"/>
-      <c r="G214" s="222"/>
+        <f>B$29*(B85)*B$208</f>
+        <v>-1.4174044001265038</v>
+      </c>
+      <c r="C214" s="222">
+        <f>C$29*(C85)*C$208</f>
+        <v>4.1098568871127661</v>
+      </c>
+      <c r="D214" s="222">
+        <f>D$29*(D85)*D$208</f>
+        <v>9.647934221929594</v>
+      </c>
+      <c r="E214" s="222">
+        <f>E$29*(E85)*E$208</f>
+        <v>15.196787417182701</v>
+      </c>
+      <c r="F214" s="222">
+        <f>F$29*(F85)*F$208</f>
+        <v>20.756291398231195</v>
+      </c>
+      <c r="G214" s="222">
+        <f>G$29*(G85)*G$208</f>
+        <v>26.326235277337272</v>
+      </c>
+      <c r="H214" s="222">
+        <f>H$29*(H85)*H$208</f>
+        <v>31.90632219538908</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="15" customHeight="1">
       <c r="A215">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B215" s="222">
-        <f t="shared" ref="B215" si="94">B$29*(B168)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F215" s="222"/>
-      <c r="G215" s="222"/>
+        <f>B$29*(B86)*B$208</f>
+        <v>-1.3667828144077003</v>
+      </c>
+      <c r="C215" s="222">
+        <f>C$29*(C86)*C$208</f>
+        <v>3.9630762840015965</v>
+      </c>
+      <c r="D215" s="222">
+        <f>D$29*(D86)*D$208</f>
+        <v>9.3033651425749664</v>
+      </c>
+      <c r="E215" s="222">
+        <f>E$29*(E86)*E$208</f>
+        <v>14.654045009426177</v>
+      </c>
+      <c r="F215" s="222">
+        <f>F$29*(F86)*F$208</f>
+        <v>20.014995276865797</v>
+      </c>
+      <c r="G215" s="222">
+        <f>G$29*(G86)*G$208</f>
+        <v>25.386012588860943</v>
+      </c>
+      <c r="H215" s="222">
+        <f>H$29*(H86)*H$208</f>
+        <v>30.766810688410899</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="15" customHeight="1">
       <c r="A216">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B216" s="222">
-        <f t="shared" ref="B216" si="95">B$29*(B169)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F216" s="222"/>
-      <c r="G216" s="222"/>
+        <f>B$29*(B87)*B$208</f>
+        <v>-1.3161612286888966</v>
+      </c>
+      <c r="C216" s="222">
+        <f>C$29*(C87)*C$208</f>
+        <v>3.8162956808904265</v>
+      </c>
+      <c r="D216" s="222">
+        <f>D$29*(D87)*D$208</f>
+        <v>8.9587960632203405</v>
+      </c>
+      <c r="E216" s="222">
+        <f>E$29*(E87)*E$208</f>
+        <v>14.111302601669655</v>
+      </c>
+      <c r="F216" s="222">
+        <f>F$29*(F87)*F$208</f>
+        <v>19.273699155500399</v>
+      </c>
+      <c r="G216" s="222">
+        <f>G$29*(G87)*G$208</f>
+        <v>24.445789900384611</v>
+      </c>
+      <c r="H216" s="222">
+        <f>H$29*(H87)*H$208</f>
+        <v>29.627299181432722</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="15" customHeight="1">
       <c r="A217">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B217" s="222">
-        <f t="shared" ref="B217" si="96">B$29*(B170)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F217" s="222"/>
-      <c r="G217" s="222"/>
+        <f>B$29*(B88)*B$208</f>
+        <v>-1.2655396429700929</v>
+      </c>
+      <c r="C217" s="222">
+        <f>C$29*(C88)*C$208</f>
+        <v>3.669515077779256</v>
+      </c>
+      <c r="D217" s="222">
+        <f>D$29*(D88)*D$208</f>
+        <v>8.6142269838657111</v>
+      </c>
+      <c r="E217" s="222">
+        <f>E$29*(E88)*E$208</f>
+        <v>13.568560193913129</v>
+      </c>
+      <c r="F217" s="222">
+        <f>F$29*(F88)*F$208</f>
+        <v>18.532403034135001</v>
+      </c>
+      <c r="G217" s="222">
+        <f>G$29*(G88)*G$208</f>
+        <v>23.505567211908282</v>
+      </c>
+      <c r="H217" s="222">
+        <f>H$29*(H88)*H$208</f>
+        <v>28.487787674454541</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="15" customHeight="1">
       <c r="A218">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B218" s="222">
-        <f t="shared" ref="B218" si="97">B$29*(B171)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F218" s="222"/>
-      <c r="G218" s="222"/>
+        <f>B$29*(B89)*B$208</f>
+        <v>-1.2149180572512892</v>
+      </c>
+      <c r="C218" s="222">
+        <f>C$29*(C89)*C$208</f>
+        <v>3.5227344746680855</v>
+      </c>
+      <c r="D218" s="222">
+        <f>D$29*(D89)*D$208</f>
+        <v>8.2696579045110816</v>
+      </c>
+      <c r="E218" s="222">
+        <f>E$29*(E89)*E$208</f>
+        <v>13.025817786156603</v>
+      </c>
+      <c r="F218" s="222">
+        <f>F$29*(F89)*F$208</f>
+        <v>17.7911069127696</v>
+      </c>
+      <c r="G218" s="222">
+        <f>G$29*(G89)*G$208</f>
+        <v>22.56534452343195</v>
+      </c>
+      <c r="H218" s="222">
+        <f>H$29*(H89)*H$208</f>
+        <v>27.348276167476357</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="15" customHeight="1">
       <c r="A219">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B219" s="222">
-        <f t="shared" ref="B219" si="98">B$29*(B172)*B$126</f>
-        <v>0</v>
-      </c>
-      <c r="F219" s="222"/>
-      <c r="G219" s="222"/>
+        <f>B$29*(B90)*B$208</f>
+        <v>-1.1642964715324853</v>
+      </c>
+      <c r="C219" s="222">
+        <f>C$29*(C90)*C$208</f>
+        <v>3.3759538715569155</v>
+      </c>
+      <c r="D219" s="222">
+        <f>D$29*(D90)*D$208</f>
+        <v>7.9250888251564531</v>
+      </c>
+      <c r="E219" s="222">
+        <f>E$29*(E90)*E$208</f>
+        <v>12.483075378400077</v>
+      </c>
+      <c r="F219" s="222">
+        <f>F$29*(F90)*F$208</f>
+        <v>17.049810791404198</v>
+      </c>
+      <c r="G219" s="222">
+        <f>G$29*(G90)*G$208</f>
+        <v>21.625121834955618</v>
+      </c>
+      <c r="H219" s="222">
+        <f>H$29*(H90)*H$208</f>
+        <v>26.208764660498176</v>
+      </c>
     </row>
     <row r="220" spans="1:8" ht="15" customHeight="1">
-      <c r="A220">
-        <v>9</v>
+      <c r="A220" t="s">
+        <v>605</v>
       </c>
       <c r="B220" s="222">
-        <f t="shared" ref="B220" si="99">B$29*(B173)*B$126</f>
-        <v>0</v>
+        <f>SUM(B210:B219)</f>
+        <v>-13.920936072671022</v>
+      </c>
+      <c r="C220" s="222">
+        <f t="shared" ref="C220:H220" si="93">SUM(C210:C219)</f>
+        <v>40.364665855571822</v>
+      </c>
+      <c r="D220" s="222">
+        <f t="shared" si="93"/>
+        <v>94.756496822522806</v>
+      </c>
+      <c r="E220" s="222">
+        <f t="shared" si="93"/>
+        <v>149.25416213304442</v>
+      </c>
+      <c r="F220" s="222">
+        <f t="shared" si="93"/>
+        <v>203.85643337548498</v>
+      </c>
+      <c r="G220" s="222">
+        <f t="shared" si="93"/>
+        <v>258.56123933099104</v>
+      </c>
+      <c r="H220" s="222">
+        <f t="shared" si="93"/>
+        <v>313.36566441899993</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15" customHeight="1">
-      <c r="A221">
-        <v>10</v>
+      <c r="A221" t="s">
+        <v>606</v>
       </c>
       <c r="B221" s="222">
-        <f t="shared" ref="B221" si="100">B$29*(B174)*B$126</f>
-        <v>0</v>
+        <f>B220*B185</f>
+        <v>-2.6519383218438297</v>
+      </c>
+      <c r="C221" s="222">
+        <f t="shared" ref="C221:H221" si="94">C220*C185</f>
+        <v>7.6894688454864326</v>
+      </c>
+      <c r="D221" s="222">
+        <f t="shared" si="94"/>
+        <v>18.051112644690594</v>
+      </c>
+      <c r="E221" s="222">
+        <f t="shared" si="94"/>
+        <v>28.432917886344963</v>
+      </c>
+      <c r="F221" s="222">
+        <f t="shared" si="94"/>
+        <v>38.834650558029892</v>
+      </c>
+      <c r="G221" s="222">
+        <f t="shared" si="94"/>
+        <v>49.255916092553797</v>
+      </c>
+      <c r="H221" s="222">
+        <f t="shared" si="94"/>
+        <v>59.696159071819487</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15" customHeight="1">
+      <c r="A222" t="s">
+        <v>609</v>
+      </c>
+      <c r="B222" s="222">
+        <f>B38*(2/3)*((1+B44+B44^2)/(1+B44))</f>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="C222" s="222">
+        <f t="shared" ref="C222:H222" si="95">C38*(2/3)*((1+C44+C44^2)/(1+C44))</f>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="D222" s="222">
+        <f t="shared" si="95"/>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="E222" s="222">
+        <f t="shared" si="95"/>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="F222" s="222">
+        <f t="shared" si="95"/>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="G222" s="222">
+        <f t="shared" si="95"/>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="H222" s="222">
+        <f t="shared" si="95"/>
+        <v>0.12666666666666665</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15" customHeight="1">
+      <c r="A223" t="s">
+        <v>608</v>
+      </c>
+      <c r="B223" s="222">
+        <f>B221/(B29*B91*B222)</f>
+        <v>-6.912997367994414E-2</v>
       </c>
     </row>
   </sheetData>
@@ -50114,7 +50459,7 @@
       <inputCells r="B9" val="5" numFmtId="165"/>
     </scenario>
   </scenarios>
-  <conditionalFormatting sqref="B199:H207">
+  <conditionalFormatting sqref="B197:H205">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
@@ -50145,7 +50490,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15">
       <c r="A1" s="315" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="317">
         <v>0.06</v>
@@ -50180,15 +50525,15 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="316" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" t="s">
         <v>592</v>
-      </c>
-      <c r="M2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="316" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B3" s="318"/>
       <c r="C3" s="318"/>
@@ -50292,7 +50637,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="316" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B11" s="318"/>
       <c r="C11" s="318"/>
@@ -50396,7 +50741,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="316" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B19" s="318"/>
       <c r="C19" s="318"/>
@@ -50500,7 +50845,7 @@
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="315" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -50539,10 +50884,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="376"/>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
+      <c r="D5" s="390"/>
+      <c r="E5" s="390"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -51520,24 +51865,24 @@
     <row r="1" spans="1:27" ht="15" thickBot="1"/>
     <row r="2" spans="1:27" ht="15" thickBot="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="377" t="s">
+      <c r="B2" s="391" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="379"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="393"/>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:27" ht="14.45" customHeight="1" thickBot="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="384" t="s">
+      <c r="B3" s="398" t="s">
         <v>420</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="387"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="401"/>
       <c r="G3" s="20"/>
       <c r="J3" s="127" t="s">
         <v>421</v>
@@ -51572,14 +51917,14 @@
       <c r="C4" s="27">
         <v>100</v>
       </c>
-      <c r="D4" s="383" t="s">
+      <c r="D4" s="397" t="s">
         <v>116</v>
       </c>
       <c r="E4" s="27">
         <f>C4*(3600/1000)</f>
         <v>360</v>
       </c>
-      <c r="F4" s="383" t="s">
+      <c r="F4" s="397" t="s">
         <v>425</v>
       </c>
       <c r="G4" s="20"/>
@@ -51616,12 +51961,12 @@
       <c r="C5" s="20">
         <v>10</v>
       </c>
-      <c r="D5" s="381"/>
+      <c r="D5" s="395"/>
       <c r="E5" s="20">
         <f>C5*(3600/1000)</f>
         <v>36</v>
       </c>
-      <c r="F5" s="381"/>
+      <c r="F5" s="395"/>
       <c r="G5" s="20"/>
       <c r="J5" s="128">
         <v>1.0714285714285714E-2</v>
@@ -51656,12 +52001,12 @@
       <c r="C6" s="24">
         <v>4</v>
       </c>
-      <c r="D6" s="382"/>
+      <c r="D6" s="396"/>
       <c r="E6" s="24">
         <f>C6*(3600/1000)</f>
         <v>14.4</v>
       </c>
-      <c r="F6" s="382"/>
+      <c r="F6" s="396"/>
       <c r="G6" s="20"/>
       <c r="J6" s="128">
         <v>1.7857142857142856E-2</v>
@@ -51676,13 +52021,13 @@
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1">
       <c r="A7" s="20"/>
-      <c r="B7" s="384" t="s">
+      <c r="B7" s="398" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="385"/>
-      <c r="D7" s="385"/>
-      <c r="E7" s="386"/>
-      <c r="F7" s="387"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="400"/>
+      <c r="F7" s="401"/>
       <c r="G7" s="20"/>
       <c r="J7" s="128">
         <v>2.4999999999999998E-2</v>
@@ -51701,11 +52046,11 @@
         <v>429</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="383" t="s">
+      <c r="D8" s="397" t="s">
         <v>430</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="383" t="s">
+      <c r="F8" s="397" t="s">
         <v>201</v>
       </c>
       <c r="G8" s="20"/>
@@ -51726,9 +52071,9 @@
         <v>431</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="381"/>
+      <c r="D9" s="395"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="381"/>
+      <c r="F9" s="395"/>
       <c r="G9" s="20"/>
       <c r="J9" s="128">
         <v>3.9285714285714285E-2</v>
@@ -51747,9 +52092,9 @@
         <v>432</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="382"/>
+      <c r="D10" s="396"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="381"/>
+      <c r="F10" s="395"/>
       <c r="G10" s="20"/>
       <c r="J10" s="128">
         <v>4.642857142857143E-2</v>
@@ -51947,7 +52292,7 @@
         <f>ATAN($C$5/$C$4)</f>
         <v>9.9668652491162038E-2</v>
       </c>
-      <c r="F17" s="381" t="s">
+      <c r="F17" s="395" t="s">
         <v>442</v>
       </c>
       <c r="G17" s="20"/>
@@ -51978,7 +52323,7 @@
         <f>ATAN($C$6/$C$4)</f>
         <v>3.9978687123290044E-2</v>
       </c>
-      <c r="F18" s="382"/>
+      <c r="F18" s="396"/>
       <c r="G18" s="20"/>
       <c r="J18" s="128">
         <v>0.10357142857142859</v>
@@ -51997,9 +52342,9 @@
         <v>444</v>
       </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="383"/>
+      <c r="D19" s="397"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="383" t="s">
+      <c r="F19" s="397" t="s">
         <v>442</v>
       </c>
       <c r="G19" s="20"/>
@@ -52020,9 +52365,9 @@
         <v>445</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="381"/>
+      <c r="D20" s="395"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="381"/>
+      <c r="F20" s="395"/>
       <c r="G20" s="20"/>
       <c r="J20" s="128">
         <v>0.11785714285714288</v>
@@ -52041,9 +52386,9 @@
         <v>446</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="382"/>
+      <c r="D21" s="396"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="382"/>
+      <c r="F21" s="396"/>
       <c r="G21" s="20"/>
       <c r="J21" s="128">
         <v>0.12500000000000003</v>
@@ -52062,9 +52407,9 @@
         <v>447</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="383"/>
+      <c r="D22" s="397"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="383" t="s">
+      <c r="F22" s="397" t="s">
         <v>448</v>
       </c>
       <c r="G22" s="20"/>
@@ -52085,9 +52430,9 @@
         <v>449</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="381"/>
+      <c r="D23" s="395"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="381"/>
+      <c r="F23" s="395"/>
       <c r="G23" s="20"/>
       <c r="J23" s="128">
         <v>0.13928571428571432</v>
@@ -52106,9 +52451,9 @@
         <v>450</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="382"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="382"/>
+      <c r="F24" s="396"/>
       <c r="G24" s="20"/>
       <c r="J24" s="128">
         <v>0.14642857142857146</v>
@@ -52287,22 +52632,22 @@
       </c>
     </row>
     <row r="43" spans="1:32">
-      <c r="B43" s="380" t="s">
+      <c r="B43" s="394" t="s">
         <v>452</v>
       </c>
-      <c r="C43" s="380"/>
-      <c r="D43" s="380"/>
-      <c r="E43" s="380"/>
-      <c r="F43" s="380"/>
+      <c r="C43" s="394"/>
+      <c r="D43" s="394"/>
+      <c r="E43" s="394"/>
+      <c r="F43" s="394"/>
     </row>
     <row r="44" spans="1:32" s="1" customFormat="1" ht="58.15" customHeight="1">
-      <c r="B44" s="337" t="s">
+      <c r="B44" s="355" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="337"/>
-      <c r="D44" s="337"/>
-      <c r="E44" s="337"/>
-      <c r="F44" s="337"/>
+      <c r="C44" s="355"/>
+      <c r="D44" s="355"/>
+      <c r="E44" s="355"/>
+      <c r="F44" s="355"/>
       <c r="H44" s="108"/>
       <c r="J44" s="1" t="s">
         <v>454</v>
@@ -54795,6 +55140,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
+</scriptIds>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006416C8A108E61840AFB84A4598B73E55" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1d8d0092a91b491fa162699921cd7b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5cf7016-d570-4e66-bed5-9c66354e4d60" xmlns:ns3="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc769dae83c42ca581dc5110a4ef7ce3" ns2:_="" ns3:_="">
     <xsd:import namespace="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
@@ -55001,33 +55372,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
-</scriptIds>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
+    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BA7C14-35B6-43AC-B57B-4A5107295D21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55044,37 +55422,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
-    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
+++ b/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="612">
   <si>
     <t>Overview</t>
   </si>
@@ -2569,9 +2569,6 @@
     <t>Data points (AoA due q rate rad/s, out: deg)</t>
   </si>
   <si>
-    <t>Cl due q rate rad/s</t>
-  </si>
-  <si>
     <t>TOTAL Lift</t>
   </si>
   <si>
@@ -2585,6 +2582,15 @@
   </si>
   <si>
     <t>Mean aerodynamic chord (MAC)</t>
+  </si>
+  <si>
+    <t>Cl due q rate rad/s (Cl,q)</t>
+  </si>
+  <si>
+    <t>Reference length dx = (x,cp - x.cg)</t>
+  </si>
+  <si>
+    <t>dCm,q / dq</t>
   </si>
 </sst>
 </file>
@@ -4406,6 +4412,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4415,58 +4433,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4482,6 +4467,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4508,10 +4502,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4595,7 +4601,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill>
@@ -4672,6 +4678,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5152,11 +5178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-796301792"/>
-        <c:axId val="-796305600"/>
+        <c:axId val="669612608"/>
+        <c:axId val="669613696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-796301792"/>
+        <c:axId val="669612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5284,14 +5310,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796305600"/>
+        <c:crossAx val="669613696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.30000000000000004"/>
         <c:minorUnit val="0.30000000000000004"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-796305600"/>
+        <c:axId val="669613696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5465,7 +5491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796301792"/>
+        <c:crossAx val="669612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -5655,11 +5681,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673777424"/>
-        <c:axId val="-673785584"/>
+        <c:axId val="669603360"/>
+        <c:axId val="669610976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673777424"/>
+        <c:axId val="669603360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5730,12 +5756,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673785584"/>
+        <c:crossAx val="669610976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673785584"/>
+        <c:axId val="669610976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,7 +5832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673777424"/>
+        <c:crossAx val="669603360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6969,11 +6995,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673783952"/>
-        <c:axId val="-673781232"/>
+        <c:axId val="669608256"/>
+        <c:axId val="669604992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673783952"/>
+        <c:axId val="669608256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7099,12 +7125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673781232"/>
+        <c:crossAx val="669604992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673781232"/>
+        <c:axId val="669604992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7230,7 +7256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673783952"/>
+        <c:crossAx val="669608256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8330,11 +8356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673779600"/>
-        <c:axId val="-673783408"/>
+        <c:axId val="669602272"/>
+        <c:axId val="669606080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673779600"/>
+        <c:axId val="669602272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8460,12 +8486,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673783408"/>
+        <c:crossAx val="669606080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673783408"/>
+        <c:axId val="669606080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8591,7 +8617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673779600"/>
+        <c:crossAx val="669602272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9509,11 +9535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673782864"/>
-        <c:axId val="-673772528"/>
+        <c:axId val="669602816"/>
+        <c:axId val="669610432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673782864"/>
+        <c:axId val="669602816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9570,12 +9596,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673772528"/>
+        <c:crossAx val="669610432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673772528"/>
+        <c:axId val="669610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -9633,7 +9659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673782864"/>
+        <c:crossAx val="669602816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10075,11 +10101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673777968"/>
-        <c:axId val="-673774160"/>
+        <c:axId val="669607712"/>
+        <c:axId val="669611520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673777968"/>
+        <c:axId val="669607712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10136,12 +10162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673774160"/>
+        <c:crossAx val="669611520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673774160"/>
+        <c:axId val="669611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10198,7 +10224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673777968"/>
+        <c:crossAx val="669607712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10408,8 +10434,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-673778512"/>
-        <c:axId val="-673787760"/>
+        <c:axId val="669608800"/>
+        <c:axId val="800222032"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10517,11 +10543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-673780688"/>
-        <c:axId val="-673782320"/>
+        <c:axId val="800232368"/>
+        <c:axId val="800231824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-673778512"/>
+        <c:axId val="669608800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10578,7 +10604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673787760"/>
+        <c:crossAx val="800222032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10586,7 +10612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-673787760"/>
+        <c:axId val="800222032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10643,12 +10669,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673778512"/>
+        <c:crossAx val="669608800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673782320"/>
+        <c:axId val="800231824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10691,12 +10717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673780688"/>
+        <c:crossAx val="800232368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-673780688"/>
+        <c:axId val="800232368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10706,7 +10732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-673782320"/>
+        <c:crossAx val="800231824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10993,11 +11019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673780144"/>
-        <c:axId val="-673776880"/>
+        <c:axId val="800228016"/>
+        <c:axId val="800229648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673780144"/>
+        <c:axId val="800228016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11055,12 +11081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673776880"/>
+        <c:crossAx val="800229648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673776880"/>
+        <c:axId val="800229648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11117,7 +11143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673780144"/>
+        <c:crossAx val="800228016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11411,11 +11437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673775248"/>
-        <c:axId val="-673774704"/>
+        <c:axId val="800227472"/>
+        <c:axId val="800223664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673775248"/>
+        <c:axId val="800227472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -11487,12 +11513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673774704"/>
+        <c:crossAx val="800223664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673774704"/>
+        <c:axId val="800223664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -11564,7 +11590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673775248"/>
+        <c:crossAx val="800227472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12851,11 +12877,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-673787216"/>
-        <c:axId val="-673786672"/>
+        <c:axId val="800224752"/>
+        <c:axId val="800224208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-673787216"/>
+        <c:axId val="800224752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12898,7 +12924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673786672"/>
+        <c:crossAx val="800224208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12906,7 +12932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-673786672"/>
+        <c:axId val="800224208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12957,7 +12983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673787216"/>
+        <c:crossAx val="800224752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13489,11 +13515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-796297984"/>
-        <c:axId val="-796305056"/>
+        <c:axId val="669612064"/>
+        <c:axId val="669600640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-796297984"/>
+        <c:axId val="669612064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13561,12 +13587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796305056"/>
+        <c:crossAx val="669600640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-796305056"/>
+        <c:axId val="669600640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13637,7 +13663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796297984"/>
+        <c:crossAx val="669612064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14033,11 +14059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-796302880"/>
-        <c:axId val="-796300160"/>
+        <c:axId val="669605536"/>
+        <c:axId val="669601728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-796302880"/>
+        <c:axId val="669605536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14108,12 +14134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796300160"/>
+        <c:crossAx val="669601728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-796300160"/>
+        <c:axId val="669601728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14184,7 +14210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796302880"/>
+        <c:crossAx val="669605536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14494,11 +14520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-796304512"/>
-        <c:axId val="-796297440"/>
+        <c:axId val="669599552"/>
+        <c:axId val="669613152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-796304512"/>
+        <c:axId val="669599552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14568,12 +14594,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796297440"/>
+        <c:crossAx val="669613152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-796297440"/>
+        <c:axId val="669613152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14644,7 +14670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796304512"/>
+        <c:crossAx val="669599552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14830,11 +14856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1010410416"/>
-        <c:axId val="-1010405520"/>
+        <c:axId val="669600096"/>
+        <c:axId val="669609344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1010410416"/>
+        <c:axId val="669600096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14905,12 +14931,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1010405520"/>
+        <c:crossAx val="669609344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1010405520"/>
+        <c:axId val="669609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -14982,7 +15008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1010410416"/>
+        <c:crossAx val="669600096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15902,11 +15928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1010404432"/>
-        <c:axId val="-673785040"/>
+        <c:axId val="669614240"/>
+        <c:axId val="669614784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1010404432"/>
+        <c:axId val="669614240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15977,12 +16003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673785040"/>
+        <c:crossAx val="669614784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673785040"/>
+        <c:axId val="669614784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16053,7 +16079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1010404432"/>
+        <c:crossAx val="669614240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16242,8 +16268,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673781776"/>
-        <c:axId val="-673773616"/>
+        <c:axId val="669607168"/>
+        <c:axId val="669606624"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -16369,7 +16395,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673781776"/>
+        <c:axId val="669607168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -16441,12 +16467,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673773616"/>
+        <c:crossAx val="669606624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673773616"/>
+        <c:axId val="669606624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16517,7 +16543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673781776"/>
+        <c:crossAx val="669607168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16703,11 +16729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673779056"/>
-        <c:axId val="-673775792"/>
+        <c:axId val="669601184"/>
+        <c:axId val="669603904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673779056"/>
+        <c:axId val="669601184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16778,12 +16804,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673775792"/>
+        <c:crossAx val="669603904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673775792"/>
+        <c:axId val="669603904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -16855,7 +16881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673779056"/>
+        <c:crossAx val="669601184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17044,11 +17070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-673784496"/>
-        <c:axId val="-673773072"/>
+        <c:axId val="669604448"/>
+        <c:axId val="669609888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-673784496"/>
+        <c:axId val="669604448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17119,12 +17145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673773072"/>
+        <c:crossAx val="669609888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-673773072"/>
+        <c:axId val="669609888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17195,7 +17221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-673784496"/>
+        <c:crossAx val="669604448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26921,7 +26947,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26978,7 +27004,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27102,7 +27128,14 @@
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1+</m:t>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
                             </m:r>
                             <m:f>
                               <m:fPr>
@@ -27126,7 +27159,14 @@
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>−1</m:t>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
                                 </m:r>
                               </m:num>
                               <m:den>
@@ -27202,7 +27242,14 @@
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>−1</m:t>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -27319,10 +27366,10 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27355,7 +27402,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27587,7 +27634,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27821,7 +27868,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28011,7 +28058,14 @@
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>−1</m:t>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -28106,7 +28160,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28180,7 +28234,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28251,7 +28305,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28382,7 +28436,13 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1−</m:t>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
                             </m:r>
                             <m:sSup>
                               <m:sSupPr>
@@ -28468,7 +28528,13 @@
                                   <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>1+</m:t>
+                                  <m:t>1</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
                                 </m:r>
                                 <m:rad>
                                   <m:radPr>
@@ -28485,7 +28551,13 @@
                                       <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
                                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
-                                      <m:t>1−</m:t>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>−</m:t>
                                     </m:r>
                                     <m:sSup>
                                       <m:sSupPr>
@@ -28553,7 +28625,13 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>/2</m:t>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -28636,7 +28714,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28834,7 +28912,13 @@
                                       <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
                                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
-                                      <m:t>1+</m:t>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>+</m:t>
                                     </m:r>
                                     <m:f>
                                       <m:fPr>
@@ -28858,7 +28942,14 @@
                                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           </a:rPr>
-                                          <m:t>−1</m:t>
+                                          <m:t>−</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>1</m:t>
                                         </m:r>
                                       </m:num>
                                       <m:den>
@@ -28917,7 +29008,14 @@
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>1+</m:t>
+                                  <m:t>1</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
                                 </m:r>
                                 <m:f>
                                   <m:fPr>
@@ -28941,7 +29039,14 @@
                                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
-                                      <m:t>−1</m:t>
+                                      <m:t>−</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
                                     </m:r>
                                   </m:num>
                                   <m:den>
@@ -28991,7 +29096,14 @@
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>−1</m:t>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -29002,7 +29114,14 @@
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−1</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
@@ -29131,10 +29250,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29170,10 +29289,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29214,7 +29333,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29250,10 +29369,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29291,10 +29410,10 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29332,10 +29451,10 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29373,10 +29492,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29414,10 +29533,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29455,10 +29574,10 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29491,7 +29610,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29548,7 +29667,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29821,7 +29940,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30170,7 +30289,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30208,10 +30327,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30249,10 +30368,10 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
             </a:ext>
             <a:ext uri="{6ECC49D1-AA05-4338-93AA-15A1B29DFB0A}">
-              <asl:scriptLink xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" xmlns="" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
+              <asl:scriptLink xmlns="" xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30333,7 +30452,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30463,7 +30582,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30496,7 +30615,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30734,7 +30853,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30767,7 +30886,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31159,7 +31278,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31544,7 +31663,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31905,7 +32024,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31941,7 +32060,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31974,7 +32093,7 @@
             <xdr:cNvPr id="17" name="TextBox 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32321,7 +32440,7 @@
             <xdr:cNvPr id="18" name="TextBox 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32475,7 +32594,13 @@
                                           <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           </a:rPr>
-                                          <m:t>+1</m:t>
+                                          <m:t>+</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="es-MX" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>1</m:t>
                                         </m:r>
                                       </m:e>
                                     </m:d>
@@ -32518,7 +32643,13 @@
                                       <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
-                                      <m:t>+1</m:t>
+                                      <m:t>+</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="es-MX" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
                                     </m:r>
                                   </m:e>
                                 </m:rad>
@@ -32551,7 +32682,13 @@
                                   <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>−1</m:t>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-MX" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
                                 </m:r>
                               </m:sup>
                             </m:sSup>
@@ -32600,7 +32737,13 @@
                                           <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           </a:rPr>
-                                          <m:t>+1</m:t>
+                                          <m:t>+</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="es-MX" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>1</m:t>
                                         </m:r>
                                       </m:e>
                                     </m:rad>
@@ -32616,7 +32759,13 @@
                                       <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
-                                      <m:t>+1</m:t>
+                                      <m:t>+</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="es-MX" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
                                     </m:r>
                                   </m:den>
                                 </m:f>
@@ -32717,7 +32866,7 @@
             <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32890,7 +33039,13 @@
                           <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>−1</m:t>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -32981,7 +33136,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C343757-179A-4FFC-8D7F-26180DFF714C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C343757-179A-4FFC-8D7F-26180DFF714C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33019,7 +33174,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33063,10 +33218,10 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F426E6A-640A-0D37-FCC2-62FBA9CA9E0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F426E6A-640A-0D37-FCC2-62FBA9CA9E0F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C1B5A6EF-F62B-09D0-702F-21FB4366E783}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33102,7 +33257,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68635FAE-4023-1053-4B81-A4D124667C33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68635FAE-4023-1053-4B81-A4D124667C33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33146,7 +33301,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FFBA90B-9268-1D87-BC5B-4DDC08B5D032}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFBA90B-9268-1D87-BC5B-4DDC08B5D032}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33190,7 +33345,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2D3D899-8633-6C1D-777A-DAFDB72A8C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D3D899-8633-6C1D-777A-DAFDB72A8C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33234,7 +33389,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83D83C04-1C18-9F90-817A-842D6DEE5D0E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D83C04-1C18-9F90-817A-842D6DEE5D0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33283,7 +33438,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33327,7 +33482,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33371,7 +33526,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34158,98 +34313,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B76:G81" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B76:G81" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="B76:G81"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Fin type" dataDxfId="63"/>
-    <tableColumn id="2" name="Sweeped" dataDxfId="62">
+    <tableColumn id="1" name="Fin type" dataDxfId="65"/>
+    <tableColumn id="2" name="Sweeped" dataDxfId="64">
       <calculatedColumnFormula>I64</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tapered 1/4" dataDxfId="61">
+    <tableColumn id="3" name="Tapered 1/4" dataDxfId="63">
       <calculatedColumnFormula>K64</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Tapered sweeped" dataDxfId="60"/>
-    <tableColumn id="5" name="Column4" dataDxfId="59"/>
-    <tableColumn id="6" name="Column5" dataDxfId="58"/>
+    <tableColumn id="4" name="Tapered sweeped" dataDxfId="62"/>
+    <tableColumn id="5" name="Column4" dataDxfId="61"/>
+    <tableColumn id="6" name="Column5" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J44:AF66" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J44:AF66" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="J44:AF65"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Node" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" name="Span position (m)" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="1" name="Node" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" name="Span position (m)" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>K44+$E$54/2/$C$61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Local max Reynolds" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="10" name="Local max Reynolds" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>($C$4*$C$12*M45)/$C$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Local chord (m)" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="3" name="Local chord (m)" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>((($E$49-$E$50)/($E$54/2))*K45)+$E$50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Local taper ratio" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="21" name="Local taper ratio" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>M45/$E$50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Local MAC (m)" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="20" name="Local MAC (m)" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>(2/3)*$E$54*((N45^2+N45+1)/(N45+1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Local surface (m^2)" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="4" name="Local surface (m^2)" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>(M45+M44)/2*($K$45*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Local wetted surface (m^2)" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="9" name="Local wetted surface (m^2)" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>E51*Table2[[#This Row],[Span position (m)]]+Table2[[#This Row],[Local chord (m)]]*K45+E51*K45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Boundary-layer thickness (m)" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="22" name="Boundary-layer thickness (m)" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF($C$11&gt;0.3,0,IF(L45&lt;500000,0.5*M45/(SQRT(M45)),0.37*M45/(L45^(1/5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Local u (m/s)" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="14" name="Local u (m/s)" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>$C$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Local w (m/s)" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="15" name="Local w (m/s)" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>$C$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="AoA fins (rad)" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="5" name="AoA fins (rad)" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>DEGREES(ATAN(T45/S45))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Cl" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="6" name="Cl" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>IF($C$11&lt;1,($C$62*RADIANS(U45))/SQRT(1-$C$11^2),(4*RADIANS(U45))/SQRT($C$11^2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Cf" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="19" name="Cf" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF($C$11&lt;0.3,IF((L45&gt;500000),0.074/L45^(1/5),1.328/SQRT(L45)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cd" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="7" name="Cd" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>$C$63+(0.2*($C$63+W45+(V45^2/PI()*$C$56)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Cm,LE" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="8" name="Cm,LE" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>IF($C$11&lt;1,(-V45/2)/SQRT(1-$C$11^2),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Xcp location" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="23" name="Xcp location" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IF($C$11&gt;0.3, 1, 0.25*M45)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Lift" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="11" name="Lift" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>0.5*$C$12*(S45^2)*P45*V45</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Lift])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="Drag" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="12" name="Drag" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>0.5*$C$12*(S45^2)*P45*X45</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Drag])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Moment (x-z)" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="13" name="Moment (x-z)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>0.5*$C$12*(S45^2)*P45*O45*Y45</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Moment (x-z)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="Lift (interfered" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="16" name="Lift (interfered" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(K45&gt;$E$66/2,AA45,0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Lift (interfered])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="Drag (interfered)" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="17" name="Drag (interfered)" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(K45&gt;$E$66/2,Table2[[#This Row],[Drag]],0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Drag (interfered)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="Moment (interfered)" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="18" name="Moment (interfered)" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>IF(K45&gt;$E$66,Table2[[#This Row],[Moment (x-z)]],0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Moment (interfered)])</totalsRowFormula>
     </tableColumn>
@@ -39839,10 +39994,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1"/>
     <row r="2" spans="2:22" ht="37.15" customHeight="1">
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="342" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="362"/>
+      <c r="C2" s="343"/>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="3" t="s">
@@ -39913,13 +40068,13 @@
       <c r="B12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="342" t="s">
+      <c r="C12" s="346" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="343"/>
-      <c r="E12" s="343"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="344"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="347"/>
+      <c r="F12" s="347"/>
+      <c r="G12" s="348"/>
       <c r="H12" s="1" t="s">
         <v>193</v>
       </c>
@@ -39934,13 +40089,13 @@
       <c r="N12" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="342" t="s">
+      <c r="O12" s="346" t="s">
         <v>196</v>
       </c>
-      <c r="P12" s="343"/>
-      <c r="Q12" s="343"/>
-      <c r="R12" s="343"/>
-      <c r="S12" s="344"/>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="347"/>
+      <c r="R12" s="347"/>
+      <c r="S12" s="348"/>
       <c r="T12" s="1" t="s">
         <v>193</v>
       </c>
@@ -39952,7 +40107,7 @@
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="357" t="s">
+      <c r="B13" s="344" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="79"/>
@@ -39972,7 +40127,7 @@
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
-      <c r="N13" s="357" t="s">
+      <c r="N13" s="344" t="s">
         <v>197</v>
       </c>
       <c r="O13" s="79"/>
@@ -39992,7 +40147,7 @@
       </c>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="358"/>
+      <c r="B14" s="345"/>
       <c r="C14" s="82"/>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
@@ -40012,7 +40167,7 @@
       </c>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
-      <c r="N14" s="358"/>
+      <c r="N14" s="345"/>
       <c r="O14" s="82"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
@@ -40032,7 +40187,7 @@
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="358"/>
+      <c r="B15" s="345"/>
       <c r="C15" s="82"/>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
@@ -40052,7 +40207,7 @@
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="72"/>
-      <c r="N15" s="358"/>
+      <c r="N15" s="345"/>
       <c r="O15" s="82"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
@@ -40072,7 +40227,7 @@
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="358"/>
+      <c r="B16" s="345"/>
       <c r="C16" s="82"/>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -40092,7 +40247,7 @@
       </c>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
-      <c r="N16" s="358"/>
+      <c r="N16" s="345"/>
       <c r="O16" s="82"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="72"/>
@@ -40112,7 +40267,7 @@
       </c>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="358"/>
+      <c r="B17" s="345"/>
       <c r="C17" s="82"/>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
@@ -40132,7 +40287,7 @@
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="72"/>
-      <c r="N17" s="358"/>
+      <c r="N17" s="345"/>
       <c r="O17" s="82"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="72"/>
@@ -40152,7 +40307,7 @@
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="358"/>
+      <c r="B18" s="345"/>
       <c r="C18" s="82"/>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
@@ -40172,7 +40327,7 @@
       </c>
       <c r="L18" s="72"/>
       <c r="M18" s="72"/>
-      <c r="N18" s="358"/>
+      <c r="N18" s="345"/>
       <c r="O18" s="82"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="72"/>
@@ -40192,7 +40347,7 @@
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="358"/>
+      <c r="B19" s="345"/>
       <c r="C19" s="82"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -40212,7 +40367,7 @@
       </c>
       <c r="L19" s="72"/>
       <c r="M19" s="72"/>
-      <c r="N19" s="358"/>
+      <c r="N19" s="345"/>
       <c r="O19" s="82"/>
       <c r="P19" s="72"/>
       <c r="Q19" s="72"/>
@@ -40232,7 +40387,7 @@
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="358"/>
+      <c r="B20" s="345"/>
       <c r="C20" s="82"/>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -40252,7 +40407,7 @@
       </c>
       <c r="L20" s="72"/>
       <c r="M20" s="72"/>
-      <c r="N20" s="358"/>
+      <c r="N20" s="345"/>
       <c r="O20" s="82"/>
       <c r="P20" s="72"/>
       <c r="Q20" s="72"/>
@@ -40272,7 +40427,7 @@
       </c>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="358"/>
+      <c r="B21" s="345"/>
       <c r="C21" s="82"/>
       <c r="D21" s="72"/>
       <c r="E21" s="72"/>
@@ -40292,7 +40447,7 @@
       </c>
       <c r="L21" s="72"/>
       <c r="M21" s="72"/>
-      <c r="N21" s="358"/>
+      <c r="N21" s="345"/>
       <c r="O21" s="82"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="72"/>
@@ -40312,7 +40467,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" thickBot="1">
-      <c r="B22" s="358"/>
+      <c r="B22" s="345"/>
       <c r="C22" s="82"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -40332,7 +40487,7 @@
       </c>
       <c r="L22" s="72"/>
       <c r="M22" s="72"/>
-      <c r="N22" s="359"/>
+      <c r="N22" s="349"/>
       <c r="O22" s="82"/>
       <c r="P22" s="72"/>
       <c r="Q22" s="72"/>
@@ -40352,7 +40507,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B23" s="377" t="s">
+      <c r="B23" s="353" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="74"/>
@@ -40362,8 +40517,8 @@
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
-      <c r="K23" s="355"/>
-      <c r="N23" s="376" t="s">
+      <c r="K23" s="351"/>
+      <c r="N23" s="352" t="s">
         <v>198</v>
       </c>
       <c r="O23" s="74" t="s">
@@ -40378,7 +40533,7 @@
       <c r="S23" s="73"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="377"/>
+      <c r="B24" s="353"/>
       <c r="C24" s="75" t="s">
         <v>200</v>
       </c>
@@ -40386,8 +40541,8 @@
         <f>(F25/2)/(F26)</f>
         <v>0.21166666666666667</v>
       </c>
-      <c r="K24" s="355"/>
-      <c r="N24" s="377"/>
+      <c r="K24" s="351"/>
+      <c r="N24" s="353"/>
       <c r="O24" s="75" t="s">
         <v>200</v>
       </c>
@@ -40396,7 +40551,7 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="377"/>
+      <c r="B25" s="353"/>
       <c r="C25" s="75" t="s">
         <v>202</v>
       </c>
@@ -40414,8 +40569,8 @@
       <c r="G25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K25" s="355"/>
-      <c r="N25" s="377"/>
+      <c r="K25" s="351"/>
+      <c r="N25" s="353"/>
       <c r="O25" s="75" t="s">
         <v>202</v>
       </c>
@@ -40435,7 +40590,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B26" s="377"/>
+      <c r="B26" s="353"/>
       <c r="C26" s="76" t="s">
         <v>205</v>
       </c>
@@ -40452,8 +40607,8 @@
       <c r="G26" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="355"/>
-      <c r="N26" s="377"/>
+      <c r="K26" s="351"/>
+      <c r="N26" s="353"/>
       <c r="O26" s="76" t="s">
         <v>205</v>
       </c>
@@ -40475,25 +40630,25 @@
       <c r="B27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="345" t="s">
+      <c r="C27" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="345"/>
-      <c r="E27" s="345"/>
-      <c r="F27" s="345"/>
-      <c r="G27" s="345"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="354"/>
+      <c r="F27" s="354"/>
+      <c r="G27" s="354"/>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
       <c r="N27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O27" s="345" t="s">
+      <c r="O27" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="P27" s="345"/>
-      <c r="Q27" s="345"/>
-      <c r="R27" s="345"/>
-      <c r="S27" s="345"/>
+      <c r="P27" s="354"/>
+      <c r="Q27" s="354"/>
+      <c r="R27" s="354"/>
+      <c r="S27" s="354"/>
     </row>
     <row r="28" spans="2:22" ht="57">
       <c r="B28" s="2" t="s">
@@ -40535,14 +40690,14 @@
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="357" t="s">
+      <c r="B31" s="344" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="360"/>
-      <c r="D31" s="361"/>
-      <c r="E31" s="361"/>
-      <c r="F31" s="361"/>
-      <c r="G31" s="362"/>
+      <c r="C31" s="342"/>
+      <c r="D31" s="355"/>
+      <c r="E31" s="355"/>
+      <c r="F31" s="355"/>
+      <c r="G31" s="343"/>
       <c r="H31" s="1">
         <f>H22</f>
         <v>30</v>
@@ -40557,12 +40712,12 @@
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="358"/>
-      <c r="C32" s="363"/>
-      <c r="D32" s="352"/>
-      <c r="E32" s="352"/>
-      <c r="F32" s="352"/>
-      <c r="G32" s="364"/>
+      <c r="B32" s="345"/>
+      <c r="C32" s="356"/>
+      <c r="D32" s="350"/>
+      <c r="E32" s="350"/>
+      <c r="F32" s="350"/>
+      <c r="G32" s="357"/>
       <c r="H32" s="12">
         <f>(D43/8/2)+H31</f>
         <v>36.25</v>
@@ -40577,12 +40732,12 @@
       </c>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="358"/>
-      <c r="C33" s="363"/>
-      <c r="D33" s="352"/>
-      <c r="E33" s="352"/>
-      <c r="F33" s="352"/>
-      <c r="G33" s="364"/>
+      <c r="B33" s="345"/>
+      <c r="C33" s="356"/>
+      <c r="D33" s="350"/>
+      <c r="E33" s="350"/>
+      <c r="F33" s="350"/>
+      <c r="G33" s="357"/>
       <c r="H33" s="12">
         <f>($D$43/8/2)*2+(H32)</f>
         <v>48.75</v>
@@ -40597,12 +40752,12 @@
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="358"/>
-      <c r="C34" s="363"/>
-      <c r="D34" s="352"/>
-      <c r="E34" s="352"/>
-      <c r="F34" s="352"/>
-      <c r="G34" s="364"/>
+      <c r="B34" s="345"/>
+      <c r="C34" s="356"/>
+      <c r="D34" s="350"/>
+      <c r="E34" s="350"/>
+      <c r="F34" s="350"/>
+      <c r="G34" s="357"/>
       <c r="H34" s="12">
         <f t="shared" ref="H34:H39" si="8">($D$43/8/2)*2+(H33)</f>
         <v>61.25</v>
@@ -40617,12 +40772,12 @@
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="358"/>
-      <c r="C35" s="363"/>
-      <c r="D35" s="352"/>
-      <c r="E35" s="352"/>
-      <c r="F35" s="352"/>
-      <c r="G35" s="364"/>
+      <c r="B35" s="345"/>
+      <c r="C35" s="356"/>
+      <c r="D35" s="350"/>
+      <c r="E35" s="350"/>
+      <c r="F35" s="350"/>
+      <c r="G35" s="357"/>
       <c r="H35" s="12">
         <f t="shared" si="8"/>
         <v>73.75</v>
@@ -40637,12 +40792,12 @@
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="358"/>
-      <c r="C36" s="363"/>
-      <c r="D36" s="352"/>
-      <c r="E36" s="352"/>
-      <c r="F36" s="352"/>
-      <c r="G36" s="364"/>
+      <c r="B36" s="345"/>
+      <c r="C36" s="356"/>
+      <c r="D36" s="350"/>
+      <c r="E36" s="350"/>
+      <c r="F36" s="350"/>
+      <c r="G36" s="357"/>
       <c r="H36" s="12">
         <f t="shared" si="8"/>
         <v>86.25</v>
@@ -40657,12 +40812,12 @@
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="358"/>
-      <c r="C37" s="363"/>
-      <c r="D37" s="352"/>
-      <c r="E37" s="352"/>
-      <c r="F37" s="352"/>
-      <c r="G37" s="364"/>
+      <c r="B37" s="345"/>
+      <c r="C37" s="356"/>
+      <c r="D37" s="350"/>
+      <c r="E37" s="350"/>
+      <c r="F37" s="350"/>
+      <c r="G37" s="357"/>
       <c r="H37" s="12">
         <f t="shared" si="8"/>
         <v>98.75</v>
@@ -40677,12 +40832,12 @@
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="358"/>
-      <c r="C38" s="363"/>
-      <c r="D38" s="352"/>
-      <c r="E38" s="352"/>
-      <c r="F38" s="352"/>
-      <c r="G38" s="364"/>
+      <c r="B38" s="345"/>
+      <c r="C38" s="356"/>
+      <c r="D38" s="350"/>
+      <c r="E38" s="350"/>
+      <c r="F38" s="350"/>
+      <c r="G38" s="357"/>
       <c r="H38" s="12">
         <f t="shared" si="8"/>
         <v>111.25</v>
@@ -40697,12 +40852,12 @@
       </c>
     </row>
     <row r="39" spans="2:24" ht="14.45" customHeight="1">
-      <c r="B39" s="358"/>
-      <c r="C39" s="363"/>
-      <c r="D39" s="352"/>
-      <c r="E39" s="352"/>
-      <c r="F39" s="352"/>
-      <c r="G39" s="364"/>
+      <c r="B39" s="345"/>
+      <c r="C39" s="356"/>
+      <c r="D39" s="350"/>
+      <c r="E39" s="350"/>
+      <c r="F39" s="350"/>
+      <c r="G39" s="357"/>
       <c r="H39" s="12">
         <f t="shared" si="8"/>
         <v>123.75</v>
@@ -40717,12 +40872,12 @@
       </c>
     </row>
     <row r="40" spans="2:24" ht="15" thickBot="1">
-      <c r="B40" s="359"/>
-      <c r="C40" s="365"/>
-      <c r="D40" s="366"/>
-      <c r="E40" s="366"/>
-      <c r="F40" s="366"/>
-      <c r="G40" s="367"/>
+      <c r="B40" s="349"/>
+      <c r="C40" s="358"/>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="360"/>
       <c r="H40" s="12">
         <f>D43+H22</f>
         <v>130</v>
@@ -40737,7 +40892,7 @@
       </c>
     </row>
     <row r="41" spans="2:24" ht="28.5">
-      <c r="B41" s="345" t="s">
+      <c r="B41" s="354" t="s">
         <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -40746,7 +40901,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="352"/>
+      <c r="B42" s="350"/>
       <c r="C42" s="1" t="s">
         <v>202</v>
       </c>
@@ -40767,7 +40922,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:24" ht="28.9" customHeight="1">
-      <c r="B43" s="352"/>
+      <c r="B43" s="350"/>
       <c r="C43" s="1" t="s">
         <v>212</v>
       </c>
@@ -40789,46 +40944,46 @@
       <c r="B44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="352" t="s">
+      <c r="C44" s="350" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="352"/>
-      <c r="E44" s="352"/>
-      <c r="F44" s="352"/>
-      <c r="G44" s="352"/>
+      <c r="D44" s="350"/>
+      <c r="E44" s="350"/>
+      <c r="F44" s="350"/>
+      <c r="G44" s="350"/>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="352" t="s">
+      <c r="B45" s="350" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="352"/>
+      <c r="B46" s="350"/>
     </row>
     <row r="47" spans="2:24" ht="15" thickBot="1">
-      <c r="B47" s="352"/>
+      <c r="B47" s="350"/>
     </row>
     <row r="48" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="K48" s="353" t="s">
+      <c r="K48" s="361" t="s">
         <v>214</v>
       </c>
-      <c r="L48" s="354"/>
-      <c r="W48" s="355" t="s">
+      <c r="L48" s="363"/>
+      <c r="W48" s="351" t="s">
         <v>214</v>
       </c>
-      <c r="X48" s="355"/>
+      <c r="X48" s="351"/>
     </row>
     <row r="49" spans="2:24" ht="15" thickBot="1">
       <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="353" t="s">
+      <c r="C49" s="361" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="356"/>
-      <c r="E49" s="356"/>
-      <c r="F49" s="356"/>
-      <c r="G49" s="354"/>
+      <c r="D49" s="362"/>
+      <c r="E49" s="362"/>
+      <c r="F49" s="362"/>
+      <c r="G49" s="363"/>
       <c r="H49" s="51" t="s">
         <v>193</v>
       </c>
@@ -40847,13 +41002,13 @@
       <c r="N49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="O49" s="353" t="s">
+      <c r="O49" s="361" t="s">
         <v>219</v>
       </c>
-      <c r="P49" s="356"/>
-      <c r="Q49" s="356"/>
-      <c r="R49" s="356"/>
-      <c r="S49" s="354"/>
+      <c r="P49" s="362"/>
+      <c r="Q49" s="362"/>
+      <c r="R49" s="362"/>
+      <c r="S49" s="363"/>
       <c r="T49" s="1" t="s">
         <v>193</v>
       </c>
@@ -40871,14 +41026,14 @@
       </c>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="357" t="s">
+      <c r="B50" s="344" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="360"/>
-      <c r="D50" s="361"/>
-      <c r="E50" s="361"/>
-      <c r="F50" s="361"/>
-      <c r="G50" s="362"/>
+      <c r="C50" s="342"/>
+      <c r="D50" s="355"/>
+      <c r="E50" s="355"/>
+      <c r="F50" s="355"/>
+      <c r="G50" s="343"/>
       <c r="H50" s="94">
         <f>($H$40-D68-D65)</f>
         <v>110</v>
@@ -40899,14 +41054,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N50" s="357" t="s">
+      <c r="N50" s="344" t="s">
         <v>221</v>
       </c>
-      <c r="O50" s="360"/>
-      <c r="P50" s="361"/>
-      <c r="Q50" s="361"/>
-      <c r="R50" s="361"/>
-      <c r="S50" s="362"/>
+      <c r="O50" s="342"/>
+      <c r="P50" s="355"/>
+      <c r="Q50" s="355"/>
+      <c r="R50" s="355"/>
+      <c r="S50" s="343"/>
       <c r="T50" s="12">
         <f>($H$40-P68-P65)</f>
         <v>110</v>
@@ -40925,12 +41080,12 @@
       </c>
     </row>
     <row r="51" spans="2:24">
-      <c r="B51" s="358"/>
-      <c r="C51" s="363"/>
-      <c r="D51" s="352"/>
-      <c r="E51" s="352"/>
-      <c r="F51" s="352"/>
-      <c r="G51" s="364"/>
+      <c r="B51" s="345"/>
+      <c r="C51" s="356"/>
+      <c r="D51" s="350"/>
+      <c r="E51" s="350"/>
+      <c r="F51" s="350"/>
+      <c r="G51" s="357"/>
       <c r="H51" s="94">
         <f>(H58-H50)/8/2+H50</f>
         <v>110.9375</v>
@@ -40950,12 +41105,12 @@
       <c r="L51" s="101">
         <v>3</v>
       </c>
-      <c r="N51" s="358"/>
-      <c r="O51" s="363"/>
-      <c r="P51" s="352"/>
-      <c r="Q51" s="352"/>
-      <c r="R51" s="352"/>
-      <c r="S51" s="364"/>
+      <c r="N51" s="345"/>
+      <c r="O51" s="356"/>
+      <c r="P51" s="350"/>
+      <c r="Q51" s="350"/>
+      <c r="R51" s="350"/>
+      <c r="S51" s="357"/>
       <c r="T51" s="1">
         <f>(T58-T50)/8/2+T50</f>
         <v>110.9375</v>
@@ -40976,12 +41131,12 @@
       </c>
     </row>
     <row r="52" spans="2:24">
-      <c r="B52" s="358"/>
-      <c r="C52" s="363"/>
-      <c r="D52" s="352"/>
-      <c r="E52" s="352"/>
-      <c r="F52" s="352"/>
-      <c r="G52" s="364"/>
+      <c r="B52" s="345"/>
+      <c r="C52" s="356"/>
+      <c r="D52" s="350"/>
+      <c r="E52" s="350"/>
+      <c r="F52" s="350"/>
+      <c r="G52" s="357"/>
       <c r="H52" s="94">
         <f t="shared" ref="H52:H57" si="13">($H$58-$H$50)/8+H51</f>
         <v>112.8125</v>
@@ -41002,12 +41157,12 @@
         <f>I51</f>
         <v>10.1</v>
       </c>
-      <c r="N52" s="358"/>
-      <c r="O52" s="363"/>
-      <c r="P52" s="352"/>
-      <c r="Q52" s="352"/>
-      <c r="R52" s="352"/>
-      <c r="S52" s="364"/>
+      <c r="N52" s="345"/>
+      <c r="O52" s="356"/>
+      <c r="P52" s="350"/>
+      <c r="Q52" s="350"/>
+      <c r="R52" s="350"/>
+      <c r="S52" s="357"/>
       <c r="T52" s="1">
         <f t="shared" ref="T52:T57" si="14">($H$58-$H$50)/8+T51</f>
         <v>112.8125</v>
@@ -41028,12 +41183,12 @@
       </c>
     </row>
     <row r="53" spans="2:24">
-      <c r="B53" s="358"/>
-      <c r="C53" s="363"/>
-      <c r="D53" s="352"/>
-      <c r="E53" s="352"/>
-      <c r="F53" s="352"/>
-      <c r="G53" s="364"/>
+      <c r="B53" s="345"/>
+      <c r="C53" s="356"/>
+      <c r="D53" s="350"/>
+      <c r="E53" s="350"/>
+      <c r="F53" s="350"/>
+      <c r="G53" s="357"/>
       <c r="H53" s="94">
         <f t="shared" si="13"/>
         <v>114.6875</v>
@@ -41054,12 +41209,12 @@
         <f t="shared" ref="L53:L57" si="16">I52</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="N53" s="358"/>
-      <c r="O53" s="363"/>
-      <c r="P53" s="352"/>
-      <c r="Q53" s="352"/>
-      <c r="R53" s="352"/>
-      <c r="S53" s="364"/>
+      <c r="N53" s="345"/>
+      <c r="O53" s="356"/>
+      <c r="P53" s="350"/>
+      <c r="Q53" s="350"/>
+      <c r="R53" s="350"/>
+      <c r="S53" s="357"/>
       <c r="T53" s="1">
         <f t="shared" si="14"/>
         <v>114.6875</v>
@@ -41080,12 +41235,12 @@
       </c>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="358"/>
-      <c r="C54" s="363"/>
-      <c r="D54" s="352"/>
-      <c r="E54" s="352"/>
-      <c r="F54" s="352"/>
-      <c r="G54" s="364"/>
+      <c r="B54" s="345"/>
+      <c r="C54" s="356"/>
+      <c r="D54" s="350"/>
+      <c r="E54" s="350"/>
+      <c r="F54" s="350"/>
+      <c r="G54" s="357"/>
       <c r="H54" s="94">
         <f t="shared" si="13"/>
         <v>116.5625</v>
@@ -41106,12 +41261,12 @@
         <f t="shared" si="16"/>
         <v>25.1</v>
       </c>
-      <c r="N54" s="358"/>
-      <c r="O54" s="363"/>
-      <c r="P54" s="352"/>
-      <c r="Q54" s="352"/>
-      <c r="R54" s="352"/>
-      <c r="S54" s="364"/>
+      <c r="N54" s="345"/>
+      <c r="O54" s="356"/>
+      <c r="P54" s="350"/>
+      <c r="Q54" s="350"/>
+      <c r="R54" s="350"/>
+      <c r="S54" s="357"/>
       <c r="T54" s="1">
         <f t="shared" si="14"/>
         <v>116.5625</v>
@@ -41132,12 +41287,12 @@
       </c>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="358"/>
-      <c r="C55" s="363"/>
-      <c r="D55" s="352"/>
-      <c r="E55" s="352"/>
-      <c r="F55" s="352"/>
-      <c r="G55" s="364"/>
+      <c r="B55" s="345"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="350"/>
+      <c r="E55" s="350"/>
+      <c r="F55" s="350"/>
+      <c r="G55" s="357"/>
       <c r="H55" s="94">
         <f t="shared" si="13"/>
         <v>118.4375</v>
@@ -41158,12 +41313,12 @@
         <f t="shared" si="16"/>
         <v>26.35</v>
       </c>
-      <c r="N55" s="358"/>
-      <c r="O55" s="363"/>
-      <c r="P55" s="352"/>
-      <c r="Q55" s="352"/>
-      <c r="R55" s="352"/>
-      <c r="S55" s="364"/>
+      <c r="N55" s="345"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="350"/>
+      <c r="Q55" s="350"/>
+      <c r="R55" s="350"/>
+      <c r="S55" s="357"/>
       <c r="T55" s="1">
         <f t="shared" si="14"/>
         <v>118.4375</v>
@@ -41184,12 +41339,12 @@
       </c>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="358"/>
-      <c r="C56" s="363"/>
-      <c r="D56" s="352"/>
-      <c r="E56" s="352"/>
-      <c r="F56" s="352"/>
-      <c r="G56" s="364"/>
+      <c r="B56" s="345"/>
+      <c r="C56" s="356"/>
+      <c r="D56" s="350"/>
+      <c r="E56" s="350"/>
+      <c r="F56" s="350"/>
+      <c r="G56" s="357"/>
       <c r="H56" s="94">
         <f t="shared" si="13"/>
         <v>120.3125</v>
@@ -41210,12 +41365,12 @@
         <f t="shared" si="16"/>
         <v>26.35</v>
       </c>
-      <c r="N56" s="358"/>
-      <c r="O56" s="363"/>
-      <c r="P56" s="352"/>
-      <c r="Q56" s="352"/>
-      <c r="R56" s="352"/>
-      <c r="S56" s="364"/>
+      <c r="N56" s="345"/>
+      <c r="O56" s="356"/>
+      <c r="P56" s="350"/>
+      <c r="Q56" s="350"/>
+      <c r="R56" s="350"/>
+      <c r="S56" s="357"/>
       <c r="T56" s="1">
         <f t="shared" si="14"/>
         <v>120.3125</v>
@@ -41236,12 +41391,12 @@
       </c>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="358"/>
-      <c r="C57" s="363"/>
-      <c r="D57" s="352"/>
-      <c r="E57" s="352"/>
-      <c r="F57" s="352"/>
-      <c r="G57" s="364"/>
+      <c r="B57" s="345"/>
+      <c r="C57" s="356"/>
+      <c r="D57" s="350"/>
+      <c r="E57" s="350"/>
+      <c r="F57" s="350"/>
+      <c r="G57" s="357"/>
       <c r="H57" s="94">
         <f t="shared" si="13"/>
         <v>122.1875</v>
@@ -41262,12 +41417,12 @@
         <f t="shared" si="16"/>
         <v>26.35</v>
       </c>
-      <c r="N57" s="358"/>
-      <c r="O57" s="363"/>
-      <c r="P57" s="352"/>
-      <c r="Q57" s="352"/>
-      <c r="R57" s="352"/>
-      <c r="S57" s="364"/>
+      <c r="N57" s="345"/>
+      <c r="O57" s="356"/>
+      <c r="P57" s="350"/>
+      <c r="Q57" s="350"/>
+      <c r="R57" s="350"/>
+      <c r="S57" s="357"/>
       <c r="T57" s="1">
         <f t="shared" si="14"/>
         <v>122.1875</v>
@@ -41288,12 +41443,12 @@
       </c>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="358"/>
-      <c r="C58" s="363"/>
-      <c r="D58" s="352"/>
-      <c r="E58" s="352"/>
-      <c r="F58" s="352"/>
-      <c r="G58" s="364"/>
+      <c r="B58" s="345"/>
+      <c r="C58" s="356"/>
+      <c r="D58" s="350"/>
+      <c r="E58" s="350"/>
+      <c r="F58" s="350"/>
+      <c r="G58" s="357"/>
       <c r="H58" s="94">
         <f>$H$50+D65</f>
         <v>125</v>
@@ -41314,12 +41469,12 @@
         <f>IF(((($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)&gt;($D$67+$I$40),($D$67+$I$40),(($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)</f>
         <v>26.35</v>
       </c>
-      <c r="N58" s="358"/>
-      <c r="O58" s="363"/>
-      <c r="P58" s="352"/>
-      <c r="Q58" s="352"/>
-      <c r="R58" s="352"/>
-      <c r="S58" s="364"/>
+      <c r="N58" s="345"/>
+      <c r="O58" s="356"/>
+      <c r="P58" s="350"/>
+      <c r="Q58" s="350"/>
+      <c r="R58" s="350"/>
+      <c r="S58" s="357"/>
       <c r="T58" s="12">
         <f>$H$50+P65</f>
         <v>125</v>
@@ -41340,12 +41495,12 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="B59" s="359"/>
-      <c r="C59" s="368"/>
-      <c r="D59" s="369"/>
-      <c r="E59" s="369"/>
-      <c r="F59" s="369"/>
-      <c r="G59" s="370"/>
+      <c r="B59" s="349"/>
+      <c r="C59" s="364"/>
+      <c r="D59" s="365"/>
+      <c r="E59" s="365"/>
+      <c r="F59" s="365"/>
+      <c r="G59" s="366"/>
       <c r="H59" s="97">
         <f>H58</f>
         <v>125</v>
@@ -41366,12 +41521,12 @@
         <f>L50</f>
         <v>0</v>
       </c>
-      <c r="N59" s="359"/>
-      <c r="O59" s="365"/>
-      <c r="P59" s="366"/>
-      <c r="Q59" s="366"/>
-      <c r="R59" s="366"/>
-      <c r="S59" s="367"/>
+      <c r="N59" s="349"/>
+      <c r="O59" s="358"/>
+      <c r="P59" s="359"/>
+      <c r="Q59" s="359"/>
+      <c r="R59" s="359"/>
+      <c r="S59" s="360"/>
       <c r="T59" s="12">
         <f>T58</f>
         <v>125</v>
@@ -41386,7 +41541,7 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B60" s="371" t="s">
+      <c r="B60" s="367" t="s">
         <v>198</v>
       </c>
       <c r="C60" s="90" t="s">
@@ -41406,11 +41561,11 @@
       <c r="G60" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="H60" s="346" t="s">
+      <c r="H60" s="372" t="s">
         <v>225</v>
       </c>
-      <c r="I60" s="347"/>
-      <c r="J60" s="348"/>
+      <c r="I60" s="373"/>
+      <c r="J60" s="374"/>
       <c r="K60" s="90" t="s">
         <v>226</v>
       </c>
@@ -41418,7 +41573,7 @@
         <f>K67^2/K68</f>
         <v>1.0456349206349203</v>
       </c>
-      <c r="N60" s="345" t="s">
+      <c r="N60" s="354" t="s">
         <v>198</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -41426,7 +41581,7 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B61" s="372"/>
+      <c r="B61" s="368"/>
       <c r="C61" s="89" t="s">
         <v>228</v>
       </c>
@@ -41437,15 +41592,15 @@
       <c r="E61" s="86"/>
       <c r="F61" s="61"/>
       <c r="G61" s="62"/>
-      <c r="H61" s="349"/>
-      <c r="I61" s="350"/>
-      <c r="J61" s="351"/>
+      <c r="H61" s="375"/>
+      <c r="I61" s="376"/>
+      <c r="J61" s="377"/>
       <c r="K61" s="89"/>
       <c r="L61" s="62"/>
-      <c r="N61" s="345"/>
+      <c r="N61" s="354"/>
     </row>
     <row r="62" spans="2:24" ht="27.6" customHeight="1">
-      <c r="B62" s="372"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="88" t="s">
         <v>229</v>
       </c>
@@ -41463,10 +41618,10 @@
         <v>232</v>
       </c>
       <c r="L62" s="59"/>
-      <c r="N62" s="345"/>
+      <c r="N62" s="354"/>
     </row>
     <row r="63" spans="2:24" ht="27.6" customHeight="1">
-      <c r="B63" s="372"/>
+      <c r="B63" s="368"/>
       <c r="C63" s="88" t="s">
         <v>233</v>
       </c>
@@ -41483,10 +41638,10 @@
         <v>15</v>
       </c>
       <c r="L63" s="59"/>
-      <c r="N63" s="345"/>
+      <c r="N63" s="354"/>
     </row>
     <row r="64" spans="2:24">
-      <c r="B64" s="373"/>
+      <c r="B64" s="369"/>
       <c r="C64" s="85" t="s">
         <v>236</v>
       </c>
@@ -41521,7 +41676,7 @@
       <c r="L64" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="N64" s="345"/>
+      <c r="N64" s="354"/>
       <c r="O64" s="1" t="s">
         <v>236</v>
       </c>
@@ -41541,7 +41696,7 @@
       </c>
     </row>
     <row r="65" spans="2:19">
-      <c r="B65" s="374"/>
+      <c r="B65" s="370"/>
       <c r="C65" s="85" t="s">
         <v>237</v>
       </c>
@@ -41576,7 +41731,7 @@
       <c r="L65" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="N65" s="352"/>
+      <c r="N65" s="350"/>
       <c r="O65" s="1" t="s">
         <v>237</v>
       </c>
@@ -41596,7 +41751,7 @@
       </c>
     </row>
     <row r="66" spans="2:19">
-      <c r="B66" s="374"/>
+      <c r="B66" s="370"/>
       <c r="C66" s="85" t="s">
         <v>238</v>
       </c>
@@ -41622,10 +41777,10 @@
         <v>0.24752475247524741</v>
       </c>
       <c r="L66" s="59"/>
-      <c r="N66" s="352"/>
+      <c r="N66" s="350"/>
     </row>
     <row r="67" spans="2:19">
-      <c r="B67" s="374"/>
+      <c r="B67" s="370"/>
       <c r="C67" s="85" t="s">
         <v>239</v>
       </c>
@@ -41660,7 +41815,7 @@
       <c r="L67" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="N67" s="352"/>
+      <c r="N67" s="350"/>
       <c r="O67" s="1" t="s">
         <v>239</v>
       </c>
@@ -41680,7 +41835,7 @@
       </c>
     </row>
     <row r="68" spans="2:19" ht="29.25" thickBot="1">
-      <c r="B68" s="375"/>
+      <c r="B68" s="371"/>
       <c r="C68" s="86" t="s">
         <v>241</v>
       </c>
@@ -41714,7 +41869,7 @@
       <c r="L68" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="N68" s="352"/>
+      <c r="N68" s="350"/>
       <c r="O68" s="1" t="s">
         <v>241</v>
       </c>
@@ -41736,26 +41891,26 @@
       <c r="B69" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="345" t="s">
+      <c r="C69" s="354" t="s">
         <v>244</v>
       </c>
-      <c r="D69" s="345"/>
-      <c r="E69" s="345"/>
-      <c r="F69" s="345"/>
-      <c r="G69" s="345"/>
+      <c r="D69" s="354"/>
+      <c r="E69" s="354"/>
+      <c r="F69" s="354"/>
+      <c r="G69" s="354"/>
       <c r="N69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O69" s="352" t="s">
+      <c r="O69" s="350" t="s">
         <v>245</v>
       </c>
-      <c r="P69" s="352"/>
-      <c r="Q69" s="352"/>
-      <c r="R69" s="352"/>
-      <c r="S69" s="352"/>
+      <c r="P69" s="350"/>
+      <c r="Q69" s="350"/>
+      <c r="R69" s="350"/>
+      <c r="S69" s="350"/>
     </row>
     <row r="70" spans="2:19">
-      <c r="B70" s="352" t="s">
+      <c r="B70" s="350" t="s">
         <v>208</v>
       </c>
       <c r="C70" s="74"/>
@@ -41763,24 +41918,24 @@
       <c r="E70" s="73"/>
       <c r="F70" s="73"/>
       <c r="G70" s="102"/>
-      <c r="N70" s="352" t="s">
+      <c r="N70" s="350" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71" spans="2:19">
-      <c r="B71" s="352"/>
+      <c r="B71" s="350"/>
       <c r="C71" s="75"/>
       <c r="G71" s="103"/>
-      <c r="N71" s="352"/>
+      <c r="N71" s="350"/>
     </row>
     <row r="72" spans="2:19">
-      <c r="B72" s="352"/>
+      <c r="B72" s="350"/>
       <c r="C72" s="76"/>
       <c r="D72" s="77"/>
       <c r="E72" s="77"/>
       <c r="F72" s="77"/>
       <c r="G72" s="104"/>
-      <c r="N72" s="352"/>
+      <c r="N72" s="350"/>
     </row>
     <row r="73" spans="2:19" ht="15" thickBot="1"/>
     <row r="74" spans="2:19" ht="15" thickBot="1">
@@ -41904,14 +42059,14 @@
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="357" t="s">
+      <c r="B88" s="344" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="360"/>
-      <c r="D88" s="361"/>
-      <c r="E88" s="361"/>
-      <c r="F88" s="361"/>
-      <c r="G88" s="362"/>
+      <c r="C88" s="342"/>
+      <c r="D88" s="355"/>
+      <c r="E88" s="355"/>
+      <c r="F88" s="355"/>
+      <c r="G88" s="343"/>
       <c r="H88" s="11">
         <f>H40</f>
         <v>130</v>
@@ -41926,12 +42081,12 @@
       </c>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="358"/>
-      <c r="C89" s="363"/>
-      <c r="D89" s="352"/>
-      <c r="E89" s="352"/>
-      <c r="F89" s="352"/>
-      <c r="G89" s="364"/>
+      <c r="B89" s="345"/>
+      <c r="C89" s="356"/>
+      <c r="D89" s="350"/>
+      <c r="E89" s="350"/>
+      <c r="F89" s="350"/>
+      <c r="G89" s="357"/>
       <c r="H89" s="11">
         <f>($D$100/8/2)+H88</f>
         <v>130.5</v>
@@ -41946,12 +42101,12 @@
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="358"/>
-      <c r="C90" s="363"/>
-      <c r="D90" s="352"/>
-      <c r="E90" s="352"/>
-      <c r="F90" s="352"/>
-      <c r="G90" s="364"/>
+      <c r="B90" s="345"/>
+      <c r="C90" s="356"/>
+      <c r="D90" s="350"/>
+      <c r="E90" s="350"/>
+      <c r="F90" s="350"/>
+      <c r="G90" s="357"/>
       <c r="H90" s="11">
         <f>($D$100/8)+H89</f>
         <v>131.5</v>
@@ -41966,12 +42121,12 @@
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="358"/>
-      <c r="C91" s="363"/>
-      <c r="D91" s="352"/>
-      <c r="E91" s="352"/>
-      <c r="F91" s="352"/>
-      <c r="G91" s="364"/>
+      <c r="B91" s="345"/>
+      <c r="C91" s="356"/>
+      <c r="D91" s="350"/>
+      <c r="E91" s="350"/>
+      <c r="F91" s="350"/>
+      <c r="G91" s="357"/>
       <c r="H91" s="11">
         <f t="shared" ref="H91:H96" si="22">($D$100/8)+H90</f>
         <v>132.5</v>
@@ -41986,12 +42141,12 @@
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="358"/>
-      <c r="C92" s="363"/>
-      <c r="D92" s="352"/>
-      <c r="E92" s="352"/>
-      <c r="F92" s="352"/>
-      <c r="G92" s="364"/>
+      <c r="B92" s="345"/>
+      <c r="C92" s="356"/>
+      <c r="D92" s="350"/>
+      <c r="E92" s="350"/>
+      <c r="F92" s="350"/>
+      <c r="G92" s="357"/>
       <c r="H92" s="11">
         <f t="shared" si="22"/>
         <v>133.5</v>
@@ -42006,12 +42161,12 @@
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="358"/>
-      <c r="C93" s="363"/>
-      <c r="D93" s="352"/>
-      <c r="E93" s="352"/>
-      <c r="F93" s="352"/>
-      <c r="G93" s="364"/>
+      <c r="B93" s="345"/>
+      <c r="C93" s="356"/>
+      <c r="D93" s="350"/>
+      <c r="E93" s="350"/>
+      <c r="F93" s="350"/>
+      <c r="G93" s="357"/>
       <c r="H93" s="11">
         <f t="shared" si="22"/>
         <v>134.5</v>
@@ -42026,12 +42181,12 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="358"/>
-      <c r="C94" s="363"/>
-      <c r="D94" s="352"/>
-      <c r="E94" s="352"/>
-      <c r="F94" s="352"/>
-      <c r="G94" s="364"/>
+      <c r="B94" s="345"/>
+      <c r="C94" s="356"/>
+      <c r="D94" s="350"/>
+      <c r="E94" s="350"/>
+      <c r="F94" s="350"/>
+      <c r="G94" s="357"/>
       <c r="H94" s="11">
         <f t="shared" si="22"/>
         <v>135.5</v>
@@ -42046,12 +42201,12 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="358"/>
-      <c r="C95" s="363"/>
-      <c r="D95" s="352"/>
-      <c r="E95" s="352"/>
-      <c r="F95" s="352"/>
-      <c r="G95" s="364"/>
+      <c r="B95" s="345"/>
+      <c r="C95" s="356"/>
+      <c r="D95" s="350"/>
+      <c r="E95" s="350"/>
+      <c r="F95" s="350"/>
+      <c r="G95" s="357"/>
       <c r="H95" s="11">
         <f t="shared" si="22"/>
         <v>136.5</v>
@@ -42066,12 +42221,12 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="358"/>
-      <c r="C96" s="363"/>
-      <c r="D96" s="352"/>
-      <c r="E96" s="352"/>
-      <c r="F96" s="352"/>
-      <c r="G96" s="364"/>
+      <c r="B96" s="345"/>
+      <c r="C96" s="356"/>
+      <c r="D96" s="350"/>
+      <c r="E96" s="350"/>
+      <c r="F96" s="350"/>
+      <c r="G96" s="357"/>
       <c r="H96" s="11">
         <f t="shared" si="22"/>
         <v>137.5</v>
@@ -42086,12 +42241,12 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" thickBot="1">
-      <c r="B97" s="359"/>
-      <c r="C97" s="365"/>
-      <c r="D97" s="366"/>
-      <c r="E97" s="366"/>
-      <c r="F97" s="366"/>
-      <c r="G97" s="367"/>
+      <c r="B97" s="349"/>
+      <c r="C97" s="358"/>
+      <c r="D97" s="359"/>
+      <c r="E97" s="359"/>
+      <c r="F97" s="359"/>
+      <c r="G97" s="360"/>
       <c r="H97" s="11">
         <f>D100+H88</f>
         <v>138</v>
@@ -42106,7 +42261,7 @@
       </c>
     </row>
     <row r="98" spans="2:10" ht="28.5">
-      <c r="B98" s="345" t="s">
+      <c r="B98" s="354" t="s">
         <v>198</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -42129,7 +42284,7 @@
       </c>
     </row>
     <row r="99" spans="2:10" ht="28.5">
-      <c r="B99" s="352"/>
+      <c r="B99" s="350"/>
       <c r="C99" s="1" t="s">
         <v>255</v>
       </c>
@@ -42149,7 +42304,7 @@
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="352"/>
+      <c r="B100" s="350"/>
       <c r="C100" s="1" t="s">
         <v>212</v>
       </c>
@@ -42171,27 +42326,49 @@
       <c r="B101" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="352" t="s">
+      <c r="C101" s="350" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="352"/>
-      <c r="E101" s="352"/>
-      <c r="F101" s="352"/>
-      <c r="G101" s="352"/>
+      <c r="D101" s="350"/>
+      <c r="E101" s="350"/>
+      <c r="F101" s="350"/>
+      <c r="G101" s="350"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="352" t="s">
+      <c r="B102" s="350" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="352"/>
+      <c r="B103" s="350"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="352"/>
+      <c r="B104" s="350"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="H60:J61"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="O50:S59"/>
+    <mergeCell ref="N60:N68"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="C50:G59"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C88:G97"/>
+    <mergeCell ref="B98:B100"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:B22"/>
     <mergeCell ref="C12:G12"/>
@@ -42205,28 +42382,6 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:G40"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="C50:G59"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C88:G97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="O49:S49"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="O50:S59"/>
-    <mergeCell ref="N60:N68"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="H60:J61"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" display="https://www.youtube.com/watch?v=-05AlwGI7Jo"/>
@@ -44173,11 +44328,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G215" sqref="G215"/>
+      <pane ySplit="10" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -47777,7 +47932,7 @@
     <row r="124" spans="1:8" ht="14.25" collapsed="1"/>
     <row r="125" spans="1:8" ht="15" customHeight="1">
       <c r="A125" s="299" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="300" customFormat="1" ht="15" customHeight="1">
@@ -47789,11 +47944,11 @@
         <v>0</v>
       </c>
       <c r="C126" s="312">
-        <f t="shared" ref="C126:H126" si="74">IF(C6&lt;1,C93*RADIANS(C9),C94*RADIANS(C9))</f>
+        <f>IF(C6&lt;1,C93*RADIANS(C9),C94*RADIANS(C9))</f>
         <v>0.17916086442252735</v>
       </c>
       <c r="D126" s="312">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="C126:H126" si="74">IF(D6&lt;1,D93*RADIANS(D9),D94*RADIANS(D9))</f>
         <v>0.3583217288450547</v>
       </c>
       <c r="E126" s="312">
@@ -47809,7 +47964,7 @@
         <v>0.89580432211263683</v>
       </c>
       <c r="H126" s="312">
-        <f t="shared" si="74"/>
+        <f>IF(H6&lt;1,H93*RADIANS(H9),H94*RADIANS(H9))</f>
         <v>1.0749651865351639</v>
       </c>
     </row>
@@ -48153,7 +48308,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="139" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A139">
         <v>1</v>
       </c>
@@ -48186,7 +48341,7 @@
         <v>0.51658874946490296</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="140" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A140">
         <v>2</v>
       </c>
@@ -48219,7 +48374,7 @@
         <v>1.0008907020882498</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="141" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A141">
         <v>3</v>
       </c>
@@ -48252,7 +48407,7 @@
         <v>1.45290585787004</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="142" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A142">
         <v>4</v>
       </c>
@@ -48285,7 +48440,7 @@
         <v>1.8726342168102736</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="143" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A143">
         <v>5</v>
       </c>
@@ -48318,7 +48473,7 @@
         <v>2.2600757789089507</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="144" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A144">
         <v>6</v>
       </c>
@@ -48351,7 +48506,7 @@
         <v>2.6152305441660717</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="145" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A145">
         <v>7</v>
       </c>
@@ -48384,7 +48539,7 @@
         <v>2.9380985125816359</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="146" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A146">
         <v>8</v>
       </c>
@@ -48417,7 +48572,7 @@
         <v>3.2286796841556442</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="147" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A147">
         <v>9</v>
       </c>
@@ -48450,7 +48605,7 @@
         <v>3.4869740588880953</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="148" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A148">
         <v>10</v>
       </c>
@@ -48483,7 +48638,7 @@
         <v>3.7129816367789905</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" collapsed="1">
+    <row r="149" spans="1:10" ht="15" customHeight="1">
       <c r="A149" t="s">
         <v>586</v>
       </c>
@@ -48517,7 +48672,7 @@
       </c>
       <c r="I149" s="320"/>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1">
+    <row r="150" spans="1:10" ht="15" customHeight="1">
       <c r="A150" t="s">
         <v>585</v>
       </c>
@@ -48550,7 +48705,7 @@
         <v>23.085059741712854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1">
+    <row r="151" spans="1:10" ht="15" customHeight="1">
       <c r="A151" s="311" t="s">
         <v>392</v>
       </c>
@@ -48559,11 +48714,11 @@
         <v>0</v>
       </c>
       <c r="C151" s="222">
-        <f t="shared" si="89"/>
+        <f>(2*C149)/(C29*C91)</f>
         <v>0.3583217288450547</v>
       </c>
       <c r="D151" s="222">
-        <f t="shared" si="89"/>
+        <f>(2*D149)/(D29*D91)</f>
         <v>0.7166434576901094</v>
       </c>
       <c r="E151" s="222">
@@ -48583,7 +48738,7 @@
         <v>2.1499303730703274</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1">
+    <row r="152" spans="1:10" ht="15" customHeight="1">
       <c r="A152" s="311" t="s">
         <v>587</v>
       </c>
@@ -48616,12 +48771,12 @@
         <v>7.0909090909090908</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1">
+    <row r="153" spans="1:10" ht="15" customHeight="1">
       <c r="A153" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="154" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A154">
         <v>0</v>
       </c>
@@ -48647,12 +48802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="155" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A155">
         <v>5</v>
       </c>
       <c r="B155">
-        <v>0.35595654307107139</v>
+        <v>0.355956543071071</v>
       </c>
       <c r="C155">
         <v>0.35595654307107139</v>
@@ -48672,8 +48827,12 @@
       <c r="H155">
         <v>0.35595654307107139</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="J155">
+        <f>B172*RADIANS(10)</f>
+        <v>5.6775432072006743E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A156">
         <v>10</v>
       </c>
@@ -48699,7 +48858,7 @@
         <v>0.71191308614214277</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="157" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A157" s="218">
         <v>15</v>
       </c>
@@ -48725,7 +48884,7 @@
         <v>1.0678696292132142</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="158" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A158" s="298">
         <v>20</v>
       </c>
@@ -48751,7 +48910,7 @@
         <v>1.4238261722842855</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="159" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A159" s="298">
         <v>25</v>
       </c>
@@ -48777,7 +48936,7 @@
         <v>1.7797827153553569</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="160" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A160" s="298">
         <v>30</v>
       </c>
@@ -48803,7 +48962,7 @@
         <v>2.1357392584264283</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1" collapsed="1">
+    <row r="161" spans="1:8" ht="15" customHeight="1">
       <c r="A161" s="300" t="s">
         <v>572</v>
       </c>
@@ -48812,11 +48971,11 @@
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="C161" s="297">
-        <f t="shared" ref="C161:H161" si="91">AVERAGE(C162:C166)</f>
+        <f>AVERAGE(C162:C166)</f>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="D161" s="297">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="C161:H161" si="91">AVERAGE(D162:D166)</f>
         <v>7.1191308614214271E-2</v>
       </c>
       <c r="E161" s="297">
@@ -48836,13 +48995,13 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="162" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A162">
         <v>0</v>
       </c>
       <c r="B162" s="297">
         <f t="shared" ref="B162:H166" si="92">(B155-B154)/($A155-$A154)</f>
-        <v>7.1191308614214271E-2</v>
+        <v>7.1191308614214202E-2</v>
       </c>
       <c r="C162" s="297">
         <f t="shared" si="92"/>
@@ -48869,13 +49028,13 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="163" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A163">
         <v>5</v>
       </c>
       <c r="B163" s="297">
         <f t="shared" si="92"/>
-        <v>7.1191308614214271E-2</v>
+        <v>7.1191308614214355E-2</v>
       </c>
       <c r="C163" s="297">
         <f t="shared" si="92"/>
@@ -48902,7 +49061,7 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="164" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A164">
         <v>10</v>
       </c>
@@ -48935,7 +49094,7 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="165" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A165">
         <v>15</v>
       </c>
@@ -48968,7 +49127,7 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="166" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A166">
         <v>20</v>
       </c>
@@ -49001,7 +49160,7 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" collapsed="1">
+    <row r="167" spans="1:8" ht="15" customHeight="1">
       <c r="A167" s="222"/>
     </row>
     <row r="168" spans="1:8" ht="15" customHeight="1">
@@ -49014,7 +49173,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="170" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A170">
         <v>0.06</v>
       </c>
@@ -49040,7 +49199,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="171" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A171">
         <v>0.1</v>
       </c>
@@ -49066,7 +49225,7 @@
         <v>3.1187903317670136E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="172" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A172">
         <v>0.3</v>
       </c>
@@ -49092,7 +49251,7 @@
         <v>3.2529926377576811E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="173" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A173">
         <v>0.5</v>
       </c>
@@ -49118,7 +49277,7 @@
         <v>3.5832172884505478E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="174" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A174">
         <v>0.7</v>
       </c>
@@ -49144,7 +49303,7 @@
         <v>4.3452892234767379E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="175" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A175">
         <v>1</v>
       </c>
@@ -49170,7 +49329,7 @@
         <v>7.1191308614214271E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="176" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A176">
         <v>1.5</v>
       </c>
@@ -49182,7 +49341,7 @@
       <c r="G176" s="329"/>
       <c r="H176" s="297"/>
     </row>
-    <row r="177" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="177" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A177">
         <v>2</v>
       </c>
@@ -49194,7 +49353,7 @@
       <c r="G177" s="329"/>
       <c r="H177" s="297"/>
     </row>
-    <row r="178" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="178" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A178">
         <v>3</v>
       </c>
@@ -49206,7 +49365,7 @@
       <c r="G178" s="329"/>
       <c r="H178" s="297"/>
     </row>
-    <row r="179" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="179" spans="1:8" ht="15" customHeight="1" outlineLevel="1">
       <c r="A179">
         <v>5</v>
       </c>
@@ -49218,7 +49377,6 @@
       <c r="G179" s="329"/>
       <c r="H179" s="297"/>
     </row>
-    <row r="180" spans="1:8" ht="15" customHeight="1" collapsed="1"/>
     <row r="181" spans="1:8" ht="15" customHeight="1">
       <c r="A181" s="321" t="s">
         <v>595</v>
@@ -49234,31 +49392,31 @@
         <v>601</v>
       </c>
       <c r="B183" s="222">
-        <f>IF(B6&lt;1,B93,B94)</f>
+        <f t="shared" ref="B183:H183" si="93">IF(B6&lt;1,B93,B94)</f>
         <v>2.0530322770652725</v>
       </c>
       <c r="C183" s="222">
-        <f>IF(C6&lt;1,C93,C94)</f>
+        <f t="shared" si="93"/>
         <v>2.0530322770652725</v>
       </c>
       <c r="D183" s="222">
-        <f>IF(D6&lt;1,D93,D94)</f>
+        <f t="shared" si="93"/>
         <v>2.0530322770652725</v>
       </c>
       <c r="E183" s="222">
-        <f>IF(E6&lt;1,E93,E94)</f>
+        <f t="shared" si="93"/>
         <v>2.0530322770652725</v>
       </c>
       <c r="F183" s="222">
-        <f>IF(F6&lt;1,F93,F94)</f>
+        <f t="shared" si="93"/>
         <v>2.0530322770652725</v>
       </c>
       <c r="G183" s="222">
-        <f>IF(G6&lt;1,G93,G94)</f>
+        <f t="shared" si="93"/>
         <v>2.0530322770652725</v>
       </c>
       <c r="H183" s="222">
-        <f>IF(H6&lt;1,H93,H94)</f>
+        <f t="shared" si="93"/>
         <v>2.0530322770652725</v>
       </c>
     </row>
@@ -49293,31 +49451,31 @@
         <v>598</v>
       </c>
       <c r="B185" s="222">
-        <f>B34*B184</f>
+        <f t="shared" ref="B185:H185" si="94">B34*B184</f>
         <v>0.1905</v>
       </c>
       <c r="C185" s="222">
-        <f>C34*C184</f>
+        <f t="shared" si="94"/>
         <v>0.1905</v>
       </c>
       <c r="D185" s="222">
-        <f>D34*D184</f>
+        <f t="shared" si="94"/>
         <v>0.1905</v>
       </c>
       <c r="E185" s="222">
-        <f>E34*E184</f>
+        <f t="shared" si="94"/>
         <v>0.1905</v>
       </c>
       <c r="F185" s="222">
-        <f>F34*F184</f>
+        <f t="shared" si="94"/>
         <v>0.1905</v>
       </c>
       <c r="G185" s="222">
-        <f>G34*G184</f>
+        <f t="shared" si="94"/>
         <v>0.1905</v>
       </c>
       <c r="H185" s="222">
-        <f>H34*H184</f>
+        <f t="shared" si="94"/>
         <v>0.1905</v>
       </c>
     </row>
@@ -49347,605 +49505,606 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15" customHeight="1">
+    <row r="187" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A187">
         <v>0.1</v>
       </c>
       <c r="B187" s="222">
-        <f>ATAN((B$5-B$185*$A187)/B$3)</f>
+        <f>ATAN((-B$185*$A187)/B$3)</f>
         <v>-1.1196455391781017E-4</v>
       </c>
       <c r="C187" s="222">
-        <f>ATAN((C$5-C$185*$A187)/C$3)</f>
-        <v>8.7154923016283081E-2</v>
+        <f t="shared" ref="C187:H195" si="95">ATAN((-C$185*$A187)/C$3)</f>
+        <v>-1.1239224032079472E-4</v>
       </c>
       <c r="D187" s="222">
-        <f>ATAN((D$5-D$185*$A187)/D$3)</f>
-        <v>0.17442265949482383</v>
+        <f>ATAN((-D$185*$A187)/D$3)</f>
+        <v>-1.1369178762128992E-4</v>
       </c>
       <c r="E187" s="222">
-        <f>ATAN((E$5-E$185*$A187)/E$3)</f>
-        <v>0.26169123521075488</v>
+        <f t="shared" si="95"/>
+        <v>-1.1591423568657315E-4</v>
       </c>
       <c r="F187" s="222">
-        <f>ATAN((F$5-F$185*$A187)/F$3)</f>
-        <v>0.34896063410454159</v>
+        <f t="shared" si="95"/>
+        <v>-1.1915018951855655E-4</v>
       </c>
       <c r="G187" s="222">
-        <f>ATAN((G$5-G$185*$A187)/G$3)</f>
-        <v>0.43623083384960165</v>
+        <f t="shared" si="95"/>
+        <v>-1.2353921638714622E-4</v>
       </c>
       <c r="H187" s="222">
-        <f>ATAN((H$5-H$185*$A187)/H$3)</f>
-        <v>0.52350180602160357</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-1.2928553050820687E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A188">
         <v>0.5</v>
       </c>
       <c r="B188" s="222">
-        <f>ATAN((B$5-B$185*$A188)/B$3)</f>
+        <f t="shared" ref="B188:B195" si="96">ATAN((-B$185*$A188)/B$3)</f>
         <v>-5.5982271344528047E-4</v>
       </c>
       <c r="C188" s="222">
-        <f>ATAN((C$5-C$185*$A188)/C$3)</f>
-        <v>8.6708742968146332E-2</v>
+        <f t="shared" si="95"/>
+        <v>-5.6196114481436236E-4</v>
       </c>
       <c r="D188" s="222">
-        <f>ATAN((D$5-D$185*$A188)/D$3)</f>
-        <v>0.17398155384916961</v>
+        <f t="shared" si="95"/>
+        <v>-5.6845887932406559E-4</v>
       </c>
       <c r="E188" s="222">
-        <f>ATAN((E$5-E$185*$A188)/E$3)</f>
-        <v>0.26125856221659016</v>
+        <f t="shared" si="95"/>
+        <v>-5.7957111613542091E-4</v>
       </c>
       <c r="F188" s="222">
-        <f>ATAN((F$5-F$185*$A188)/F$3)</f>
-        <v>0.34853968837509053</v>
+        <f t="shared" si="95"/>
+        <v>-5.9575087993089446E-4</v>
       </c>
       <c r="G188" s="222">
-        <f>ATAN((G$5-G$185*$A188)/G$3)</f>
-        <v>0.43582482123643157</v>
+        <f t="shared" si="95"/>
+        <v>-6.1769600651783341E-4</v>
       </c>
       <c r="H188" s="222">
-        <f>ATAN((H$5-H$185*$A188)/H$3)</f>
-        <v>0.52311381914936717</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-6.4642756610205085E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A189">
         <v>0.8</v>
       </c>
       <c r="B189" s="222">
-        <f>ATAN((B$5-B$185*$A189)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-8.9571619553871517E-4</v>
       </c>
       <c r="C189" s="222">
-        <f>ATAN((C$5-C$185*$A189)/C$3)</f>
-        <v>8.6374085207874957E-2</v>
+        <f t="shared" si="95"/>
+        <v>-8.9913768405006111E-4</v>
       </c>
       <c r="D189" s="222">
-        <f>ATAN((D$5-D$185*$A189)/D$3)</f>
-        <v>0.17365067971448042</v>
+        <f t="shared" si="95"/>
+        <v>-9.0953405408438165E-4</v>
       </c>
       <c r="E189" s="222">
-        <f>ATAN((E$5-E$185*$A189)/E$3)</f>
-        <v>0.26093399175401039</v>
+        <f t="shared" si="95"/>
+        <v>-9.2731362384339939E-4</v>
       </c>
       <c r="F189" s="222">
-        <f>ATAN((F$5-F$185*$A189)/F$3)</f>
-        <v>0.34822389453763242</v>
+        <f t="shared" si="95"/>
+        <v>-9.5320123196861607E-4</v>
       </c>
       <c r="G189" s="222">
-        <f>ATAN((G$5-G$185*$A189)/G$3)</f>
-        <v>0.43552021097887916</v>
+        <f t="shared" si="95"/>
+        <v>-9.8831341434211313E-4</v>
       </c>
       <c r="H189" s="222">
-        <f>ATAN((H$5-H$185*$A189)/H$3)</f>
-        <v>0.52282271500154154</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-1.0342838810220663E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A190">
         <v>1</v>
       </c>
       <c r="B190" s="222">
-        <f>ATAN((B$5-B$185*$A190)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-1.1196450759922577E-3</v>
       </c>
       <c r="C190" s="222">
-        <f>ATAN((C$5-C$185*$A190)/C$3)</f>
-        <v>8.6150969254029916E-2</v>
+        <f t="shared" si="95"/>
+        <v>-1.123921934693921E-3</v>
       </c>
       <c r="D190" s="222">
-        <f>ATAN((D$5-D$185*$A190)/D$3)</f>
-        <v>0.17343007561337589</v>
+        <f t="shared" si="95"/>
+        <v>-1.136917391258514E-3</v>
       </c>
       <c r="E190" s="222">
-        <f>ATAN((E$5-E$185*$A190)/E$3)</f>
-        <v>0.26071758018168334</v>
+        <f t="shared" si="95"/>
+        <v>-1.1591418429121227E-3</v>
       </c>
       <c r="F190" s="222">
-        <f>ATAN((F$5-F$185*$A190)/F$3)</f>
-        <v>0.34801332507647892</v>
+        <f t="shared" si="95"/>
+        <v>-1.1915013369753439E-3</v>
       </c>
       <c r="G190" s="222">
-        <f>ATAN((G$5-G$185*$A190)/G$3)</f>
-        <v>0.43531708948593345</v>
+        <f t="shared" si="95"/>
+        <v>-1.2353915416742343E-3</v>
       </c>
       <c r="H190" s="222">
-        <f>ATAN((H$5-H$185*$A190)/H$3)</f>
-        <v>0.52262859128704175</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-1.2928545919609913E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A191">
         <v>5</v>
       </c>
       <c r="B191" s="222">
-        <f>ATAN((B$5-B$185*$A191)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-5.598169237277917E-3</v>
       </c>
       <c r="C191" s="222">
-        <f>ATAN((C$5-C$185*$A191)/C$3)</f>
-        <v>8.1686873320102077E-2</v>
+        <f t="shared" si="95"/>
+        <v>-5.6195528849662529E-3</v>
       </c>
       <c r="D191" s="222">
-        <f>ATAN((D$5-D$185*$A191)/D$3)</f>
-        <v>0.169014438461423</v>
+        <f t="shared" si="95"/>
+        <v>-5.6845281750820976E-3</v>
       </c>
       <c r="E191" s="222">
-        <f>ATAN((E$5-E$185*$A191)/E$3)</f>
-        <v>0.25638412159141105</v>
+        <f t="shared" si="95"/>
+        <v>-5.7956469184085096E-3</v>
       </c>
       <c r="F191" s="222">
-        <f>ATAN((F$5-F$185*$A191)/F$3)</f>
-        <v>0.343795194073927</v>
+        <f t="shared" si="95"/>
+        <v>-5.9574390244719255E-3</v>
       </c>
       <c r="G191" s="222">
-        <f>ATAN((G$5-G$185*$A191)/G$3)</f>
-        <v>0.43124660702672701</v>
+        <f t="shared" si="95"/>
+        <v>-6.1768822922511979E-3</v>
       </c>
       <c r="H191" s="222">
-        <f>ATAN((H$5-H$185*$A191)/H$3)</f>
-        <v>0.51873699770624804</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-6.4641865230527801E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A192">
         <v>10</v>
       </c>
       <c r="B192" s="222">
-        <f>ATAN((B$5-B$185*$A192)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-1.1195987608911197E-2</v>
       </c>
       <c r="C192" s="222">
-        <f>ATAN((C$5-C$185*$A192)/C$3)</f>
-        <v>7.6102181967691834E-2</v>
+        <f t="shared" si="95"/>
+        <v>-1.1238750868415803E-2</v>
       </c>
       <c r="D192" s="222">
-        <f>ATAN((D$5-D$185*$A192)/D$3)</f>
-        <v>0.1634855388349602</v>
+        <f t="shared" si="95"/>
+        <v>-1.1368688995803441E-2</v>
       </c>
       <c r="E192" s="222">
-        <f>ATAN((E$5-E$185*$A192)/E$3)</f>
-        <v>0.25095343639797091</v>
+        <f t="shared" si="95"/>
+        <v>-1.1590904516937553E-2</v>
       </c>
       <c r="F192" s="222">
-        <f>ATAN((F$5-F$185*$A192)/F$3)</f>
-        <v>0.33850457152682967</v>
+        <f t="shared" si="95"/>
+        <v>-1.1914455207070877E-2</v>
       </c>
       <c r="G192" s="222">
-        <f>ATAN((G$5-G$185*$A192)/G$3)</f>
-        <v>0.42613698732786398</v>
+        <f t="shared" si="95"/>
+        <v>-1.2353293276478435E-2</v>
       </c>
       <c r="H192" s="222">
-        <f>ATAN((H$5-H$185*$A192)/H$3)</f>
-        <v>0.51384808145074423</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-1.2927832870034822E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A193">
         <v>20</v>
       </c>
       <c r="B193" s="222">
-        <f>ATAN((B$5-B$185*$A193)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-2.2389169084092855E-2</v>
       </c>
       <c r="C193" s="222">
-        <f>ATAN((C$5-C$185*$A193)/C$3)</f>
-        <v>6.4918862075480185E-2</v>
+        <f t="shared" si="95"/>
+        <v>-2.2474663331354172E-2</v>
       </c>
       <c r="D193" s="222">
-        <f>ATAN((D$5-D$185*$A193)/D$3)</f>
-        <v>0.1523977423716962</v>
+        <f t="shared" si="95"/>
+        <v>-2.2734440011093864E-2</v>
       </c>
       <c r="E193" s="222">
-        <f>ATAN((E$5-E$185*$A193)/E$3)</f>
-        <v>0.24004683701274768</v>
+        <f t="shared" si="95"/>
+        <v>-2.3178695416030064E-2</v>
       </c>
       <c r="F193" s="222">
-        <f>ATAN((F$5-F$185*$A193)/F$3)</f>
-        <v>0.32786417033291576</v>
+        <f t="shared" si="95"/>
+        <v>-2.3825528759235794E-2</v>
       </c>
       <c r="G193" s="222">
-        <f>ATAN((G$5-G$185*$A193)/G$3)</f>
-        <v>0.41584641117193377</v>
+        <f t="shared" si="95"/>
+        <v>-2.4702817382925964E-2</v>
       </c>
       <c r="H193" s="222">
-        <f>ATAN((H$5-H$185*$A193)/H$3)</f>
-        <v>0.50398887037485862</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-2.585134595589253E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A194">
         <v>50</v>
       </c>
       <c r="B194" s="222">
-        <f>ATAN((B$5-B$185*$A194)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-5.5923903813893873E-2</v>
       </c>
       <c r="C194" s="222">
-        <f>ATAN((C$5-C$185*$A194)/C$3)</f>
-        <v>3.1282334997204737E-2</v>
+        <f t="shared" si="95"/>
+        <v>-5.613707637677131E-2</v>
       </c>
       <c r="D194" s="222">
-        <f>ATAN((D$5-D$185*$A194)/D$3)</f>
-        <v>0.11891734759008243</v>
+        <f t="shared" si="95"/>
+        <v>-5.6784780840432147E-2</v>
       </c>
       <c r="E194" s="222">
-        <f>ATAN((E$5-E$185*$A194)/E$3)</f>
-        <v>0.20698460329522497</v>
+        <f t="shared" si="95"/>
+        <v>-5.789235539141846E-2</v>
       </c>
       <c r="F194" s="222">
-        <f>ATAN((F$5-F$185*$A194)/F$3)</f>
-        <v>0.29548413873569729</v>
+        <f t="shared" si="95"/>
+        <v>-5.9504763603195815E-2</v>
       </c>
       <c r="G194" s="222">
-        <f>ATAN((G$5-G$185*$A194)/G$3)</f>
-        <v>0.38441235673035712</v>
+        <f t="shared" si="95"/>
+        <v>-6.1691227537880269E-2</v>
       </c>
       <c r="H194" s="222">
-        <f>ATAN((H$5-H$185*$A194)/H$3)</f>
-        <v>0.4737618544807003</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-6.4552950062352288E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A195">
         <v>100</v>
       </c>
       <c r="B195" s="222">
-        <f>ATAN((B$5-B$185*$A195)/B$3)</f>
+        <f t="shared" si="96"/>
         <v>-0.11150017744374538</v>
       </c>
       <c r="C195" s="222">
-        <f>ATAN((C$5-C$185*$A195)/C$3)</f>
-        <v>-2.4898430881757947E-2</v>
+        <f t="shared" si="95"/>
+        <v>-0.11192254872874813</v>
       </c>
       <c r="D195" s="222">
-        <f>ATAN((D$5-D$185*$A195)/D$3)</f>
-        <v>6.2553475417797308E-2</v>
+        <f t="shared" si="95"/>
+        <v>-0.11320569914064973</v>
       </c>
       <c r="E195" s="222">
-        <f>ATAN((E$5-E$185*$A195)/E$3)</f>
-        <v>0.15087952827833837</v>
+        <f t="shared" si="95"/>
+        <v>-0.11539923615028799</v>
       </c>
       <c r="F195" s="222">
-        <f>ATAN((F$5-F$185*$A195)/F$3)</f>
-        <v>0.24009750008726383</v>
+        <f t="shared" si="95"/>
+        <v>-0.11859109561776654</v>
       </c>
       <c r="G195" s="222">
-        <f>ATAN((G$5-G$185*$A195)/G$3)</f>
-        <v>0.33021798115424428</v>
+        <f t="shared" si="95"/>
+        <v>-0.12291642750088411</v>
       </c>
       <c r="H195" s="222">
-        <f>ATAN((H$5-H$185*$A195)/H$3)</f>
-        <v>0.42124339563396801</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="95"/>
+        <v>-0.12857234506740736</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15" customHeight="1" collapsed="1">
       <c r="A196" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15" customHeight="1">
+    <row r="197" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A197">
         <v>0.1</v>
       </c>
       <c r="B197" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A197)/B$3))</f>
+        <f>DEGREES(B187)</f>
         <v>-6.4150963945554685E-3</v>
       </c>
       <c r="C197" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A197)/C$3))</f>
-        <v>4.9936092526206188</v>
+        <f t="shared" ref="C197:H197" si="97">DEGREES(C187)</f>
+        <v>-6.439601020401615E-3</v>
       </c>
       <c r="D197" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A197)/D$3))</f>
-        <v>9.9936822405008616</v>
+        <f t="shared" si="97"/>
+        <v>-6.5140595959976089E-3</v>
       </c>
       <c r="E197" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A197)/E$3))</f>
-        <v>14.993803313141576</v>
+        <f t="shared" si="97"/>
+        <v>-6.641396490325354E-3</v>
       </c>
       <c r="F197" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A197)/F$3))</f>
-        <v>19.993971550399209</v>
+        <f t="shared" si="97"/>
+        <v>-6.8268029875971888E-3</v>
       </c>
       <c r="G197" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A197)/G$3))</f>
-        <v>24.994185673054826</v>
+        <f t="shared" si="97"/>
+        <v>-7.0782757033368967E-3</v>
       </c>
       <c r="H197" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A197)/H$3))</f>
-        <v>29.99444405251419</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="97"/>
+        <v>-7.4075152502300987E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A198">
         <v>0.5</v>
       </c>
       <c r="B198" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A198)/B$3))</f>
+        <f t="shared" ref="B198:H198" si="98">DEGREES(B188)</f>
         <v>-3.2075478755976258E-2</v>
       </c>
       <c r="C198" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A198)/C$3))</f>
-        <v>4.9680450189594394</v>
+        <f t="shared" si="98"/>
+        <v>-3.2198001848203033E-2</v>
       </c>
       <c r="D198" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A198)/D$3))</f>
-        <v>9.9684087486854818</v>
+        <f t="shared" si="98"/>
+        <v>-3.2570294612005536E-2</v>
       </c>
       <c r="E198" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A198)/E$3))</f>
-        <v>14.969012976666651</v>
+        <f t="shared" si="98"/>
+        <v>-3.3206978882246108E-2</v>
       </c>
       <c r="F198" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A198)/F$3))</f>
-        <v>19.969853136697608</v>
+        <f t="shared" si="98"/>
+        <v>-3.4134011061245306E-2</v>
       </c>
       <c r="G198" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A198)/G$3))</f>
-        <v>24.970922863891101</v>
+        <f t="shared" si="98"/>
+        <v>-3.5391374195557247E-2</v>
       </c>
       <c r="H198" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A198)/H$3))</f>
-        <v>29.972214042228561</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="98"/>
+        <v>-3.7037571298561556E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A199">
         <v>0.8</v>
       </c>
       <c r="B199" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A199)/B$3))</f>
+        <f t="shared" ref="B199:H199" si="99">DEGREES(B189)</f>
         <v>-5.1320757645883154E-2</v>
       </c>
       <c r="C199" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A199)/C$3))</f>
-        <v>4.9488705417145891</v>
+        <f t="shared" si="99"/>
+        <v>-5.1516794497235778E-2</v>
       </c>
       <c r="D199" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A199)/D$3))</f>
-        <v>9.9494510572177468</v>
+        <f t="shared" si="99"/>
+        <v>-5.2112462622458625E-2</v>
       </c>
       <c r="E199" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A199)/E$3))</f>
-        <v>14.95041645900622</v>
+        <f t="shared" si="99"/>
+        <v>-5.3131156931208769E-2</v>
       </c>
       <c r="F199" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A199)/F$3))</f>
-        <v>19.951759482615017</v>
+        <f t="shared" si="99"/>
+        <v>-5.4614407618472263E-2</v>
       </c>
       <c r="G199" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A199)/G$3))</f>
-        <v>24.953469981736955</v>
+        <f t="shared" si="99"/>
+        <v>-5.6626187477967285E-2</v>
       </c>
       <c r="H199" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A199)/H$3))</f>
-        <v>29.955535003159401</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="99"/>
+        <v>-5.9260101200975378E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A200">
         <v>1</v>
       </c>
       <c r="B200" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A200)/B$3))</f>
+        <f t="shared" ref="B200:H200" si="100">DEGREES(B190)</f>
         <v>-6.4150937406960692E-2</v>
       </c>
       <c r="C200" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A200)/C$3))</f>
-        <v>4.9360869392172324</v>
+        <f t="shared" si="100"/>
+        <v>-6.4395983360139811E-2</v>
       </c>
       <c r="D200" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A200)/D$3))</f>
-        <v>9.9368113732811807</v>
+        <f t="shared" si="100"/>
+        <v>-6.5140568174136562E-2</v>
       </c>
       <c r="E200" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A200)/E$3))</f>
-        <v>14.938016989274089</v>
+        <f t="shared" si="100"/>
+        <v>-6.6413935455880896E-2</v>
       </c>
       <c r="F200" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A200)/F$3))</f>
-        <v>19.939694741196579</v>
+        <f t="shared" si="100"/>
+        <v>-6.8267997892882099E-2</v>
       </c>
       <c r="G200" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A200)/G$3))</f>
-        <v>24.941831977462769</v>
+        <f t="shared" si="100"/>
+        <v>-7.0782721384093777E-2</v>
       </c>
       <c r="H200" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A200)/H$3))</f>
-        <v>29.944412533615161</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="100"/>
+        <v>-7.4075111643472968E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A201">
         <v>5</v>
       </c>
       <c r="B201" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A201)/B$3))</f>
+        <f t="shared" ref="B201:H201" si="101">DEGREES(B191)</f>
         <v>-0.32075147029599577</v>
       </c>
       <c r="C201" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A201)/C$3))</f>
-        <v>4.6803130828616553</v>
+        <f t="shared" si="101"/>
+        <v>-0.32197666305913208</v>
       </c>
       <c r="D201" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A201)/D$3))</f>
-        <v>9.683814000613113</v>
+        <f t="shared" si="101"/>
+        <v>-0.32569947295540808</v>
       </c>
       <c r="E201" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A201)/E$3))</f>
-        <v>14.689728101356776</v>
+        <f t="shared" si="101"/>
+        <v>-0.332066107972809</v>
       </c>
       <c r="F201" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A201)/F$3))</f>
-        <v>19.698013637317068</v>
+        <f t="shared" si="101"/>
+        <v>-0.34133611280877568</v>
       </c>
       <c r="G201" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A201)/G$3))</f>
-        <v>24.70861051196821</v>
+        <f t="shared" si="101"/>
+        <v>-0.35390928589508719</v>
       </c>
       <c r="H201" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A201)/H$3))</f>
-        <v>29.721440645855477</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="101"/>
+        <v>-0.37037060575627034</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A202">
         <v>10</v>
       </c>
       <c r="B202" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A202)/B$3))</f>
+        <f t="shared" ref="B202:H202" si="102">DEGREES(B192)</f>
         <v>-0.64148283747137769</v>
       </c>
       <c r="C202" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A202)/C$3))</f>
-        <v>4.3603338384853405</v>
+        <f t="shared" si="102"/>
+        <v>-0.64393299175921437</v>
       </c>
       <c r="D202" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A202)/D$3))</f>
-        <v>9.367031386665337</v>
+        <f t="shared" si="102"/>
+        <v>-0.65137789805635926</v>
       </c>
       <c r="E202" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A202)/E$3))</f>
-        <v>14.378572759908469</v>
+        <f t="shared" si="102"/>
+        <v>-0.664109909559644</v>
       </c>
       <c r="F202" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A202)/F$3))</f>
-        <v>19.394883294371638</v>
+        <f t="shared" si="102"/>
+        <v>-0.68264799856282854</v>
       </c>
       <c r="G202" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A202)/G$3))</f>
-        <v>24.41585086830645</v>
+        <f t="shared" si="102"/>
+        <v>-0.70779156782955077</v>
       </c>
       <c r="H202" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A202)/H$3))</f>
-        <v>29.441326378022207</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="102"/>
+        <v>-0.74071026170349341</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A203">
         <v>20</v>
       </c>
       <c r="B203" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A203)/B$3))</f>
+        <f t="shared" ref="B203:H203" si="103">DEGREES(B193)</f>
         <v>-1.2828048953233036</v>
       </c>
       <c r="C203" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A203)/C$3))</f>
-        <v>3.7195768077169147</v>
+        <f t="shared" si="103"/>
+        <v>-1.2877033548640249</v>
       </c>
       <c r="D203" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A203)/D$3))</f>
-        <v>8.7317474452202291</v>
+        <f t="shared" si="103"/>
+        <v>-1.3025874622290308</v>
       </c>
       <c r="E203" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A203)/E$3))</f>
-        <v>13.7536706462952</v>
+        <f t="shared" si="103"/>
+        <v>-1.3280414219577505</v>
       </c>
       <c r="F203" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A203)/F$3))</f>
-        <v>18.78523321363441</v>
+        <f t="shared" si="103"/>
+        <v>-1.3651022425717758</v>
       </c>
       <c r="G203" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A203)/G$3))</f>
-        <v>23.82624428581369</v>
+        <f t="shared" si="103"/>
+        <v>-1.4153671781240633</v>
       </c>
       <c r="H203" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A203)/H$3))</f>
-        <v>28.876435194045328</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="103"/>
+        <v>-1.4811730180052307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A204">
         <v>50</v>
       </c>
       <c r="B204" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A204)/B$3))</f>
+        <f t="shared" ref="B204:H204" si="104">DEGREES(B194)</f>
         <v>-3.204203662431687</v>
       </c>
       <c r="C204" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A204)/C$3))</f>
-        <v>1.7923457686542215</v>
+        <f t="shared" si="104"/>
+        <v>-3.2164175505925514</v>
       </c>
       <c r="D204" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A204)/D$3))</f>
-        <v>6.8134621278019347</v>
+        <f t="shared" si="104"/>
+        <v>-3.2535282827321019</v>
       </c>
       <c r="E204" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A204)/E$3))</f>
-        <v>11.859344193006024</v>
+        <f t="shared" si="104"/>
+        <v>-3.3169876299997147</v>
       </c>
       <c r="F204" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A204)/F$3))</f>
-        <v>16.929994062613538</v>
+        <f t="shared" si="104"/>
+        <v>-3.4093718153867933</v>
       </c>
       <c r="G204" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A204)/G$3))</f>
-        <v>22.025205633326888</v>
+        <f t="shared" si="104"/>
+        <v>-3.5346469709017803</v>
       </c>
       <c r="H204" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A204)/H$3))</f>
-        <v>27.144554756035198</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="104"/>
+        <v>-3.6986115936915507</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A205">
         <v>100</v>
       </c>
       <c r="B205" s="222">
-        <f>DEGREES(ATAN((B$5-B$185*$A205)/B$3))</f>
+        <f t="shared" ref="B205:H205" si="105">DEGREES(B195)</f>
         <v>-6.3884895824863905</v>
       </c>
       <c r="C205" s="222">
-        <f>DEGREES(ATAN((C$5-C$185*$A205)/C$3))</f>
-        <v>-1.4265750060229232</v>
+        <f t="shared" si="105"/>
+        <v>-6.4126896745045654</v>
       </c>
       <c r="D205" s="222">
-        <f>DEGREES(ATAN((D$5-D$185*$A205)/D$3))</f>
-        <v>3.5840501353151297</v>
+        <f t="shared" si="105"/>
+        <v>-6.4862087775870005</v>
       </c>
       <c r="E205" s="222">
-        <f>DEGREES(ATAN((E$5-E$185*$A205)/E$3))</f>
-        <v>8.6447601852735438</v>
+        <f t="shared" si="105"/>
+        <v>-6.6118891904450194</v>
       </c>
       <c r="F205" s="222">
-        <f>DEGREES(ATAN((F$5-F$185*$A205)/F$3))</f>
-        <v>13.756573426642133</v>
+        <f t="shared" si="105"/>
+        <v>-6.7947692667304151</v>
       </c>
       <c r="G205" s="222">
-        <f>DEGREES(ATAN((G$5-G$185*$A205)/G$3))</f>
-        <v>18.920096639468753</v>
+        <f t="shared" si="105"/>
+        <v>-7.0425925286264244</v>
       </c>
       <c r="H205" s="222">
-        <f>DEGREES(ATAN((H$5-H$185*$A205)/H$3))</f>
-        <v>24.135468717585937</v>
-      </c>
-    </row>
+        <f t="shared" si="105"/>
+        <v>-7.36665273446211</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15" customHeight="1" collapsed="1"/>
     <row r="207" spans="1:8" ht="15" customHeight="1">
       <c r="A207" t="s">
         <v>600</v>
@@ -49974,7 +50133,7 @@
     </row>
     <row r="208" spans="1:8" ht="15" customHeight="1">
       <c r="A208" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B208" s="222">
         <f>B$183*VLOOKUP(B$207,$A$187:B$195,B$186,FALSE)</f>
@@ -49982,27 +50141,27 @@
       </c>
       <c r="C208" s="222">
         <f>C$183*VLOOKUP(C$207,$A$187:C$195,C$186,FALSE)</f>
-        <v>0.13328051923130946</v>
+        <v>-4.6141209235445436E-2</v>
       </c>
       <c r="D208" s="222">
         <f>D$183*VLOOKUP(D$207,$A$187:D$195,D$186,FALSE)</f>
-        <v>0.31287748404097021</v>
+        <v>-4.6674539143779871E-2</v>
       </c>
       <c r="E208" s="222">
         <f>E$183*VLOOKUP(E$207,$A$187:E$195,E$186,FALSE)</f>
-        <v>0.49282390439459767</v>
+        <v>-4.7586609829374592E-2</v>
       </c>
       <c r="F208" s="222">
         <f>F$183*VLOOKUP(F$207,$A$187:F$195,F$186,FALSE)</f>
-        <v>0.6731157241867024</v>
+        <v>-4.8914579560857999E-2</v>
       </c>
       <c r="G208" s="222">
         <f>G$183*VLOOKUP(G$207,$A$187:G$195,G$186,FALSE)</f>
-        <v>0.8537461044377368</v>
+        <v>-5.0715681421596083E-2</v>
       </c>
       <c r="H208" s="222">
         <f>H$183*VLOOKUP(H$207,$A$187:H$195,H$186,FALSE)</f>
-        <v>1.0347054181612505</v>
+        <v>-5.3073647653028161E-2</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15" customHeight="1">
@@ -50012,7 +50171,7 @@
       <c r="F209" s="222"/>
       <c r="G209" s="222"/>
     </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1">
+    <row r="210" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A210">
         <v>1</v>
       </c>
@@ -50021,433 +50180,488 @@
         <v>-1.6198907430017186</v>
       </c>
       <c r="C210" s="222">
-        <f>C$29*(C81)*C$208</f>
-        <v>4.6969792995574471</v>
+        <f t="shared" ref="B210:H219" si="106">C$29*(C81)*C$208</f>
+        <v>-1.626076382995697</v>
       </c>
       <c r="D210" s="222">
-        <f>D$29*(D81)*D$208</f>
-        <v>11.026210539348108</v>
+        <f t="shared" si="106"/>
+        <v>-1.6448716244438053</v>
       </c>
       <c r="E210" s="222">
-        <f>E$29*(E81)*E$208</f>
-        <v>17.367757048208802</v>
+        <f t="shared" si="106"/>
+        <v>-1.6770141847720459</v>
       </c>
       <c r="F210" s="222">
-        <f>F$29*(F81)*F$208</f>
-        <v>23.721475883692797</v>
+        <f t="shared" si="106"/>
+        <v>-1.7238135698223942</v>
       </c>
       <c r="G210" s="222">
-        <f>G$29*(G81)*G$208</f>
-        <v>30.087126031242597</v>
+        <f t="shared" si="106"/>
+        <v>-1.7872867480863477</v>
       </c>
       <c r="H210" s="222">
-        <f>H$29*(H81)*H$208</f>
-        <v>36.464368223301804</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.8703845529416143</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A211">
         <v>2</v>
       </c>
       <c r="B211" s="222">
-        <f>B$29*(B82)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.5692691572829154</v>
       </c>
       <c r="C211" s="222">
-        <f>C$29*(C82)*C$208</f>
-        <v>4.5501986964462775</v>
+        <f t="shared" si="106"/>
+        <v>-1.5752614960270819</v>
       </c>
       <c r="D211" s="222">
-        <f>D$29*(D82)*D$208</f>
-        <v>10.681641459993482</v>
+        <f t="shared" si="106"/>
+        <v>-1.5934693861799367</v>
       </c>
       <c r="E211" s="222">
-        <f>E$29*(E82)*E$208</f>
-        <v>16.825014640452281</v>
+        <f t="shared" si="106"/>
+        <v>-1.6246074914979196</v>
       </c>
       <c r="F211" s="222">
-        <f>F$29*(F82)*F$208</f>
-        <v>22.980179762327399</v>
+        <f t="shared" si="106"/>
+        <v>-1.6699443957654447</v>
       </c>
       <c r="G211" s="222">
-        <f>G$29*(G82)*G$208</f>
-        <v>29.146903342766269</v>
+        <f t="shared" si="106"/>
+        <v>-1.7314340372086496</v>
       </c>
       <c r="H211" s="222">
-        <f>H$29*(H82)*H$208</f>
-        <v>35.32485671632363</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.8119350356621891</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A212">
         <v>3</v>
       </c>
       <c r="B212" s="222">
-        <f>B$29*(B83)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.5186475715641115</v>
       </c>
       <c r="C212" s="222">
-        <f>C$29*(C83)*C$208</f>
-        <v>4.403418093335107</v>
+        <f t="shared" si="106"/>
+        <v>-1.5244466090584663</v>
       </c>
       <c r="D212" s="222">
-        <f>D$29*(D83)*D$208</f>
-        <v>10.337072380638853</v>
+        <f t="shared" si="106"/>
+        <v>-1.5420671479160677</v>
       </c>
       <c r="E212" s="222">
-        <f>E$29*(E83)*E$208</f>
-        <v>16.282272232695753</v>
+        <f t="shared" si="106"/>
+        <v>-1.5722007982237931</v>
       </c>
       <c r="F212" s="222">
-        <f>F$29*(F83)*F$208</f>
-        <v>22.238883640962001</v>
+        <f t="shared" si="106"/>
+        <v>-1.6160752217084948</v>
       </c>
       <c r="G212" s="222">
-        <f>G$29*(G83)*G$208</f>
-        <v>28.206680654289936</v>
+        <f t="shared" si="106"/>
+        <v>-1.6755813263309511</v>
       </c>
       <c r="H212" s="222">
-        <f>H$29*(H83)*H$208</f>
-        <v>34.185345209345449</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.7534855183827636</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A213">
         <v>4</v>
       </c>
       <c r="B213" s="222">
-        <f>B$29*(B84)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.468025985845308</v>
       </c>
       <c r="C213" s="222">
-        <f>C$29*(C84)*C$208</f>
-        <v>4.2566374902239374</v>
+        <f t="shared" si="106"/>
+        <v>-1.4736317220898507</v>
       </c>
       <c r="D213" s="222">
-        <f>D$29*(D84)*D$208</f>
-        <v>9.9925033012842253</v>
+        <f t="shared" si="106"/>
+        <v>-1.4906649096521989</v>
       </c>
       <c r="E213" s="222">
-        <f>E$29*(E84)*E$208</f>
-        <v>15.739529824939231</v>
+        <f t="shared" si="106"/>
+        <v>-1.5197941049496668</v>
       </c>
       <c r="F213" s="222">
-        <f>F$29*(F84)*F$208</f>
-        <v>21.497587519596603</v>
+        <f t="shared" si="106"/>
+        <v>-1.5622060476515451</v>
       </c>
       <c r="G213" s="222">
-        <f>G$29*(G84)*G$208</f>
-        <v>27.266457965813608</v>
+        <f t="shared" si="106"/>
+        <v>-1.6197286154532531</v>
       </c>
       <c r="H213" s="222">
-        <f>H$29*(H84)*H$208</f>
-        <v>33.045833702367268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.6950360011033383</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A214">
         <v>5</v>
       </c>
       <c r="B214" s="222">
-        <f>B$29*(B85)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.4174044001265038</v>
       </c>
       <c r="C214" s="222">
-        <f>C$29*(C85)*C$208</f>
-        <v>4.1098568871127661</v>
+        <f t="shared" si="106"/>
+        <v>-1.4228168351212349</v>
       </c>
       <c r="D214" s="222">
-        <f>D$29*(D85)*D$208</f>
-        <v>9.647934221929594</v>
+        <f t="shared" si="106"/>
+        <v>-1.4392626713883296</v>
       </c>
       <c r="E214" s="222">
-        <f>E$29*(E85)*E$208</f>
-        <v>15.196787417182701</v>
+        <f t="shared" si="106"/>
+        <v>-1.4673874116755401</v>
       </c>
       <c r="F214" s="222">
-        <f>F$29*(F85)*F$208</f>
-        <v>20.756291398231195</v>
+        <f t="shared" si="106"/>
+        <v>-1.508336873594595</v>
       </c>
       <c r="G214" s="222">
-        <f>G$29*(G85)*G$208</f>
-        <v>26.326235277337272</v>
+        <f t="shared" si="106"/>
+        <v>-1.5638759045755541</v>
       </c>
       <c r="H214" s="222">
-        <f>H$29*(H85)*H$208</f>
-        <v>31.90632219538908</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.6365864838239124</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A215">
         <v>6</v>
       </c>
       <c r="B215" s="222">
-        <f>B$29*(B86)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.3667828144077003</v>
       </c>
       <c r="C215" s="222">
-        <f>C$29*(C86)*C$208</f>
-        <v>3.9630762840015965</v>
+        <f t="shared" si="106"/>
+        <v>-1.3720019481526196</v>
       </c>
       <c r="D215" s="222">
-        <f>D$29*(D86)*D$208</f>
-        <v>9.3033651425749664</v>
+        <f t="shared" si="106"/>
+        <v>-1.3878604331244608</v>
       </c>
       <c r="E215" s="222">
-        <f>E$29*(E86)*E$208</f>
-        <v>14.654045009426177</v>
+        <f t="shared" si="106"/>
+        <v>-1.4149807184014138</v>
       </c>
       <c r="F215" s="222">
-        <f>F$29*(F86)*F$208</f>
-        <v>20.014995276865797</v>
+        <f t="shared" si="106"/>
+        <v>-1.4544676995376453</v>
       </c>
       <c r="G215" s="222">
-        <f>G$29*(G86)*G$208</f>
-        <v>25.386012588860943</v>
+        <f t="shared" si="106"/>
+        <v>-1.5080231936978559</v>
       </c>
       <c r="H215" s="222">
-        <f>H$29*(H86)*H$208</f>
-        <v>30.766810688410899</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.5781369665444871</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A216">
         <v>7</v>
       </c>
       <c r="B216" s="222">
-        <f>B$29*(B87)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.3161612286888966</v>
       </c>
       <c r="C216" s="222">
-        <f>C$29*(C87)*C$208</f>
-        <v>3.8162956808904265</v>
+        <f t="shared" si="106"/>
+        <v>-1.321187061184004</v>
       </c>
       <c r="D216" s="222">
-        <f>D$29*(D87)*D$208</f>
-        <v>8.9587960632203405</v>
+        <f t="shared" si="106"/>
+        <v>-1.336458194860592</v>
       </c>
       <c r="E216" s="222">
-        <f>E$29*(E87)*E$208</f>
-        <v>14.111302601669655</v>
+        <f t="shared" si="106"/>
+        <v>-1.3625740251272873</v>
       </c>
       <c r="F216" s="222">
-        <f>F$29*(F87)*F$208</f>
-        <v>19.273699155500399</v>
+        <f t="shared" si="106"/>
+        <v>-1.4005985254806956</v>
       </c>
       <c r="G216" s="222">
-        <f>G$29*(G87)*G$208</f>
-        <v>24.445789900384611</v>
+        <f t="shared" si="106"/>
+        <v>-1.4521704828201578</v>
       </c>
       <c r="H216" s="222">
-        <f>H$29*(H87)*H$208</f>
-        <v>29.627299181432722</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.5196874492650618</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A217">
         <v>8</v>
       </c>
       <c r="B217" s="222">
-        <f>B$29*(B88)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.2655396429700929</v>
       </c>
       <c r="C217" s="222">
-        <f>C$29*(C88)*C$208</f>
-        <v>3.669515077779256</v>
+        <f t="shared" si="106"/>
+        <v>-1.2703721742153884</v>
       </c>
       <c r="D217" s="222">
-        <f>D$29*(D88)*D$208</f>
-        <v>8.6142269838657111</v>
+        <f t="shared" si="106"/>
+        <v>-1.285055956596723</v>
       </c>
       <c r="E217" s="222">
-        <f>E$29*(E88)*E$208</f>
-        <v>13.568560193913129</v>
+        <f t="shared" si="106"/>
+        <v>-1.310167331853161</v>
       </c>
       <c r="F217" s="222">
-        <f>F$29*(F88)*F$208</f>
-        <v>18.532403034135001</v>
+        <f t="shared" si="106"/>
+        <v>-1.3467293514237457</v>
       </c>
       <c r="G217" s="222">
-        <f>G$29*(G88)*G$208</f>
-        <v>23.505567211908282</v>
+        <f t="shared" si="106"/>
+        <v>-1.3963177719424593</v>
       </c>
       <c r="H217" s="222">
-        <f>H$29*(H88)*H$208</f>
-        <v>28.487787674454541</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.4612379319856363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A218">
         <v>9</v>
       </c>
       <c r="B218" s="222">
-        <f>B$29*(B89)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.2149180572512892</v>
       </c>
       <c r="C218" s="222">
-        <f>C$29*(C89)*C$208</f>
-        <v>3.5227344746680855</v>
+        <f t="shared" si="106"/>
+        <v>-1.2195572872467728</v>
       </c>
       <c r="D218" s="222">
-        <f>D$29*(D89)*D$208</f>
-        <v>8.2696579045110816</v>
+        <f t="shared" si="106"/>
+        <v>-1.2336537183328542</v>
       </c>
       <c r="E218" s="222">
-        <f>E$29*(E89)*E$208</f>
-        <v>13.025817786156603</v>
+        <f t="shared" si="106"/>
+        <v>-1.2577606385790345</v>
       </c>
       <c r="F218" s="222">
-        <f>F$29*(F89)*F$208</f>
-        <v>17.7911069127696</v>
+        <f t="shared" si="106"/>
+        <v>-1.2928601773667958</v>
       </c>
       <c r="G218" s="222">
-        <f>G$29*(G89)*G$208</f>
-        <v>22.56534452343195</v>
+        <f t="shared" si="106"/>
+        <v>-1.3404650610647608</v>
       </c>
       <c r="H218" s="222">
-        <f>H$29*(H89)*H$208</f>
-        <v>27.348276167476357</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.4027884147062109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A219">
         <v>10</v>
       </c>
       <c r="B219" s="222">
-        <f>B$29*(B90)*B$208</f>
+        <f t="shared" si="106"/>
         <v>-1.1642964715324853</v>
       </c>
       <c r="C219" s="222">
-        <f>C$29*(C90)*C$208</f>
-        <v>3.3759538715569155</v>
+        <f t="shared" si="106"/>
+        <v>-1.1687424002781572</v>
       </c>
       <c r="D219" s="222">
-        <f>D$29*(D90)*D$208</f>
-        <v>7.9250888251564531</v>
+        <f t="shared" si="106"/>
+        <v>-1.1822514800689852</v>
       </c>
       <c r="E219" s="222">
-        <f>E$29*(E90)*E$208</f>
-        <v>12.483075378400077</v>
+        <f t="shared" si="106"/>
+        <v>-1.205353945304908</v>
       </c>
       <c r="F219" s="222">
-        <f>F$29*(F90)*F$208</f>
-        <v>17.049810791404198</v>
+        <f t="shared" si="106"/>
+        <v>-1.2389910033098459</v>
       </c>
       <c r="G219" s="222">
-        <f>G$29*(G90)*G$208</f>
-        <v>21.625121834955618</v>
+        <f t="shared" si="106"/>
+        <v>-1.2846123501870625</v>
       </c>
       <c r="H219" s="222">
-        <f>H$29*(H90)*H$208</f>
-        <v>26.208764660498176</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1">
+        <f t="shared" si="106"/>
+        <v>-1.3443388974267854</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15" customHeight="1" collapsed="1">
       <c r="A220" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B220" s="222">
         <f>SUM(B210:B219)</f>
         <v>-13.920936072671022</v>
       </c>
       <c r="C220" s="222">
-        <f t="shared" ref="C220:H220" si="93">SUM(C210:C219)</f>
-        <v>40.364665855571822</v>
+        <f t="shared" ref="C220:H220" si="107">SUM(C210:C219)</f>
+        <v>-13.974093916369274</v>
       </c>
       <c r="D220" s="222">
-        <f t="shared" si="93"/>
-        <v>94.756496822522806</v>
+        <f t="shared" si="107"/>
+        <v>-14.135615522563954</v>
       </c>
       <c r="E220" s="222">
-        <f t="shared" si="93"/>
-        <v>149.25416213304442</v>
+        <f t="shared" si="107"/>
+        <v>-14.411840650384772</v>
       </c>
       <c r="F220" s="222">
-        <f t="shared" si="93"/>
-        <v>203.85643337548498</v>
+        <f t="shared" si="107"/>
+        <v>-14.814022865661201</v>
       </c>
       <c r="G220" s="222">
-        <f t="shared" si="93"/>
-        <v>258.56123933099104</v>
+        <f t="shared" si="107"/>
+        <v>-15.359495491367051</v>
       </c>
       <c r="H220" s="222">
-        <f t="shared" si="93"/>
-        <v>313.36566441899993</v>
+        <f t="shared" si="107"/>
+        <v>-16.073617251841998</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15" customHeight="1">
       <c r="A221" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B221" s="222">
         <f>B220*B185</f>
         <v>-2.6519383218438297</v>
       </c>
       <c r="C221" s="222">
-        <f t="shared" ref="C221:H221" si="94">C220*C185</f>
-        <v>7.6894688454864326</v>
+        <f t="shared" ref="C221:H221" si="108">C220*C185</f>
+        <v>-2.6620648910683467</v>
       </c>
       <c r="D221" s="222">
-        <f t="shared" si="94"/>
-        <v>18.051112644690594</v>
+        <f t="shared" si="108"/>
+        <v>-2.6928347570484332</v>
       </c>
       <c r="E221" s="222">
-        <f t="shared" si="94"/>
-        <v>28.432917886344963</v>
+        <f t="shared" si="108"/>
+        <v>-2.7454556438982989</v>
       </c>
       <c r="F221" s="222">
-        <f t="shared" si="94"/>
-        <v>38.834650558029892</v>
+        <f t="shared" si="108"/>
+        <v>-2.8220713559084589</v>
       </c>
       <c r="G221" s="222">
-        <f t="shared" si="94"/>
-        <v>49.255916092553797</v>
+        <f t="shared" si="108"/>
+        <v>-2.9259838911054232</v>
       </c>
       <c r="H221" s="222">
-        <f t="shared" si="94"/>
-        <v>59.696159071819487</v>
+        <f t="shared" si="108"/>
+        <v>-3.0620240864759007</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15" customHeight="1">
       <c r="A222" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B222" s="222">
         <f>B38*(2/3)*((1+B44+B44^2)/(1+B44))</f>
         <v>0.12666666666666665</v>
       </c>
       <c r="C222" s="222">
-        <f t="shared" ref="C222:H222" si="95">C38*(2/3)*((1+C44+C44^2)/(1+C44))</f>
+        <f t="shared" ref="C222:H222" si="109">C38*(2/3)*((1+C44+C44^2)/(1+C44))</f>
         <v>0.12666666666666665</v>
       </c>
       <c r="D222" s="222">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>0.12666666666666665</v>
       </c>
       <c r="E222" s="222">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>0.12666666666666665</v>
       </c>
       <c r="F222" s="222">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>0.12666666666666665</v>
       </c>
       <c r="G222" s="222">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>0.12666666666666665</v>
       </c>
       <c r="H222" s="222">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>0.12666666666666665</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15" customHeight="1">
       <c r="A223" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B223" s="222">
+        <v>0.8</v>
+      </c>
+      <c r="C223" s="222">
+        <v>1.8</v>
+      </c>
+      <c r="D223" s="222">
+        <v>2.8</v>
+      </c>
+      <c r="E223" s="222">
+        <v>3.8</v>
+      </c>
+      <c r="F223" s="222">
+        <v>4.8</v>
+      </c>
+      <c r="G223" s="222">
+        <v>5.8</v>
+      </c>
+      <c r="H223" s="222">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15" customHeight="1">
+      <c r="A224" t="s">
+        <v>607</v>
+      </c>
+      <c r="B224" s="222">
         <f>B221/(B29*B91*B222)</f>
         <v>-6.912997367994414E-2</v>
+      </c>
+      <c r="C224" s="222">
+        <f t="shared" ref="C224:H224" si="110">C221/(C29*C91*C222)</f>
+        <v>-6.9393950205413349E-2</v>
+      </c>
+      <c r="D224" s="222">
+        <f t="shared" si="110"/>
+        <v>-7.019605031755316E-2</v>
+      </c>
+      <c r="E224" s="222">
+        <f t="shared" si="110"/>
+        <v>-7.1567756624967324E-2</v>
+      </c>
+      <c r="F224" s="222">
+        <f t="shared" si="110"/>
+        <v>-7.3564953207974598E-2</v>
+      </c>
+      <c r="G224" s="222">
+        <f t="shared" si="110"/>
+        <v>-7.6273715611689899E-2</v>
+      </c>
+      <c r="H224" s="222">
+        <f t="shared" si="110"/>
+        <v>-7.9819972720277882E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" customHeight="1">
+      <c r="A225" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -52641,13 +52855,13 @@
       <c r="F43" s="394"/>
     </row>
     <row r="44" spans="1:32" s="1" customFormat="1" ht="58.15" customHeight="1">
-      <c r="B44" s="355" t="s">
+      <c r="B44" s="351" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="355"/>
-      <c r="D44" s="355"/>
-      <c r="E44" s="355"/>
-      <c r="F44" s="355"/>
+      <c r="C44" s="351"/>
+      <c r="D44" s="351"/>
+      <c r="E44" s="351"/>
+      <c r="F44" s="351"/>
       <c r="H44" s="108"/>
       <c r="J44" s="1" t="s">
         <v>454</v>
@@ -55140,32 +55354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
-</scriptIds>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006416C8A108E61840AFB84A4598B73E55" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1d8d0092a91b491fa162699921cd7b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5cf7016-d570-4e66-bed5-9c66354e4d60" xmlns:ns3="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc769dae83c42ca581dc5110a4ef7ce3" ns2:_="" ns3:_="">
     <xsd:import namespace="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
@@ -55372,40 +55560,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
-    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
+</scriptIds>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BA7C14-35B6-43AC-B57B-4A5107295D21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55422,4 +55603,37 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
+    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
+++ b/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Engineering\01 Repos\rocketry-aero-and-stability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.valadez\Documents\Repositorios\Recovery-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677771C2-85F5-4159-BC55-1D8CEB35943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="864" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505" tabRatio="864" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rev.1" sheetId="4" state="hidden" r:id="rId1"/>
@@ -44,7 +43,7 @@
     <definedName name="LengthRocket">Geometry!$C$3</definedName>
     <definedName name="Rogive" comment="R for ogive">Geometry!$P$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,12 +64,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Archimedean2345</author>
   </authors>
   <commentList>
-    <comment ref="F227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F227" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,12 +98,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Juan Leonardo Valadez Ortiz</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,12 +156,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Archimedean2345</author>
   </authors>
   <commentList>
-    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="T22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,12 +195,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Leonardo Valadez Ortiz</author>
   </authors>
   <commentList>
-    <comment ref="A171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,14 +230,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -2152,7 +2151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -3813,6 +3812,18 @@
     <xf numFmtId="167" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3831,6 +3842,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3840,58 +3863,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3907,6 +3897,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3933,10 +3932,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3984,18 +3995,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4062,7 +4061,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4141,7 +4140,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4278,7 +4277,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9835-478F-8138-D014632F95C6}"/>
             </c:ext>
@@ -4292,11 +4291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1860969264"/>
-        <c:axId val="1860966544"/>
+        <c:axId val="-1322025648"/>
+        <c:axId val="-1322019664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1860969264"/>
+        <c:axId val="-1322025648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4424,14 +4423,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860966544"/>
+        <c:crossAx val="-1322019664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.30000000000000004"/>
         <c:minorUnit val="0.30000000000000004"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1860966544"/>
+        <c:axId val="-1322019664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4564,7 +4563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4605,7 +4604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860969264"/>
+        <c:crossAx val="-1322025648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -4620,14 +4619,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4663,7 +4662,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4781,7 +4780,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EED-4A41-8FB3-D2AF21D4162C}"/>
             </c:ext>
@@ -4795,11 +4794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196580016"/>
-        <c:axId val="196580560"/>
+        <c:axId val="-1205955648"/>
+        <c:axId val="-1205960000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196580016"/>
+        <c:axId val="-1205955648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,12 +4869,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196580560"/>
+        <c:crossAx val="-1205960000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196580560"/>
+        <c:axId val="-1205960000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,7 +4945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196580016"/>
+        <c:crossAx val="-1205955648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4960,14 +4959,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5003,7 +5002,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5174,7 +5173,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5277,7 +5276,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5380,7 +5379,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5483,7 +5482,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5586,7 +5585,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5689,7 +5688,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5798,7 +5797,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -5907,7 +5906,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -6034,7 +6033,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -6095,7 +6094,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FD1F-4B70-9D87-12CAE95793F9}"/>
             </c:ext>
@@ -6109,11 +6108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196584912"/>
-        <c:axId val="196581104"/>
+        <c:axId val="-1205958912"/>
+        <c:axId val="-1205957824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196584912"/>
+        <c:axId val="-1205958912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,12 +6238,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196581104"/>
+        <c:crossAx val="-1205957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196581104"/>
+        <c:axId val="-1205957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6370,7 +6369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196584912"/>
+        <c:crossAx val="-1205958912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6384,14 +6383,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6427,7 +6426,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6598,7 +6597,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -6701,7 +6700,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -6804,7 +6803,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -6907,7 +6906,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -7010,7 +7009,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -7113,7 +7112,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -7222,7 +7221,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -7331,7 +7330,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-0F12-4686-BBBE-06C2AAA143DE}"/>
             </c:ext>
@@ -7456,7 +7455,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A80-4305-BDF2-1B15999771E1}"/>
             </c:ext>
@@ -7470,11 +7469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196581648"/>
-        <c:axId val="196584368"/>
+        <c:axId val="-1205957280"/>
+        <c:axId val="-1205955104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196581648"/>
+        <c:axId val="-1205957280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7600,12 +7599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196584368"/>
+        <c:crossAx val="-1205955104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196584368"/>
+        <c:axId val="-1205955104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7731,7 +7730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196581648"/>
+        <c:crossAx val="-1205957280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7745,14 +7744,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7788,7 +7787,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7979,7 +7978,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2A6B-4ED2-8503-93469886DBC3}"/>
             </c:ext>
@@ -7993,11 +7992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196585456"/>
-        <c:axId val="196586544"/>
+        <c:axId val="-1205952928"/>
+        <c:axId val="-1205956736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196585456"/>
+        <c:axId val="-1205952928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8109,12 +8108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196586544"/>
+        <c:crossAx val="-1205956736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196586544"/>
+        <c:axId val="-1205956736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8227,7 +8226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196585456"/>
+        <c:crossAx val="-1205952928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8280,7 +8279,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8438,7 +8437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8872-416D-9CD1-45AD3E75A357}"/>
             </c:ext>
@@ -8452,11 +8451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196579472"/>
-        <c:axId val="196582192"/>
+        <c:axId val="-1200708192"/>
+        <c:axId val="-1200706560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196579472"/>
+        <c:axId val="-1200708192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8513,12 +8512,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196582192"/>
+        <c:crossAx val="-1200706560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196582192"/>
+        <c:axId val="-1200706560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8575,7 +8574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196579472"/>
+        <c:crossAx val="-1200708192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8628,7 +8627,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8786,7 +8785,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A38E-4C77-A1C3-333835E354E1}"/>
             </c:ext>
@@ -8800,11 +8799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196582736"/>
-        <c:axId val="196583280"/>
+        <c:axId val="-1200713632"/>
+        <c:axId val="-1200709824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196582736"/>
+        <c:axId val="-1200713632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8861,12 +8860,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196583280"/>
+        <c:crossAx val="-1200709824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196583280"/>
+        <c:axId val="-1200709824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8924,7 +8923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196582736"/>
+        <c:crossAx val="-1200713632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8977,7 +8976,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9221,7 +9220,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA4B-4DC4-83B5-80F0950FA526}"/>
             </c:ext>
@@ -9422,7 +9421,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BA4B-4DC4-83B5-80F0950FA526}"/>
             </c:ext>
@@ -9623,7 +9622,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BA4B-4DC4-83B5-80F0950FA526}"/>
             </c:ext>
@@ -9824,7 +9823,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BA4B-4DC4-83B5-80F0950FA526}"/>
             </c:ext>
@@ -9838,11 +9837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196583824"/>
-        <c:axId val="196586000"/>
+        <c:axId val="-1200707648"/>
+        <c:axId val="-1200712544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196583824"/>
+        <c:axId val="-1200707648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9899,12 +9898,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196586000"/>
+        <c:crossAx val="-1200712544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196586000"/>
+        <c:axId val="-1200712544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -9962,7 +9961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196583824"/>
+        <c:crossAx val="-1200707648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10007,14 +10006,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10050,7 +10049,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10150,7 +10149,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-570A-4A36-AD20-CD83A2E3F734}"/>
             </c:ext>
@@ -10210,7 +10209,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-570A-4A36-AD20-CD83A2E3F734}"/>
             </c:ext>
@@ -10270,7 +10269,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-570A-4A36-AD20-CD83A2E3F734}"/>
             </c:ext>
@@ -10330,7 +10329,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-570A-4A36-AD20-CD83A2E3F734}"/>
             </c:ext>
@@ -10390,7 +10389,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-570A-4A36-AD20-CD83A2E3F734}"/>
             </c:ext>
@@ -10404,11 +10403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195351984"/>
-        <c:axId val="195352528"/>
+        <c:axId val="-1200708736"/>
+        <c:axId val="-1200707104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195351984"/>
+        <c:axId val="-1200708736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10465,12 +10464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195352528"/>
+        <c:crossAx val="-1200707104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195352528"/>
+        <c:axId val="-1200707104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10527,7 +10526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195351984"/>
+        <c:crossAx val="-1200708736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10572,14 +10571,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10615,7 +10614,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10721,7 +10720,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BC9-49F0-8008-6F9A9577A4DD}"/>
             </c:ext>
@@ -10737,8 +10736,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195349808"/>
-        <c:axId val="195351440"/>
+        <c:axId val="-1200712000"/>
+        <c:axId val="-1200713088"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10830,7 +10829,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9BC9-49F0-8008-6F9A9577A4DD}"/>
             </c:ext>
@@ -10846,11 +10845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195350352"/>
-        <c:axId val="195353072"/>
+        <c:axId val="-1200711456"/>
+        <c:axId val="-1200709280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195349808"/>
+        <c:axId val="-1200712000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10907,7 +10906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195351440"/>
+        <c:crossAx val="-1200713088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10915,7 +10914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195351440"/>
+        <c:axId val="-1200713088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10972,12 +10971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195349808"/>
+        <c:crossAx val="-1200712000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195353072"/>
+        <c:axId val="-1200709280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11020,12 +11019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195350352"/>
+        <c:crossAx val="-1200711456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="195350352"/>
+        <c:axId val="-1200711456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11035,7 +11034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195353072"/>
+        <c:crossAx val="-1200709280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11093,14 +11092,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11136,7 +11135,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11308,7 +11307,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36BC-49B2-B7D3-0B4372FB43FE}"/>
             </c:ext>
@@ -11322,11 +11321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195353616"/>
-        <c:axId val="195355792"/>
+        <c:axId val="-1200710912"/>
+        <c:axId val="-1200710368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195353616"/>
+        <c:axId val="-1200710912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11384,12 +11383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195355792"/>
+        <c:crossAx val="-1200710368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195355792"/>
+        <c:axId val="-1200710368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11446,7 +11445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195353616"/>
+        <c:crossAx val="-1200710912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11460,14 +11459,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11503,7 +11502,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11748,7 +11747,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BFB2-45B1-BE2E-D996ABC7ADF7}"/>
             </c:ext>
@@ -11917,7 +11916,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BFB2-45B1-BE2E-D996ABC7ADF7}"/>
             </c:ext>
@@ -11931,11 +11930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1860967088"/>
-        <c:axId val="1860966000"/>
+        <c:axId val="-1322022384"/>
+        <c:axId val="-1322018576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1860967088"/>
+        <c:axId val="-1322022384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12003,12 +12002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860966000"/>
+        <c:crossAx val="-1322018576"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1860966000"/>
+        <c:axId val="-1322018576"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12079,7 +12078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860967088"/>
+        <c:crossAx val="-1322022384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12124,14 +12123,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12170,7 +12169,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12239,7 +12238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12352,7 +12351,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-12A7-4AC8-8BE4-DB3F894777C5}"/>
             </c:ext>
@@ -12461,7 +12460,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-12A7-4AC8-8BE4-DB3F894777C5}"/>
             </c:ext>
@@ -12475,11 +12474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201181680"/>
-        <c:axId val="201182224"/>
+        <c:axId val="-1322019120"/>
+        <c:axId val="-1322018032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201181680"/>
+        <c:axId val="-1322019120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12550,12 +12549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201182224"/>
+        <c:crossAx val="-1322018032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201182224"/>
+        <c:axId val="-1322018032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12626,7 +12625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201181680"/>
+        <c:crossAx val="-1322019120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12671,14 +12670,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12714,7 +12713,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12820,7 +12819,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-732A-4EAB-BD37-C103652F6D9D}"/>
             </c:ext>
@@ -12922,7 +12921,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-732A-4EAB-BD37-C103652F6D9D}"/>
             </c:ext>
@@ -12936,11 +12935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201182768"/>
-        <c:axId val="201180048"/>
+        <c:axId val="-1322015312"/>
+        <c:axId val="-1322014768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201182768"/>
+        <c:axId val="-1322015312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13010,12 +13009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201180048"/>
+        <c:crossAx val="-1322014768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201180048"/>
+        <c:axId val="-1322014768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13086,7 +13085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201182768"/>
+        <c:crossAx val="-1322015312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13100,14 +13099,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13143,7 +13142,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13258,7 +13257,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CBF-4EDB-AD71-A011C94679F9}"/>
             </c:ext>
@@ -13272,11 +13271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201183312"/>
-        <c:axId val="201186576"/>
+        <c:axId val="-1322014224"/>
+        <c:axId val="-1538164992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201183312"/>
+        <c:axId val="-1322014224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13347,12 +13346,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201186576"/>
+        <c:crossAx val="-1538164992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201186576"/>
+        <c:axId val="-1538164992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -13424,7 +13423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201183312"/>
+        <c:crossAx val="-1322014224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13438,14 +13437,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13481,7 +13480,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13597,7 +13596,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -13700,7 +13699,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -13803,7 +13802,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -13906,7 +13905,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -14009,7 +14008,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -14112,7 +14111,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -14221,7 +14220,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -14330,7 +14329,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-39AA-4E7A-81E2-39419AF3D854}"/>
             </c:ext>
@@ -14344,11 +14343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201185488"/>
-        <c:axId val="201180592"/>
+        <c:axId val="-1538170976"/>
+        <c:axId val="-1538174784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201185488"/>
+        <c:axId val="-1538170976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14419,12 +14418,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201180592"/>
+        <c:crossAx val="-1538174784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201180592"/>
+        <c:axId val="-1538174784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14495,7 +14494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201185488"/>
+        <c:crossAx val="-1538170976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14509,14 +14508,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14552,7 +14551,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14670,7 +14669,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-273E-4B0F-86D8-090F2C71894C}"/>
             </c:ext>
@@ -14684,9 +14683,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201183856"/>
-        <c:axId val="201184400"/>
-        <c:extLst>
+        <c:axId val="-1205959456"/>
+        <c:axId val="-1205958368"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -14711,7 +14710,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Geometry!$K$50:$K$59</c15:sqref>
@@ -14756,7 +14755,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Geometry!$L$50:$L$59</c15:sqref>
@@ -14800,7 +14799,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-3EFD-4F75-B961-07E1A551384F}"/>
                   </c:ext>
@@ -14811,7 +14810,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201183856"/>
+        <c:axId val="-1205959456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14883,12 +14882,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201184400"/>
+        <c:crossAx val="-1205958368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201184400"/>
+        <c:axId val="-1205958368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14959,7 +14958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201183856"/>
+        <c:crossAx val="-1205959456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14973,14 +14972,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15016,7 +15015,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15131,7 +15130,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE06-44B8-AE9B-6F70EF498BA9}"/>
             </c:ext>
@@ -15145,11 +15144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201184944"/>
-        <c:axId val="201186032"/>
+        <c:axId val="-1205954016"/>
+        <c:axId val="-1205954560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201184944"/>
+        <c:axId val="-1205954016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15220,12 +15219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201186032"/>
+        <c:crossAx val="-1205954560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201186032"/>
+        <c:axId val="-1205954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -15297,7 +15296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201184944"/>
+        <c:crossAx val="-1205954016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15311,14 +15310,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15354,7 +15353,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15472,7 +15471,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06B0-43FF-B993-9F8CAD72C9D0}"/>
             </c:ext>
@@ -15486,11 +15485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201187120"/>
-        <c:axId val="201181136"/>
+        <c:axId val="-1205953472"/>
+        <c:axId val="-1205956192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201187120"/>
+        <c:axId val="-1205953472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15561,12 +15560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201181136"/>
+        <c:crossAx val="-1205956192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201181136"/>
+        <c:axId val="-1205956192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15637,7 +15636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201187120"/>
+        <c:crossAx val="-1205953472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15651,14 +15650,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -25966,7 +25965,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26023,7 +26022,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26364,10 +26363,10 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26400,7 +26399,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26632,7 +26631,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26866,7 +26865,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27151,7 +27150,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27225,7 +27224,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27296,7 +27295,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27681,7 +27680,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28176,10 +28175,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28215,10 +28214,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28259,7 +28258,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28303,7 +28302,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28347,7 +28346,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28396,7 +28395,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28432,10 +28431,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28473,10 +28472,10 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28514,10 +28513,10 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28555,10 +28554,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28596,10 +28595,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28637,10 +28636,10 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28673,7 +28672,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28730,7 +28729,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29003,7 +29002,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29352,7 +29351,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29390,10 +29389,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29431,10 +29430,10 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
             </a:ext>
             <a:ext uri="{6ECC49D1-AA05-4338-93AA-15A1B29DFB0A}">
-              <asl:scriptLink xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
+              <asl:scriptLink xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" xmlns="" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29515,7 +29514,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29564,7 +29563,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29600,7 +29599,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29636,7 +29635,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29664,9 +29663,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>157415</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>147811</xdr:rowOff>
+      <xdr:colOff>552022</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38954</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482329" cy="315792"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -29676,7 +29675,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D022E62-4A35-4DCD-8D2A-B3B77A9519EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D022E62-4A35-4DCD-8D2A-B3B77A9519EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29684,7 +29683,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6543701" y="10942811"/>
+              <a:off x="7518879" y="9727240"/>
               <a:ext cx="1482329" cy="315792"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -29914,7 +29913,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D022E62-4A35-4DCD-8D2A-B3B77A9519EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{6D022E62-4A35-4DCD-8D2A-B3B77A9519EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29922,7 +29921,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6543701" y="10942811"/>
+              <a:off x="7518879" y="9727240"/>
               <a:ext cx="1482329" cy="315792"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -29968,9 +29967,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1118063" cy="315792"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -29980,7 +29979,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498D211D-116C-4881-B0FD-4DE2CAB102D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{498D211D-116C-4881-B0FD-4DE2CAB102D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29988,7 +29987,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5117353" y="10720294"/>
+              <a:off x="5973536" y="9769929"/>
               <a:ext cx="1118063" cy="315792"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -30118,7 +30117,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498D211D-116C-4881-B0FD-4DE2CAB102D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{498D211D-116C-4881-B0FD-4DE2CAB102D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30126,7 +30125,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5117353" y="10720294"/>
+              <a:off x="5973536" y="9769929"/>
               <a:ext cx="1118063" cy="315792"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -30172,22 +30171,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>527696</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>39848</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37839</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>94277</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE16BEB-BF7B-48BC-A264-C6EB2A678B38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDE16BEB-BF7B-48BC-A264-C6EB2A678B38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30203,52 +30202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5117353" y="11108765"/>
-          <a:ext cx="7512696" cy="816789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9070</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>107736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>240240</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>39074</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6B82EF-865A-9E37-B0BA-535AF5567AAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4490356" y="7791236"/>
-          <a:ext cx="11661170" cy="3015624"/>
+          <a:off x="5783036" y="10423072"/>
+          <a:ext cx="8161303" cy="801848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30280,7 +30235,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30313,7 +30268,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30558,7 +30513,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30591,7 +30546,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30977,7 +30932,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31362,7 +31317,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31723,7 +31678,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31759,7 +31714,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31792,7 +31747,7 @@
             <xdr:cNvPr id="17" name="TextBox 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32139,7 +32094,7 @@
             <xdr:cNvPr id="18" name="TextBox 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32535,7 +32490,7 @@
             <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32791,7 +32746,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2736D442-88E4-B09D-E012-92D915CB7DF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2736D442-88E4-B09D-E012-92D915CB7DF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33097,7 +33052,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA6BB45-C842-F85B-2CD2-48F390F79360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EA6BB45-C842-F85B-2CD2-48F390F79360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33141,7 +33096,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71695D33-2EF6-CC71-803C-53E251A3DCB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71695D33-2EF6-CC71-803C-53E251A3DCB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33182,7 +33137,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B0840E-4CE9-ABAA-F86E-A2C5A3298F58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9B0840E-4CE9-ABAA-F86E-A2C5A3298F58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33410,7 +33365,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F5E52C-9462-4017-812B-1B440BA856B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26F5E52C-9462-4017-812B-1B440BA856B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33656,7 +33611,7 @@
             <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCB27B8-A82C-0368-52DC-5AD97013AFC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDCB27B8-A82C-0368-52DC-5AD97013AFC5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33862,7 +33817,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E79A02-8F63-33C0-1D45-29D3BDA633AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4E79A02-8F63-33C0-1D45-29D3BDA633AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33911,7 +33866,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33952,7 +33907,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34155,7 +34110,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34346,7 +34301,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34531,7 +34486,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34767,7 +34722,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34808,7 +34763,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35011,7 +34966,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35201,7 +35156,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35385,7 +35340,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35602,19 +35557,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B76:G81" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B76:G81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B76:G81" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B76:G81"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fin type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sweeped" dataDxfId="5">
+    <tableColumn id="1" name="Fin type" dataDxfId="6"/>
+    <tableColumn id="2" name="Sweeped" dataDxfId="5">
       <calculatedColumnFormula>I64</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tapered 1/4" dataDxfId="4">
+    <tableColumn id="3" name="Tapered 1/4" dataDxfId="4">
       <calculatedColumnFormula>K64</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tapered sweeped" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column5" dataDxfId="1"/>
+    <tableColumn id="4" name="Tapered sweeped" dataDxfId="3"/>
+    <tableColumn id="5" name="Column4" dataDxfId="2"/>
+    <tableColumn id="6" name="Column5" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35936,7 +35891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A52:L268"/>
   <sheetViews>
@@ -35944,11 +35899,11 @@
       <selection activeCell="J215" sqref="J215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="113" customWidth="1"/>
-    <col min="2" max="9" width="7.26953125" style="113" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="113"/>
+    <col min="1" max="1" width="12.75" style="113" customWidth="1"/>
+    <col min="2" max="9" width="7.25" style="113" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="113"/>
   </cols>
   <sheetData>
     <row r="52" spans="1:12">
@@ -35981,7 +35936,7 @@
       <c r="K53" s="112"/>
       <c r="L53" s="112"/>
     </row>
-    <row r="54" spans="1:12" ht="13">
+    <row r="54" spans="1:12">
       <c r="A54" s="112"/>
       <c r="B54" s="115"/>
       <c r="C54" s="112"/>
@@ -35995,7 +35950,7 @@
       <c r="K54" s="112"/>
       <c r="L54" s="112"/>
     </row>
-    <row r="55" spans="1:12" ht="13" thickBot="1">
+    <row r="55" spans="1:12" ht="13.5" thickBot="1">
       <c r="A55" s="112"/>
       <c r="B55" s="116" t="s">
         <v>1</v>
@@ -36107,7 +36062,7 @@
       <c r="K61" s="112"/>
       <c r="L61" s="112"/>
     </row>
-    <row r="62" spans="1:12" ht="13">
+    <row r="62" spans="1:12">
       <c r="A62" s="112"/>
       <c r="B62" s="112" t="s">
         <v>8</v>
@@ -36767,8 +36722,8 @@
       <c r="K103" s="112"/>
       <c r="L103" s="112"/>
     </row>
-    <row r="104" spans="1:12" ht="13" thickBot="1"/>
-    <row r="105" spans="1:12" ht="13" thickBot="1">
+    <row r="104" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="105" spans="1:12" ht="13.5" thickBot="1">
       <c r="A105" s="117" t="s">
         <v>44</v>
       </c>
@@ -36798,7 +36753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="13" thickBot="1">
+    <row r="106" spans="1:12" ht="13.5" thickBot="1">
       <c r="A106" s="117" t="s">
         <v>50</v>
       </c>
@@ -36818,7 +36773,7 @@
       <c r="K106" s="116"/>
       <c r="L106" s="123"/>
     </row>
-    <row r="107" spans="1:12" ht="13" thickBot="1">
+    <row r="107" spans="1:12" ht="13.5" thickBot="1">
       <c r="A107" s="117" t="s">
         <v>53</v>
       </c>
@@ -36839,7 +36794,7 @@
       <c r="L107" s="122"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="312" t="s">
+      <c r="A108" s="324" t="s">
         <v>56</v>
       </c>
       <c r="B108" s="125" t="s">
@@ -36857,7 +36812,7 @@
       <c r="L108" s="126"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="312"/>
+      <c r="A109" s="324"/>
       <c r="B109" s="127"/>
       <c r="C109" s="112"/>
       <c r="D109" s="112"/>
@@ -36870,8 +36825,8 @@
       <c r="K109" s="112"/>
       <c r="L109" s="128"/>
     </row>
-    <row r="110" spans="1:12" ht="13" thickBot="1">
-      <c r="A110" s="312"/>
+    <row r="110" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A110" s="324"/>
       <c r="B110" s="129"/>
       <c r="C110" s="116"/>
       <c r="D110" s="116"/>
@@ -36898,7 +36853,7 @@
       <c r="K111" s="112"/>
       <c r="L111" s="112"/>
     </row>
-    <row r="112" spans="1:12" ht="13">
+    <row r="112" spans="1:12">
       <c r="A112" s="115" t="s">
         <v>58</v>
       </c>
@@ -36914,7 +36869,7 @@
       <c r="K112" s="112"/>
       <c r="L112" s="112"/>
     </row>
-    <row r="113" spans="1:12" ht="13">
+    <row r="113" spans="1:12">
       <c r="A113" s="115" t="s">
         <v>59</v>
       </c>
@@ -36944,7 +36899,7 @@
       <c r="K114" s="112"/>
       <c r="L114" s="112"/>
     </row>
-    <row r="115" spans="1:12" ht="13">
+    <row r="115" spans="1:12">
       <c r="A115" s="112" t="s">
         <v>60</v>
       </c>
@@ -36990,7 +36945,7 @@
       <c r="K117" s="112"/>
       <c r="L117" s="112"/>
     </row>
-    <row r="118" spans="1:12" ht="14.5">
+    <row r="118" spans="1:12" ht="14.25">
       <c r="A118" s="112"/>
       <c r="B118" s="112"/>
       <c r="C118" s="112"/>
@@ -37022,7 +36977,7 @@
       <c r="K119" s="112"/>
       <c r="L119" s="112"/>
     </row>
-    <row r="120" spans="1:12" ht="13">
+    <row r="120" spans="1:12">
       <c r="A120" s="112"/>
       <c r="B120" s="112"/>
       <c r="C120" s="112"/>
@@ -37400,7 +37355,7 @@
       <c r="K145" s="112"/>
       <c r="L145" s="112"/>
     </row>
-    <row r="146" spans="1:12" ht="13">
+    <row r="146" spans="1:12">
       <c r="A146" s="112" t="s">
         <v>71</v>
       </c>
@@ -37546,7 +37501,7 @@
       <c r="K155" s="112"/>
       <c r="L155" s="112"/>
     </row>
-    <row r="156" spans="1:12" ht="13" thickBot="1">
+    <row r="156" spans="1:12" ht="13.5" thickBot="1">
       <c r="A156" s="112"/>
       <c r="B156" s="112"/>
       <c r="C156" s="112"/>
@@ -37560,7 +37515,7 @@
       <c r="K156" s="112"/>
       <c r="L156" s="112"/>
     </row>
-    <row r="157" spans="1:12" ht="13" thickBot="1">
+    <row r="157" spans="1:12" ht="13.5" thickBot="1">
       <c r="A157" s="117" t="s">
         <v>44</v>
       </c>
@@ -37590,7 +37545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="13" thickBot="1">
+    <row r="158" spans="1:12" ht="13.5" thickBot="1">
       <c r="A158" s="117" t="s">
         <v>50</v>
       </c>
@@ -37610,7 +37565,7 @@
       <c r="K158" s="116"/>
       <c r="L158" s="123"/>
     </row>
-    <row r="159" spans="1:12" ht="13" thickBot="1">
+    <row r="159" spans="1:12" ht="13.5" thickBot="1">
       <c r="A159" s="117" t="s">
         <v>53</v>
       </c>
@@ -37631,7 +37586,7 @@
       <c r="L159" s="122"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="312" t="s">
+      <c r="A160" s="324" t="s">
         <v>56</v>
       </c>
       <c r="B160" s="125" t="s">
@@ -37649,7 +37604,7 @@
       <c r="L160" s="126"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="312"/>
+      <c r="A161" s="324"/>
       <c r="B161" s="127"/>
       <c r="C161" s="112"/>
       <c r="D161" s="112"/>
@@ -37662,8 +37617,8 @@
       <c r="K161" s="112"/>
       <c r="L161" s="128"/>
     </row>
-    <row r="162" spans="1:12" ht="13" thickBot="1">
-      <c r="A162" s="312"/>
+    <row r="162" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A162" s="324"/>
       <c r="B162" s="129"/>
       <c r="C162" s="116"/>
       <c r="D162" s="116"/>
@@ -37724,7 +37679,7 @@
       <c r="K165" s="112"/>
       <c r="L165" s="112"/>
     </row>
-    <row r="166" spans="1:12" ht="13" thickBot="1">
+    <row r="166" spans="1:12" ht="13.5" thickBot="1">
       <c r="A166" s="108" t="s">
         <v>78</v>
       </c>
@@ -38203,7 +38158,7 @@
       <c r="K186" s="112"/>
       <c r="L186" s="112"/>
     </row>
-    <row r="187" spans="1:12" ht="13" thickBot="1">
+    <row r="187" spans="1:12" ht="13.5" thickBot="1">
       <c r="A187" s="105">
         <f t="shared" si="2"/>
         <v>1.0000000000000004</v>
@@ -38655,7 +38610,7 @@
       <c r="K207" s="112"/>
       <c r="L207" s="112"/>
     </row>
-    <row r="208" spans="1:12" ht="13" thickBot="1">
+    <row r="208" spans="1:12" ht="13.5" thickBot="1">
       <c r="A208" s="134"/>
       <c r="B208" s="134"/>
       <c r="C208" s="112"/>
@@ -38669,7 +38624,7 @@
       <c r="K208" s="112"/>
       <c r="L208" s="112"/>
     </row>
-    <row r="209" spans="1:12" ht="13" thickBot="1">
+    <row r="209" spans="1:12" ht="13.5" thickBot="1">
       <c r="A209" s="117" t="s">
         <v>44</v>
       </c>
@@ -38699,7 +38654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="13" thickBot="1">
+    <row r="210" spans="1:12" ht="13.5" thickBot="1">
       <c r="A210" s="117" t="s">
         <v>50</v>
       </c>
@@ -38719,7 +38674,7 @@
       <c r="K210" s="116"/>
       <c r="L210" s="123"/>
     </row>
-    <row r="211" spans="1:12" ht="13" thickBot="1">
+    <row r="211" spans="1:12" ht="13.5" thickBot="1">
       <c r="A211" s="117" t="s">
         <v>53</v>
       </c>
@@ -38740,7 +38695,7 @@
       <c r="L211" s="122"/>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="312" t="s">
+      <c r="A212" s="324" t="s">
         <v>56</v>
       </c>
       <c r="B212" s="125" t="s">
@@ -38758,7 +38713,7 @@
       <c r="L212" s="126"/>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="312"/>
+      <c r="A213" s="324"/>
       <c r="B213" s="127"/>
       <c r="C213" s="112"/>
       <c r="D213" s="112"/>
@@ -38771,8 +38726,8 @@
       <c r="K213" s="112"/>
       <c r="L213" s="128"/>
     </row>
-    <row r="214" spans="1:12" ht="13" thickBot="1">
-      <c r="A214" s="312"/>
+    <row r="214" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A214" s="324"/>
       <c r="B214" s="129"/>
       <c r="C214" s="116"/>
       <c r="D214" s="116"/>
@@ -38785,12 +38740,12 @@
       <c r="K214" s="116"/>
       <c r="L214" s="123"/>
     </row>
-    <row r="216" spans="1:12" ht="13">
+    <row r="216" spans="1:12">
       <c r="A216" s="135" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="13">
+    <row r="217" spans="1:12">
       <c r="A217" s="135" t="s">
         <v>91</v>
       </c>
@@ -38820,7 +38775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="13" thickBot="1">
+    <row r="226" spans="1:9" ht="13.5" thickBot="1">
       <c r="A226" s="113" t="s">
         <v>97</v>
       </c>
@@ -38897,7 +38852,7 @@
         <v>3.8149116693961815E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="13">
+    <row r="232" spans="1:9">
       <c r="E232" s="143">
         <v>0.3</v>
       </c>
@@ -38913,7 +38868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="13">
+    <row r="233" spans="1:9">
       <c r="E233" s="143">
         <v>0.32</v>
       </c>
@@ -38929,7 +38884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="13">
+    <row r="234" spans="1:9">
       <c r="E234" s="143">
         <v>0.4</v>
       </c>
@@ -38977,7 +38932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="13" thickBot="1">
+    <row r="237" spans="1:9" ht="13.5" thickBot="1">
       <c r="E237" s="146">
         <v>1</v>
       </c>
@@ -39008,15 +38963,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="13" thickBot="1"/>
+    <row r="242" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="243" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C243" s="313" t="s">
+      <c r="C243" s="325" t="s">
         <v>113</v>
       </c>
-      <c r="D243" s="314"/>
-      <c r="E243" s="314"/>
-      <c r="F243" s="314"/>
-      <c r="G243" s="315"/>
+      <c r="D243" s="326"/>
+      <c r="E243" s="326"/>
+      <c r="F243" s="326"/>
+      <c r="G243" s="327"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="113" t="s">
@@ -39054,7 +39009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="13" thickBot="1">
+    <row r="246" spans="1:7" ht="13.5" thickBot="1">
       <c r="C246" s="149" t="s">
         <v>120</v>
       </c>
@@ -39075,13 +39030,13 @@
       <c r="A247" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="C247" s="313" t="s">
+      <c r="C247" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="D247" s="314"/>
-      <c r="E247" s="314"/>
-      <c r="F247" s="314"/>
-      <c r="G247" s="315"/>
+      <c r="D247" s="326"/>
+      <c r="E247" s="326"/>
+      <c r="F247" s="326"/>
+      <c r="G247" s="327"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="113" t="s">
@@ -39103,7 +39058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="13" thickBot="1">
+    <row r="249" spans="1:7" ht="13.5" thickBot="1">
       <c r="A249" s="113" t="s">
         <v>125</v>
       </c>
@@ -39123,7 +39078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="13" thickBot="1">
+    <row r="250" spans="1:7" ht="13.5" thickBot="1">
       <c r="C250" s="154" t="s">
         <v>126</v>
       </c>
@@ -39158,7 +39113,7 @@
         <f>80/330</f>
         <v>0.24242424242424243</v>
       </c>
-      <c r="F256" s="316" t="s">
+      <c r="F256" s="328" t="s">
         <v>78</v>
       </c>
     </row>
@@ -39173,10 +39128,10 @@
         <f>300/330</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="F257" s="317"/>
-    </row>
-    <row r="259" spans="1:12" ht="13" thickBot="1"/>
-    <row r="260" spans="1:12" ht="13" thickBot="1">
+      <c r="F257" s="329"/>
+    </row>
+    <row r="259" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="260" spans="1:12" ht="13.5" thickBot="1">
       <c r="A260" s="117" t="s">
         <v>44</v>
       </c>
@@ -39206,7 +39161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="13" thickBot="1">
+    <row r="261" spans="1:12" ht="13.5" thickBot="1">
       <c r="A261" s="117" t="s">
         <v>50</v>
       </c>
@@ -39226,7 +39181,7 @@
       <c r="K261" s="116"/>
       <c r="L261" s="123"/>
     </row>
-    <row r="262" spans="1:12" ht="13" thickBot="1">
+    <row r="262" spans="1:12" ht="13.5" thickBot="1">
       <c r="A262" s="117" t="s">
         <v>53</v>
       </c>
@@ -39246,8 +39201,8 @@
       <c r="K262" s="119"/>
       <c r="L262" s="122"/>
     </row>
-    <row r="263" spans="1:12" ht="14.5">
-      <c r="A263" s="312" t="s">
+    <row r="263" spans="1:12" ht="14.25">
+      <c r="A263" s="324" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="159" t="s">
@@ -39264,15 +39219,15 @@
       <c r="K263" s="98"/>
       <c r="L263" s="160"/>
     </row>
-    <row r="264" spans="1:12" ht="14.5">
-      <c r="A264" s="312"/>
+    <row r="264" spans="1:12" ht="14.25">
+      <c r="A264" s="324"/>
       <c r="B264" s="159" t="s">
         <v>136</v>
       </c>
       <c r="L264" s="150"/>
     </row>
-    <row r="265" spans="1:12" ht="13" thickBot="1">
-      <c r="A265" s="312"/>
+    <row r="265" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A265" s="324"/>
       <c r="B265" s="161"/>
       <c r="C265" s="162"/>
       <c r="D265" s="162"/>
@@ -39285,12 +39240,12 @@
       <c r="K265" s="162"/>
       <c r="L265" s="163"/>
     </row>
-    <row r="267" spans="1:12" ht="13">
+    <row r="267" spans="1:12">
       <c r="A267" s="135" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="13">
+    <row r="268" spans="1:12">
       <c r="A268" s="135" t="s">
         <v>138</v>
       </c>
@@ -39306,8 +39261,8 @@
     <mergeCell ref="F256:F257"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B263" r:id="rId1" display="https://ansyshelp.ansys.com/public/account/secured?returnurl=/Views/Secured/corp/v242/en/flu_tg/flu_tg_oneram6_wing.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B264" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B263" r:id="rId1" display="https://ansyshelp.ansys.com/public/account/secured?returnurl=/Views/Secured/corp/v242/en/flu_tg/flu_tg_oneram6_wing.html"/>
+    <hyperlink ref="B264" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -39329,7 +39284,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="3" tint="0.499984740745262"/>
           <x14:colorNegative theme="1" tint="0.249977111117893"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -39352,7 +39307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:O96"/>
   <sheetViews>
@@ -39361,16 +39316,16 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" style="282" customWidth="1"/>
-    <col min="2" max="6" width="9.08984375" style="283" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.75" style="282" customWidth="1"/>
+    <col min="2" max="6" width="9.125" style="283" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" style="283" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.08984375" style="283"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="9" max="11" width="9.125" style="283"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="281" t="s">
         <v>508</v>
       </c>
@@ -40169,7 +40124,7 @@
       <c r="J52" s="295"/>
       <c r="K52" s="295"/>
     </row>
-    <row r="53" spans="1:11" s="303" customFormat="1">
+    <row r="53" spans="1:11" s="303" customFormat="1" ht="15">
       <c r="A53" s="281" t="s">
         <v>509</v>
       </c>
@@ -40252,7 +40207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="266" customFormat="1">
+    <row r="62" spans="1:11" s="266" customFormat="1" ht="15">
       <c r="A62" s="297" t="s">
         <v>544</v>
       </c>
@@ -40335,7 +40290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="266" customFormat="1">
+    <row r="71" spans="1:11" s="266" customFormat="1" ht="15">
       <c r="A71" s="297" t="s">
         <v>545</v>
       </c>
@@ -40418,7 +40373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="301" customFormat="1">
+    <row r="80" spans="1:11" s="301" customFormat="1" ht="15">
       <c r="A80" s="299" t="s">
         <v>546</v>
       </c>
@@ -40580,23 +40535,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="379" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="367"/>
+      <c r="B1" s="379"/>
       <c r="C1" s="304">
         <v>0.5</v>
       </c>
@@ -40704,10 +40659,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A6" s="367" t="s">
+      <c r="A6" s="379" t="s">
         <v>548</v>
       </c>
-      <c r="B6" s="367"/>
+      <c r="B6" s="379"/>
       <c r="C6">
         <v>50</v>
       </c>
@@ -40745,7 +40700,7 @@
         <f t="shared" si="4"/>
         <v>22.86</v>
       </c>
-      <c r="G7" s="368" t="s">
+      <c r="G7" s="380" t="s">
         <v>176</v>
       </c>
     </row>
@@ -40773,7 +40728,7 @@
         <f t="shared" si="6"/>
         <v>38.1</v>
       </c>
-      <c r="G8" s="368"/>
+      <c r="G8" s="380"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="266">
@@ -40799,7 +40754,7 @@
         <f t="shared" si="7"/>
         <v>60.96</v>
       </c>
-      <c r="G9" s="368"/>
+      <c r="G9" s="380"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -40812,7 +40767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -40820,11 +40775,11 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -41149,33 +41104,33 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -41183,14 +41138,14 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -41198,14 +41153,14 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA19"/>
   <sheetViews>
@@ -41213,14 +41168,14 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="43" customHeight="1">
+    <row r="1" spans="1:27" ht="42.95" customHeight="1">
       <c r="A1" s="204" t="s">
         <v>139</v>
       </c>
@@ -41303,7 +41258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.5" customHeight="1">
+    <row r="2" spans="1:27" ht="14.45" customHeight="1">
       <c r="A2" s="205" t="s">
         <v>166</v>
       </c>
@@ -41402,7 +41357,7 @@
         <v>2.0236666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.5" customHeight="1">
+    <row r="3" spans="1:27" ht="14.45" customHeight="1">
       <c r="A3" s="205" t="s">
         <v>167</v>
       </c>
@@ -41501,7 +41456,7 @@
         <v>17.149799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.5" customHeight="1">
+    <row r="4" spans="1:27" ht="14.45" customHeight="1">
       <c r="A4" s="205" t="s">
         <v>168</v>
       </c>
@@ -41600,7 +41555,7 @@
         <v>19.117900000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.5" customHeight="1">
+    <row r="5" spans="1:27" ht="14.45" customHeight="1">
       <c r="A5" s="205" t="s">
         <v>169</v>
       </c>
@@ -41699,7 +41654,7 @@
         <v>7.5499999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.5" customHeight="1">
+    <row r="6" spans="1:27" ht="14.45" customHeight="1">
       <c r="A6" s="206" t="s">
         <v>170</v>
       </c>
@@ -41798,7 +41753,7 @@
         <v>13482.775000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.5" customHeight="1">
+    <row r="7" spans="1:27" ht="14.45" customHeight="1">
       <c r="A7" s="205" t="s">
         <v>171</v>
       </c>
@@ -41897,7 +41852,7 @@
         <v>5157.5142857142864</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.5" customHeight="1">
+    <row r="8" spans="1:27" ht="14.45" customHeight="1">
       <c r="A8" s="205" t="s">
         <v>172</v>
       </c>
@@ -41993,7 +41948,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.5" customHeight="1">
+    <row r="9" spans="1:27" ht="14.45" customHeight="1">
       <c r="A9" s="205" t="s">
         <v>174</v>
       </c>
@@ -42092,7 +42047,7 @@
         <v>821.6</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:27" ht="14.45" customHeight="1" thickBot="1">
       <c r="A10" s="207" t="s">
         <v>175</v>
       </c>
@@ -42191,7 +42146,7 @@
         <v>10.966666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:27" ht="14.45" customHeight="1" thickBot="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -42220,7 +42175,7 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
     </row>
-    <row r="12" spans="1:27" ht="14.5" customHeight="1">
+    <row r="12" spans="1:27" ht="14.45" customHeight="1">
       <c r="A12" s="204" t="s">
         <v>176</v>
       </c>
@@ -42268,7 +42223,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:27" ht="14.5" customHeight="1">
+    <row r="13" spans="1:27" ht="14.45" customHeight="1">
       <c r="A13" s="205" t="s">
         <v>177</v>
       </c>
@@ -42316,7 +42271,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:27" ht="14.5" customHeight="1">
+    <row r="14" spans="1:27" ht="14.45" customHeight="1">
       <c r="A14" s="205" t="s">
         <v>178</v>
       </c>
@@ -42508,14 +42463,14 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1"/>
+    <row r="18" spans="1:14" ht="14.45" customHeight="1"/>
     <row r="19" spans="1:14">
       <c r="A19" s="13" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E8"/>
   <conditionalFormatting sqref="B9:F9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -42610,7 +42565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X104"/>
   <sheetViews>
@@ -42621,34 +42576,34 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="1"/>
-    <col min="8" max="8" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" style="1"/>
-    <col min="11" max="11" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.36328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" style="1" customWidth="1"/>
-    <col min="16" max="20" width="8.90625" style="1"/>
-    <col min="21" max="21" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="1" customWidth="1"/>
+    <col min="16" max="20" width="8.875" style="1"/>
+    <col min="21" max="21" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.90625" style="1"/>
+    <col min="23" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1"/>
     <row r="2" spans="2:22" ht="37.15" customHeight="1">
-      <c r="B2" s="336" t="s">
+      <c r="B2" s="330" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="338"/>
+      <c r="C2" s="331"/>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="3" t="s">
@@ -42718,13 +42673,13 @@
       <c r="B12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="318" t="s">
+      <c r="C12" s="334" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="320"/>
+      <c r="D12" s="335"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="335"/>
+      <c r="G12" s="336"/>
       <c r="H12" s="1" t="s">
         <v>186</v>
       </c>
@@ -42739,13 +42694,13 @@
       <c r="N12" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="318" t="s">
+      <c r="O12" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="P12" s="319"/>
-      <c r="Q12" s="319"/>
-      <c r="R12" s="319"/>
-      <c r="S12" s="320"/>
+      <c r="P12" s="335"/>
+      <c r="Q12" s="335"/>
+      <c r="R12" s="335"/>
+      <c r="S12" s="336"/>
       <c r="T12" s="1" t="s">
         <v>186</v>
       </c>
@@ -42757,7 +42712,7 @@
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="333" t="s">
+      <c r="B13" s="332" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="71"/>
@@ -42777,7 +42732,7 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="64"/>
-      <c r="N13" s="333" t="s">
+      <c r="N13" s="332" t="s">
         <v>190</v>
       </c>
       <c r="O13" s="71"/>
@@ -42797,7 +42752,7 @@
       </c>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="334"/>
+      <c r="B14" s="333"/>
       <c r="C14" s="74"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -42817,7 +42772,7 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
-      <c r="N14" s="334"/>
+      <c r="N14" s="333"/>
       <c r="O14" s="74"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
@@ -42837,7 +42792,7 @@
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="334"/>
+      <c r="B15" s="333"/>
       <c r="C15" s="74"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -42857,7 +42812,7 @@
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
-      <c r="N15" s="334"/>
+      <c r="N15" s="333"/>
       <c r="O15" s="74"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
@@ -42877,7 +42832,7 @@
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="334"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="74"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -42897,7 +42852,7 @@
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
-      <c r="N16" s="334"/>
+      <c r="N16" s="333"/>
       <c r="O16" s="74"/>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
@@ -42917,7 +42872,7 @@
       </c>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="334"/>
+      <c r="B17" s="333"/>
       <c r="C17" s="74"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
@@ -42937,7 +42892,7 @@
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
-      <c r="N17" s="334"/>
+      <c r="N17" s="333"/>
       <c r="O17" s="74"/>
       <c r="P17" s="64"/>
       <c r="Q17" s="64"/>
@@ -42957,7 +42912,7 @@
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="334"/>
+      <c r="B18" s="333"/>
       <c r="C18" s="74"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -42977,7 +42932,7 @@
       </c>
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
-      <c r="N18" s="334"/>
+      <c r="N18" s="333"/>
       <c r="O18" s="74"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="64"/>
@@ -42997,7 +42952,7 @@
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="334"/>
+      <c r="B19" s="333"/>
       <c r="C19" s="74"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -43017,7 +42972,7 @@
       </c>
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
-      <c r="N19" s="334"/>
+      <c r="N19" s="333"/>
       <c r="O19" s="74"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
@@ -43037,7 +42992,7 @@
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="334"/>
+      <c r="B20" s="333"/>
       <c r="C20" s="74"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
@@ -43057,7 +43012,7 @@
       </c>
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
-      <c r="N20" s="334"/>
+      <c r="N20" s="333"/>
       <c r="O20" s="74"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="64"/>
@@ -43077,7 +43032,7 @@
       </c>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="334"/>
+      <c r="B21" s="333"/>
       <c r="C21" s="74"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -43097,7 +43052,7 @@
       </c>
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
-      <c r="N21" s="334"/>
+      <c r="N21" s="333"/>
       <c r="O21" s="74"/>
       <c r="P21" s="64"/>
       <c r="Q21" s="64"/>
@@ -43117,7 +43072,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" thickBot="1">
-      <c r="B22" s="334"/>
+      <c r="B22" s="333"/>
       <c r="C22" s="74"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -43137,7 +43092,7 @@
       </c>
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
-      <c r="N22" s="335"/>
+      <c r="N22" s="337"/>
       <c r="O22" s="74"/>
       <c r="P22" s="64"/>
       <c r="Q22" s="64"/>
@@ -43156,8 +43111,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="14.5" customHeight="1">
-      <c r="B23" s="353" t="s">
+    <row r="23" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B23" s="341" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="66"/>
@@ -43167,8 +43122,8 @@
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
       <c r="G23" s="65"/>
-      <c r="K23" s="331"/>
-      <c r="N23" s="352" t="s">
+      <c r="K23" s="339"/>
+      <c r="N23" s="340" t="s">
         <v>191</v>
       </c>
       <c r="O23" s="66" t="s">
@@ -43183,7 +43138,7 @@
       <c r="S23" s="65"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="353"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="67" t="s">
         <v>193</v>
       </c>
@@ -43191,8 +43146,8 @@
         <f>(F25/2)/(F26)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="K24" s="331"/>
-      <c r="N24" s="353"/>
+      <c r="K24" s="339"/>
+      <c r="N24" s="341"/>
       <c r="O24" s="67" t="s">
         <v>193</v>
       </c>
@@ -43201,7 +43156,7 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="353"/>
+      <c r="B25" s="341"/>
       <c r="C25" s="67" t="s">
         <v>195</v>
       </c>
@@ -43219,8 +43174,8 @@
       <c r="G25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="331"/>
-      <c r="N25" s="353"/>
+      <c r="K25" s="339"/>
+      <c r="N25" s="341"/>
       <c r="O25" s="67" t="s">
         <v>195</v>
       </c>
@@ -43239,8 +43194,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="14.5" customHeight="1">
-      <c r="B26" s="353"/>
+    <row r="26" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B26" s="341"/>
       <c r="C26" s="68" t="s">
         <v>198</v>
       </c>
@@ -43257,8 +43212,8 @@
       <c r="G26" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="331"/>
-      <c r="N26" s="353"/>
+      <c r="K26" s="339"/>
+      <c r="N26" s="341"/>
       <c r="O26" s="68" t="s">
         <v>198</v>
       </c>
@@ -43276,31 +43231,31 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:22" ht="29.5" customHeight="1">
+    <row r="27" spans="2:22" ht="29.45" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="321" t="s">
+      <c r="C27" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="321"/>
-      <c r="E27" s="321"/>
-      <c r="F27" s="321"/>
-      <c r="G27" s="321"/>
+      <c r="D27" s="342"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="342"/>
+      <c r="G27" s="342"/>
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
       <c r="N27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O27" s="321" t="s">
+      <c r="O27" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="P27" s="321"/>
-      <c r="Q27" s="321"/>
-      <c r="R27" s="321"/>
-      <c r="S27" s="321"/>
-    </row>
-    <row r="28" spans="2:22" ht="58">
+      <c r="P27" s="342"/>
+      <c r="Q27" s="342"/>
+      <c r="R27" s="342"/>
+      <c r="S27" s="342"/>
+    </row>
+    <row r="28" spans="2:22" ht="57">
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -43340,14 +43295,14 @@
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="333" t="s">
+      <c r="B31" s="332" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="336"/>
-      <c r="D31" s="337"/>
-      <c r="E31" s="337"/>
-      <c r="F31" s="337"/>
-      <c r="G31" s="338"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="343"/>
+      <c r="E31" s="343"/>
+      <c r="F31" s="343"/>
+      <c r="G31" s="331"/>
       <c r="H31" s="1">
         <f>H22</f>
         <v>30</v>
@@ -43362,12 +43317,12 @@
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="334"/>
-      <c r="C32" s="339"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="328"/>
-      <c r="F32" s="328"/>
-      <c r="G32" s="340"/>
+      <c r="B32" s="333"/>
+      <c r="C32" s="344"/>
+      <c r="D32" s="338"/>
+      <c r="E32" s="338"/>
+      <c r="F32" s="338"/>
+      <c r="G32" s="345"/>
       <c r="H32" s="12">
         <f>(D43/8/2)+H31</f>
         <v>36.25</v>
@@ -43382,12 +43337,12 @@
       </c>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="334"/>
-      <c r="C33" s="339"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="328"/>
-      <c r="F33" s="328"/>
-      <c r="G33" s="340"/>
+      <c r="B33" s="333"/>
+      <c r="C33" s="344"/>
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="345"/>
       <c r="H33" s="12">
         <f>($D$43/8/2)*2+(H32)</f>
         <v>48.75</v>
@@ -43402,12 +43357,12 @@
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="334"/>
-      <c r="C34" s="339"/>
-      <c r="D34" s="328"/>
-      <c r="E34" s="328"/>
-      <c r="F34" s="328"/>
-      <c r="G34" s="340"/>
+      <c r="B34" s="333"/>
+      <c r="C34" s="344"/>
+      <c r="D34" s="338"/>
+      <c r="E34" s="338"/>
+      <c r="F34" s="338"/>
+      <c r="G34" s="345"/>
       <c r="H34" s="12">
         <f t="shared" ref="H34:H39" si="8">($D$43/8/2)*2+(H33)</f>
         <v>61.25</v>
@@ -43422,12 +43377,12 @@
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="334"/>
-      <c r="C35" s="339"/>
-      <c r="D35" s="328"/>
-      <c r="E35" s="328"/>
-      <c r="F35" s="328"/>
-      <c r="G35" s="340"/>
+      <c r="B35" s="333"/>
+      <c r="C35" s="344"/>
+      <c r="D35" s="338"/>
+      <c r="E35" s="338"/>
+      <c r="F35" s="338"/>
+      <c r="G35" s="345"/>
       <c r="H35" s="12">
         <f t="shared" si="8"/>
         <v>73.75</v>
@@ -43442,12 +43397,12 @@
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="334"/>
-      <c r="C36" s="339"/>
-      <c r="D36" s="328"/>
-      <c r="E36" s="328"/>
-      <c r="F36" s="328"/>
-      <c r="G36" s="340"/>
+      <c r="B36" s="333"/>
+      <c r="C36" s="344"/>
+      <c r="D36" s="338"/>
+      <c r="E36" s="338"/>
+      <c r="F36" s="338"/>
+      <c r="G36" s="345"/>
       <c r="H36" s="12">
         <f t="shared" si="8"/>
         <v>86.25</v>
@@ -43462,12 +43417,12 @@
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="334"/>
-      <c r="C37" s="339"/>
-      <c r="D37" s="328"/>
-      <c r="E37" s="328"/>
-      <c r="F37" s="328"/>
-      <c r="G37" s="340"/>
+      <c r="B37" s="333"/>
+      <c r="C37" s="344"/>
+      <c r="D37" s="338"/>
+      <c r="E37" s="338"/>
+      <c r="F37" s="338"/>
+      <c r="G37" s="345"/>
       <c r="H37" s="12">
         <f t="shared" si="8"/>
         <v>98.75</v>
@@ -43482,12 +43437,12 @@
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="334"/>
-      <c r="C38" s="339"/>
-      <c r="D38" s="328"/>
-      <c r="E38" s="328"/>
-      <c r="F38" s="328"/>
-      <c r="G38" s="340"/>
+      <c r="B38" s="333"/>
+      <c r="C38" s="344"/>
+      <c r="D38" s="338"/>
+      <c r="E38" s="338"/>
+      <c r="F38" s="338"/>
+      <c r="G38" s="345"/>
       <c r="H38" s="12">
         <f t="shared" si="8"/>
         <v>111.25</v>
@@ -43501,13 +43456,13 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="39" spans="2:24" ht="14.5" customHeight="1">
-      <c r="B39" s="334"/>
-      <c r="C39" s="339"/>
-      <c r="D39" s="328"/>
-      <c r="E39" s="328"/>
-      <c r="F39" s="328"/>
-      <c r="G39" s="340"/>
+    <row r="39" spans="2:24" ht="14.45" customHeight="1">
+      <c r="B39" s="333"/>
+      <c r="C39" s="344"/>
+      <c r="D39" s="338"/>
+      <c r="E39" s="338"/>
+      <c r="F39" s="338"/>
+      <c r="G39" s="345"/>
       <c r="H39" s="12">
         <f t="shared" si="8"/>
         <v>123.75</v>
@@ -43522,12 +43477,12 @@
       </c>
     </row>
     <row r="40" spans="2:24" ht="15" thickBot="1">
-      <c r="B40" s="335"/>
-      <c r="C40" s="341"/>
-      <c r="D40" s="342"/>
-      <c r="E40" s="342"/>
-      <c r="F40" s="342"/>
-      <c r="G40" s="343"/>
+      <c r="B40" s="337"/>
+      <c r="C40" s="346"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="348"/>
       <c r="H40" s="12">
         <f>D43+H22</f>
         <v>130</v>
@@ -43541,8 +43496,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="41" spans="2:24" ht="29">
-      <c r="B41" s="321" t="s">
+    <row r="41" spans="2:24" ht="28.5">
+      <c r="B41" s="342" t="s">
         <v>191</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -43551,7 +43506,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="328"/>
+      <c r="B42" s="338"/>
       <c r="C42" s="1" t="s">
         <v>195</v>
       </c>
@@ -43572,7 +43527,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:24" ht="28.9" customHeight="1">
-      <c r="B43" s="328"/>
+      <c r="B43" s="338"/>
       <c r="C43" s="1" t="s">
         <v>205</v>
       </c>
@@ -43594,46 +43549,46 @@
       <c r="B44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="328" t="s">
+      <c r="C44" s="338" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="328"/>
-      <c r="E44" s="328"/>
-      <c r="F44" s="328"/>
-      <c r="G44" s="328"/>
+      <c r="D44" s="338"/>
+      <c r="E44" s="338"/>
+      <c r="F44" s="338"/>
+      <c r="G44" s="338"/>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="328" t="s">
+      <c r="B45" s="338" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="328"/>
+      <c r="B46" s="338"/>
     </row>
     <row r="47" spans="2:24" ht="15" thickBot="1">
-      <c r="B47" s="328"/>
+      <c r="B47" s="338"/>
     </row>
     <row r="48" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="K48" s="329" t="s">
+      <c r="K48" s="349" t="s">
         <v>207</v>
       </c>
-      <c r="L48" s="330"/>
-      <c r="W48" s="331" t="s">
+      <c r="L48" s="351"/>
+      <c r="W48" s="339" t="s">
         <v>207</v>
       </c>
-      <c r="X48" s="331"/>
+      <c r="X48" s="339"/>
     </row>
     <row r="49" spans="2:24" ht="15" thickBot="1">
       <c r="B49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="329" t="s">
+      <c r="C49" s="349" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="330"/>
+      <c r="D49" s="350"/>
+      <c r="E49" s="350"/>
+      <c r="F49" s="350"/>
+      <c r="G49" s="351"/>
       <c r="H49" s="51" t="s">
         <v>186</v>
       </c>
@@ -43652,13 +43607,13 @@
       <c r="N49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O49" s="329" t="s">
+      <c r="O49" s="349" t="s">
         <v>212</v>
       </c>
-      <c r="P49" s="332"/>
-      <c r="Q49" s="332"/>
-      <c r="R49" s="332"/>
-      <c r="S49" s="330"/>
+      <c r="P49" s="350"/>
+      <c r="Q49" s="350"/>
+      <c r="R49" s="350"/>
+      <c r="S49" s="351"/>
       <c r="T49" s="1" t="s">
         <v>186</v>
       </c>
@@ -43676,14 +43631,14 @@
       </c>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="333" t="s">
+      <c r="B50" s="332" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="336"/>
-      <c r="D50" s="337"/>
-      <c r="E50" s="337"/>
-      <c r="F50" s="337"/>
-      <c r="G50" s="338"/>
+      <c r="C50" s="330"/>
+      <c r="D50" s="343"/>
+      <c r="E50" s="343"/>
+      <c r="F50" s="343"/>
+      <c r="G50" s="331"/>
       <c r="H50" s="86">
         <f>($H$40-D68-D65)</f>
         <v>110</v>
@@ -43704,14 +43659,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N50" s="333" t="s">
+      <c r="N50" s="332" t="s">
         <v>214</v>
       </c>
-      <c r="O50" s="336"/>
-      <c r="P50" s="337"/>
-      <c r="Q50" s="337"/>
-      <c r="R50" s="337"/>
-      <c r="S50" s="338"/>
+      <c r="O50" s="330"/>
+      <c r="P50" s="343"/>
+      <c r="Q50" s="343"/>
+      <c r="R50" s="343"/>
+      <c r="S50" s="331"/>
       <c r="T50" s="12">
         <f>($H$40-P68-P65)</f>
         <v>110</v>
@@ -43730,12 +43685,12 @@
       </c>
     </row>
     <row r="51" spans="2:24">
-      <c r="B51" s="334"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="328"/>
-      <c r="E51" s="328"/>
-      <c r="F51" s="328"/>
-      <c r="G51" s="340"/>
+      <c r="B51" s="333"/>
+      <c r="C51" s="344"/>
+      <c r="D51" s="338"/>
+      <c r="E51" s="338"/>
+      <c r="F51" s="338"/>
+      <c r="G51" s="345"/>
       <c r="H51" s="86">
         <f>(H58-H50)/8/2+H50</f>
         <v>110.9375</v>
@@ -43755,12 +43710,12 @@
       <c r="L51" s="93">
         <v>3</v>
       </c>
-      <c r="N51" s="334"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="328"/>
-      <c r="Q51" s="328"/>
-      <c r="R51" s="328"/>
-      <c r="S51" s="340"/>
+      <c r="N51" s="333"/>
+      <c r="O51" s="344"/>
+      <c r="P51" s="338"/>
+      <c r="Q51" s="338"/>
+      <c r="R51" s="338"/>
+      <c r="S51" s="345"/>
       <c r="T51" s="1">
         <f>(T58-T50)/8/2+T50</f>
         <v>110.9375</v>
@@ -43781,12 +43736,12 @@
       </c>
     </row>
     <row r="52" spans="2:24">
-      <c r="B52" s="334"/>
-      <c r="C52" s="339"/>
-      <c r="D52" s="328"/>
-      <c r="E52" s="328"/>
-      <c r="F52" s="328"/>
-      <c r="G52" s="340"/>
+      <c r="B52" s="333"/>
+      <c r="C52" s="344"/>
+      <c r="D52" s="338"/>
+      <c r="E52" s="338"/>
+      <c r="F52" s="338"/>
+      <c r="G52" s="345"/>
       <c r="H52" s="86">
         <f t="shared" ref="H52:H57" si="13">($H$58-$H$50)/8+H51</f>
         <v>112.8125</v>
@@ -43807,12 +43762,12 @@
         <f>I51</f>
         <v>7.75</v>
       </c>
-      <c r="N52" s="334"/>
-      <c r="O52" s="339"/>
-      <c r="P52" s="328"/>
-      <c r="Q52" s="328"/>
-      <c r="R52" s="328"/>
-      <c r="S52" s="340"/>
+      <c r="N52" s="333"/>
+      <c r="O52" s="344"/>
+      <c r="P52" s="338"/>
+      <c r="Q52" s="338"/>
+      <c r="R52" s="338"/>
+      <c r="S52" s="345"/>
       <c r="T52" s="1">
         <f t="shared" ref="T52:T57" si="14">($H$58-$H$50)/8+T51</f>
         <v>112.8125</v>
@@ -43833,12 +43788,12 @@
       </c>
     </row>
     <row r="53" spans="2:24">
-      <c r="B53" s="334"/>
-      <c r="C53" s="339"/>
-      <c r="D53" s="328"/>
-      <c r="E53" s="328"/>
-      <c r="F53" s="328"/>
-      <c r="G53" s="340"/>
+      <c r="B53" s="333"/>
+      <c r="C53" s="344"/>
+      <c r="D53" s="338"/>
+      <c r="E53" s="338"/>
+      <c r="F53" s="338"/>
+      <c r="G53" s="345"/>
       <c r="H53" s="86">
         <f t="shared" si="13"/>
         <v>114.6875</v>
@@ -43859,12 +43814,12 @@
         <f t="shared" ref="L53:L57" si="16">I52</f>
         <v>15.25</v>
       </c>
-      <c r="N53" s="334"/>
-      <c r="O53" s="339"/>
-      <c r="P53" s="328"/>
-      <c r="Q53" s="328"/>
-      <c r="R53" s="328"/>
-      <c r="S53" s="340"/>
+      <c r="N53" s="333"/>
+      <c r="O53" s="344"/>
+      <c r="P53" s="338"/>
+      <c r="Q53" s="338"/>
+      <c r="R53" s="338"/>
+      <c r="S53" s="345"/>
       <c r="T53" s="1">
         <f t="shared" si="14"/>
         <v>114.6875</v>
@@ -43885,12 +43840,12 @@
       </c>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="334"/>
-      <c r="C54" s="339"/>
-      <c r="D54" s="328"/>
-      <c r="E54" s="328"/>
-      <c r="F54" s="328"/>
-      <c r="G54" s="340"/>
+      <c r="B54" s="333"/>
+      <c r="C54" s="344"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="345"/>
       <c r="H54" s="86">
         <f t="shared" si="13"/>
         <v>116.5625</v>
@@ -43911,12 +43866,12 @@
         <f t="shared" si="16"/>
         <v>22.75</v>
       </c>
-      <c r="N54" s="334"/>
-      <c r="O54" s="339"/>
-      <c r="P54" s="328"/>
-      <c r="Q54" s="328"/>
-      <c r="R54" s="328"/>
-      <c r="S54" s="340"/>
+      <c r="N54" s="333"/>
+      <c r="O54" s="344"/>
+      <c r="P54" s="338"/>
+      <c r="Q54" s="338"/>
+      <c r="R54" s="338"/>
+      <c r="S54" s="345"/>
       <c r="T54" s="1">
         <f t="shared" si="14"/>
         <v>116.5625</v>
@@ -43937,12 +43892,12 @@
       </c>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="334"/>
-      <c r="C55" s="339"/>
-      <c r="D55" s="328"/>
-      <c r="E55" s="328"/>
-      <c r="F55" s="328"/>
-      <c r="G55" s="340"/>
+      <c r="B55" s="333"/>
+      <c r="C55" s="344"/>
+      <c r="D55" s="338"/>
+      <c r="E55" s="338"/>
+      <c r="F55" s="338"/>
+      <c r="G55" s="345"/>
       <c r="H55" s="86">
         <f t="shared" si="13"/>
         <v>118.4375</v>
@@ -43963,12 +43918,12 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="N55" s="334"/>
-      <c r="O55" s="339"/>
-      <c r="P55" s="328"/>
-      <c r="Q55" s="328"/>
-      <c r="R55" s="328"/>
-      <c r="S55" s="340"/>
+      <c r="N55" s="333"/>
+      <c r="O55" s="344"/>
+      <c r="P55" s="338"/>
+      <c r="Q55" s="338"/>
+      <c r="R55" s="338"/>
+      <c r="S55" s="345"/>
       <c r="T55" s="1">
         <f t="shared" si="14"/>
         <v>118.4375</v>
@@ -43989,12 +43944,12 @@
       </c>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="334"/>
-      <c r="C56" s="339"/>
-      <c r="D56" s="328"/>
-      <c r="E56" s="328"/>
-      <c r="F56" s="328"/>
-      <c r="G56" s="340"/>
+      <c r="B56" s="333"/>
+      <c r="C56" s="344"/>
+      <c r="D56" s="338"/>
+      <c r="E56" s="338"/>
+      <c r="F56" s="338"/>
+      <c r="G56" s="345"/>
       <c r="H56" s="86">
         <f t="shared" si="13"/>
         <v>120.3125</v>
@@ -44015,12 +43970,12 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="N56" s="334"/>
-      <c r="O56" s="339"/>
-      <c r="P56" s="328"/>
-      <c r="Q56" s="328"/>
-      <c r="R56" s="328"/>
-      <c r="S56" s="340"/>
+      <c r="N56" s="333"/>
+      <c r="O56" s="344"/>
+      <c r="P56" s="338"/>
+      <c r="Q56" s="338"/>
+      <c r="R56" s="338"/>
+      <c r="S56" s="345"/>
       <c r="T56" s="1">
         <f t="shared" si="14"/>
         <v>120.3125</v>
@@ -44041,12 +43996,12 @@
       </c>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="334"/>
-      <c r="C57" s="339"/>
-      <c r="D57" s="328"/>
-      <c r="E57" s="328"/>
-      <c r="F57" s="328"/>
-      <c r="G57" s="340"/>
+      <c r="B57" s="333"/>
+      <c r="C57" s="344"/>
+      <c r="D57" s="338"/>
+      <c r="E57" s="338"/>
+      <c r="F57" s="338"/>
+      <c r="G57" s="345"/>
       <c r="H57" s="86">
         <f t="shared" si="13"/>
         <v>122.1875</v>
@@ -44067,12 +44022,12 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="N57" s="334"/>
-      <c r="O57" s="339"/>
-      <c r="P57" s="328"/>
-      <c r="Q57" s="328"/>
-      <c r="R57" s="328"/>
-      <c r="S57" s="340"/>
+      <c r="N57" s="333"/>
+      <c r="O57" s="344"/>
+      <c r="P57" s="338"/>
+      <c r="Q57" s="338"/>
+      <c r="R57" s="338"/>
+      <c r="S57" s="345"/>
       <c r="T57" s="1">
         <f t="shared" si="14"/>
         <v>122.1875</v>
@@ -44093,12 +44048,12 @@
       </c>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="334"/>
-      <c r="C58" s="339"/>
-      <c r="D58" s="328"/>
-      <c r="E58" s="328"/>
-      <c r="F58" s="328"/>
-      <c r="G58" s="340"/>
+      <c r="B58" s="333"/>
+      <c r="C58" s="344"/>
+      <c r="D58" s="338"/>
+      <c r="E58" s="338"/>
+      <c r="F58" s="338"/>
+      <c r="G58" s="345"/>
       <c r="H58" s="86">
         <f>$H$50+D65</f>
         <v>125</v>
@@ -44119,12 +44074,12 @@
         <f>IF(((($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)&gt;($D$67+$I$40),($D$67+$I$40),(($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)</f>
         <v>24</v>
       </c>
-      <c r="N58" s="334"/>
-      <c r="O58" s="339"/>
-      <c r="P58" s="328"/>
-      <c r="Q58" s="328"/>
-      <c r="R58" s="328"/>
-      <c r="S58" s="340"/>
+      <c r="N58" s="333"/>
+      <c r="O58" s="344"/>
+      <c r="P58" s="338"/>
+      <c r="Q58" s="338"/>
+      <c r="R58" s="338"/>
+      <c r="S58" s="345"/>
       <c r="T58" s="12">
         <f>$H$50+P65</f>
         <v>125</v>
@@ -44145,12 +44100,12 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="B59" s="335"/>
-      <c r="C59" s="344"/>
-      <c r="D59" s="345"/>
-      <c r="E59" s="345"/>
-      <c r="F59" s="345"/>
-      <c r="G59" s="346"/>
+      <c r="B59" s="337"/>
+      <c r="C59" s="352"/>
+      <c r="D59" s="353"/>
+      <c r="E59" s="353"/>
+      <c r="F59" s="353"/>
+      <c r="G59" s="354"/>
       <c r="H59" s="89">
         <f>H58</f>
         <v>125</v>
@@ -44171,12 +44126,12 @@
         <f>L50</f>
         <v>0</v>
       </c>
-      <c r="N59" s="335"/>
-      <c r="O59" s="341"/>
-      <c r="P59" s="342"/>
-      <c r="Q59" s="342"/>
-      <c r="R59" s="342"/>
-      <c r="S59" s="343"/>
+      <c r="N59" s="337"/>
+      <c r="O59" s="346"/>
+      <c r="P59" s="347"/>
+      <c r="Q59" s="347"/>
+      <c r="R59" s="347"/>
+      <c r="S59" s="348"/>
       <c r="T59" s="12">
         <f>T58</f>
         <v>125</v>
@@ -44191,7 +44146,7 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B60" s="347" t="s">
+      <c r="B60" s="355" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="82" t="s">
@@ -44211,11 +44166,11 @@
       <c r="G60" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="322" t="s">
+      <c r="H60" s="360" t="s">
         <v>218</v>
       </c>
-      <c r="I60" s="323"/>
-      <c r="J60" s="324"/>
+      <c r="I60" s="361"/>
+      <c r="J60" s="362"/>
       <c r="K60" s="82" t="s">
         <v>219</v>
       </c>
@@ -44223,7 +44178,7 @@
         <f>K67^2/K68</f>
         <v>1.1707317073170729</v>
       </c>
-      <c r="N60" s="321" t="s">
+      <c r="N60" s="342" t="s">
         <v>191</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -44231,7 +44186,7 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B61" s="348"/>
+      <c r="B61" s="356"/>
       <c r="C61" s="81" t="s">
         <v>221</v>
       </c>
@@ -44242,15 +44197,15 @@
       <c r="E61" s="78"/>
       <c r="F61" s="61"/>
       <c r="G61" s="62"/>
-      <c r="H61" s="325"/>
-      <c r="I61" s="326"/>
-      <c r="J61" s="327"/>
+      <c r="H61" s="363"/>
+      <c r="I61" s="364"/>
+      <c r="J61" s="365"/>
       <c r="K61" s="81"/>
       <c r="L61" s="62"/>
-      <c r="N61" s="321"/>
-    </row>
-    <row r="62" spans="2:24" ht="27.65" customHeight="1">
-      <c r="B62" s="348"/>
+      <c r="N61" s="342"/>
+    </row>
+    <row r="62" spans="2:24" ht="27.6" customHeight="1">
+      <c r="B62" s="356"/>
       <c r="C62" s="80" t="s">
         <v>222</v>
       </c>
@@ -44268,10 +44223,10 @@
         <v>225</v>
       </c>
       <c r="L62" s="59"/>
-      <c r="N62" s="321"/>
-    </row>
-    <row r="63" spans="2:24" ht="27.65" customHeight="1">
-      <c r="B63" s="348"/>
+      <c r="N62" s="342"/>
+    </row>
+    <row r="63" spans="2:24" ht="27.6" customHeight="1">
+      <c r="B63" s="356"/>
       <c r="C63" s="80" t="s">
         <v>226</v>
       </c>
@@ -44288,10 +44243,10 @@
         <v>15</v>
       </c>
       <c r="L63" s="59"/>
-      <c r="N63" s="321"/>
+      <c r="N63" s="342"/>
     </row>
     <row r="64" spans="2:24">
-      <c r="B64" s="349"/>
+      <c r="B64" s="357"/>
       <c r="C64" s="77" t="s">
         <v>229</v>
       </c>
@@ -44326,7 +44281,7 @@
       <c r="L64" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="N64" s="321"/>
+      <c r="N64" s="342"/>
       <c r="O64" s="1" t="s">
         <v>229</v>
       </c>
@@ -44346,7 +44301,7 @@
       </c>
     </row>
     <row r="65" spans="2:19">
-      <c r="B65" s="350"/>
+      <c r="B65" s="358"/>
       <c r="C65" s="77" t="s">
         <v>230</v>
       </c>
@@ -44381,7 +44336,7 @@
       <c r="L65" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="N65" s="328"/>
+      <c r="N65" s="338"/>
       <c r="O65" s="1" t="s">
         <v>230</v>
       </c>
@@ -44401,7 +44356,7 @@
       </c>
     </row>
     <row r="66" spans="2:19">
-      <c r="B66" s="350"/>
+      <c r="B66" s="358"/>
       <c r="C66" s="77" t="s">
         <v>231</v>
       </c>
@@ -44427,10 +44382,10 @@
         <v>0.32258064516129015</v>
       </c>
       <c r="L66" s="59"/>
-      <c r="N66" s="328"/>
+      <c r="N66" s="338"/>
     </row>
     <row r="67" spans="2:19">
-      <c r="B67" s="350"/>
+      <c r="B67" s="358"/>
       <c r="C67" s="77" t="s">
         <v>232</v>
       </c>
@@ -44465,7 +44420,7 @@
       <c r="L67" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="N67" s="328"/>
+      <c r="N67" s="338"/>
       <c r="O67" s="1" t="s">
         <v>232</v>
       </c>
@@ -44484,8 +44439,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="2:19" ht="29.5" thickBot="1">
-      <c r="B68" s="351"/>
+    <row r="68" spans="2:19" ht="29.25" thickBot="1">
+      <c r="B68" s="359"/>
       <c r="C68" s="78" t="s">
         <v>234</v>
       </c>
@@ -44519,7 +44474,7 @@
       <c r="L68" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="N68" s="328"/>
+      <c r="N68" s="338"/>
       <c r="O68" s="1" t="s">
         <v>234</v>
       </c>
@@ -44537,30 +44492,30 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="2:19" ht="72.650000000000006" customHeight="1">
+    <row r="69" spans="2:19" ht="72.599999999999994" customHeight="1">
       <c r="B69" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="321" t="s">
+      <c r="C69" s="342" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="321"/>
-      <c r="E69" s="321"/>
-      <c r="F69" s="321"/>
-      <c r="G69" s="321"/>
+      <c r="D69" s="342"/>
+      <c r="E69" s="342"/>
+      <c r="F69" s="342"/>
+      <c r="G69" s="342"/>
       <c r="N69" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O69" s="328" t="s">
+      <c r="O69" s="338" t="s">
         <v>238</v>
       </c>
-      <c r="P69" s="328"/>
-      <c r="Q69" s="328"/>
-      <c r="R69" s="328"/>
-      <c r="S69" s="328"/>
+      <c r="P69" s="338"/>
+      <c r="Q69" s="338"/>
+      <c r="R69" s="338"/>
+      <c r="S69" s="338"/>
     </row>
     <row r="70" spans="2:19">
-      <c r="B70" s="328" t="s">
+      <c r="B70" s="338" t="s">
         <v>201</v>
       </c>
       <c r="C70" s="66"/>
@@ -44568,24 +44523,24 @@
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="94"/>
-      <c r="N70" s="328" t="s">
+      <c r="N70" s="338" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="2:19">
-      <c r="B71" s="328"/>
+      <c r="B71" s="338"/>
       <c r="C71" s="67"/>
       <c r="G71" s="95"/>
-      <c r="N71" s="328"/>
+      <c r="N71" s="338"/>
     </row>
     <row r="72" spans="2:19">
-      <c r="B72" s="328"/>
+      <c r="B72" s="338"/>
       <c r="C72" s="68"/>
       <c r="D72" s="69"/>
       <c r="E72" s="69"/>
       <c r="F72" s="69"/>
       <c r="G72" s="96"/>
-      <c r="N72" s="328"/>
+      <c r="N72" s="338"/>
     </row>
     <row r="73" spans="2:19" ht="15" thickBot="1"/>
     <row r="74" spans="2:19" ht="15" thickBot="1">
@@ -44593,7 +44548,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="2:19" ht="29">
+    <row r="76" spans="2:19" ht="28.5">
       <c r="B76" s="1" t="s">
         <v>240</v>
       </c>
@@ -44709,14 +44664,14 @@
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="333" t="s">
+      <c r="B88" s="332" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="336"/>
-      <c r="D88" s="337"/>
-      <c r="E88" s="337"/>
-      <c r="F88" s="337"/>
-      <c r="G88" s="338"/>
+      <c r="C88" s="330"/>
+      <c r="D88" s="343"/>
+      <c r="E88" s="343"/>
+      <c r="F88" s="343"/>
+      <c r="G88" s="331"/>
       <c r="H88" s="11">
         <f>H40</f>
         <v>130</v>
@@ -44731,12 +44686,12 @@
       </c>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="334"/>
-      <c r="C89" s="339"/>
-      <c r="D89" s="328"/>
-      <c r="E89" s="328"/>
-      <c r="F89" s="328"/>
-      <c r="G89" s="340"/>
+      <c r="B89" s="333"/>
+      <c r="C89" s="344"/>
+      <c r="D89" s="338"/>
+      <c r="E89" s="338"/>
+      <c r="F89" s="338"/>
+      <c r="G89" s="345"/>
       <c r="H89" s="11">
         <f>($D$100/8/2)+H88</f>
         <v>130.5</v>
@@ -44751,12 +44706,12 @@
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="334"/>
-      <c r="C90" s="339"/>
-      <c r="D90" s="328"/>
-      <c r="E90" s="328"/>
-      <c r="F90" s="328"/>
-      <c r="G90" s="340"/>
+      <c r="B90" s="333"/>
+      <c r="C90" s="344"/>
+      <c r="D90" s="338"/>
+      <c r="E90" s="338"/>
+      <c r="F90" s="338"/>
+      <c r="G90" s="345"/>
       <c r="H90" s="11">
         <f>($D$100/8)+H89</f>
         <v>131.5</v>
@@ -44771,12 +44726,12 @@
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="334"/>
-      <c r="C91" s="339"/>
-      <c r="D91" s="328"/>
-      <c r="E91" s="328"/>
-      <c r="F91" s="328"/>
-      <c r="G91" s="340"/>
+      <c r="B91" s="333"/>
+      <c r="C91" s="344"/>
+      <c r="D91" s="338"/>
+      <c r="E91" s="338"/>
+      <c r="F91" s="338"/>
+      <c r="G91" s="345"/>
       <c r="H91" s="11">
         <f t="shared" ref="H91:H96" si="22">($D$100/8)+H90</f>
         <v>132.5</v>
@@ -44791,12 +44746,12 @@
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="334"/>
-      <c r="C92" s="339"/>
-      <c r="D92" s="328"/>
-      <c r="E92" s="328"/>
-      <c r="F92" s="328"/>
-      <c r="G92" s="340"/>
+      <c r="B92" s="333"/>
+      <c r="C92" s="344"/>
+      <c r="D92" s="338"/>
+      <c r="E92" s="338"/>
+      <c r="F92" s="338"/>
+      <c r="G92" s="345"/>
       <c r="H92" s="11">
         <f t="shared" si="22"/>
         <v>133.5</v>
@@ -44811,12 +44766,12 @@
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="334"/>
-      <c r="C93" s="339"/>
-      <c r="D93" s="328"/>
-      <c r="E93" s="328"/>
-      <c r="F93" s="328"/>
-      <c r="G93" s="340"/>
+      <c r="B93" s="333"/>
+      <c r="C93" s="344"/>
+      <c r="D93" s="338"/>
+      <c r="E93" s="338"/>
+      <c r="F93" s="338"/>
+      <c r="G93" s="345"/>
       <c r="H93" s="11">
         <f t="shared" si="22"/>
         <v>134.5</v>
@@ -44831,12 +44786,12 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="334"/>
-      <c r="C94" s="339"/>
-      <c r="D94" s="328"/>
-      <c r="E94" s="328"/>
-      <c r="F94" s="328"/>
-      <c r="G94" s="340"/>
+      <c r="B94" s="333"/>
+      <c r="C94" s="344"/>
+      <c r="D94" s="338"/>
+      <c r="E94" s="338"/>
+      <c r="F94" s="338"/>
+      <c r="G94" s="345"/>
       <c r="H94" s="11">
         <f t="shared" si="22"/>
         <v>135.5</v>
@@ -44851,12 +44806,12 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="334"/>
-      <c r="C95" s="339"/>
-      <c r="D95" s="328"/>
-      <c r="E95" s="328"/>
-      <c r="F95" s="328"/>
-      <c r="G95" s="340"/>
+      <c r="B95" s="333"/>
+      <c r="C95" s="344"/>
+      <c r="D95" s="338"/>
+      <c r="E95" s="338"/>
+      <c r="F95" s="338"/>
+      <c r="G95" s="345"/>
       <c r="H95" s="11">
         <f t="shared" si="22"/>
         <v>136.5</v>
@@ -44871,12 +44826,12 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="334"/>
-      <c r="C96" s="339"/>
-      <c r="D96" s="328"/>
-      <c r="E96" s="328"/>
-      <c r="F96" s="328"/>
-      <c r="G96" s="340"/>
+      <c r="B96" s="333"/>
+      <c r="C96" s="344"/>
+      <c r="D96" s="338"/>
+      <c r="E96" s="338"/>
+      <c r="F96" s="338"/>
+      <c r="G96" s="345"/>
       <c r="H96" s="11">
         <f t="shared" si="22"/>
         <v>137.5</v>
@@ -44891,12 +44846,12 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" thickBot="1">
-      <c r="B97" s="335"/>
-      <c r="C97" s="341"/>
-      <c r="D97" s="342"/>
-      <c r="E97" s="342"/>
-      <c r="F97" s="342"/>
-      <c r="G97" s="343"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="346"/>
+      <c r="D97" s="347"/>
+      <c r="E97" s="347"/>
+      <c r="F97" s="347"/>
+      <c r="G97" s="348"/>
       <c r="H97" s="11">
         <f>D100+H88</f>
         <v>138</v>
@@ -44910,8 +44865,8 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="98" spans="2:10" ht="29">
-      <c r="B98" s="321" t="s">
+    <row r="98" spans="2:10" ht="28.5">
+      <c r="B98" s="342" t="s">
         <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -44933,8 +44888,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="29">
-      <c r="B99" s="328"/>
+    <row r="99" spans="2:10" ht="28.5">
+      <c r="B99" s="338"/>
       <c r="C99" s="1" t="s">
         <v>248</v>
       </c>
@@ -44954,7 +44909,7 @@
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="328"/>
+      <c r="B100" s="338"/>
       <c r="C100" s="1" t="s">
         <v>205</v>
       </c>
@@ -44972,31 +44927,53 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="33.65" customHeight="1">
+    <row r="101" spans="2:10" ht="33.6" customHeight="1">
       <c r="B101" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="328" t="s">
+      <c r="C101" s="338" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="328"/>
-      <c r="E101" s="328"/>
-      <c r="F101" s="328"/>
-      <c r="G101" s="328"/>
+      <c r="D101" s="338"/>
+      <c r="E101" s="338"/>
+      <c r="F101" s="338"/>
+      <c r="G101" s="338"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="328" t="s">
+      <c r="B102" s="338" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="328"/>
+      <c r="B103" s="338"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="328"/>
+      <c r="B104" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="H60:J61"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="O50:S59"/>
+    <mergeCell ref="N60:N68"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="C50:G59"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C88:G97"/>
+    <mergeCell ref="B98:B100"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:B22"/>
     <mergeCell ref="C12:G12"/>
@@ -45010,32 +44987,10 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:G40"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="C50:G59"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C88:G97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="O49:S49"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="O50:S59"/>
-    <mergeCell ref="N60:N68"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="H60:J61"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" display="https://www.youtube.com/watch?v=-05AlwGI7Jo" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="O28" r:id="rId2" display="https://www.youtube.com/watch?v=-05AlwGI7Jo" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C28" r:id="rId1" display="https://www.youtube.com/watch?v=-05AlwGI7Jo"/>
+    <hyperlink ref="O28" r:id="rId2" display="https://www.youtube.com/watch?v=-05AlwGI7Jo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -45050,7 +45005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B14:V64"/>
   <sheetViews>
@@ -45058,29 +45013,29 @@
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="14" customWidth="1"/>
     <col min="2" max="2" width="20" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
     <col min="4" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" style="14"/>
-    <col min="11" max="11" width="17.36328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="14"/>
+    <col min="11" max="11" width="17.375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="14" customWidth="1"/>
     <col min="16" max="16" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.90625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="14" customWidth="1"/>
     <col min="18" max="18" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="14"/>
+    <col min="19" max="19" width="8.875" style="14"/>
     <col min="20" max="20" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.90625" style="14"/>
+    <col min="21" max="21" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
     <row r="14" spans="2:22" ht="15" thickBot="1"/>
@@ -45101,13 +45056,13 @@
       <c r="M15" s="172"/>
       <c r="N15" s="172"/>
       <c r="O15" s="173"/>
-      <c r="T15" s="357" t="s">
+      <c r="T15" s="369" t="s">
         <v>252</v>
       </c>
-      <c r="U15" s="358"/>
-      <c r="V15" s="359"/>
-    </row>
-    <row r="16" spans="2:22" ht="15" thickBot="1">
+      <c r="U15" s="370"/>
+      <c r="V15" s="371"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1">
       <c r="B16" s="260" t="s">
         <v>196</v>
       </c>
@@ -45606,11 +45561,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T23" s="360" t="s">
+      <c r="T23" s="372" t="s">
         <v>252</v>
       </c>
-      <c r="U23" s="361"/>
-      <c r="V23" s="362"/>
+      <c r="U23" s="373"/>
+      <c r="V23" s="374"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="22" t="s">
@@ -45943,7 +45898,7 @@
         <v>-5.1012000000000009E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="29.5" thickBot="1">
+    <row r="29" spans="2:22" ht="29.25" thickBot="1">
       <c r="B29" s="50" t="s">
         <v>284</v>
       </c>
@@ -45999,17 +45954,17 @@
       <c r="I33" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="363" t="s">
+      <c r="K33" s="375" t="s">
         <v>286</v>
       </c>
-      <c r="L33" s="364"/>
-      <c r="M33" s="364"/>
-      <c r="N33" s="364"/>
-      <c r="O33" s="364"/>
-      <c r="P33" s="364"/>
-      <c r="Q33" s="364"/>
-      <c r="R33" s="364"/>
-      <c r="S33" s="365"/>
+      <c r="L33" s="376"/>
+      <c r="M33" s="376"/>
+      <c r="N33" s="376"/>
+      <c r="O33" s="376"/>
+      <c r="P33" s="376"/>
+      <c r="Q33" s="376"/>
+      <c r="R33" s="376"/>
+      <c r="S33" s="377"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="175" t="s">
@@ -46255,26 +46210,26 @@
     </row>
     <row r="42" spans="2:19" ht="15" thickBot="1"/>
     <row r="43" spans="2:19" ht="15" thickBot="1">
-      <c r="K43" s="363" t="s">
+      <c r="K43" s="375" t="s">
         <v>312</v>
       </c>
-      <c r="L43" s="364"/>
-      <c r="M43" s="364"/>
-      <c r="N43" s="364"/>
-      <c r="O43" s="364"/>
-      <c r="P43" s="364"/>
-      <c r="Q43" s="364"/>
-      <c r="R43" s="364"/>
-      <c r="S43" s="365"/>
+      <c r="L43" s="376"/>
+      <c r="M43" s="376"/>
+      <c r="N43" s="376"/>
+      <c r="O43" s="376"/>
+      <c r="P43" s="376"/>
+      <c r="Q43" s="376"/>
+      <c r="R43" s="376"/>
+      <c r="S43" s="377"/>
     </row>
     <row r="44" spans="2:19" ht="15" thickBot="1">
-      <c r="B44" s="354" t="s">
+      <c r="B44" s="366" t="s">
         <v>313</v>
       </c>
-      <c r="C44" s="355"/>
-      <c r="D44" s="355"/>
-      <c r="E44" s="355"/>
-      <c r="F44" s="356"/>
+      <c r="C44" s="367"/>
+      <c r="D44" s="367"/>
+      <c r="E44" s="367"/>
+      <c r="F44" s="368"/>
       <c r="K44" s="22" t="s">
         <v>288</v>
       </c>
@@ -46292,7 +46247,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="29.5" thickBot="1">
+    <row r="45" spans="2:19" ht="29.25" thickBot="1">
       <c r="B45" s="15" t="s">
         <v>196</v>
       </c>
@@ -46660,7 +46615,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="29.5" thickBot="1">
+    <row r="54" spans="2:19" ht="29.25" thickBot="1">
       <c r="B54" s="49" t="s">
         <v>319</v>
       </c>
@@ -46730,7 +46685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -46738,10 +46693,10 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="191" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="191" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="64.5" customHeight="1">
@@ -46945,7 +46900,7 @@
         <v>6.2265482457436686E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="192" t="s">
         <v>350</v>
       </c>
@@ -46976,7 +46931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K249"/>
   <sheetViews>
@@ -46985,10 +46940,10 @@
       <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" customWidth="1"/>
-    <col min="2" max="11" width="12.7265625" style="191" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
+    <col min="2" max="11" width="12.75" style="191" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
@@ -47026,7 +46981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.5">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -47071,7 +47026,7 @@
         <v>1701.4313239152498</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="3" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
@@ -47116,7 +47071,7 @@
         <v>1701.4313239152498</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="4" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -47161,7 +47116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="5" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -47206,7 +47161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="286" customFormat="1" ht="14.5">
+    <row r="6" spans="1:11" s="286" customFormat="1">
       <c r="A6" s="286" t="s">
         <v>487</v>
       </c>
@@ -47241,7 +47196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" t="s">
         <v>332</v>
       </c>
@@ -47286,7 +47241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5">
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" t="s">
         <v>488</v>
       </c>
@@ -47331,7 +47286,7 @@
         <v>340.28626478304994</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="286" customFormat="1" ht="14.5">
+    <row r="9" spans="1:11" s="286" customFormat="1">
       <c r="A9" s="286" t="s">
         <v>333</v>
       </c>
@@ -47366,7 +47321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5">
+    <row r="10" spans="1:11">
       <c r="A10" s="269" t="s">
         <v>334</v>
       </c>
@@ -47401,7 +47356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5">
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -47446,7 +47401,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -47526,12 +47481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="270" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="15" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -47576,7 +47531,7 @@
         <v>101528.51875418922</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="16" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A16" t="s">
         <v>339</v>
       </c>
@@ -47621,7 +47576,7 @@
         <v>1.2275162395185863</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="17" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A17" t="s">
         <v>340</v>
       </c>
@@ -47666,7 +47621,7 @@
         <v>288.19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="18" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -47711,7 +47666,7 @@
         <v>15.189999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="19" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A19" t="s">
         <v>341</v>
       </c>
@@ -47756,7 +47711,7 @@
         <v>1.8360964149388051E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="20" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A20" t="s">
         <v>342</v>
       </c>
@@ -47801,7 +47756,7 @@
         <v>1.4957817712121631E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="21" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -47836,22 +47791,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="22" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A22" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="23" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="24" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="25" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A25" t="s">
         <v>344</v>
       </c>
@@ -47896,7 +47851,7 @@
         <v>0.30307259479063259</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="26" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A26" t="s">
         <v>345</v>
       </c>
@@ -47941,7 +47896,7 @@
         <v>0.30307259479063259</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="27" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A27" t="s">
         <v>346</v>
       </c>
@@ -47986,7 +47941,7 @@
         <v>5.2896146516591535E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="28" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -48031,7 +47986,7 @@
         <v>5.2896146516591535E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="29" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A29" t="s">
         <v>348</v>
       </c>
@@ -48076,7 +48031,7 @@
         <v>1776749.0781983112</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="30" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A30" t="s">
         <v>349</v>
       </c>
@@ -48122,12 +48077,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
-    <row r="32" spans="1:11" thickBot="1">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="270" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="33" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
@@ -48172,7 +48127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="34" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -48217,7 +48172,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="35" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -48262,7 +48217,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="36" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -48307,7 +48262,7 @@
         <v>0.16333333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="37" spans="1:11" outlineLevel="1">
       <c r="A37" s="268" t="s">
         <v>360</v>
       </c>
@@ -48342,7 +48297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="38" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -48387,7 +48342,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="39" spans="1:11" outlineLevel="1">
       <c r="A39" s="268" t="s">
         <v>361</v>
       </c>
@@ -48422,7 +48377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="40" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A40" t="s">
         <v>357</v>
       </c>
@@ -48467,7 +48422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="41" spans="1:11" outlineLevel="1">
       <c r="A41" s="268" t="s">
         <v>362</v>
       </c>
@@ -48502,7 +48457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="42" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A42" t="s">
         <v>357</v>
       </c>
@@ -48547,7 +48502,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="43" spans="1:11" outlineLevel="1">
       <c r="A43" s="268" t="s">
         <v>363</v>
       </c>
@@ -48582,7 +48537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="44" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A44" t="s">
         <v>364</v>
       </c>
@@ -48627,7 +48582,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="45" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A45" t="s">
         <v>365</v>
       </c>
@@ -48672,7 +48627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="46" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -48717,7 +48672,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="47" spans="1:11" outlineLevel="1">
       <c r="A47" s="268" t="s">
         <v>366</v>
       </c>
@@ -48752,7 +48707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="48" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A48" t="s">
         <v>359</v>
       </c>
@@ -48797,7 +48752,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="49" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A49" t="s">
         <v>367</v>
       </c>
@@ -48842,7 +48797,7 @@
         <v>2.5016666666666666E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="50" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -48887,7 +48842,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.5" outlineLevel="1">
+    <row r="51" spans="1:11" ht="14.25" outlineLevel="1">
       <c r="A51" t="s">
         <v>369</v>
       </c>
@@ -48944,7 +48899,7 @@
       <c r="J52" s="263"/>
       <c r="K52" s="263"/>
     </row>
-    <row r="53" spans="1:11" thickBot="1">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1">
       <c r="A53" s="270" t="s">
         <v>370</v>
       </c>
@@ -48959,7 +48914,7 @@
       <c r="J53" s="263"/>
       <c r="K53" s="263"/>
     </row>
-    <row r="54" spans="1:11" ht="14.5">
+    <row r="54" spans="1:11" ht="14.25">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -49004,7 +48959,7 @@
         <v>1.3636363636363636E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.5">
+    <row r="55" spans="1:11" ht="14.25">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -49049,7 +49004,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.5">
+    <row r="56" spans="1:11" ht="14.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -49064,7 +49019,7 @@
       <c r="J56" s="263"/>
       <c r="K56" s="263"/>
     </row>
-    <row r="57" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A57">
         <v>1</v>
       </c>
@@ -49109,7 +49064,7 @@
         <v>6.8181818181818179E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A58">
         <v>2</v>
       </c>
@@ -49154,7 +49109,7 @@
         <v>2.0454545454545454E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A59">
         <v>3</v>
       </c>
@@ -49199,7 +49154,7 @@
         <v>3.4090909090909088E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A60">
         <v>4</v>
       </c>
@@ -49244,7 +49199,7 @@
         <v>4.7727272727272722E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A61">
         <v>5</v>
       </c>
@@ -49289,7 +49244,7 @@
         <v>6.1363636363636356E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A62">
         <v>6</v>
       </c>
@@ -49334,7 +49289,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A63">
         <v>7</v>
       </c>
@@ -49379,7 +49334,7 @@
         <v>8.8636363636363638E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A64">
         <v>8</v>
       </c>
@@ -49424,7 +49379,7 @@
         <v>0.10227272727272728</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A65">
         <v>9</v>
       </c>
@@ -49469,7 +49424,7 @@
         <v>0.11590909090909092</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A66">
         <v>10</v>
       </c>
@@ -49514,7 +49469,7 @@
         <v>0.12954545454545455</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="67" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A67">
         <v>11</v>
       </c>
@@ -49559,7 +49514,7 @@
         <v>0.14318181818181819</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.5" collapsed="1">
+    <row r="68" spans="1:11" ht="14.25" collapsed="1">
       <c r="A68" t="s">
         <v>374</v>
       </c>
@@ -49574,7 +49529,7 @@
       <c r="J68" s="263"/>
       <c r="K68" s="263"/>
     </row>
-    <row r="69" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A69">
         <v>1</v>
       </c>
@@ -49619,7 +49574,7 @@
         <v>0.14772727272727273</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A70">
         <v>2</v>
       </c>
@@ -49664,7 +49619,7 @@
         <v>0.14318181818181819</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="71" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A71">
         <v>3</v>
       </c>
@@ -49709,7 +49664,7 @@
         <v>0.13863636363636364</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A72">
         <v>4</v>
       </c>
@@ -49754,7 +49709,7 @@
         <v>0.13409090909090909</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="73" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A73">
         <v>5</v>
       </c>
@@ -49799,7 +49754,7 @@
         <v>0.12954545454545455</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="74" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A74">
         <v>6</v>
       </c>
@@ -49844,7 +49799,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="75" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A75">
         <v>7</v>
       </c>
@@ -49889,7 +49844,7 @@
         <v>0.12045454545454545</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A76">
         <v>8</v>
       </c>
@@ -49934,7 +49889,7 @@
         <v>0.11590909090909091</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A77">
         <v>9</v>
       </c>
@@ -49979,7 +49934,7 @@
         <v>0.11136363636363636</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="78" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A78">
         <v>10</v>
       </c>
@@ -50024,7 +49979,7 @@
         <v>0.10681818181818181</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A79">
         <v>11</v>
       </c>
@@ -50069,7 +50024,7 @@
         <v>0.10227272727272727</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.5" collapsed="1">
+    <row r="80" spans="1:11" ht="14.25" collapsed="1">
       <c r="A80" t="s">
         <v>375</v>
       </c>
@@ -50084,7 +50039,7 @@
       <c r="J80" s="263"/>
       <c r="K80" s="263"/>
     </row>
-    <row r="81" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A81">
         <v>1</v>
       </c>
@@ -50129,7 +50084,7 @@
         <v>1.9834710743801649E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="82" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A82">
         <v>2</v>
       </c>
@@ -50174,7 +50129,7 @@
         <v>1.9214876033057853E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="83" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A83">
         <v>3</v>
       </c>
@@ -50219,7 +50174,7 @@
         <v>1.8595041322314048E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A84">
         <v>4</v>
       </c>
@@ -50264,7 +50219,7 @@
         <v>1.7975206611570249E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A85">
         <v>5</v>
       </c>
@@ -50309,7 +50264,7 @@
         <v>1.7355371900826444E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A86">
         <v>6</v>
       </c>
@@ -50354,7 +50309,7 @@
         <v>1.6735537190082643E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A87">
         <v>7</v>
       </c>
@@ -50399,7 +50354,7 @@
         <v>1.6115702479338842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A88">
         <v>8</v>
       </c>
@@ -50444,7 +50399,7 @@
         <v>1.549586776859504E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A89">
         <v>9</v>
       </c>
@@ -50489,7 +50444,7 @@
         <v>1.4876033057851239E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A90">
         <v>10</v>
       </c>
@@ -50534,7 +50489,7 @@
         <v>1.4256198347107436E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.5" collapsed="1">
+    <row r="91" spans="1:11" ht="14.25" collapsed="1">
       <c r="A91" t="s">
         <v>495</v>
       </c>
@@ -50579,12 +50534,12 @@
         <v>1.7045454545454544E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.5">
+    <row r="92" spans="1:11">
       <c r="A92" s="267" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="167" customFormat="1" ht="14.5">
+    <row r="93" spans="1:11" s="167" customFormat="1" ht="14.25">
       <c r="A93" s="167" t="s">
         <v>377</v>
       </c>
@@ -50629,7 +50584,7 @@
         <v>12.354928369089945</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="167" customFormat="1" ht="14.5">
+    <row r="94" spans="1:11" s="167" customFormat="1" ht="14.25">
       <c r="A94" s="167" t="s">
         <v>514</v>
       </c>
@@ -50674,7 +50629,7 @@
         <v>0.81649658092772615</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A95" t="s">
         <v>378</v>
       </c>
@@ -50719,7 +50674,7 @@
         <v>2.2214414690791831</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="96" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A96" t="s">
         <v>379</v>
       </c>
@@ -50764,7 +50719,7 @@
         <v>1.0295766535643616</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="97" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A97" t="s">
         <v>380</v>
       </c>
@@ -50809,8 +50764,8 @@
         <v>0.24500629699007567</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.5" hidden="1" outlineLevel="1"/>
-    <row r="99" spans="1:11" ht="14.5" collapsed="1">
+    <row r="98" spans="1:11" ht="14.25" hidden="1" outlineLevel="1"/>
+    <row r="99" spans="1:11" ht="14.25" collapsed="1">
       <c r="A99" t="s">
         <v>381</v>
       </c>
@@ -50855,7 +50810,7 @@
         <v>17062295.015165523</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.5">
+    <row r="100" spans="1:11" ht="14.25">
       <c r="A100" t="s">
         <v>382</v>
       </c>
@@ -50900,7 +50855,7 @@
         <v>1137486334.3443682</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="276" customFormat="1" ht="14.5">
+    <row r="101" spans="1:11" s="276" customFormat="1">
       <c r="A101" s="277" t="s">
         <v>491</v>
       </c>
@@ -50935,7 +50890,7 @@
         <v>1.0835747058992552E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.5">
+    <row r="102" spans="1:11">
       <c r="A102" s="277" t="s">
         <v>492</v>
       </c>
@@ -50980,7 +50935,7 @@
         <v>1.0835747058992552E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.5">
+    <row r="103" spans="1:11" ht="14.25">
       <c r="A103" t="s">
         <v>493</v>
       </c>
@@ -51025,7 +50980,7 @@
         <v>100.41019259223886</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="187" customFormat="1" ht="14.5">
+    <row r="104" spans="1:11" s="187" customFormat="1">
       <c r="A104" s="274" t="s">
         <v>498</v>
       </c>
@@ -51070,7 +51025,7 @@
         <v>5.0346789600656265</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.5">
+    <row r="105" spans="1:11" ht="14.25">
       <c r="A105" s="273" t="s">
         <v>530</v>
       </c>
@@ -51115,7 +51070,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="106" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A106">
         <v>1</v>
       </c>
@@ -51160,7 +51115,7 @@
         <v>3412459.0030331044</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="107" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A107">
         <v>2</v>
       </c>
@@ -51205,7 +51160,7 @@
         <v>6824918.0060662087</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="108" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A108">
         <v>3</v>
       </c>
@@ -51250,7 +51205,7 @@
         <v>10237377.009099314</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="109" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A109">
         <v>4</v>
       </c>
@@ -51295,7 +51250,7 @@
         <v>13649836.012132417</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="110" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A110">
         <v>5</v>
       </c>
@@ -51340,7 +51295,7 @@
         <v>17062295.015165523</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.5" collapsed="1">
+    <row r="111" spans="1:11" ht="14.25" collapsed="1">
       <c r="A111" s="273" t="s">
         <v>494</v>
       </c>
@@ -51355,7 +51310,7 @@
       <c r="J111" s="186"/>
       <c r="K111" s="186"/>
     </row>
-    <row r="112" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="112" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A112">
         <v>1</v>
       </c>
@@ -51400,7 +51355,7 @@
         <v>5.9138292788597724</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="113" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A113">
         <v>2</v>
       </c>
@@ -51445,7 +51400,7 @@
         <v>5.5177978234924945</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="114" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A114">
         <v>3</v>
       </c>
@@ -51490,7 +51445,7 @@
         <v>5.2985453724484071</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="115" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A115">
         <v>4</v>
       </c>
@@ -51535,7 +51490,7 @@
         <v>5.1482874099484874</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="116" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A116">
         <v>5</v>
       </c>
@@ -51580,7 +51535,7 @@
         <v>5.0346789600656265</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="187" customFormat="1" ht="14.5" collapsed="1">
+    <row r="117" spans="1:11" s="187" customFormat="1" collapsed="1">
       <c r="A117" s="274" t="s">
         <v>497</v>
       </c>
@@ -51625,12 +51580,12 @@
         <v>3.3133969314461948</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.5">
+    <row r="118" spans="1:11" ht="14.25">
       <c r="A118" s="273" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="119" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A119">
         <v>1</v>
       </c>
@@ -51675,7 +51630,7 @@
         <v>3.8919788016464145</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="120" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A120">
         <v>2</v>
       </c>
@@ -51720,7 +51675,7 @@
         <v>3.6313446242979937</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="121" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A121">
         <v>3</v>
       </c>
@@ -51765,7 +51720,7 @@
         <v>3.4870513328560171</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="122" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A122">
         <v>4</v>
       </c>
@@ -51810,7 +51765,7 @@
         <v>3.3881643381098612</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="123" spans="1:11" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A123">
         <v>5</v>
       </c>
@@ -51855,8 +51810,8 @@
         <v>3.3133969314461948</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.5" collapsed="1"/>
-    <row r="125" spans="1:11" s="187" customFormat="1" ht="14.5">
+    <row r="124" spans="1:11" ht="14.25" collapsed="1"/>
+    <row r="125" spans="1:11" s="187" customFormat="1">
       <c r="A125" s="294" t="s">
         <v>532</v>
       </c>
@@ -51871,7 +51826,7 @@
       <c r="J125" s="280"/>
       <c r="K125" s="280"/>
     </row>
-    <row r="126" spans="1:11" ht="14.5"/>
+    <row r="126" spans="1:11" ht="14.25"/>
     <row r="127" spans="1:11" ht="15" customHeight="1">
       <c r="A127" s="267" t="s">
         <v>521</v>
@@ -55817,18 +55772,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC17A475-5720-42BE-9406-86DD2483D134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N205" sqref="N205"/>
+      <pane ySplit="11" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="191" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="191" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
@@ -55839,7 +55794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.5">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -55848,7 +55803,7 @@
         <v>1008.940186532383</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.5" outlineLevel="1">
+    <row r="3" spans="1:2" ht="14.25" outlineLevel="1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
@@ -55857,7 +55812,7 @@
         <v>1005.1008645152567</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.5" outlineLevel="1">
+    <row r="4" spans="1:2" ht="14.25" outlineLevel="1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -55866,7 +55821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.5" outlineLevel="1">
+    <row r="5" spans="1:2" ht="14.25" outlineLevel="1">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -55875,7 +55830,7 @@
         <v>87.93493134519062</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.5" outlineLevel="1">
+    <row r="6" spans="1:2" ht="14.25" outlineLevel="1">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -55883,7 +55838,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="286" customFormat="1" ht="14.5">
+    <row r="7" spans="1:2" s="286" customFormat="1">
       <c r="A7" s="286" t="s">
         <v>487</v>
       </c>
@@ -55891,7 +55846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.5">
+    <row r="8" spans="1:2" ht="14.25">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -55900,7 +55855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.5">
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9" t="s">
         <v>488</v>
       </c>
@@ -55909,7 +55864,7 @@
         <v>336.31339551079435</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="286" customFormat="1" ht="14.5">
+    <row r="10" spans="1:2" s="286" customFormat="1">
       <c r="A10" s="286" t="s">
         <v>333</v>
       </c>
@@ -55917,7 +55872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.5">
+    <row r="11" spans="1:2">
       <c r="A11" s="269" t="s">
         <v>334</v>
       </c>
@@ -55925,7 +55880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.5">
+    <row r="12" spans="1:2" ht="14.25">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -55943,12 +55898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" thickBot="1">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
       <c r="A14" s="270" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -55957,7 +55912,7 @@
         <v>89737.544351569042</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A16" t="s">
         <v>339</v>
       </c>
@@ -55966,7 +55921,7 @@
         <v>1.1107437675415928</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A17" t="s">
         <v>340</v>
       </c>
@@ -55975,7 +55930,7 @@
         <v>281.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -55984,7 +55939,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A19" t="s">
         <v>341</v>
       </c>
@@ -55993,7 +55948,7 @@
         <v>1.8028238864608104E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A20" t="s">
         <v>342</v>
       </c>
@@ -56002,7 +55957,7 @@
         <v>1.6230781023880937E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -56010,22 +55965,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A22" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A25" t="s">
         <v>344</v>
       </c>
@@ -56034,7 +55989,7 @@
         <v>5.5087389887464031</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A26" t="s">
         <v>345</v>
       </c>
@@ -56043,7 +55998,7 @@
         <v>0.51303133105248699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A27" t="s">
         <v>346</v>
       </c>
@@ -56052,7 +56007,7 @@
         <v>9.6145632986607596E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -56061,7 +56016,7 @@
         <v>8.9540858927549243E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A29" t="s">
         <v>348</v>
       </c>
@@ -56070,7 +56025,7 @@
         <v>565346.52941488486</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A30" t="s">
         <v>349</v>
       </c>
@@ -56080,12 +56035,12 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" collapsed="1" thickBot="1"/>
-    <row r="32" spans="1:2" thickBot="1">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1">
       <c r="A32" s="311" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.5" outlineLevel="1">
+    <row r="33" spans="1:12" ht="14.25" outlineLevel="1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
@@ -56094,7 +56049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.5" outlineLevel="1">
+    <row r="34" spans="1:12" ht="14.25" outlineLevel="1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -56103,15 +56058,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A35" s="371" t="s">
+    <row r="35" spans="1:12" outlineLevel="1">
+      <c r="A35" s="314" t="s">
         <v>583</v>
       </c>
       <c r="B35" s="263">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.5" outlineLevel="1">
+    <row r="36" spans="1:12" ht="14.25" outlineLevel="1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -56120,7 +56075,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.5" outlineLevel="1">
+    <row r="37" spans="1:12" ht="14.25" outlineLevel="1">
       <c r="A37" t="s">
         <v>578</v>
       </c>
@@ -56129,16 +56084,16 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A38" s="371" t="s">
+    <row r="38" spans="1:12" outlineLevel="1">
+      <c r="A38" s="314" t="s">
         <v>579</v>
       </c>
       <c r="B38" s="191">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A39" s="369" t="s">
+    <row r="39" spans="1:12" ht="14.25" outlineLevel="1">
+      <c r="A39" s="312" t="s">
         <v>359</v>
       </c>
       <c r="B39" s="191">
@@ -56146,16 +56101,16 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A40" s="371" t="s">
+    <row r="40" spans="1:12" outlineLevel="1">
+      <c r="A40" s="314" t="s">
         <v>580</v>
       </c>
       <c r="B40" s="191">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A41" s="369" t="s">
+    <row r="41" spans="1:12" ht="14.25" outlineLevel="1">
+      <c r="A41" s="312" t="s">
         <v>359</v>
       </c>
       <c r="B41" s="191">
@@ -56163,16 +56118,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A42" s="371" t="s">
+    <row r="42" spans="1:12" outlineLevel="1">
+      <c r="A42" s="314" t="s">
         <v>581</v>
       </c>
       <c r="B42" s="191">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A43" s="369" t="s">
+    <row r="43" spans="1:12" ht="14.25" outlineLevel="1">
+      <c r="A43" s="312" t="s">
         <v>359</v>
       </c>
       <c r="B43" s="191">
@@ -56180,18 +56135,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A44" s="370" t="s">
+    <row r="44" spans="1:12" outlineLevel="1">
+      <c r="A44" s="313" t="s">
         <v>582</v>
       </c>
       <c r="B44" s="191">
         <f>B35+B38+B40</f>
         <v>95</v>
       </c>
-      <c r="L44" s="370"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.5" outlineLevel="1">
-      <c r="A45" s="369" t="s">
+      <c r="L44" s="313"/>
+    </row>
+    <row r="45" spans="1:12" ht="14.25" outlineLevel="1">
+      <c r="A45" s="312" t="s">
         <v>359</v>
       </c>
       <c r="B45" s="191">
@@ -56199,13 +56154,13 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.5" outlineLevel="1"/>
-    <row r="47" spans="1:12" ht="14.5">
+    <row r="46" spans="1:12" ht="14.25" outlineLevel="1"/>
+    <row r="47" spans="1:12">
       <c r="A47" s="267" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.5">
+    <row r="48" spans="1:12" ht="14.25">
       <c r="A48" t="s">
         <v>381</v>
       </c>
@@ -56214,7 +56169,7 @@
         <v>5882932065.2197485</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.5">
+    <row r="49" spans="1:2" ht="14.25">
       <c r="A49" t="s">
         <v>382</v>
       </c>
@@ -56223,7 +56178,7 @@
         <v>49540480.549218938</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="276" customFormat="1" ht="14.5">
+    <row r="50" spans="1:2" s="276" customFormat="1">
       <c r="A50" s="277" t="s">
         <v>491</v>
       </c>
@@ -56231,7 +56186,7 @@
         <v>2.1985695237376403E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.5">
+    <row r="51" spans="1:2">
       <c r="A51" s="277" t="s">
         <v>492</v>
       </c>
@@ -56240,7 +56195,7 @@
         <v>2.1985695237376404E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.5">
+    <row r="52" spans="1:2" ht="14.25">
       <c r="A52" t="s">
         <v>493</v>
       </c>
@@ -56249,7 +56204,7 @@
         <v>1225.7348849219582</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="187" customFormat="1" ht="14.5">
+    <row r="53" spans="1:2" s="187" customFormat="1">
       <c r="A53" s="294" t="s">
         <v>585</v>
       </c>
@@ -56258,7 +56213,7 @@
         <v>34.764293435727772</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.5">
+    <row r="54" spans="1:2" ht="14.25">
       <c r="A54" s="273" t="s">
         <v>530</v>
       </c>
@@ -56267,7 +56222,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A55">
         <v>1</v>
       </c>
@@ -56276,7 +56231,7 @@
         <v>11765864.130439498</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A56">
         <v>2</v>
       </c>
@@ -56285,7 +56240,7 @@
         <v>23531728.260878995</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A57">
         <v>3</v>
       </c>
@@ -56294,7 +56249,7 @@
         <v>35297592.3913185</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A58">
         <v>4</v>
       </c>
@@ -56303,7 +56258,7 @@
         <v>47063456.52175799</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A59">
         <v>5</v>
       </c>
@@ -56312,13 +56267,13 @@
         <v>58829320.652197495</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.5" collapsed="1">
+    <row r="60" spans="1:2" ht="14.25" collapsed="1">
       <c r="A60" s="273" t="s">
         <v>494</v>
       </c>
       <c r="B60" s="186"/>
     </row>
-    <row r="61" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A61">
         <v>1</v>
       </c>
@@ -56327,7 +56282,7 @@
         <v>40.834797612676311</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A62">
         <v>2</v>
       </c>
@@ -56336,7 +56291,7 @@
         <v>38.100213375355466</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A63">
         <v>3</v>
       </c>
@@ -56345,7 +56300,7 @@
         <v>36.586282376962693</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A64">
         <v>4</v>
       </c>
@@ -56354,7 +56309,7 @@
         <v>35.548756063798585</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A65">
         <v>5</v>
       </c>
@@ -56363,7 +56318,7 @@
         <v>34.764293435727772</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="187" customFormat="1" ht="14.5" collapsed="1">
+    <row r="66" spans="1:2" s="187" customFormat="1" collapsed="1">
       <c r="A66" s="294" t="s">
         <v>586</v>
       </c>
@@ -56372,12 +56327,12 @@
         <v>27.335184322544457</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.5">
+    <row r="67" spans="1:2" ht="14.25">
       <c r="A67" s="273" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A68">
         <v>1</v>
       </c>
@@ -56386,7 +56341,7 @@
         <v>32.108425318063354</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A69">
         <v>2</v>
       </c>
@@ -56395,7 +56350,7 @@
         <v>29.958220128048826</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A70">
         <v>3</v>
       </c>
@@ -56404,7 +56359,7 @@
         <v>28.767815295884173</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="71" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A71">
         <v>4</v>
       </c>
@@ -56413,7 +56368,7 @@
         <v>27.952007747191587</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.5" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:2" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A72">
         <v>5</v>
       </c>
@@ -56422,17 +56377,17 @@
         <v>27.335184322544457</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.5" collapsed="1"/>
-    <row r="74" spans="1:2" s="379" customFormat="1" ht="14.5">
-      <c r="A74" s="371" t="s">
+    <row r="73" spans="1:2" ht="14.25" collapsed="1"/>
+    <row r="74" spans="1:2" s="322" customFormat="1">
+      <c r="A74" s="314" t="s">
         <v>593</v>
       </c>
-      <c r="B74" s="380">
+      <c r="B74" s="323">
         <f>B76*B75+(4/PI())*(B38/B33)*B78*B82</f>
         <v>0.29527960137002252</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.5">
+    <row r="75" spans="1:2" ht="14.25">
       <c r="A75" t="s">
         <v>601</v>
       </c>
@@ -56441,7 +56396,7 @@
         <v>8.6824088833465166E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.5">
+    <row r="76" spans="1:2" ht="14.25">
       <c r="A76" t="s">
         <v>596</v>
       </c>
@@ -56450,7 +56405,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.5">
+    <row r="77" spans="1:2" ht="14.25">
       <c r="A77" t="s">
         <v>592</v>
       </c>
@@ -56459,7 +56414,7 @@
         <v>6.53125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.5">
+    <row r="78" spans="1:2" ht="14.25">
       <c r="A78" t="s">
         <v>594</v>
       </c>
@@ -56468,7 +56423,7 @@
         <v>6.7195176201781687E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.5">
+    <row r="79" spans="1:2" ht="14.25">
       <c r="A79" t="s">
         <v>597</v>
       </c>
@@ -56477,7 +56432,7 @@
         <v>0.67605404038471706</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.5">
+    <row r="80" spans="1:2" ht="14.25">
       <c r="A80" t="s">
         <v>598</v>
       </c>
@@ -56486,7 +56441,7 @@
         <v>15.125260416666666</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.5">
+    <row r="81" spans="1:5" ht="14.25">
       <c r="A81" t="s">
         <v>599</v>
       </c>
@@ -56495,7 +56450,7 @@
         <v>0.52120478349468202</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.5">
+    <row r="82" spans="1:5" ht="14.25">
       <c r="A82" t="s">
         <v>600</v>
       </c>
@@ -56504,13 +56459,13 @@
         <v>0.92440075528863397</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.5"/>
-    <row r="84" spans="1:5" ht="14.5">
+    <row r="83" spans="1:5" ht="14.25"/>
+    <row r="84" spans="1:5" ht="14.25">
       <c r="A84" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.5">
+    <row r="85" spans="1:5" ht="14.25">
       <c r="A85" t="s">
         <v>606</v>
       </c>
@@ -56519,7 +56474,7 @@
         <v>201.89513491132769</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.5">
+    <row r="86" spans="1:5" ht="14.25">
       <c r="A86" t="s">
         <v>605</v>
       </c>
@@ -56528,7 +56483,7 @@
         <v>1.2428832293338909</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.5">
+    <row r="87" spans="1:5" ht="14.25">
       <c r="A87" t="s">
         <v>599</v>
       </c>
@@ -56537,7 +56492,7 @@
         <v>7.0431018518518522</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.5">
+    <row r="88" spans="1:5" ht="14.25">
       <c r="A88" t="s">
         <v>604</v>
       </c>
@@ -56546,11 +56501,11 @@
         <v>4.2504238928700566</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.5">
-      <c r="E89" s="378"/>
+    <row r="89" spans="1:5" ht="14.25">
+      <c r="E89" s="321"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1">
-      <c r="A90" s="372" t="s">
+      <c r="A90" s="315" t="s">
         <v>587</v>
       </c>
     </row>
@@ -56560,1015 +56515,1015 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A92" s="373" t="s">
+      <c r="A92" s="316" t="s">
         <v>589</v>
       </c>
-      <c r="B92" s="373">
+      <c r="B92" s="316">
         <v>1.5</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A93" s="373">
+      <c r="A93" s="316">
         <v>0</v>
       </c>
-      <c r="B93" s="373">
+      <c r="B93" s="316">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A94" s="373">
+      <c r="A94" s="316">
         <v>0.3</v>
       </c>
-      <c r="B94" s="373">
+      <c r="B94" s="316">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A95" s="373">
+      <c r="A95" s="316">
         <v>0.4</v>
       </c>
-      <c r="B95" s="373">
+      <c r="B95" s="316">
         <v>2.02</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A96" s="373">
+      <c r="A96" s="316">
         <v>0.5</v>
       </c>
-      <c r="B96" s="373">
+      <c r="B96" s="316">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A97" s="373">
+      <c r="A97" s="316">
         <v>0.6</v>
       </c>
-      <c r="B97" s="373">
+      <c r="B97" s="316">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A98" s="373">
+      <c r="A98" s="316">
         <v>0.7</v>
       </c>
-      <c r="B98" s="373">
+      <c r="B98" s="316">
         <v>2.06</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A99" s="373">
+      <c r="A99" s="316">
         <v>0.8</v>
       </c>
-      <c r="B99" s="373">
+      <c r="B99" s="316">
         <v>2.1</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A100" s="373">
+      <c r="A100" s="316">
         <v>0.9</v>
       </c>
-      <c r="B100" s="373">
+      <c r="B100" s="316">
         <v>2.16</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A101" s="373">
+      <c r="A101" s="316">
         <v>1</v>
       </c>
-      <c r="B101" s="373">
+      <c r="B101" s="316">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A102" s="373">
+      <c r="A102" s="316">
         <v>1.05</v>
       </c>
-      <c r="B102" s="373">
+      <c r="B102" s="316">
         <v>2.36</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A103" s="373">
+      <c r="A103" s="316">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B103" s="373">
+      <c r="B103" s="316">
         <v>2.4</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A104" s="373">
+      <c r="A104" s="316">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B104" s="373">
+      <c r="B104" s="316">
         <v>2.38</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A105" s="373">
+      <c r="A105" s="316">
         <v>1.2</v>
       </c>
-      <c r="B105" s="373">
+      <c r="B105" s="316">
         <v>2.37</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A106" s="373">
+      <c r="A106" s="316">
         <v>1.3</v>
       </c>
-      <c r="B106" s="373">
+      <c r="B106" s="316">
         <v>2.35</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A107" s="373">
+      <c r="A107" s="316">
         <v>1.4</v>
       </c>
-      <c r="B107" s="373">
+      <c r="B107" s="316">
         <v>2.35</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A108" s="373">
+      <c r="A108" s="316">
         <v>1.5</v>
       </c>
-      <c r="B108" s="373">
+      <c r="B108" s="316">
         <v>2.35</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A109" s="373">
+      <c r="A109" s="316">
         <v>1.75</v>
       </c>
-      <c r="B109" s="373">
+      <c r="B109" s="316">
         <v>2.37</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A110" s="373">
+      <c r="A110" s="316">
         <v>2</v>
       </c>
-      <c r="B110" s="373">
+      <c r="B110" s="316">
         <v>2.4</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A111" s="373">
+      <c r="A111" s="316">
         <v>2.25</v>
       </c>
-      <c r="B111" s="373">
+      <c r="B111" s="316">
         <v>2.42</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A112" s="373">
+      <c r="A112" s="316">
         <v>2.5</v>
       </c>
-      <c r="B112" s="373">
+      <c r="B112" s="316">
         <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A113" s="373">
+      <c r="A113" s="316">
         <v>3</v>
       </c>
-      <c r="B113" s="373">
+      <c r="B113" s="316">
         <v>2.48</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A114" s="373">
+      <c r="A114" s="316">
         <v>3.5</v>
       </c>
-      <c r="B114" s="373">
+      <c r="B114" s="316">
         <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A115" s="373">
+      <c r="A115" s="316">
         <v>4</v>
       </c>
-      <c r="B115" s="373">
+      <c r="B115" s="316">
         <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A116" s="373">
+      <c r="A116" s="316">
         <v>4.5</v>
       </c>
-      <c r="B116" s="373">
+      <c r="B116" s="316">
         <v>2.56</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="374">
+      <c r="A117" s="317">
         <v>5</v>
       </c>
-      <c r="B117" s="374">
+      <c r="B117" s="317">
         <v>2.57</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A118" s="375" t="s">
+      <c r="A118" s="318" t="s">
         <v>588</v>
       </c>
-      <c r="B118" s="375">
+      <c r="B118" s="318">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A119" s="373">
+      <c r="A119" s="316">
         <v>0</v>
       </c>
-      <c r="B119" s="373">
+      <c r="B119" s="316">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A120" s="373">
+      <c r="A120" s="316">
         <v>0.3</v>
       </c>
-      <c r="B120" s="373">
+      <c r="B120" s="316">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A121" s="373">
+      <c r="A121" s="316">
         <v>0.4</v>
       </c>
-      <c r="B121" s="373">
+      <c r="B121" s="316">
         <v>2.02</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A122" s="373">
+      <c r="A122" s="316">
         <v>0.5</v>
       </c>
-      <c r="B122" s="373">
+      <c r="B122" s="316">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A123" s="373">
+      <c r="A123" s="316">
         <v>0.6</v>
       </c>
-      <c r="B123" s="373">
+      <c r="B123" s="316">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A124" s="373">
+      <c r="A124" s="316">
         <v>0.7</v>
       </c>
-      <c r="B124" s="373">
+      <c r="B124" s="316">
         <v>2.06</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A125" s="373">
+      <c r="A125" s="316">
         <v>0.8</v>
       </c>
-      <c r="B125" s="373">
+      <c r="B125" s="316">
         <v>2.1</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A126" s="373">
+      <c r="A126" s="316">
         <v>0.9</v>
       </c>
-      <c r="B126" s="373">
+      <c r="B126" s="316">
         <v>2.16</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A127" s="373">
+      <c r="A127" s="316">
         <v>1</v>
       </c>
-      <c r="B127" s="373">
+      <c r="B127" s="316">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A128" s="373">
+      <c r="A128" s="316">
         <v>1.05</v>
       </c>
-      <c r="B128" s="373">
+      <c r="B128" s="316">
         <v>2.36</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A129" s="373">
+      <c r="A129" s="316">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B129" s="373">
+      <c r="B129" s="316">
         <v>2.4</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A130" s="373">
+      <c r="A130" s="316">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B130" s="373">
+      <c r="B130" s="316">
         <v>2.37</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A131" s="373">
+      <c r="A131" s="316">
         <v>1.2</v>
       </c>
-      <c r="B131" s="373">
+      <c r="B131" s="316">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A132" s="373">
+      <c r="A132" s="316">
         <v>1.3</v>
       </c>
-      <c r="B132" s="373">
+      <c r="B132" s="316">
         <v>2.27</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A133" s="373">
+      <c r="A133" s="316">
         <v>1.4</v>
       </c>
-      <c r="B133" s="373">
+      <c r="B133" s="316">
         <v>2.25</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A134" s="373">
+      <c r="A134" s="316">
         <v>1.5</v>
       </c>
-      <c r="B134" s="373">
+      <c r="B134" s="316">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A135" s="373">
+      <c r="A135" s="316">
         <v>1.75</v>
       </c>
-      <c r="B135" s="373">
+      <c r="B135" s="316">
         <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A136" s="373">
+      <c r="A136" s="316">
         <v>2</v>
       </c>
-      <c r="B136" s="373">
+      <c r="B136" s="316">
         <v>2.31</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A137" s="373">
+      <c r="A137" s="316">
         <v>2.25</v>
       </c>
-      <c r="B137" s="373">
+      <c r="B137" s="316">
         <v>2.36</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A138" s="373">
+      <c r="A138" s="316">
         <v>2.5</v>
       </c>
-      <c r="B138" s="373">
+      <c r="B138" s="316">
         <v>2.4</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A139" s="373">
+      <c r="A139" s="316">
         <v>3</v>
       </c>
-      <c r="B139" s="373">
+      <c r="B139" s="316">
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A140" s="373">
+      <c r="A140" s="316">
         <v>3.5</v>
       </c>
-      <c r="B140" s="373">
+      <c r="B140" s="316">
         <v>2.57</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A141" s="373">
+      <c r="A141" s="316">
         <v>4</v>
       </c>
-      <c r="B141" s="373">
+      <c r="B141" s="316">
         <v>2.63</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A142" s="373">
+      <c r="A142" s="316">
         <v>4.5</v>
       </c>
-      <c r="B142" s="373">
+      <c r="B142" s="316">
         <v>2.67</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A143" s="374">
+      <c r="A143" s="317">
         <v>5</v>
       </c>
-      <c r="B143" s="374">
+      <c r="B143" s="317">
         <v>2.7</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A144" s="375" t="s">
+      <c r="A144" s="318" t="s">
         <v>588</v>
       </c>
-      <c r="B144" s="376">
+      <c r="B144" s="319">
         <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A145" s="373">
+      <c r="A145" s="316">
         <v>0</v>
       </c>
-      <c r="B145" s="376">
+      <c r="B145" s="319">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A146" s="373">
+      <c r="A146" s="316">
         <v>0.3</v>
       </c>
-      <c r="B146" s="376">
+      <c r="B146" s="319">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A147" s="373">
+      <c r="A147" s="316">
         <v>0.4</v>
       </c>
-      <c r="B147" s="376">
+      <c r="B147" s="319">
         <v>2.02</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A148" s="373">
+      <c r="A148" s="316">
         <v>0.5</v>
       </c>
-      <c r="B148" s="376">
+      <c r="B148" s="319">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A149" s="373">
+      <c r="A149" s="316">
         <v>0.6</v>
       </c>
-      <c r="B149" s="376">
+      <c r="B149" s="319">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A150" s="373">
+      <c r="A150" s="316">
         <v>0.7</v>
       </c>
-      <c r="B150" s="376">
+      <c r="B150" s="319">
         <v>2.06</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A151" s="373">
+      <c r="A151" s="316">
         <v>0.8</v>
       </c>
-      <c r="B151" s="376">
+      <c r="B151" s="319">
         <v>2.1</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A152" s="373">
+      <c r="A152" s="316">
         <v>0.9</v>
       </c>
-      <c r="B152" s="376">
+      <c r="B152" s="319">
         <v>2.16</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A153" s="373">
+      <c r="A153" s="316">
         <v>1</v>
       </c>
-      <c r="B153" s="376">
+      <c r="B153" s="319">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A154" s="373">
+      <c r="A154" s="316">
         <v>1.05</v>
       </c>
-      <c r="B154" s="376">
+      <c r="B154" s="319">
         <v>2.36</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A155" s="373">
+      <c r="A155" s="316">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B155" s="376">
+      <c r="B155" s="319">
         <v>2.4</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A156" s="373">
+      <c r="A156" s="316">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B156" s="376">
+      <c r="B156" s="319">
         <v>2.37</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A157" s="373">
+      <c r="A157" s="316">
         <v>1.2</v>
       </c>
-      <c r="B157" s="376">
+      <c r="B157" s="319">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A158" s="373">
+      <c r="A158" s="316">
         <v>1.3</v>
       </c>
-      <c r="B158" s="376">
+      <c r="B158" s="319">
         <v>2.21</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A159" s="373">
+      <c r="A159" s="316">
         <v>1.4</v>
       </c>
-      <c r="B159" s="376">
+      <c r="B159" s="319">
         <v>2.16</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A160" s="373">
+      <c r="A160" s="316">
         <v>1.5</v>
       </c>
-      <c r="B160" s="376">
+      <c r="B160" s="319">
         <v>2.12</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A161" s="373">
+      <c r="A161" s="316">
         <v>1.75</v>
       </c>
-      <c r="B161" s="376">
+      <c r="B161" s="319">
         <v>2.08</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A162" s="373">
+      <c r="A162" s="316">
         <v>2</v>
       </c>
-      <c r="B162" s="376">
+      <c r="B162" s="319">
         <v>2.08</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A163" s="373">
+      <c r="A163" s="316">
         <v>2.25</v>
       </c>
-      <c r="B163" s="376">
+      <c r="B163" s="319">
         <v>2.12</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A164" s="373">
+      <c r="A164" s="316">
         <v>2.5</v>
       </c>
-      <c r="B164" s="376">
+      <c r="B164" s="319">
         <v>2.15</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A165" s="373">
+      <c r="A165" s="316">
         <v>3</v>
       </c>
-      <c r="B165" s="376">
+      <c r="B165" s="319">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A166" s="373">
+      <c r="A166" s="316">
         <v>3.5</v>
       </c>
-      <c r="B166" s="376">
+      <c r="B166" s="319">
         <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A167" s="373">
+      <c r="A167" s="316">
         <v>4</v>
       </c>
-      <c r="B167" s="376">
+      <c r="B167" s="319">
         <v>2.34</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A168" s="373">
+      <c r="A168" s="316">
         <v>4.5</v>
       </c>
-      <c r="B168" s="376">
+      <c r="B168" s="319">
         <v>2.39</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A169" s="374">
+      <c r="A169" s="317">
         <v>5</v>
       </c>
-      <c r="B169" s="374">
+      <c r="B169" s="317">
         <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A170" s="373" t="s">
+      <c r="A170" s="316" t="s">
         <v>588</v>
       </c>
-      <c r="B170" s="376">
+      <c r="B170" s="319">
         <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A171" s="373">
+      <c r="A171" s="316">
         <v>0</v>
       </c>
-      <c r="B171" s="376">
+      <c r="B171" s="319">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A172" s="373">
+      <c r="A172" s="316">
         <v>0.3</v>
       </c>
-      <c r="B172" s="376">
+      <c r="B172" s="319">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A173" s="373">
+      <c r="A173" s="316">
         <v>0.4</v>
       </c>
-      <c r="B173" s="376">
+      <c r="B173" s="319">
         <v>2.02</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A174" s="373">
+      <c r="A174" s="316">
         <v>0.5</v>
       </c>
-      <c r="B174" s="376">
+      <c r="B174" s="319">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A175" s="373">
+      <c r="A175" s="316">
         <v>0.6</v>
       </c>
-      <c r="B175" s="376">
+      <c r="B175" s="319">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A176" s="373">
+      <c r="A176" s="316">
         <v>0.7</v>
       </c>
-      <c r="B176" s="376">
+      <c r="B176" s="319">
         <v>2.06</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A177" s="373">
+      <c r="A177" s="316">
         <v>0.8</v>
       </c>
-      <c r="B177" s="376">
+      <c r="B177" s="319">
         <v>2.1</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A178" s="373">
+      <c r="A178" s="316">
         <v>0.9</v>
       </c>
-      <c r="B178" s="376">
+      <c r="B178" s="319">
         <v>2.16</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A179" s="373">
+      <c r="A179" s="316">
         <v>1</v>
       </c>
-      <c r="B179" s="376">
+      <c r="B179" s="319">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A180" s="373">
+      <c r="A180" s="316">
         <v>1.05</v>
       </c>
-      <c r="B180" s="376">
+      <c r="B180" s="319">
         <v>2.36</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A181" s="373">
+      <c r="A181" s="316">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B181" s="376">
+      <c r="B181" s="319">
         <v>2.4</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A182" s="373">
+      <c r="A182" s="316">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B182" s="376">
+      <c r="B182" s="319">
         <v>2.38</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A183" s="373">
+      <c r="A183" s="316">
         <v>1.2</v>
       </c>
-      <c r="B183" s="376">
+      <c r="B183" s="319">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A184" s="373">
+      <c r="A184" s="316">
         <v>1.3</v>
       </c>
-      <c r="B184" s="376">
+      <c r="B184" s="319">
         <v>2.21</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A185" s="373">
+      <c r="A185" s="316">
         <v>1.4</v>
       </c>
-      <c r="B185" s="376">
+      <c r="B185" s="319">
         <v>2.13</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A186" s="373">
+      <c r="A186" s="316">
         <v>1.5</v>
       </c>
-      <c r="B186" s="376">
+      <c r="B186" s="319">
         <v>2.08</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A187" s="373">
+      <c r="A187" s="316">
         <v>1.75</v>
       </c>
-      <c r="B187" s="376">
+      <c r="B187" s="319">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A188" s="373">
+      <c r="A188" s="316">
         <v>2</v>
       </c>
-      <c r="B188" s="376">
+      <c r="B188" s="319">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A189" s="373">
+      <c r="A189" s="316">
         <v>2.25</v>
       </c>
-      <c r="B189" s="376">
+      <c r="B189" s="319">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A190" s="373">
+      <c r="A190" s="316">
         <v>2.5</v>
       </c>
-      <c r="B190" s="376">
+      <c r="B190" s="319">
         <v>2.06</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A191" s="373">
+      <c r="A191" s="316">
         <v>3</v>
       </c>
-      <c r="B191" s="376">
+      <c r="B191" s="319">
         <v>2.1</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A192" s="373">
+      <c r="A192" s="316">
         <v>3.5</v>
       </c>
-      <c r="B192" s="376">
+      <c r="B192" s="319">
         <v>2.14</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A193" s="373">
+      <c r="A193" s="316">
         <v>4</v>
       </c>
-      <c r="B193" s="376">
+      <c r="B193" s="319">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A194" s="373">
+      <c r="A194" s="316">
         <v>4.5</v>
       </c>
-      <c r="B194" s="376">
+      <c r="B194" s="319">
         <v>2.21</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A195" s="374">
+      <c r="A195" s="317">
         <v>5</v>
       </c>
-      <c r="B195" s="374">
+      <c r="B195" s="317">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" customHeight="1" collapsed="1">
-      <c r="A196" s="370" t="s">
+      <c r="A196" s="313" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A197" s="376" t="s">
+      <c r="A197" s="319" t="s">
         <v>84</v>
       </c>
-      <c r="B197" s="376" t="s">
+      <c r="B197" s="319" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A198" s="376">
+      <c r="A198" s="319">
         <v>0</v>
       </c>
-      <c r="B198" s="376">
+      <c r="B198" s="319">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A199" s="376">
+      <c r="A199" s="319">
         <v>5</v>
       </c>
-      <c r="B199" s="376">
+      <c r="B199" s="319">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A200" s="376">
+      <c r="A200" s="319">
         <v>10</v>
       </c>
-      <c r="B200" s="376">
+      <c r="B200" s="319">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A201" s="376">
+      <c r="A201" s="319">
         <v>15</v>
       </c>
-      <c r="B201" s="376">
+      <c r="B201" s="319">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A202" s="376">
+      <c r="A202" s="319">
         <v>20</v>
       </c>
-      <c r="B202" s="376">
+      <c r="B202" s="319">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A203" s="376">
+      <c r="A203" s="319">
         <v>25</v>
       </c>
-      <c r="B203" s="376">
+      <c r="B203" s="319">
         <v>0.11</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A204" s="376">
+      <c r="A204" s="319">
         <v>30</v>
       </c>
-      <c r="B204" s="376">
+      <c r="B204" s="319">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" customHeight="1" collapsed="1">
-      <c r="A205" s="377" t="s">
+      <c r="A205" s="320" t="s">
         <v>591</v>
       </c>
-      <c r="B205" s="377" t="s">
+      <c r="B205" s="320" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A206" s="376">
+      <c r="A206" s="319">
         <v>0</v>
       </c>
-      <c r="B206" s="376">
+      <c r="B206" s="319">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A207" s="376">
+      <c r="A207" s="319">
         <v>0.5</v>
       </c>
-      <c r="B207" s="376">
+      <c r="B207" s="319">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A208" s="376">
+      <c r="A208" s="319">
         <v>0.7</v>
       </c>
-      <c r="B208" s="376">
+      <c r="B208" s="319">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A209" s="376">
+      <c r="A209" s="319">
         <v>0.8</v>
       </c>
-      <c r="B209" s="376">
+      <c r="B209" s="319">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A210" s="376">
+      <c r="A210" s="319">
         <v>0.9</v>
       </c>
-      <c r="B210" s="376">
+      <c r="B210" s="319">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A211" s="376">
+      <c r="A211" s="319">
         <v>1</v>
       </c>
-      <c r="B211" s="376">
+      <c r="B211" s="319">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A212" s="376">
+      <c r="A212" s="319">
         <v>1.2</v>
       </c>
-      <c r="B212" s="376">
+      <c r="B212" s="319">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A213" s="376">
+      <c r="A213" s="319">
         <v>1.5</v>
       </c>
-      <c r="B213" s="376">
+      <c r="B213" s="319">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A214" s="376">
+      <c r="A214" s="319">
         <v>2</v>
       </c>
-      <c r="B214" s="376">
+      <c r="B214" s="319">
         <v>0.06</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A215" s="376">
+      <c r="A215" s="319">
         <v>2.5</v>
       </c>
-      <c r="B215" s="376">
+      <c r="B215" s="319">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A216" s="376">
+      <c r="A216" s="319">
         <v>3</v>
       </c>
-      <c r="B216" s="376">
+      <c r="B216" s="319">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A217" s="376">
+      <c r="A217" s="319">
         <v>3.5</v>
       </c>
-      <c r="B217" s="376">
+      <c r="B217" s="319">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A218" s="376">
+      <c r="A218" s="319">
         <v>4</v>
       </c>
-      <c r="B218" s="376">
+      <c r="B218" s="319">
         <v>0.115</v>
       </c>
     </row>
@@ -57918,7 +57873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:R123"/>
   <sheetViews>
@@ -57926,13 +57881,13 @@
       <selection activeCell="A35" sqref="A35:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="29">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="188" t="s">
         <v>387</v>
       </c>
@@ -57943,10 +57898,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="366"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
+      <c r="B5" s="378"/>
+      <c r="C5" s="378"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="307" t="s">
@@ -58624,7 +58579,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="29">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="188" t="s">
         <v>392</v>
       </c>
@@ -58969,7 +58924,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" ht="15">
       <c r="J112" t="s">
         <v>564</v>
       </c>
@@ -59008,7 +58963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -59016,16 +58971,16 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" style="282" customWidth="1"/>
-    <col min="2" max="6" width="9.08984375" style="283" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.75" style="282" customWidth="1"/>
+    <col min="2" max="6" width="9.125" style="283" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" style="283" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.08984375" style="283"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="9" max="11" width="9.125" style="283"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="281" t="s">
         <v>508</v>
       </c>
@@ -59801,7 +59756,7 @@
       <c r="J52" s="295"/>
       <c r="K52" s="295"/>
     </row>
-    <row r="53" spans="1:11" s="303" customFormat="1">
+    <row r="53" spans="1:11" s="303" customFormat="1" ht="15">
       <c r="A53" s="281" t="s">
         <v>509</v>
       </c>
@@ -59884,7 +59839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="266" customFormat="1">
+    <row r="62" spans="1:11" s="266" customFormat="1" ht="15">
       <c r="A62" s="297" t="s">
         <v>544</v>
       </c>
@@ -59967,7 +59922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="266" customFormat="1">
+    <row r="71" spans="1:11" s="266" customFormat="1" ht="15">
       <c r="A71" s="297" t="s">
         <v>545</v>
       </c>
@@ -60050,7 +60005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="301" customFormat="1">
+    <row r="80" spans="1:11" s="301" customFormat="1" ht="15">
       <c r="A80" s="299" t="s">
         <v>546</v>
       </c>
@@ -60209,12 +60164,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
-</scriptIds>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006416C8A108E61840AFB84A4598B73E55" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1d8d0092a91b491fa162699921cd7b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5cf7016-d570-4e66-bed5-9c66354e4d60" xmlns:ns3="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc769dae83c42ca581dc5110a4ef7ce3" ns2:_="" ns3:_="">
     <xsd:import namespace="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
@@ -60421,35 +60390,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
+</scriptIds>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
+    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BA7C14-35B6-43AC-B57B-4A5107295D21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60468,27 +60440,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
-    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
+++ b/ESTYCTRL HRD-02 Diseño Aerodinámico y dinámico Rev.1 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.valadez\Documents\Repositorios\Recovery-systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.valadez\Documents\00 Repos\rocketry-aero-and-stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3842,18 +3842,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3863,25 +3851,58 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3897,15 +3918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3932,22 +3944,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4291,11 +4291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1322025648"/>
-        <c:axId val="-1322019664"/>
+        <c:axId val="340953304"/>
+        <c:axId val="340959968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1322025648"/>
+        <c:axId val="340953304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4423,14 +4423,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322019664"/>
+        <c:crossAx val="340959968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.30000000000000004"/>
         <c:minorUnit val="0.30000000000000004"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1322019664"/>
+        <c:axId val="340959968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4604,7 +4604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322025648"/>
+        <c:crossAx val="340953304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -4794,11 +4794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205955648"/>
-        <c:axId val="-1205960000"/>
+        <c:axId val="342803960"/>
+        <c:axId val="342799648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205955648"/>
+        <c:axId val="342803960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,12 +4869,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205960000"/>
+        <c:crossAx val="342799648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205960000"/>
+        <c:axId val="342799648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4945,7 +4945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205955648"/>
+        <c:crossAx val="342803960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6108,11 +6108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205958912"/>
-        <c:axId val="-1205957824"/>
+        <c:axId val="342804744"/>
+        <c:axId val="339079808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205958912"/>
+        <c:axId val="342804744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6238,12 +6238,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205957824"/>
+        <c:crossAx val="339079808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205957824"/>
+        <c:axId val="339079808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6369,7 +6369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205958912"/>
+        <c:crossAx val="342804744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7469,11 +7469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205957280"/>
-        <c:axId val="-1205955104"/>
+        <c:axId val="339077848"/>
+        <c:axId val="339080592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205957280"/>
+        <c:axId val="339077848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7599,12 +7599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205955104"/>
+        <c:crossAx val="339080592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205955104"/>
+        <c:axId val="339080592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7730,7 +7730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205957280"/>
+        <c:crossAx val="339077848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7992,11 +7992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205952928"/>
-        <c:axId val="-1205956736"/>
+        <c:axId val="339073144"/>
+        <c:axId val="339078240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205952928"/>
+        <c:axId val="339073144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8108,12 +8108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205956736"/>
+        <c:crossAx val="339078240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205956736"/>
+        <c:axId val="339078240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8226,7 +8226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205952928"/>
+        <c:crossAx val="339073144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8451,11 +8451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1200708192"/>
-        <c:axId val="-1200706560"/>
+        <c:axId val="339076280"/>
+        <c:axId val="339078632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1200708192"/>
+        <c:axId val="339076280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,12 +8512,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200706560"/>
+        <c:crossAx val="339078632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1200706560"/>
+        <c:axId val="339078632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8574,7 +8574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200708192"/>
+        <c:crossAx val="339076280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8799,11 +8799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1200713632"/>
-        <c:axId val="-1200709824"/>
+        <c:axId val="339079024"/>
+        <c:axId val="339074320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1200713632"/>
+        <c:axId val="339079024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8860,12 +8860,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200709824"/>
+        <c:crossAx val="339074320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1200709824"/>
+        <c:axId val="339074320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8923,7 +8923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200713632"/>
+        <c:crossAx val="339079024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9837,11 +9837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1200707648"/>
-        <c:axId val="-1200712544"/>
+        <c:axId val="339079416"/>
+        <c:axId val="339075496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1200707648"/>
+        <c:axId val="339079416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9898,12 +9898,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200712544"/>
+        <c:crossAx val="339075496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1200712544"/>
+        <c:axId val="339075496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -9961,7 +9961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200707648"/>
+        <c:crossAx val="339079416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10403,11 +10403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1200708736"/>
-        <c:axId val="-1200707104"/>
+        <c:axId val="339075104"/>
+        <c:axId val="339075888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1200708736"/>
+        <c:axId val="339075104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10464,12 +10464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200707104"/>
+        <c:crossAx val="339075888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1200707104"/>
+        <c:axId val="339075888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10526,7 +10526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200708736"/>
+        <c:crossAx val="339075104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10736,8 +10736,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1200712000"/>
-        <c:axId val="-1200713088"/>
+        <c:axId val="346218776"/>
+        <c:axId val="346225048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10845,11 +10845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1200711456"/>
-        <c:axId val="-1200709280"/>
+        <c:axId val="346221520"/>
+        <c:axId val="346219168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1200712000"/>
+        <c:axId val="346218776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10906,7 +10906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200713088"/>
+        <c:crossAx val="346225048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10914,7 +10914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1200713088"/>
+        <c:axId val="346225048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10971,12 +10971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200712000"/>
+        <c:crossAx val="346218776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1200709280"/>
+        <c:axId val="346219168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11019,12 +11019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200711456"/>
+        <c:crossAx val="346221520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1200711456"/>
+        <c:axId val="346221520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,7 +11034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1200709280"/>
+        <c:crossAx val="346219168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11321,11 +11321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1200710912"/>
-        <c:axId val="-1200710368"/>
+        <c:axId val="346220736"/>
+        <c:axId val="346223872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1200710912"/>
+        <c:axId val="346220736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11383,12 +11383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200710368"/>
+        <c:crossAx val="346223872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1200710368"/>
+        <c:axId val="346223872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11445,7 +11445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1200710912"/>
+        <c:crossAx val="346220736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11930,11 +11930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1322022384"/>
-        <c:axId val="-1322018576"/>
+        <c:axId val="340959576"/>
+        <c:axId val="340954480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1322022384"/>
+        <c:axId val="340959576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12002,12 +12002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322018576"/>
+        <c:crossAx val="340954480"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1322018576"/>
+        <c:axId val="340954480"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12078,7 +12078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322022384"/>
+        <c:crossAx val="340959576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12474,11 +12474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1322019120"/>
-        <c:axId val="-1322018032"/>
+        <c:axId val="340958008"/>
+        <c:axId val="340953696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1322019120"/>
+        <c:axId val="340958008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12549,12 +12549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322018032"/>
+        <c:crossAx val="340953696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1322018032"/>
+        <c:axId val="340953696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12625,7 +12625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322019120"/>
+        <c:crossAx val="340958008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12935,11 +12935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1322015312"/>
-        <c:axId val="-1322014768"/>
+        <c:axId val="340957616"/>
+        <c:axId val="339454472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1322015312"/>
+        <c:axId val="340957616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13009,12 +13009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322014768"/>
+        <c:crossAx val="339454472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1322014768"/>
+        <c:axId val="339454472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13085,7 +13085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322015312"/>
+        <c:crossAx val="340957616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13271,11 +13271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1322014224"/>
-        <c:axId val="-1538164992"/>
+        <c:axId val="342806312"/>
+        <c:axId val="342805136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1322014224"/>
+        <c:axId val="342806312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13346,12 +13346,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1538164992"/>
+        <c:crossAx val="342805136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1538164992"/>
+        <c:axId val="342805136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -13423,7 +13423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1322014224"/>
+        <c:crossAx val="342806312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14343,11 +14343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1538170976"/>
-        <c:axId val="-1538174784"/>
+        <c:axId val="342800824"/>
+        <c:axId val="342805920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1538170976"/>
+        <c:axId val="342800824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14418,12 +14418,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1538174784"/>
+        <c:crossAx val="342805920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1538174784"/>
+        <c:axId val="342805920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14494,7 +14494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1538170976"/>
+        <c:crossAx val="342800824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14683,8 +14683,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205959456"/>
-        <c:axId val="-1205958368"/>
+        <c:axId val="342800432"/>
+        <c:axId val="342798864"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -14810,7 +14810,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205959456"/>
+        <c:axId val="342800432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14882,12 +14882,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205958368"/>
+        <c:crossAx val="342798864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205958368"/>
+        <c:axId val="342798864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14958,7 +14958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205959456"/>
+        <c:crossAx val="342800432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15144,11 +15144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205954016"/>
-        <c:axId val="-1205954560"/>
+        <c:axId val="342801216"/>
+        <c:axId val="342802784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205954016"/>
+        <c:axId val="342801216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15219,12 +15219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205954560"/>
+        <c:crossAx val="342802784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205954560"/>
+        <c:axId val="342802784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -15296,7 +15296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205954016"/>
+        <c:crossAx val="342801216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15485,11 +15485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205953472"/>
-        <c:axId val="-1205956192"/>
+        <c:axId val="342802000"/>
+        <c:axId val="342803176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1205953472"/>
+        <c:axId val="342802000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15560,12 +15560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205956192"/>
+        <c:crossAx val="342803176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1205956192"/>
+        <c:axId val="342803176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15636,7 +15636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205953472"/>
+        <c:crossAx val="342802000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25965,7 +25965,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B3C67-1ABC-2789-344B-126A3B5F8F18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26022,7 +26022,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26363,10 +26363,10 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8696CF88-4D17-58E0-4547-0F4FEA49BBCA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37A524B4-13F7-A024-0584-ED9E880D868F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26399,7 +26399,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27C3274-15D1-951A-7FD8-DA1BEAC20F75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26631,7 +26631,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE2CABF-230F-1FCE-16A4-CED18BDBB96F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26865,7 +26865,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8015B4A1-1918-BE89-980C-B85DE46BD6BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27150,7 +27150,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F80604-448F-B015-D105-A97A13CB0066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27224,7 +27224,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B846C0C-F558-AFB6-E24C-A1AB278BB42E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27295,7 +27295,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BA3FBC-9103-9850-09A8-DDCD8887D004}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27680,7 +27680,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28175,10 +28175,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4B7E12D9-9242-9E1C-099C-D2BBD2CCD9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28214,10 +28214,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1B4768-DDEF-37F2-E2F6-DF6922649F41}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10EB7F2F-3037-0F02-65F4-9470FC24037D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28258,7 +28258,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3C2806-C192-4C8E-400B-77250FF88002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28302,7 +28302,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E49E023-F1F9-85DB-71B0-14903EA1E2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28346,7 +28346,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31466A9B-9FE0-4282-E083-96028C27B7F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28395,7 +28395,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28431,10 +28431,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF0E0E67-9C36-058A-4D85-04C0B1DFFA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28472,10 +28472,10 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E128D49A-3629-4BBF-9581-DB9D69B8A541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28513,10 +28513,10 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4705D049-9711-4AD6-8388-EAF961A55C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28554,10 +28554,10 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{64CC32F9-70E7-407E-A2B4-7366728088AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28595,10 +28595,10 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{250CC376-444D-4A69-B396-08361C76F808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28636,10 +28636,10 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A60D0BB-D2DB-4D29-AC4E-706AD0B20703}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C15CA873-26E1-4AC6-B585-4EB97F3C73DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28672,7 +28672,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2E01F0-7A94-06DF-7AB3-CD6A31C3FE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28729,7 +28729,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D1765-6CE0-A43C-C2C3-6C5CED27D83A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29002,7 +29002,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB379C5-A5E3-077C-7C48-41207301E333}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29351,7 +29351,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29389,10 +29389,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18AE237-AB9B-443B-9AC6-0A486D849990}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3C537F2-31BC-477B-A2BA-3324E8A581D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29430,10 +29430,10 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D877167B-41EB-4438-B309-3687EC1249E9}"/>
             </a:ext>
             <a:ext uri="{6ECC49D1-AA05-4338-93AA-15A1B29DFB0A}">
-              <asl:scriptLink xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" xmlns="" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
+              <asl:scriptLink xmlns="" xmlns:asl="http://schemas.microsoft.com/office/drawing/2021/scriptlink" val="{&quot;shareId&quot;:&quot;ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ&quot;}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29514,7 +29514,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58467C2-2019-BCCC-3B09-5F212FBC35F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29563,7 +29563,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29599,7 +29599,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29635,7 +29635,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29668,14 +29668,14 @@
       <xdr:rowOff>38954</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482329" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D022E62-4A35-4DCD-8D2A-B3B77A9519EE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D022E62-4A35-4DCD-8D2A-B3B77A9519EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29907,7 +29907,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -29972,14 +29972,14 @@
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1118063" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{498D211D-116C-4881-B0FD-4DE2CAB102D0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498D211D-116C-4881-B0FD-4DE2CAB102D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30111,7 +30111,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -30186,7 +30186,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDE16BEB-BF7B-48BC-A264-C6EB2A678B38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE16BEB-BF7B-48BC-A264-C6EB2A678B38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30235,7 +30235,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940D527C-4366-00CE-4B25-D1D345FA8B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30268,7 +30268,7 @@
             <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A761C379-9697-216A-9A7E-CFB8449EE35F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30513,7 +30513,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9DD64C-8DAF-E3DC-52EF-344D71B514CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30546,7 +30546,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30842E1-FA76-C7DF-5357-28BDD94979CA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30932,7 +30932,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238526A6-FCD4-8548-FF55-6B3C91F39C4B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31317,7 +31317,7 @@
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D924C9F-B1DD-4B9D-BFCF-B5695F959620}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31678,7 +31678,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00593C10-B837-4C24-7607-B834AEF6849E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31714,7 +31714,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064315BC-E7A3-C5F1-199F-03D3DC0B7A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31747,7 +31747,7 @@
             <xdr:cNvPr id="17" name="TextBox 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDE8A02-B0ED-012D-019B-E87D218D6924}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32094,7 +32094,7 @@
             <xdr:cNvPr id="18" name="TextBox 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE797A0D-38FE-68C2-1937-5CEA76EEAF0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32490,7 +32490,7 @@
             <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6623A625-4973-241C-C2D8-E55AF8EEB25E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32746,7 +32746,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2736D442-88E4-B09D-E012-92D915CB7DF1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2736D442-88E4-B09D-E012-92D915CB7DF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33052,7 +33052,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EA6BB45-C842-F85B-2CD2-48F390F79360}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA6BB45-C842-F85B-2CD2-48F390F79360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33096,7 +33096,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71695D33-2EF6-CC71-803C-53E251A3DCB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71695D33-2EF6-CC71-803C-53E251A3DCB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33137,7 +33137,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9B0840E-4CE9-ABAA-F86E-A2C5A3298F58}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B0840E-4CE9-ABAA-F86E-A2C5A3298F58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33365,7 +33365,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26F5E52C-9462-4017-812B-1B440BA856B0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F5E52C-9462-4017-812B-1B440BA856B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33611,7 +33611,7 @@
             <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDCB27B8-A82C-0368-52DC-5AD97013AFC5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCB27B8-A82C-0368-52DC-5AD97013AFC5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33817,7 +33817,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4E79A02-8F63-33C0-1D45-29D3BDA633AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E79A02-8F63-33C0-1D45-29D3BDA633AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33866,7 +33866,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33907,7 +33907,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34110,7 +34110,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34301,7 +34301,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34486,7 +34486,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34722,7 +34722,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD733D0-702B-9D6D-B7A4-AE79237D48AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34763,7 +34763,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34966,7 +34966,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35156,7 +35156,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35340,7 +35340,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D898092-0340-1DEC-094C-4073F2FA1F95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42600,10 +42600,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1"/>
     <row r="2" spans="2:22" ht="37.15" customHeight="1">
-      <c r="B2" s="330" t="s">
+      <c r="B2" s="348" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="331"/>
+      <c r="C2" s="350"/>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="3" t="s">
@@ -42673,13 +42673,13 @@
       <c r="B12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="334" t="s">
+      <c r="C12" s="330" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335"/>
-      <c r="F12" s="335"/>
-      <c r="G12" s="336"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="332"/>
       <c r="H12" s="1" t="s">
         <v>186</v>
       </c>
@@ -42694,13 +42694,13 @@
       <c r="N12" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="334" t="s">
+      <c r="O12" s="330" t="s">
         <v>189</v>
       </c>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="335"/>
-      <c r="R12" s="335"/>
-      <c r="S12" s="336"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="331"/>
+      <c r="S12" s="332"/>
       <c r="T12" s="1" t="s">
         <v>186</v>
       </c>
@@ -42712,7 +42712,7 @@
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="332" t="s">
+      <c r="B13" s="345" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="71"/>
@@ -42732,7 +42732,7 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="64"/>
-      <c r="N13" s="332" t="s">
+      <c r="N13" s="345" t="s">
         <v>190</v>
       </c>
       <c r="O13" s="71"/>
@@ -42752,7 +42752,7 @@
       </c>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="333"/>
+      <c r="B14" s="346"/>
       <c r="C14" s="74"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -42772,7 +42772,7 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
-      <c r="N14" s="333"/>
+      <c r="N14" s="346"/>
       <c r="O14" s="74"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
@@ -42792,7 +42792,7 @@
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="333"/>
+      <c r="B15" s="346"/>
       <c r="C15" s="74"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -42812,7 +42812,7 @@
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
-      <c r="N15" s="333"/>
+      <c r="N15" s="346"/>
       <c r="O15" s="74"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
@@ -42832,7 +42832,7 @@
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="333"/>
+      <c r="B16" s="346"/>
       <c r="C16" s="74"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -42852,7 +42852,7 @@
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
-      <c r="N16" s="333"/>
+      <c r="N16" s="346"/>
       <c r="O16" s="74"/>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
@@ -42872,7 +42872,7 @@
       </c>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="333"/>
+      <c r="B17" s="346"/>
       <c r="C17" s="74"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
@@ -42892,7 +42892,7 @@
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
-      <c r="N17" s="333"/>
+      <c r="N17" s="346"/>
       <c r="O17" s="74"/>
       <c r="P17" s="64"/>
       <c r="Q17" s="64"/>
@@ -42912,7 +42912,7 @@
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="333"/>
+      <c r="B18" s="346"/>
       <c r="C18" s="74"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -42932,7 +42932,7 @@
       </c>
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
-      <c r="N18" s="333"/>
+      <c r="N18" s="346"/>
       <c r="O18" s="74"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="64"/>
@@ -42952,7 +42952,7 @@
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="333"/>
+      <c r="B19" s="346"/>
       <c r="C19" s="74"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
-      <c r="N19" s="333"/>
+      <c r="N19" s="346"/>
       <c r="O19" s="74"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
@@ -42992,7 +42992,7 @@
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="333"/>
+      <c r="B20" s="346"/>
       <c r="C20" s="74"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
@@ -43012,7 +43012,7 @@
       </c>
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
-      <c r="N20" s="333"/>
+      <c r="N20" s="346"/>
       <c r="O20" s="74"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="64"/>
@@ -43032,7 +43032,7 @@
       </c>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="333"/>
+      <c r="B21" s="346"/>
       <c r="C21" s="74"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -43052,7 +43052,7 @@
       </c>
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
-      <c r="N21" s="333"/>
+      <c r="N21" s="346"/>
       <c r="O21" s="74"/>
       <c r="P21" s="64"/>
       <c r="Q21" s="64"/>
@@ -43072,7 +43072,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" thickBot="1">
-      <c r="B22" s="333"/>
+      <c r="B22" s="346"/>
       <c r="C22" s="74"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -43092,7 +43092,7 @@
       </c>
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
-      <c r="N22" s="337"/>
+      <c r="N22" s="347"/>
       <c r="O22" s="74"/>
       <c r="P22" s="64"/>
       <c r="Q22" s="64"/>
@@ -43112,7 +43112,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B23" s="341" t="s">
+      <c r="B23" s="365" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="66"/>
@@ -43122,8 +43122,8 @@
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
       <c r="G23" s="65"/>
-      <c r="K23" s="339"/>
-      <c r="N23" s="340" t="s">
+      <c r="K23" s="343"/>
+      <c r="N23" s="364" t="s">
         <v>191</v>
       </c>
       <c r="O23" s="66" t="s">
@@ -43138,7 +43138,7 @@
       <c r="S23" s="65"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="341"/>
+      <c r="B24" s="365"/>
       <c r="C24" s="67" t="s">
         <v>193</v>
       </c>
@@ -43146,8 +43146,8 @@
         <f>(F25/2)/(F26)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="K24" s="339"/>
-      <c r="N24" s="341"/>
+      <c r="K24" s="343"/>
+      <c r="N24" s="365"/>
       <c r="O24" s="67" t="s">
         <v>193</v>
       </c>
@@ -43156,7 +43156,7 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="341"/>
+      <c r="B25" s="365"/>
       <c r="C25" s="67" t="s">
         <v>195</v>
       </c>
@@ -43174,8 +43174,8 @@
       <c r="G25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="339"/>
-      <c r="N25" s="341"/>
+      <c r="K25" s="343"/>
+      <c r="N25" s="365"/>
       <c r="O25" s="67" t="s">
         <v>195</v>
       </c>
@@ -43195,7 +43195,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B26" s="341"/>
+      <c r="B26" s="365"/>
       <c r="C26" s="68" t="s">
         <v>198</v>
       </c>
@@ -43212,8 +43212,8 @@
       <c r="G26" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="339"/>
-      <c r="N26" s="341"/>
+      <c r="K26" s="343"/>
+      <c r="N26" s="365"/>
       <c r="O26" s="68" t="s">
         <v>198</v>
       </c>
@@ -43235,25 +43235,25 @@
       <c r="B27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="342" t="s">
+      <c r="C27" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="342"/>
-      <c r="E27" s="342"/>
-      <c r="F27" s="342"/>
-      <c r="G27" s="342"/>
+      <c r="D27" s="333"/>
+      <c r="E27" s="333"/>
+      <c r="F27" s="333"/>
+      <c r="G27" s="333"/>
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
       <c r="N27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O27" s="342" t="s">
+      <c r="O27" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="P27" s="342"/>
-      <c r="Q27" s="342"/>
-      <c r="R27" s="342"/>
-      <c r="S27" s="342"/>
+      <c r="P27" s="333"/>
+      <c r="Q27" s="333"/>
+      <c r="R27" s="333"/>
+      <c r="S27" s="333"/>
     </row>
     <row r="28" spans="2:22" ht="57">
       <c r="B28" s="2" t="s">
@@ -43295,14 +43295,14 @@
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="332" t="s">
+      <c r="B31" s="345" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="330"/>
-      <c r="D31" s="343"/>
-      <c r="E31" s="343"/>
-      <c r="F31" s="343"/>
-      <c r="G31" s="331"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="349"/>
+      <c r="E31" s="349"/>
+      <c r="F31" s="349"/>
+      <c r="G31" s="350"/>
       <c r="H31" s="1">
         <f>H22</f>
         <v>30</v>
@@ -43317,12 +43317,12 @@
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="333"/>
-      <c r="C32" s="344"/>
-      <c r="D32" s="338"/>
-      <c r="E32" s="338"/>
-      <c r="F32" s="338"/>
-      <c r="G32" s="345"/>
+      <c r="B32" s="346"/>
+      <c r="C32" s="351"/>
+      <c r="D32" s="340"/>
+      <c r="E32" s="340"/>
+      <c r="F32" s="340"/>
+      <c r="G32" s="352"/>
       <c r="H32" s="12">
         <f>(D43/8/2)+H31</f>
         <v>36.25</v>
@@ -43337,12 +43337,12 @@
       </c>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="333"/>
-      <c r="C33" s="344"/>
-      <c r="D33" s="338"/>
-      <c r="E33" s="338"/>
-      <c r="F33" s="338"/>
-      <c r="G33" s="345"/>
+      <c r="B33" s="346"/>
+      <c r="C33" s="351"/>
+      <c r="D33" s="340"/>
+      <c r="E33" s="340"/>
+      <c r="F33" s="340"/>
+      <c r="G33" s="352"/>
       <c r="H33" s="12">
         <f>($D$43/8/2)*2+(H32)</f>
         <v>48.75</v>
@@ -43357,12 +43357,12 @@
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="333"/>
-      <c r="C34" s="344"/>
-      <c r="D34" s="338"/>
-      <c r="E34" s="338"/>
-      <c r="F34" s="338"/>
-      <c r="G34" s="345"/>
+      <c r="B34" s="346"/>
+      <c r="C34" s="351"/>
+      <c r="D34" s="340"/>
+      <c r="E34" s="340"/>
+      <c r="F34" s="340"/>
+      <c r="G34" s="352"/>
       <c r="H34" s="12">
         <f t="shared" ref="H34:H39" si="8">($D$43/8/2)*2+(H33)</f>
         <v>61.25</v>
@@ -43377,12 +43377,12 @@
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="333"/>
-      <c r="C35" s="344"/>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
-      <c r="F35" s="338"/>
-      <c r="G35" s="345"/>
+      <c r="B35" s="346"/>
+      <c r="C35" s="351"/>
+      <c r="D35" s="340"/>
+      <c r="E35" s="340"/>
+      <c r="F35" s="340"/>
+      <c r="G35" s="352"/>
       <c r="H35" s="12">
         <f t="shared" si="8"/>
         <v>73.75</v>
@@ -43397,12 +43397,12 @@
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="333"/>
-      <c r="C36" s="344"/>
-      <c r="D36" s="338"/>
-      <c r="E36" s="338"/>
-      <c r="F36" s="338"/>
-      <c r="G36" s="345"/>
+      <c r="B36" s="346"/>
+      <c r="C36" s="351"/>
+      <c r="D36" s="340"/>
+      <c r="E36" s="340"/>
+      <c r="F36" s="340"/>
+      <c r="G36" s="352"/>
       <c r="H36" s="12">
         <f t="shared" si="8"/>
         <v>86.25</v>
@@ -43417,12 +43417,12 @@
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="333"/>
-      <c r="C37" s="344"/>
-      <c r="D37" s="338"/>
-      <c r="E37" s="338"/>
-      <c r="F37" s="338"/>
-      <c r="G37" s="345"/>
+      <c r="B37" s="346"/>
+      <c r="C37" s="351"/>
+      <c r="D37" s="340"/>
+      <c r="E37" s="340"/>
+      <c r="F37" s="340"/>
+      <c r="G37" s="352"/>
       <c r="H37" s="12">
         <f t="shared" si="8"/>
         <v>98.75</v>
@@ -43437,12 +43437,12 @@
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="333"/>
-      <c r="C38" s="344"/>
-      <c r="D38" s="338"/>
-      <c r="E38" s="338"/>
-      <c r="F38" s="338"/>
-      <c r="G38" s="345"/>
+      <c r="B38" s="346"/>
+      <c r="C38" s="351"/>
+      <c r="D38" s="340"/>
+      <c r="E38" s="340"/>
+      <c r="F38" s="340"/>
+      <c r="G38" s="352"/>
       <c r="H38" s="12">
         <f t="shared" si="8"/>
         <v>111.25</v>
@@ -43457,12 +43457,12 @@
       </c>
     </row>
     <row r="39" spans="2:24" ht="14.45" customHeight="1">
-      <c r="B39" s="333"/>
-      <c r="C39" s="344"/>
-      <c r="D39" s="338"/>
-      <c r="E39" s="338"/>
-      <c r="F39" s="338"/>
-      <c r="G39" s="345"/>
+      <c r="B39" s="346"/>
+      <c r="C39" s="351"/>
+      <c r="D39" s="340"/>
+      <c r="E39" s="340"/>
+      <c r="F39" s="340"/>
+      <c r="G39" s="352"/>
       <c r="H39" s="12">
         <f t="shared" si="8"/>
         <v>123.75</v>
@@ -43477,12 +43477,12 @@
       </c>
     </row>
     <row r="40" spans="2:24" ht="15" thickBot="1">
-      <c r="B40" s="337"/>
-      <c r="C40" s="346"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="348"/>
+      <c r="B40" s="347"/>
+      <c r="C40" s="353"/>
+      <c r="D40" s="354"/>
+      <c r="E40" s="354"/>
+      <c r="F40" s="354"/>
+      <c r="G40" s="355"/>
       <c r="H40" s="12">
         <f>D43+H22</f>
         <v>130</v>
@@ -43497,7 +43497,7 @@
       </c>
     </row>
     <row r="41" spans="2:24" ht="28.5">
-      <c r="B41" s="342" t="s">
+      <c r="B41" s="333" t="s">
         <v>191</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -43506,7 +43506,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="338"/>
+      <c r="B42" s="340"/>
       <c r="C42" s="1" t="s">
         <v>195</v>
       </c>
@@ -43527,7 +43527,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:24" ht="28.9" customHeight="1">
-      <c r="B43" s="338"/>
+      <c r="B43" s="340"/>
       <c r="C43" s="1" t="s">
         <v>205</v>
       </c>
@@ -43549,46 +43549,46 @@
       <c r="B44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="338" t="s">
+      <c r="C44" s="340" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="338"/>
-      <c r="E44" s="338"/>
-      <c r="F44" s="338"/>
-      <c r="G44" s="338"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="340"/>
+      <c r="F44" s="340"/>
+      <c r="G44" s="340"/>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="338" t="s">
+      <c r="B45" s="340" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="338"/>
+      <c r="B46" s="340"/>
     </row>
     <row r="47" spans="2:24" ht="15" thickBot="1">
-      <c r="B47" s="338"/>
+      <c r="B47" s="340"/>
     </row>
     <row r="48" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="K48" s="349" t="s">
+      <c r="K48" s="341" t="s">
         <v>207</v>
       </c>
-      <c r="L48" s="351"/>
-      <c r="W48" s="339" t="s">
+      <c r="L48" s="342"/>
+      <c r="W48" s="343" t="s">
         <v>207</v>
       </c>
-      <c r="X48" s="339"/>
+      <c r="X48" s="343"/>
     </row>
     <row r="49" spans="2:24" ht="15" thickBot="1">
       <c r="B49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="349" t="s">
+      <c r="C49" s="341" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="350"/>
-      <c r="E49" s="350"/>
-      <c r="F49" s="350"/>
-      <c r="G49" s="351"/>
+      <c r="D49" s="344"/>
+      <c r="E49" s="344"/>
+      <c r="F49" s="344"/>
+      <c r="G49" s="342"/>
       <c r="H49" s="51" t="s">
         <v>186</v>
       </c>
@@ -43607,13 +43607,13 @@
       <c r="N49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O49" s="349" t="s">
+      <c r="O49" s="341" t="s">
         <v>212</v>
       </c>
-      <c r="P49" s="350"/>
-      <c r="Q49" s="350"/>
-      <c r="R49" s="350"/>
-      <c r="S49" s="351"/>
+      <c r="P49" s="344"/>
+      <c r="Q49" s="344"/>
+      <c r="R49" s="344"/>
+      <c r="S49" s="342"/>
       <c r="T49" s="1" t="s">
         <v>186</v>
       </c>
@@ -43631,14 +43631,14 @@
       </c>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="332" t="s">
+      <c r="B50" s="345" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="330"/>
-      <c r="D50" s="343"/>
-      <c r="E50" s="343"/>
-      <c r="F50" s="343"/>
-      <c r="G50" s="331"/>
+      <c r="C50" s="348"/>
+      <c r="D50" s="349"/>
+      <c r="E50" s="349"/>
+      <c r="F50" s="349"/>
+      <c r="G50" s="350"/>
       <c r="H50" s="86">
         <f>($H$40-D68-D65)</f>
         <v>110</v>
@@ -43659,14 +43659,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N50" s="332" t="s">
+      <c r="N50" s="345" t="s">
         <v>214</v>
       </c>
-      <c r="O50" s="330"/>
-      <c r="P50" s="343"/>
-      <c r="Q50" s="343"/>
-      <c r="R50" s="343"/>
-      <c r="S50" s="331"/>
+      <c r="O50" s="348"/>
+      <c r="P50" s="349"/>
+      <c r="Q50" s="349"/>
+      <c r="R50" s="349"/>
+      <c r="S50" s="350"/>
       <c r="T50" s="12">
         <f>($H$40-P68-P65)</f>
         <v>110</v>
@@ -43685,12 +43685,12 @@
       </c>
     </row>
     <row r="51" spans="2:24">
-      <c r="B51" s="333"/>
-      <c r="C51" s="344"/>
-      <c r="D51" s="338"/>
-      <c r="E51" s="338"/>
-      <c r="F51" s="338"/>
-      <c r="G51" s="345"/>
+      <c r="B51" s="346"/>
+      <c r="C51" s="351"/>
+      <c r="D51" s="340"/>
+      <c r="E51" s="340"/>
+      <c r="F51" s="340"/>
+      <c r="G51" s="352"/>
       <c r="H51" s="86">
         <f>(H58-H50)/8/2+H50</f>
         <v>110.9375</v>
@@ -43710,12 +43710,12 @@
       <c r="L51" s="93">
         <v>3</v>
       </c>
-      <c r="N51" s="333"/>
-      <c r="O51" s="344"/>
-      <c r="P51" s="338"/>
-      <c r="Q51" s="338"/>
-      <c r="R51" s="338"/>
-      <c r="S51" s="345"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="351"/>
+      <c r="P51" s="340"/>
+      <c r="Q51" s="340"/>
+      <c r="R51" s="340"/>
+      <c r="S51" s="352"/>
       <c r="T51" s="1">
         <f>(T58-T50)/8/2+T50</f>
         <v>110.9375</v>
@@ -43736,12 +43736,12 @@
       </c>
     </row>
     <row r="52" spans="2:24">
-      <c r="B52" s="333"/>
-      <c r="C52" s="344"/>
-      <c r="D52" s="338"/>
-      <c r="E52" s="338"/>
-      <c r="F52" s="338"/>
-      <c r="G52" s="345"/>
+      <c r="B52" s="346"/>
+      <c r="C52" s="351"/>
+      <c r="D52" s="340"/>
+      <c r="E52" s="340"/>
+      <c r="F52" s="340"/>
+      <c r="G52" s="352"/>
       <c r="H52" s="86">
         <f t="shared" ref="H52:H57" si="13">($H$58-$H$50)/8+H51</f>
         <v>112.8125</v>
@@ -43762,12 +43762,12 @@
         <f>I51</f>
         <v>7.75</v>
       </c>
-      <c r="N52" s="333"/>
-      <c r="O52" s="344"/>
-      <c r="P52" s="338"/>
-      <c r="Q52" s="338"/>
-      <c r="R52" s="338"/>
-      <c r="S52" s="345"/>
+      <c r="N52" s="346"/>
+      <c r="O52" s="351"/>
+      <c r="P52" s="340"/>
+      <c r="Q52" s="340"/>
+      <c r="R52" s="340"/>
+      <c r="S52" s="352"/>
       <c r="T52" s="1">
         <f t="shared" ref="T52:T57" si="14">($H$58-$H$50)/8+T51</f>
         <v>112.8125</v>
@@ -43788,12 +43788,12 @@
       </c>
     </row>
     <row r="53" spans="2:24">
-      <c r="B53" s="333"/>
-      <c r="C53" s="344"/>
-      <c r="D53" s="338"/>
-      <c r="E53" s="338"/>
-      <c r="F53" s="338"/>
-      <c r="G53" s="345"/>
+      <c r="B53" s="346"/>
+      <c r="C53" s="351"/>
+      <c r="D53" s="340"/>
+      <c r="E53" s="340"/>
+      <c r="F53" s="340"/>
+      <c r="G53" s="352"/>
       <c r="H53" s="86">
         <f t="shared" si="13"/>
         <v>114.6875</v>
@@ -43814,12 +43814,12 @@
         <f t="shared" ref="L53:L57" si="16">I52</f>
         <v>15.25</v>
       </c>
-      <c r="N53" s="333"/>
-      <c r="O53" s="344"/>
-      <c r="P53" s="338"/>
-      <c r="Q53" s="338"/>
-      <c r="R53" s="338"/>
-      <c r="S53" s="345"/>
+      <c r="N53" s="346"/>
+      <c r="O53" s="351"/>
+      <c r="P53" s="340"/>
+      <c r="Q53" s="340"/>
+      <c r="R53" s="340"/>
+      <c r="S53" s="352"/>
       <c r="T53" s="1">
         <f t="shared" si="14"/>
         <v>114.6875</v>
@@ -43840,12 +43840,12 @@
       </c>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="333"/>
-      <c r="C54" s="344"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="351"/>
+      <c r="D54" s="340"/>
+      <c r="E54" s="340"/>
+      <c r="F54" s="340"/>
+      <c r="G54" s="352"/>
       <c r="H54" s="86">
         <f t="shared" si="13"/>
         <v>116.5625</v>
@@ -43866,12 +43866,12 @@
         <f t="shared" si="16"/>
         <v>22.75</v>
       </c>
-      <c r="N54" s="333"/>
-      <c r="O54" s="344"/>
-      <c r="P54" s="338"/>
-      <c r="Q54" s="338"/>
-      <c r="R54" s="338"/>
-      <c r="S54" s="345"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="351"/>
+      <c r="P54" s="340"/>
+      <c r="Q54" s="340"/>
+      <c r="R54" s="340"/>
+      <c r="S54" s="352"/>
       <c r="T54" s="1">
         <f t="shared" si="14"/>
         <v>116.5625</v>
@@ -43892,12 +43892,12 @@
       </c>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="333"/>
-      <c r="C55" s="344"/>
-      <c r="D55" s="338"/>
-      <c r="E55" s="338"/>
-      <c r="F55" s="338"/>
-      <c r="G55" s="345"/>
+      <c r="B55" s="346"/>
+      <c r="C55" s="351"/>
+      <c r="D55" s="340"/>
+      <c r="E55" s="340"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="352"/>
       <c r="H55" s="86">
         <f t="shared" si="13"/>
         <v>118.4375</v>
@@ -43918,12 +43918,12 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="N55" s="333"/>
-      <c r="O55" s="344"/>
-      <c r="P55" s="338"/>
-      <c r="Q55" s="338"/>
-      <c r="R55" s="338"/>
-      <c r="S55" s="345"/>
+      <c r="N55" s="346"/>
+      <c r="O55" s="351"/>
+      <c r="P55" s="340"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="340"/>
+      <c r="S55" s="352"/>
       <c r="T55" s="1">
         <f t="shared" si="14"/>
         <v>118.4375</v>
@@ -43944,12 +43944,12 @@
       </c>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="333"/>
-      <c r="C56" s="344"/>
-      <c r="D56" s="338"/>
-      <c r="E56" s="338"/>
-      <c r="F56" s="338"/>
-      <c r="G56" s="345"/>
+      <c r="B56" s="346"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="340"/>
+      <c r="E56" s="340"/>
+      <c r="F56" s="340"/>
+      <c r="G56" s="352"/>
       <c r="H56" s="86">
         <f t="shared" si="13"/>
         <v>120.3125</v>
@@ -43970,12 +43970,12 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="N56" s="333"/>
-      <c r="O56" s="344"/>
-      <c r="P56" s="338"/>
-      <c r="Q56" s="338"/>
-      <c r="R56" s="338"/>
-      <c r="S56" s="345"/>
+      <c r="N56" s="346"/>
+      <c r="O56" s="351"/>
+      <c r="P56" s="340"/>
+      <c r="Q56" s="340"/>
+      <c r="R56" s="340"/>
+      <c r="S56" s="352"/>
       <c r="T56" s="1">
         <f t="shared" si="14"/>
         <v>120.3125</v>
@@ -43996,12 +43996,12 @@
       </c>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="333"/>
-      <c r="C57" s="344"/>
-      <c r="D57" s="338"/>
-      <c r="E57" s="338"/>
-      <c r="F57" s="338"/>
-      <c r="G57" s="345"/>
+      <c r="B57" s="346"/>
+      <c r="C57" s="351"/>
+      <c r="D57" s="340"/>
+      <c r="E57" s="340"/>
+      <c r="F57" s="340"/>
+      <c r="G57" s="352"/>
       <c r="H57" s="86">
         <f t="shared" si="13"/>
         <v>122.1875</v>
@@ -44022,12 +44022,12 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="N57" s="333"/>
-      <c r="O57" s="344"/>
-      <c r="P57" s="338"/>
-      <c r="Q57" s="338"/>
-      <c r="R57" s="338"/>
-      <c r="S57" s="345"/>
+      <c r="N57" s="346"/>
+      <c r="O57" s="351"/>
+      <c r="P57" s="340"/>
+      <c r="Q57" s="340"/>
+      <c r="R57" s="340"/>
+      <c r="S57" s="352"/>
       <c r="T57" s="1">
         <f t="shared" si="14"/>
         <v>122.1875</v>
@@ -44048,12 +44048,12 @@
       </c>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="333"/>
-      <c r="C58" s="344"/>
-      <c r="D58" s="338"/>
-      <c r="E58" s="338"/>
-      <c r="F58" s="338"/>
-      <c r="G58" s="345"/>
+      <c r="B58" s="346"/>
+      <c r="C58" s="351"/>
+      <c r="D58" s="340"/>
+      <c r="E58" s="340"/>
+      <c r="F58" s="340"/>
+      <c r="G58" s="352"/>
       <c r="H58" s="86">
         <f>$H$50+D65</f>
         <v>125</v>
@@ -44074,12 +44074,12 @@
         <f>IF(((($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)&gt;($D$67+$I$40),($D$67+$I$40),(($D$67)/($D$65-$D$64))*(K58-$H$50)+$I$40)</f>
         <v>24</v>
       </c>
-      <c r="N58" s="333"/>
-      <c r="O58" s="344"/>
-      <c r="P58" s="338"/>
-      <c r="Q58" s="338"/>
-      <c r="R58" s="338"/>
-      <c r="S58" s="345"/>
+      <c r="N58" s="346"/>
+      <c r="O58" s="351"/>
+      <c r="P58" s="340"/>
+      <c r="Q58" s="340"/>
+      <c r="R58" s="340"/>
+      <c r="S58" s="352"/>
       <c r="T58" s="12">
         <f>$H$50+P65</f>
         <v>125</v>
@@ -44100,12 +44100,12 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="B59" s="337"/>
-      <c r="C59" s="352"/>
-      <c r="D59" s="353"/>
-      <c r="E59" s="353"/>
-      <c r="F59" s="353"/>
-      <c r="G59" s="354"/>
+      <c r="B59" s="347"/>
+      <c r="C59" s="356"/>
+      <c r="D59" s="357"/>
+      <c r="E59" s="357"/>
+      <c r="F59" s="357"/>
+      <c r="G59" s="358"/>
       <c r="H59" s="89">
         <f>H58</f>
         <v>125</v>
@@ -44126,12 +44126,12 @@
         <f>L50</f>
         <v>0</v>
       </c>
-      <c r="N59" s="337"/>
-      <c r="O59" s="346"/>
-      <c r="P59" s="347"/>
-      <c r="Q59" s="347"/>
-      <c r="R59" s="347"/>
-      <c r="S59" s="348"/>
+      <c r="N59" s="347"/>
+      <c r="O59" s="353"/>
+      <c r="P59" s="354"/>
+      <c r="Q59" s="354"/>
+      <c r="R59" s="354"/>
+      <c r="S59" s="355"/>
       <c r="T59" s="12">
         <f>T58</f>
         <v>125</v>
@@ -44146,7 +44146,7 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B60" s="355" t="s">
+      <c r="B60" s="359" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="82" t="s">
@@ -44166,11 +44166,11 @@
       <c r="G60" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="360" t="s">
+      <c r="H60" s="334" t="s">
         <v>218</v>
       </c>
-      <c r="I60" s="361"/>
-      <c r="J60" s="362"/>
+      <c r="I60" s="335"/>
+      <c r="J60" s="336"/>
       <c r="K60" s="82" t="s">
         <v>219</v>
       </c>
@@ -44178,7 +44178,7 @@
         <f>K67^2/K68</f>
         <v>1.1707317073170729</v>
       </c>
-      <c r="N60" s="342" t="s">
+      <c r="N60" s="333" t="s">
         <v>191</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -44186,7 +44186,7 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B61" s="356"/>
+      <c r="B61" s="360"/>
       <c r="C61" s="81" t="s">
         <v>221</v>
       </c>
@@ -44197,15 +44197,15 @@
       <c r="E61" s="78"/>
       <c r="F61" s="61"/>
       <c r="G61" s="62"/>
-      <c r="H61" s="363"/>
-      <c r="I61" s="364"/>
-      <c r="J61" s="365"/>
+      <c r="H61" s="337"/>
+      <c r="I61" s="338"/>
+      <c r="J61" s="339"/>
       <c r="K61" s="81"/>
       <c r="L61" s="62"/>
-      <c r="N61" s="342"/>
+      <c r="N61" s="333"/>
     </row>
     <row r="62" spans="2:24" ht="27.6" customHeight="1">
-      <c r="B62" s="356"/>
+      <c r="B62" s="360"/>
       <c r="C62" s="80" t="s">
         <v>222</v>
       </c>
@@ -44223,10 +44223,10 @@
         <v>225</v>
       </c>
       <c r="L62" s="59"/>
-      <c r="N62" s="342"/>
+      <c r="N62" s="333"/>
     </row>
     <row r="63" spans="2:24" ht="27.6" customHeight="1">
-      <c r="B63" s="356"/>
+      <c r="B63" s="360"/>
       <c r="C63" s="80" t="s">
         <v>226</v>
       </c>
@@ -44243,10 +44243,10 @@
         <v>15</v>
       </c>
       <c r="L63" s="59"/>
-      <c r="N63" s="342"/>
+      <c r="N63" s="333"/>
     </row>
     <row r="64" spans="2:24">
-      <c r="B64" s="357"/>
+      <c r="B64" s="361"/>
       <c r="C64" s="77" t="s">
         <v>229</v>
       </c>
@@ -44281,7 +44281,7 @@
       <c r="L64" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="N64" s="342"/>
+      <c r="N64" s="333"/>
       <c r="O64" s="1" t="s">
         <v>229</v>
       </c>
@@ -44301,7 +44301,7 @@
       </c>
     </row>
     <row r="65" spans="2:19">
-      <c r="B65" s="358"/>
+      <c r="B65" s="362"/>
       <c r="C65" s="77" t="s">
         <v>230</v>
       </c>
@@ -44336,7 +44336,7 @@
       <c r="L65" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="N65" s="338"/>
+      <c r="N65" s="340"/>
       <c r="O65" s="1" t="s">
         <v>230</v>
       </c>
@@ -44356,7 +44356,7 @@
       </c>
     </row>
     <row r="66" spans="2:19">
-      <c r="B66" s="358"/>
+      <c r="B66" s="362"/>
       <c r="C66" s="77" t="s">
         <v>231</v>
       </c>
@@ -44382,10 +44382,10 @@
         <v>0.32258064516129015</v>
       </c>
       <c r="L66" s="59"/>
-      <c r="N66" s="338"/>
+      <c r="N66" s="340"/>
     </row>
     <row r="67" spans="2:19">
-      <c r="B67" s="358"/>
+      <c r="B67" s="362"/>
       <c r="C67" s="77" t="s">
         <v>232</v>
       </c>
@@ -44420,7 +44420,7 @@
       <c r="L67" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="N67" s="338"/>
+      <c r="N67" s="340"/>
       <c r="O67" s="1" t="s">
         <v>232</v>
       </c>
@@ -44440,7 +44440,7 @@
       </c>
     </row>
     <row r="68" spans="2:19" ht="29.25" thickBot="1">
-      <c r="B68" s="359"/>
+      <c r="B68" s="363"/>
       <c r="C68" s="78" t="s">
         <v>234</v>
       </c>
@@ -44474,7 +44474,7 @@
       <c r="L68" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="N68" s="338"/>
+      <c r="N68" s="340"/>
       <c r="O68" s="1" t="s">
         <v>234</v>
       </c>
@@ -44496,26 +44496,26 @@
       <c r="B69" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="342" t="s">
+      <c r="C69" s="333" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="342"/>
-      <c r="E69" s="342"/>
-      <c r="F69" s="342"/>
-      <c r="G69" s="342"/>
+      <c r="D69" s="333"/>
+      <c r="E69" s="333"/>
+      <c r="F69" s="333"/>
+      <c r="G69" s="333"/>
       <c r="N69" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O69" s="338" t="s">
+      <c r="O69" s="340" t="s">
         <v>238</v>
       </c>
-      <c r="P69" s="338"/>
-      <c r="Q69" s="338"/>
-      <c r="R69" s="338"/>
-      <c r="S69" s="338"/>
+      <c r="P69" s="340"/>
+      <c r="Q69" s="340"/>
+      <c r="R69" s="340"/>
+      <c r="S69" s="340"/>
     </row>
     <row r="70" spans="2:19">
-      <c r="B70" s="338" t="s">
+      <c r="B70" s="340" t="s">
         <v>201</v>
       </c>
       <c r="C70" s="66"/>
@@ -44523,24 +44523,24 @@
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="94"/>
-      <c r="N70" s="338" t="s">
+      <c r="N70" s="340" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="2:19">
-      <c r="B71" s="338"/>
+      <c r="B71" s="340"/>
       <c r="C71" s="67"/>
       <c r="G71" s="95"/>
-      <c r="N71" s="338"/>
+      <c r="N71" s="340"/>
     </row>
     <row r="72" spans="2:19">
-      <c r="B72" s="338"/>
+      <c r="B72" s="340"/>
       <c r="C72" s="68"/>
       <c r="D72" s="69"/>
       <c r="E72" s="69"/>
       <c r="F72" s="69"/>
       <c r="G72" s="96"/>
-      <c r="N72" s="338"/>
+      <c r="N72" s="340"/>
     </row>
     <row r="73" spans="2:19" ht="15" thickBot="1"/>
     <row r="74" spans="2:19" ht="15" thickBot="1">
@@ -44664,14 +44664,14 @@
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="332" t="s">
+      <c r="B88" s="345" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="330"/>
-      <c r="D88" s="343"/>
-      <c r="E88" s="343"/>
-      <c r="F88" s="343"/>
-      <c r="G88" s="331"/>
+      <c r="C88" s="348"/>
+      <c r="D88" s="349"/>
+      <c r="E88" s="349"/>
+      <c r="F88" s="349"/>
+      <c r="G88" s="350"/>
       <c r="H88" s="11">
         <f>H40</f>
         <v>130</v>
@@ -44686,12 +44686,12 @@
       </c>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="333"/>
-      <c r="C89" s="344"/>
-      <c r="D89" s="338"/>
-      <c r="E89" s="338"/>
-      <c r="F89" s="338"/>
-      <c r="G89" s="345"/>
+      <c r="B89" s="346"/>
+      <c r="C89" s="351"/>
+      <c r="D89" s="340"/>
+      <c r="E89" s="340"/>
+      <c r="F89" s="340"/>
+      <c r="G89" s="352"/>
       <c r="H89" s="11">
         <f>($D$100/8/2)+H88</f>
         <v>130.5</v>
@@ -44706,12 +44706,12 @@
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="333"/>
-      <c r="C90" s="344"/>
-      <c r="D90" s="338"/>
-      <c r="E90" s="338"/>
-      <c r="F90" s="338"/>
-      <c r="G90" s="345"/>
+      <c r="B90" s="346"/>
+      <c r="C90" s="351"/>
+      <c r="D90" s="340"/>
+      <c r="E90" s="340"/>
+      <c r="F90" s="340"/>
+      <c r="G90" s="352"/>
       <c r="H90" s="11">
         <f>($D$100/8)+H89</f>
         <v>131.5</v>
@@ -44726,12 +44726,12 @@
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="333"/>
-      <c r="C91" s="344"/>
-      <c r="D91" s="338"/>
-      <c r="E91" s="338"/>
-      <c r="F91" s="338"/>
-      <c r="G91" s="345"/>
+      <c r="B91" s="346"/>
+      <c r="C91" s="351"/>
+      <c r="D91" s="340"/>
+      <c r="E91" s="340"/>
+      <c r="F91" s="340"/>
+      <c r="G91" s="352"/>
       <c r="H91" s="11">
         <f t="shared" ref="H91:H96" si="22">($D$100/8)+H90</f>
         <v>132.5</v>
@@ -44746,12 +44746,12 @@
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="333"/>
-      <c r="C92" s="344"/>
-      <c r="D92" s="338"/>
-      <c r="E92" s="338"/>
-      <c r="F92" s="338"/>
-      <c r="G92" s="345"/>
+      <c r="B92" s="346"/>
+      <c r="C92" s="351"/>
+      <c r="D92" s="340"/>
+      <c r="E92" s="340"/>
+      <c r="F92" s="340"/>
+      <c r="G92" s="352"/>
       <c r="H92" s="11">
         <f t="shared" si="22"/>
         <v>133.5</v>
@@ -44766,12 +44766,12 @@
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="333"/>
-      <c r="C93" s="344"/>
-      <c r="D93" s="338"/>
-      <c r="E93" s="338"/>
-      <c r="F93" s="338"/>
-      <c r="G93" s="345"/>
+      <c r="B93" s="346"/>
+      <c r="C93" s="351"/>
+      <c r="D93" s="340"/>
+      <c r="E93" s="340"/>
+      <c r="F93" s="340"/>
+      <c r="G93" s="352"/>
       <c r="H93" s="11">
         <f t="shared" si="22"/>
         <v>134.5</v>
@@ -44786,12 +44786,12 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="333"/>
-      <c r="C94" s="344"/>
-      <c r="D94" s="338"/>
-      <c r="E94" s="338"/>
-      <c r="F94" s="338"/>
-      <c r="G94" s="345"/>
+      <c r="B94" s="346"/>
+      <c r="C94" s="351"/>
+      <c r="D94" s="340"/>
+      <c r="E94" s="340"/>
+      <c r="F94" s="340"/>
+      <c r="G94" s="352"/>
       <c r="H94" s="11">
         <f t="shared" si="22"/>
         <v>135.5</v>
@@ -44806,12 +44806,12 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="333"/>
-      <c r="C95" s="344"/>
-      <c r="D95" s="338"/>
-      <c r="E95" s="338"/>
-      <c r="F95" s="338"/>
-      <c r="G95" s="345"/>
+      <c r="B95" s="346"/>
+      <c r="C95" s="351"/>
+      <c r="D95" s="340"/>
+      <c r="E95" s="340"/>
+      <c r="F95" s="340"/>
+      <c r="G95" s="352"/>
       <c r="H95" s="11">
         <f t="shared" si="22"/>
         <v>136.5</v>
@@ -44826,12 +44826,12 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="333"/>
-      <c r="C96" s="344"/>
-      <c r="D96" s="338"/>
-      <c r="E96" s="338"/>
-      <c r="F96" s="338"/>
-      <c r="G96" s="345"/>
+      <c r="B96" s="346"/>
+      <c r="C96" s="351"/>
+      <c r="D96" s="340"/>
+      <c r="E96" s="340"/>
+      <c r="F96" s="340"/>
+      <c r="G96" s="352"/>
       <c r="H96" s="11">
         <f t="shared" si="22"/>
         <v>137.5</v>
@@ -44846,12 +44846,12 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" thickBot="1">
-      <c r="B97" s="337"/>
-      <c r="C97" s="346"/>
-      <c r="D97" s="347"/>
-      <c r="E97" s="347"/>
-      <c r="F97" s="347"/>
-      <c r="G97" s="348"/>
+      <c r="B97" s="347"/>
+      <c r="C97" s="353"/>
+      <c r="D97" s="354"/>
+      <c r="E97" s="354"/>
+      <c r="F97" s="354"/>
+      <c r="G97" s="355"/>
       <c r="H97" s="11">
         <f>D100+H88</f>
         <v>138</v>
@@ -44866,7 +44866,7 @@
       </c>
     </row>
     <row r="98" spans="2:10" ht="28.5">
-      <c r="B98" s="342" t="s">
+      <c r="B98" s="333" t="s">
         <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -44889,7 +44889,7 @@
       </c>
     </row>
     <row r="99" spans="2:10" ht="28.5">
-      <c r="B99" s="338"/>
+      <c r="B99" s="340"/>
       <c r="C99" s="1" t="s">
         <v>248</v>
       </c>
@@ -44909,7 +44909,7 @@
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="338"/>
+      <c r="B100" s="340"/>
       <c r="C100" s="1" t="s">
         <v>205</v>
       </c>
@@ -44931,49 +44931,27 @@
       <c r="B101" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="338" t="s">
+      <c r="C101" s="340" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="338"/>
-      <c r="E101" s="338"/>
-      <c r="F101" s="338"/>
-      <c r="G101" s="338"/>
+      <c r="D101" s="340"/>
+      <c r="E101" s="340"/>
+      <c r="F101" s="340"/>
+      <c r="G101" s="340"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="338" t="s">
+      <c r="B102" s="340" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="338"/>
+      <c r="B103" s="340"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="338"/>
+      <c r="B104" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="H60:J61"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="O49:S49"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="O50:S59"/>
-    <mergeCell ref="N60:N68"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="C50:G59"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C88:G97"/>
-    <mergeCell ref="B98:B100"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:B22"/>
     <mergeCell ref="C12:G12"/>
@@ -44987,6 +44965,28 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:G40"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="C50:G59"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C88:G97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="O50:S59"/>
+    <mergeCell ref="N60:N68"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="H60:J61"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" display="https://www.youtube.com/watch?v=-05AlwGI7Jo"/>
@@ -55776,8 +55776,8 @@
   <dimension ref="A1:L263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -60164,26 +60164,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
+</scriptIds>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006416C8A108E61840AFB84A4598B73E55" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1d8d0092a91b491fa162699921cd7b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5cf7016-d570-4e66-bed5-9c66354e4d60" xmlns:ns3="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc769dae83c42ca581dc5110a4ef7ce3" ns2:_="" ns3:_="">
     <xsd:import namespace="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
@@ -60390,38 +60376,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7929c02-2ff7-4e2f-b3f4-5d7437463a37" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f5cf7016-d570-4e66-bed5-9c66354e4d60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TZZHJOP2CWSL3XUZNNHKHVGU4KCQQGAX:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly91YW5sZWR1LW15LnNoYXJlcG9pbnQuY29tLzp1Oi9nL3BlcnNvbmFsL2p1YW5fdmFsYWRlem9fdWFubF9lZHVfbXgvRWZvVnBMM2VtV3RPbzlUVTRvVUlHQmNCRlJyQnlnX2V0OW1LWVd3VTNFU3NaUQ"/>
-</scriptIds>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
-    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BA7C14-35B6-43AC-B57B-4A5107295D21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60440,10 +60423,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42FDC09-86A2-4A8D-9C5A-BD852817852F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d7929c02-2ff7-4e2f-b3f4-5d7437463a37"/>
+    <ds:schemaRef ds:uri="f5cf7016-d570-4e66-bed5-9c66354e4d60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE15861E-CBEF-4CC0-85FE-9F52CCE55DFF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D345C14D-6BDC-44A0-B15C-89E893AF066E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>